--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,10 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="余额宝" sheetId="7" r:id="rId2"/>
+    <sheet name="分红统计" sheetId="5" r:id="rId3"/>
+    <sheet name="投资者权益表" sheetId="6" r:id="rId4"/>
+    <sheet name="ETF资产统计表" sheetId="2" r:id="rId5"/>
+    <sheet name="打包资产统计" sheetId="3" r:id="rId6"/>
+    <sheet name="资产表" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>黄金基金</t>
   </si>
@@ -106,6 +112,264 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>gu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每份净值</t>
+    <rPh sb="0" eb="1">
+      <t>mei'fen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>份数</t>
+    <rPh sb="0" eb="1">
+      <t>fen'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>估值</t>
+    <rPh sb="0" eb="1">
+      <t>gu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始估值</t>
+    <rPh sb="0" eb="1">
+      <t>qi'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈亏</t>
+    <rPh sb="0" eb="1">
+      <t>ying'kui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160608估值</t>
+    <rPh sb="8" eb="9">
+      <t>gu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160620估值</t>
+    <rPh sb="8" eb="9">
+      <t>gu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易黄金ETF联接（000307）</t>
+  </si>
+  <si>
+    <t>易国防军工（001475）</t>
+  </si>
+  <si>
+    <t>华安石油</t>
+    <rPh sb="0" eb="1">
+      <t>hua'an'shi'you</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝油气</t>
+    <rPh sb="0" eb="1">
+      <t>hua'bao'you'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红</t>
+    <rPh sb="0" eb="1">
+      <t>fen'hong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初资产总计</t>
+    <rPh sb="0" eb="1">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>chu'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'chan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zong'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末基线资产</t>
+    <rPh sb="0" eb="1">
+      <t>qi'mo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'chan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资</t>
+    <rPh sb="0" eb="1">
+      <t>tou'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资人</t>
+    <rPh sb="0" eb="1">
+      <t>tou'zi'ren</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初资产</t>
+    <rPh sb="0" eb="1">
+      <t>qi'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'chan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资行为</t>
+    <rPh sb="0" eb="1">
+      <t>tou'zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing'wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末资产</t>
+    <rPh sb="0" eb="1">
+      <t>qi'mo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'chan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红利权益</t>
+    <rPh sb="0" eb="1">
+      <t>hong'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan'yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总</t>
+    <rPh sb="0" eb="1">
+      <t>zong'zi'chan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资前资产</t>
+    <rPh sb="0" eb="1">
+      <t>tou'zi'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'chan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资后资产</t>
+    <rPh sb="0" eb="1">
+      <t>tou'zi'hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'chan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额宝</t>
+    <rPh sb="0" eb="1">
+      <t>yu'e'bao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160612估值</t>
+    <rPh sb="8" eb="9">
+      <t>gu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总额</t>
+    <rPh sb="0" eb="1">
+      <t>zong'e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资项目</t>
+    <rPh sb="0" eb="1">
+      <t>tou'zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易H股ETF联接（110031）</t>
+  </si>
+  <si>
+    <t>总计</t>
+    <rPh sb="0" eb="1">
+      <t>zong'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占比</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'bi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总</t>
+    <rPh sb="0" eb="1">
+      <t>zong</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -114,11 +378,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.000_ ;[Red]\-#,##0.000\ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,7 +409,31 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Microsoft YaHei"/>
-      <charset val="161"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ヒラギノ角ゴ Pro W3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,7 +444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -162,13 +452,188 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -189,15 +654,90 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -474,38 +1014,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:10" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:10" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>20160512</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>20160609</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
         <v>2016</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -515,10 +1055,10 @@
       <c r="D8" s="1">
         <v>60000</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>61605.25</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -530,10 +1070,10 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>321.05</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -545,10 +1085,10 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>61391.22</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -562,10 +1102,10 @@
       <c r="D11" s="1">
         <v>20000</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>20535.07</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -579,10 +1119,10 @@
       <c r="D12" s="1">
         <v>40000</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>40856.129999999997</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -593,10 +1133,10 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>107</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -607,10 +1147,10 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -621,10 +1161,10 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>214.03</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -635,10 +1175,10 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -656,20 +1196,22 @@
       <c r="E17" s="11">
         <v>7013.3</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="9">
+        <v>7058.1</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
@@ -684,20 +1226,20 @@
       <c r="E19" s="11">
         <v>10623.79</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
@@ -712,20 +1254,20 @@
       <c r="E21" s="11">
         <v>10065.91</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
@@ -740,20 +1282,20 @@
       <c r="E23" s="11">
         <v>10809.31</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
@@ -768,20 +1310,20 @@
       <c r="E25" s="11">
         <v>1053.7</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
@@ -796,24 +1338,24 @@
       <c r="E27" s="11">
         <v>21825.21</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="32" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
@@ -825,13 +1367,13 @@
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="2:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="2:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="41" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
@@ -882,13 +1424,920 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="13"/>
+    <col min="4" max="4" width="20.83203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="14">
+        <v>20160712</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="13">
+        <v>21825.21</v>
+      </c>
+      <c r="E6" s="13">
+        <f>D6+F6</f>
+        <v>21864.674763287669</v>
+      </c>
+      <c r="F6" s="13">
+        <f>D6*0.022/365*30</f>
+        <v>39.464763287671232</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="13">
+        <f>E11+G11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
+        <f>E11*0.022/365*30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F13" s="13">
+        <v>21864.674763287669</v>
+      </c>
+      <c r="G13" s="13">
+        <v>39.464763287671232</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>201605</v>
+      </c>
+      <c r="D5">
+        <v>21606</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <v>60000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="D7" s="4">
+        <v>61605.25</v>
+      </c>
+      <c r="E7">
+        <v>321.05</v>
+      </c>
+      <c r="F7" s="19">
+        <f>D7-E7</f>
+        <v>61284.2</v>
+      </c>
+      <c r="G7">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Q15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="13"/>
+    <col min="2" max="2" width="10.83203125" style="15"/>
+    <col min="3" max="5" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="15.6640625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="13" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C4" s="14">
+        <v>201605</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="26">
+        <v>20160608</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="37">
+        <v>20160712</v>
+      </c>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="28"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>216</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0</v>
+      </c>
+      <c r="D6" s="20">
+        <v>40000</v>
+      </c>
+      <c r="E6" s="20">
+        <v>40000</v>
+      </c>
+      <c r="F6" s="31">
+        <f>F8/3*2</f>
+        <v>41070.166666666664</v>
+      </c>
+      <c r="G6" s="25">
+        <f>F6/F8</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H6" s="25">
+        <f>F6-E6</f>
+        <v>1070.1666666666642</v>
+      </c>
+      <c r="I6" s="25">
+        <f>H6*0.2</f>
+        <v>214.03333333333285</v>
+      </c>
+      <c r="J6" s="25">
+        <v>-214.03</v>
+      </c>
+      <c r="K6" s="25">
+        <f>F6+J6</f>
+        <v>40856.136666666665</v>
+      </c>
+      <c r="L6" s="32">
+        <f>K6/K8</f>
+        <v>0.66434665371886636</v>
+      </c>
+      <c r="M6" s="39">
+        <v>40856.137000000002</v>
+      </c>
+      <c r="N6" s="25">
+        <f>M6-K6</f>
+        <v>3.3333333703922108E-4</v>
+      </c>
+      <c r="O6" s="25">
+        <f>N6*0.2</f>
+        <v>6.6666667407844216E-5</v>
+      </c>
+      <c r="P6" s="25">
+        <v>-214.03</v>
+      </c>
+      <c r="Q6" s="32">
+        <f>M6+P6</f>
+        <v>40642.107000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="20">
+        <v>20000</v>
+      </c>
+      <c r="F7" s="31">
+        <f>F8/3</f>
+        <v>20535.083333333332</v>
+      </c>
+      <c r="G7" s="25">
+        <f>F7/F8</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H7" s="25">
+        <f>F7-E7</f>
+        <v>535.08333333333212</v>
+      </c>
+      <c r="I7" s="25">
+        <f t="shared" ref="I7:I8" si="0">H7*0.2</f>
+        <v>107.01666666666642</v>
+      </c>
+      <c r="J7" s="25">
+        <v>107</v>
+      </c>
+      <c r="K7" s="25">
+        <f>F7+J7</f>
+        <v>20642.083333333332</v>
+      </c>
+      <c r="L7" s="32">
+        <f>K7/K8</f>
+        <v>0.33565334628113352</v>
+      </c>
+      <c r="M7" s="39">
+        <v>20642.082999999999</v>
+      </c>
+      <c r="N7" s="25">
+        <f>M7-K7</f>
+        <v>-3.3333333340124227E-4</v>
+      </c>
+      <c r="O7" s="25">
+        <f t="shared" ref="O7:O8" si="1">N7*0.2</f>
+        <v>-6.6666666680248457E-5</v>
+      </c>
+      <c r="P7" s="25">
+        <v>107</v>
+      </c>
+      <c r="Q7" s="32">
+        <f>M7+P7</f>
+        <v>20749.082999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21">
+        <v>60000</v>
+      </c>
+      <c r="F8" s="33">
+        <v>61605.25</v>
+      </c>
+      <c r="G8" s="41">
+        <v>1</v>
+      </c>
+      <c r="H8" s="34">
+        <f>F8-E8</f>
+        <v>1605.25</v>
+      </c>
+      <c r="I8" s="34">
+        <f t="shared" si="0"/>
+        <v>321.05</v>
+      </c>
+      <c r="J8" s="34">
+        <f>J6+J7</f>
+        <v>-107.03</v>
+      </c>
+      <c r="K8" s="34">
+        <f>K6+K7</f>
+        <v>61498.22</v>
+      </c>
+      <c r="L8" s="35">
+        <v>1</v>
+      </c>
+      <c r="M8" s="40">
+        <f>M6+M7</f>
+        <v>61498.22</v>
+      </c>
+      <c r="N8" s="34">
+        <f>M8-K8</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="34">
+        <f>P6+P7</f>
+        <v>-107.03</v>
+      </c>
+      <c r="Q8" s="35">
+        <f>Q6+Q7</f>
+        <v>61391.19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="36"/>
+      <c r="C11" s="27">
+        <v>20160608</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="43"/>
+      <c r="C12" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="43">
+        <v>216</v>
+      </c>
+      <c r="C13" s="25">
+        <f>C15/3*2</f>
+        <v>41070.166666666664</v>
+      </c>
+      <c r="D13" s="25">
+        <f>C13/C15</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E13" s="25">
+        <f>C13-E6</f>
+        <v>1070.1666666666642</v>
+      </c>
+      <c r="F13" s="25">
+        <f>E13*0.2</f>
+        <v>214.03333333333285</v>
+      </c>
+      <c r="G13" s="25">
+        <v>-214.03</v>
+      </c>
+      <c r="H13" s="25">
+        <f>C13+G13</f>
+        <v>40856.136666666665</v>
+      </c>
+      <c r="I13" s="32">
+        <f>H13/H15</f>
+        <v>0.66434665371886636</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="25">
+        <f>C15/3</f>
+        <v>20535.083333333332</v>
+      </c>
+      <c r="D14" s="25">
+        <f>C14/C15</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E14" s="25">
+        <f>C14-E7</f>
+        <v>535.08333333333212</v>
+      </c>
+      <c r="F14" s="25">
+        <f t="shared" ref="F14:F15" si="2">E14*0.2</f>
+        <v>107.01666666666642</v>
+      </c>
+      <c r="G14" s="25">
+        <v>107</v>
+      </c>
+      <c r="H14" s="25">
+        <f>C14+G14</f>
+        <v>20642.083333333332</v>
+      </c>
+      <c r="I14" s="32">
+        <f>H14/H15</f>
+        <v>0.33565334628113352</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="41">
+        <v>61605.25</v>
+      </c>
+      <c r="D15" s="41">
+        <v>1</v>
+      </c>
+      <c r="E15" s="34">
+        <f>C15-E8</f>
+        <v>1605.25</v>
+      </c>
+      <c r="F15" s="34">
+        <f t="shared" si="2"/>
+        <v>321.05</v>
+      </c>
+      <c r="G15" s="34">
+        <f>G13+G14</f>
+        <v>-107.03</v>
+      </c>
+      <c r="H15" s="34">
+        <f>H13+H14</f>
+        <v>61498.22</v>
+      </c>
+      <c r="I15" s="35">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="F4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="13"/>
+    <col min="2" max="2" width="31.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="13" customWidth="1"/>
+    <col min="9" max="11" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="13" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14">
+        <v>20160712</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="12">
+        <v>11866.62</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.8427</v>
+      </c>
+      <c r="E5" s="13">
+        <f>C5*D5</f>
+        <v>10000.000674000001</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.8972</v>
+      </c>
+      <c r="H5" s="13">
+        <f>C5*G5</f>
+        <v>10646.731464</v>
+      </c>
+      <c r="I5" s="13">
+        <f>H5-E5</f>
+        <v>646.73078999999962</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.88629999999999998</v>
+      </c>
+      <c r="K5" s="13">
+        <f>J5*C5</f>
+        <v>10517.385306</v>
+      </c>
+      <c r="L5" s="13">
+        <f>K5-E5</f>
+        <v>517.38463199999933</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="15"/>
+    <col min="2" max="2" width="43.1640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="15"/>
+    <col min="4" max="4" width="13.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="18">
+        <v>7000</v>
+      </c>
+      <c r="D6" s="18">
+        <v>7013.3</v>
+      </c>
+      <c r="E6" s="18">
+        <f>D6-C6</f>
+        <v>13.300000000000182</v>
+      </c>
+      <c r="F6" s="18">
+        <v>7220</v>
+      </c>
+      <c r="G6" s="18">
+        <f>F6-C6</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1053.7</v>
+      </c>
+      <c r="E7" s="18">
+        <f>D7-C7</f>
+        <v>53.700000000000045</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1090.69</v>
+      </c>
+      <c r="G7" s="15">
+        <f>F7-C7</f>
+        <v>90.690000000000055</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="15">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="15">
+        <v>10065.91</v>
+      </c>
+      <c r="E8" s="18">
+        <f>D8-C8</f>
+        <v>65.909999999999854</v>
+      </c>
+      <c r="F8" s="15">
+        <v>9846.83</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" ref="G8:G9" si="0">F8-C8</f>
+        <v>-153.17000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="15">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="15">
+        <v>10623.79</v>
+      </c>
+      <c r="E9" s="18">
+        <f>D9-C9</f>
+        <v>623.79000000000087</v>
+      </c>
+      <c r="F9" s="15">
+        <v>9968.65</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="0"/>
+        <v>-31.350000000000364</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="16"/>
+    <col min="3" max="3" width="31.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="14">
+        <v>20160712</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="13">
+        <v>21864.674763287669</v>
+      </c>
+      <c r="E9" s="13">
+        <v>39.464763287671232</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,16 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="余额宝" sheetId="7" r:id="rId2"/>
-    <sheet name="分红统计" sheetId="5" r:id="rId3"/>
-    <sheet name="投资者权益表" sheetId="6" r:id="rId4"/>
-    <sheet name="ETF资产统计表" sheetId="2" r:id="rId5"/>
-    <sheet name="打包资产统计" sheetId="3" r:id="rId6"/>
-    <sheet name="资产表" sheetId="4" r:id="rId7"/>
+    <sheet name="投资者权益表" sheetId="6" r:id="rId3"/>
+    <sheet name="易H股ETF联接（110031）" sheetId="2" r:id="rId4"/>
+    <sheet name="打包资产统计" sheetId="3" r:id="rId5"/>
+    <sheet name="资产结构" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t>黄金基金</t>
   </si>
@@ -164,13 +163,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20160620估值</t>
-    <rPh sb="8" eb="9">
-      <t>gu'zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>易黄金ETF联接（000307）</t>
   </si>
   <si>
@@ -191,67 +183,33 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>分红</t>
-    <rPh sb="0" eb="1">
-      <t>fen'hong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>期初资产总计</t>
-    <rPh sb="0" eb="1">
-      <t>qi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>chu'ji</t>
+    <t>Rand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初资产</t>
+    <rPh sb="0" eb="1">
+      <t>qi'chu</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>zi'chan</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>zong'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>期末基线资产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资行为</t>
+    <rPh sb="0" eb="1">
+      <t>tou'zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing'wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末资产</t>
     <rPh sb="0" eb="1">
       <t>qi'mo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'xian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zi'chan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资</t>
-    <rPh sb="0" eb="1">
-      <t>tou'zi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资人</t>
-    <rPh sb="0" eb="1">
-      <t>tou'zi'ren</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>期初资产</t>
-    <rPh sb="0" eb="1">
-      <t>qi'chu</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>zi'chan</t>
@@ -259,26 +217,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>投资行为</t>
-    <rPh sb="0" eb="1">
-      <t>tou'zi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xing'wei</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>期末资产</t>
-    <rPh sb="0" eb="1">
-      <t>qi'mo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zi'chan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>红利权益</t>
     <rPh sb="0" eb="1">
       <t>hong'li</t>
@@ -292,29 +230,6 @@
     <t>总</t>
     <rPh sb="0" eb="1">
       <t>zong'zi'chan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资前资产</t>
-    <rPh sb="0" eb="1">
-      <t>tou'zi'qian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qian</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zi'chan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资后资产</t>
-    <rPh sb="0" eb="1">
-      <t>tou'zi'hou</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zi'chan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -340,36 +255,211 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>投资项目</t>
-    <rPh sb="0" eb="1">
-      <t>tou'zi</t>
+    <t>易H股ETF联接（110031）</t>
+  </si>
+  <si>
+    <t>占比</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'bi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总</t>
+    <rPh sb="0" eb="1">
+      <t>zong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月盈亏</t>
+    <rPh sb="0" eb="1">
+      <t>dang'yue</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>xiang'mu</t>
+      <t>ying'kui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总盈亏</t>
+    <rPh sb="0" eb="1">
+      <t>zong'ying'kui</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>易H股ETF联接（110031）</t>
-  </si>
-  <si>
-    <t>总计</t>
-    <rPh sb="0" eb="1">
-      <t>zong'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>占比</t>
-    <rPh sb="0" eb="1">
-      <t>zhan'bi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易H股ETF联接（110031）估值 20160608</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160621估值</t>
+    <rPh sb="8" eb="9">
+      <t>gu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总盈亏</t>
     <rPh sb="0" eb="1">
       <t>zong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ying'kui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总估值</t>
+    <rPh sb="0" eb="1">
+      <t>zong'gu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计估值</t>
+    <rPh sb="0" eb="1">
+      <t>he'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计总盈亏</t>
+    <rPh sb="0" eb="1">
+      <t>he'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ying'kui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计当月盈亏</t>
+    <rPh sb="0" eb="1">
+      <t>he'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dang'yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ying'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计现金分红</t>
+    <rPh sb="0" eb="1">
+      <t>lei'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian'jin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'hong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金分红</t>
+    <rPh sb="0" eb="1">
+      <t>xian'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'hong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计收益</t>
+    <rPh sb="0" eb="1">
+      <t>lei'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou'yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日资产</t>
+    <rPh sb="0" eb="1">
+      <t>dang'ri</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'chan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红后资产</t>
+    <rPh sb="0" eb="1">
+      <t>fen'hong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'chan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额宝</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>e</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <rPh sb="0" eb="1">
+      <t>he'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易H股ETF联接（110031）估值 20160622</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160622估值</t>
+    <rPh sb="8" eb="9">
+      <t>gu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计收益率</t>
+    <rPh sb="0" eb="1">
+      <t>lei'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou'yi'lv</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月收益率</t>
+    <rPh sb="0" eb="1">
+      <t>dang'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou'yi'lv</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -382,9 +472,9 @@
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0.000_ ;[Red]\-#,##0.000\ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.000_ ;[Red]\-#,##0.000\ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -435,16 +525,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="ヒラギノ角ゴ Pro W3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ヒラギノ角ゴ Pro W3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -592,7 +701,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -608,6 +717,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -615,24 +737,223 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -654,6 +975,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -661,83 +1021,223 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1015,7 +1515,7 @@
   <dimension ref="B7:J44"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1184,174 +1684,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="29">
         <v>7000</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="30">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="9">
+      <c r="G17" s="28">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="29">
         <v>10000</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="30">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="29">
         <v>10000</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="30">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="29">
         <v>10000</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="30">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="29">
         <v>1000</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="30">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="29">
         <v>22000</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="30">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -1389,13 +1889,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -1410,27 +1924,13 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1441,72 +1941,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="13"/>
-    <col min="4" max="4" width="20.83203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="4" width="10.83203125" style="9"/>
+    <col min="5" max="5" width="20.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="E4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="31">
         <v>20160712</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>26</v>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="9">
         <v>21825.21</v>
       </c>
-      <c r="E6" s="13">
-        <f>D6+F6</f>
+      <c r="F6" s="9">
+        <f>E6+G6</f>
         <v>21864.674763287669</v>
       </c>
-      <c r="F6" s="13">
-        <f>D6*0.022/365*30</f>
+      <c r="G6" s="9">
+        <f>E6*0.022/365*30</f>
         <v>39.464763287671232</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="F11" s="13">
-        <f>E11+G11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <f>E11*0.022/365*30</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="F13" s="13">
+      <c r="G13" s="9">
         <v>21864.674763287669</v>
-      </c>
-      <c r="G13" s="13">
-        <v>39.464763287671232</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1515,64 +2005,499 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:H7"/>
+  <dimension ref="B4:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="10.83203125" style="10"/>
+    <col min="3" max="5" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="9" customWidth="1"/>
+    <col min="7" max="10" width="15.6640625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="16" style="9" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="18.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C5">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="31">
         <v>201605</v>
       </c>
-      <c r="D5">
-        <v>21606</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="10"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="10">
+        <v>216</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="56">
+        <v>40000</v>
+      </c>
+      <c r="E6" s="14">
+        <v>40000</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="56">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="14">
+        <v>20000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="56">
+        <f>SUM(D6:D7)</f>
+        <v>60000</v>
+      </c>
+      <c r="E8" s="15">
+        <v>60000</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="44"/>
+      <c r="C11" s="42">
+        <v>20160608</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="53"/>
+      <c r="C12" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C6">
-        <v>60000</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="H12" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="D7" s="4">
+      <c r="J12" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="53">
+        <v>216</v>
+      </c>
+      <c r="C13" s="18">
+        <f>C15/3*2</f>
+        <v>41070.166666666664</v>
+      </c>
+      <c r="D13" s="17">
+        <f>C13/C15</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E13" s="17">
+        <f>C13-E6</f>
+        <v>1070.1666666666642</v>
+      </c>
+      <c r="F13" s="95">
+        <f>E13/C13</f>
+        <v>2.6057032476939815E-2</v>
+      </c>
+      <c r="G13" s="17">
+        <f>E13*0.2</f>
+        <v>214.03333333333285</v>
+      </c>
+      <c r="H13" s="17">
+        <v>214.03299999999999</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <f>C13-H13</f>
+        <v>40856.133666666661</v>
+      </c>
+      <c r="K13" s="100">
+        <f>J13/J15</f>
+        <v>0.66550454060336783</v>
+      </c>
+      <c r="L13" s="17">
+        <f>H13</f>
+        <v>214.03299999999999</v>
+      </c>
+      <c r="M13" s="19">
+        <f>J13+L13-D6</f>
+        <v>1070.1666666666642</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="18">
+        <f>C15/3</f>
+        <v>20535.083333333332</v>
+      </c>
+      <c r="D14" s="17">
+        <f>C14/C15</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E14" s="17">
+        <f>C14-E7</f>
+        <v>535.08333333333212</v>
+      </c>
+      <c r="F14" s="95">
+        <f t="shared" ref="F14:F15" si="0">E14/C14</f>
+        <v>2.6057032476939815E-2</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" ref="G14:G15" si="1">E14*0.2</f>
+        <v>107.01666666666642</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <f>C14+I14</f>
+        <v>20535.083333333332</v>
+      </c>
+      <c r="K14" s="100">
+        <f>J14/J15</f>
+        <v>0.33449545939663217</v>
+      </c>
+      <c r="L14" s="17">
+        <f t="shared" ref="L14:L15" si="2">H14</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
+        <f>C14-D7+L14</f>
+        <v>535.08333333333212</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="20">
         <v>61605.25</v>
       </c>
-      <c r="E7">
+      <c r="D15" s="23">
+        <v>1</v>
+      </c>
+      <c r="E15" s="21">
+        <f>C15-E8</f>
+        <v>1605.25</v>
+      </c>
+      <c r="F15" s="98">
+        <f t="shared" si="0"/>
+        <v>2.605703247693987E-2</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="1"/>
         <v>321.05</v>
       </c>
-      <c r="F7" s="19">
-        <f>D7-E7</f>
-        <v>61284.2</v>
-      </c>
-      <c r="G7">
-        <v>107</v>
+      <c r="H15" s="21">
+        <f>SUM(H13:H14)</f>
+        <v>214.03299999999999</v>
+      </c>
+      <c r="I15" s="21">
+        <f>I13+I14</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="21">
+        <f>J13+J14</f>
+        <v>61391.21699999999</v>
+      </c>
+      <c r="K15" s="55">
+        <v>1</v>
+      </c>
+      <c r="L15" s="21">
+        <f t="shared" si="2"/>
+        <v>214.03299999999999</v>
+      </c>
+      <c r="M15" s="22">
+        <f>J15+L15-D8</f>
+        <v>1605.2499999999927</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" s="58" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="66"/>
+      <c r="K17" s="66"/>
+    </row>
+    <row r="18" spans="2:14" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="101"/>
+      <c r="C18" s="104">
+        <v>20160622</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+    </row>
+    <row r="19" spans="2:14" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="63"/>
+      <c r="C19" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="63">
+        <v>216</v>
+      </c>
+      <c r="C20" s="95">
+        <f>C22*D20</f>
+        <v>40743.21588077637</v>
+      </c>
+      <c r="D20" s="95">
+        <f>K13</f>
+        <v>0.66550454060336783</v>
+      </c>
+      <c r="E20" s="95">
+        <f>C20-J13</f>
+        <v>-112.91778589029127</v>
+      </c>
+      <c r="F20" s="95">
+        <f>E20/C20</f>
+        <v>-2.7714500058295252E-3</v>
+      </c>
+      <c r="G20" s="95">
+        <v>0</v>
+      </c>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="95">
+        <f>L13</f>
+        <v>214.03299999999999</v>
+      </c>
+      <c r="M20" s="95">
+        <f>C20-D6+L20</f>
+        <v>957.2488807763699</v>
+      </c>
+      <c r="N20" s="94">
+        <f>M20/D6</f>
+        <v>2.3931222019409247E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="95">
+        <f>C22*D21</f>
+        <v>20478.328669223632</v>
+      </c>
+      <c r="D21" s="95">
+        <f>K14</f>
+        <v>0.33449545939663217</v>
+      </c>
+      <c r="E21" s="95">
+        <f>C21-J14</f>
+        <v>-56.754664109699661</v>
+      </c>
+      <c r="F21" s="95">
+        <f t="shared" ref="F21:F22" si="3">E21/C21</f>
+        <v>-2.7714500058295686E-3</v>
+      </c>
+      <c r="G21" s="95">
+        <v>0</v>
+      </c>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="95">
+        <f t="shared" ref="L21" si="4">H21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="95">
+        <f>C21-D7+L21</f>
+        <v>478.32866922363246</v>
+      </c>
+      <c r="N21" s="94">
+        <f>M21/D7</f>
+        <v>2.3916433461181622E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="58" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="97">
+        <v>61221.544549999999</v>
+      </c>
+      <c r="D22" s="97">
+        <v>1</v>
+      </c>
+      <c r="E22" s="98">
+        <f>SUM(E20:E21)</f>
+        <v>-169.67244999999093</v>
+      </c>
+      <c r="F22" s="98">
+        <f t="shared" si="3"/>
+        <v>-2.7714500058295399E-3</v>
+      </c>
+      <c r="G22" s="98">
+        <v>0</v>
+      </c>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="98">
+        <f>L15</f>
+        <v>214.03299999999999</v>
+      </c>
+      <c r="M22" s="98">
+        <f>C22-D8+L22</f>
+        <v>1435.5775499999986</v>
+      </c>
+      <c r="N22" s="103">
+        <f>M22/D8</f>
+        <v>2.3926292499999977E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="66"/>
+      <c r="K23" s="66"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D24" s="14"/>
+      <c r="M24" s="9">
+        <f>M21/M20</f>
+        <v>0.49969101957652579</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M25" s="14">
+        <f>M20+L20</f>
+        <v>1171.2818807763699</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C11:M11"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1580,416 +2505,167 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q15"/>
+  <dimension ref="C1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="13"/>
-    <col min="2" max="2" width="10.83203125" style="15"/>
-    <col min="3" max="5" width="16" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="15.6640625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" style="13" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="10.83203125" style="58"/>
+    <col min="2" max="2" width="31.33203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="58" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="11" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="58" customWidth="1"/>
+    <col min="9" max="11" width="11" style="58" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="58" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="58"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C4" s="14">
-        <v>201605</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="26">
-        <v>20160608</v>
-      </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="37">
-        <v>20160712</v>
-      </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="28"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="29" t="s">
+    <row r="1" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C1" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+    </row>
+    <row r="5" spans="3:12" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="67">
+        <v>11866.62</v>
+      </c>
+      <c r="D6" s="68">
+        <v>0.8427</v>
+      </c>
+      <c r="E6" s="68">
+        <f>C6*D6</f>
+        <v>10000.000674000001</v>
+      </c>
+      <c r="F6" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="72"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="38" t="s">
+    </row>
+    <row r="10" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="76">
+        <v>0.8972</v>
+      </c>
+      <c r="D10" s="77">
+        <f>C10*C6</f>
+        <v>10646.731464</v>
+      </c>
+      <c r="E10" s="77">
+        <f>D10-E6</f>
+        <v>646.73078999999962</v>
+      </c>
+      <c r="F10" s="78">
+        <f>D10-E6</f>
+        <v>646.73078999999962</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="15">
-        <v>216</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0</v>
-      </c>
-      <c r="D6" s="20">
-        <v>40000</v>
-      </c>
-      <c r="E6" s="20">
-        <v>40000</v>
-      </c>
-      <c r="F6" s="31">
-        <f>F8/3*2</f>
-        <v>41070.166666666664</v>
-      </c>
-      <c r="G6" s="25">
-        <f>F6/F8</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H6" s="25">
-        <f>F6-E6</f>
-        <v>1070.1666666666642</v>
-      </c>
-      <c r="I6" s="25">
-        <f>H6*0.2</f>
-        <v>214.03333333333285</v>
-      </c>
-      <c r="J6" s="25">
-        <v>-214.03</v>
-      </c>
-      <c r="K6" s="25">
-        <f>F6+J6</f>
-        <v>40856.136666666665</v>
-      </c>
-      <c r="L6" s="32">
-        <f>K6/K8</f>
-        <v>0.66434665371886636</v>
-      </c>
-      <c r="M6" s="39">
-        <v>40856.137000000002</v>
-      </c>
-      <c r="N6" s="25">
-        <f>M6-K6</f>
-        <v>3.3333333703922108E-4</v>
-      </c>
-      <c r="O6" s="25">
-        <f>N6*0.2</f>
-        <v>6.6666667407844216E-5</v>
-      </c>
-      <c r="P6" s="25">
-        <v>-214.03</v>
-      </c>
-      <c r="Q6" s="32">
-        <f>M6+P6</f>
-        <v>40642.107000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="20">
-        <v>0</v>
-      </c>
-      <c r="D7" s="20">
-        <v>20000</v>
-      </c>
-      <c r="E7" s="20">
-        <v>20000</v>
-      </c>
-      <c r="F7" s="31">
-        <f>F8/3</f>
-        <v>20535.083333333332</v>
-      </c>
-      <c r="G7" s="25">
-        <f>F7/F8</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H7" s="25">
-        <f>F7-E7</f>
-        <v>535.08333333333212</v>
-      </c>
-      <c r="I7" s="25">
-        <f t="shared" ref="I7:I8" si="0">H7*0.2</f>
-        <v>107.01666666666642</v>
-      </c>
-      <c r="J7" s="25">
-        <v>107</v>
-      </c>
-      <c r="K7" s="25">
-        <f>F7+J7</f>
-        <v>20642.083333333332</v>
-      </c>
-      <c r="L7" s="32">
-        <f>K7/K8</f>
-        <v>0.33565334628113352</v>
-      </c>
-      <c r="M7" s="39">
-        <v>20642.082999999999</v>
-      </c>
-      <c r="N7" s="25">
-        <f>M7-K7</f>
-        <v>-3.3333333340124227E-4</v>
-      </c>
-      <c r="O7" s="25">
-        <f t="shared" ref="O7:O8" si="1">N7*0.2</f>
-        <v>-6.6666666680248457E-5</v>
-      </c>
-      <c r="P7" s="25">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="32">
-        <f>M7+P7</f>
-        <v>20749.082999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21">
-        <v>60000</v>
-      </c>
-      <c r="F8" s="33">
-        <v>61605.25</v>
-      </c>
-      <c r="G8" s="41">
-        <v>1</v>
-      </c>
-      <c r="H8" s="34">
-        <f>F8-E8</f>
-        <v>1605.25</v>
-      </c>
-      <c r="I8" s="34">
-        <f t="shared" si="0"/>
-        <v>321.05</v>
-      </c>
-      <c r="J8" s="34">
-        <f>J6+J7</f>
-        <v>-107.03</v>
-      </c>
-      <c r="K8" s="34">
-        <f>K6+K7</f>
-        <v>61498.22</v>
-      </c>
-      <c r="L8" s="35">
-        <v>1</v>
-      </c>
-      <c r="M8" s="40">
-        <f>M6+M7</f>
-        <v>61498.22</v>
-      </c>
-      <c r="N8" s="34">
-        <f>M8-K8</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="34">
-        <f>P6+P7</f>
-        <v>-107.03</v>
-      </c>
-      <c r="Q8" s="35">
-        <f>Q6+Q7</f>
-        <v>61391.19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-    </row>
-    <row r="10" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="36"/>
-      <c r="C11" s="27">
-        <v>20160608</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="43"/>
-      <c r="C12" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="43">
-        <v>216</v>
-      </c>
-      <c r="C13" s="25">
-        <f>C15/3*2</f>
-        <v>41070.166666666664</v>
-      </c>
-      <c r="D13" s="25">
-        <f>C13/C15</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E13" s="25">
-        <f>C13-E6</f>
-        <v>1070.1666666666642</v>
-      </c>
-      <c r="F13" s="25">
-        <f>E13*0.2</f>
-        <v>214.03333333333285</v>
-      </c>
-      <c r="G13" s="25">
-        <v>-214.03</v>
-      </c>
-      <c r="H13" s="25">
-        <f>C13+G13</f>
-        <v>40856.136666666665</v>
-      </c>
-      <c r="I13" s="32">
-        <f>H13/H15</f>
-        <v>0.66434665371886636</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="25">
-        <f>C15/3</f>
-        <v>20535.083333333332</v>
-      </c>
-      <c r="D14" s="25">
-        <f>C14/C15</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E14" s="25">
-        <f>C14-E7</f>
-        <v>535.08333333333212</v>
-      </c>
-      <c r="F14" s="25">
-        <f t="shared" ref="F14:F15" si="2">E14*0.2</f>
-        <v>107.01666666666642</v>
-      </c>
-      <c r="G14" s="25">
-        <v>107</v>
-      </c>
-      <c r="H14" s="25">
-        <f>C14+G14</f>
-        <v>20642.083333333332</v>
-      </c>
-      <c r="I14" s="32">
-        <f>H14/H15</f>
-        <v>0.33565334628113352</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="41">
-        <v>61605.25</v>
-      </c>
-      <c r="D15" s="41">
-        <v>1</v>
-      </c>
-      <c r="E15" s="34">
-        <f>C15-E8</f>
-        <v>1605.25</v>
-      </c>
-      <c r="F15" s="34">
-        <f t="shared" si="2"/>
-        <v>321.05</v>
-      </c>
-      <c r="G15" s="34">
-        <f>G13+G14</f>
-        <v>-107.03</v>
-      </c>
-      <c r="H15" s="34">
-        <f>H13+H14</f>
-        <v>61498.22</v>
-      </c>
-      <c r="I15" s="35">
-        <v>1</v>
+    </row>
+    <row r="14" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="76">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="D14" s="77">
+        <f>C14*C6</f>
+        <v>10709.62455</v>
+      </c>
+      <c r="E14" s="77">
+        <f>D14-D10</f>
+        <v>62.893086000000039</v>
+      </c>
+      <c r="F14" s="78">
+        <f>D14-E6</f>
+        <v>709.62387599999965</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="F4:L4"/>
+  <mergeCells count="6">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1998,118 +2674,356 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L5"/>
+  <dimension ref="B3:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="13"/>
-    <col min="2" max="2" width="31.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="13" customWidth="1"/>
-    <col min="9" max="11" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="13" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="10.83203125" style="10"/>
+    <col min="2" max="2" width="43.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="10"/>
+    <col min="4" max="4" width="21.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="10"/>
+    <col min="7" max="7" width="14.83203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="10"/>
+    <col min="9" max="9" width="14.33203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D3" s="14" t="s">
+    <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D4" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14">
-        <v>20160712</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="E5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="G5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="15" t="s">
+      <c r="I5" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7000</v>
+      </c>
+      <c r="D6" s="36">
+        <v>7013.3</v>
+      </c>
+      <c r="E6" s="32">
+        <f>SUM(D6:D9)</f>
+        <v>28756.7</v>
+      </c>
+      <c r="F6" s="33">
+        <f>D6-C6</f>
+        <v>13.300000000000182</v>
+      </c>
+      <c r="G6" s="51">
+        <f>F6+F7+F8+F9</f>
+        <v>756.70000000000095</v>
+      </c>
+      <c r="H6" s="36">
+        <v>7058.1</v>
+      </c>
+      <c r="I6" s="33">
+        <f>H6-C6</f>
+        <v>58.100000000000364</v>
+      </c>
+      <c r="J6" s="33">
+        <f>H6-D6</f>
+        <v>44.800000000000182</v>
+      </c>
+      <c r="K6" s="32">
+        <f>J6+J7+J8+J9</f>
+        <v>-382.68999999999915</v>
+      </c>
+      <c r="L6" s="32">
+        <f>SUM(H6:H9)</f>
+        <v>28374.010000000002</v>
+      </c>
+      <c r="M6" s="48">
+        <f>SUM(I6:I9)</f>
+        <v>374.01000000000181</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1053.7</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33">
+        <f>D7-C7</f>
+        <v>53.700000000000045</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="25">
+        <v>1078.76</v>
+      </c>
+      <c r="I7" s="24">
+        <f>H7-C7</f>
+        <v>78.759999999999991</v>
+      </c>
+      <c r="J7" s="33">
+        <f>H7-D7</f>
+        <v>25.059999999999945</v>
+      </c>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="48"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="25">
+        <v>10065.91</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33">
+        <f>D8-C8</f>
+        <v>65.909999999999854</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="25">
+        <v>9985.2000000000007</v>
+      </c>
+      <c r="I8" s="24">
+        <f>H8-C8</f>
+        <v>-14.799999999999272</v>
+      </c>
+      <c r="J8" s="33">
+        <f>H8-D8</f>
+        <v>-80.709999999999127</v>
+      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="48"/>
+    </row>
+    <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="26">
+        <v>10623.79</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="38">
+        <f>D9-C9</f>
+        <v>623.79000000000087</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="H9" s="26">
+        <v>10251.950000000001</v>
+      </c>
+      <c r="I9" s="39">
+        <f>H9-C9</f>
+        <v>251.95000000000073</v>
+      </c>
+      <c r="J9" s="38">
+        <f>H9-D9</f>
+        <v>-371.84000000000015</v>
+      </c>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="10">
+        <f>SUM(C6:C9)</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D13" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+      <c r="E14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="12">
-        <v>11866.62</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0.8427</v>
-      </c>
-      <c r="E5" s="13">
-        <f>C5*D5</f>
-        <v>10000.000674000001</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0.8972</v>
-      </c>
-      <c r="H5" s="13">
-        <f>C5*G5</f>
-        <v>10646.731464</v>
-      </c>
-      <c r="I5" s="13">
-        <f>H5-E5</f>
-        <v>646.73078999999962</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0.88629999999999998</v>
-      </c>
-      <c r="K5" s="13">
-        <f>J5*C5</f>
-        <v>10517.385306</v>
-      </c>
-      <c r="L5" s="13">
-        <f>K5-E5</f>
-        <v>517.38463199999933</v>
-      </c>
+      <c r="I14" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="36">
+        <v>7035.7</v>
+      </c>
+      <c r="E15" s="33">
+        <f>D15-C6</f>
+        <v>35.699999999999818</v>
+      </c>
+      <c r="F15" s="33">
+        <f>D15-D6</f>
+        <v>22.399999999999636</v>
+      </c>
+      <c r="G15" s="45">
+        <f>F15+F16+F17+F18</f>
+        <v>-69.990000000000919</v>
+      </c>
+      <c r="H15" s="45">
+        <f>SUM(D15:D18)</f>
+        <v>28686.71</v>
+      </c>
+      <c r="I15" s="88">
+        <f>SUM(E15:E18)</f>
+        <v>686.71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="25">
+        <v>1093.08</v>
+      </c>
+      <c r="E16" s="33">
+        <f>D16-C7</f>
+        <v>93.079999999999927</v>
+      </c>
+      <c r="F16" s="33">
+        <f>D16-D7</f>
+        <v>39.379999999999882</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="89"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="25">
+        <v>10146.620000000001</v>
+      </c>
+      <c r="E17" s="33">
+        <f>D17-C8</f>
+        <v>146.6200000000008</v>
+      </c>
+      <c r="F17" s="33">
+        <f>D17-D8</f>
+        <v>80.710000000000946</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="89"/>
+    </row>
+    <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="26">
+        <v>10411.31</v>
+      </c>
+      <c r="E18" s="38">
+        <f>D18-C9</f>
+        <v>411.30999999999949</v>
+      </c>
+      <c r="F18" s="38">
+        <f>D18-D9</f>
+        <v>-212.48000000000138</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
+  <mergeCells count="11">
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="E6:E9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2118,226 +3032,125 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G9"/>
+  <dimension ref="C3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="15"/>
-    <col min="2" max="2" width="43.1640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="15"/>
-    <col min="4" max="4" width="13.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="15"/>
+    <col min="1" max="1" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="14.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="21" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+    <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="34">
+        <v>20160622</v>
+      </c>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="81">
+        <v>10709.62455</v>
+      </c>
+      <c r="E6" s="79">
+        <f>D6/D12</f>
+        <v>0.17493228288700535</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="17" t="s">
+      <c r="D7" s="82">
+        <v>7035.7</v>
+      </c>
+      <c r="E7" s="79">
+        <f>D7/D12</f>
+        <v>0.11492196173283249</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="18">
-        <v>7000</v>
-      </c>
-      <c r="D6" s="18">
-        <v>7013.3</v>
-      </c>
-      <c r="E6" s="18">
-        <f>D6-C6</f>
-        <v>13.300000000000182</v>
-      </c>
-      <c r="F6" s="18">
-        <v>7220</v>
-      </c>
-      <c r="G6" s="18">
-        <f>F6-C6</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
+      <c r="D8" s="82">
+        <v>1093.08</v>
+      </c>
+      <c r="E8" s="79">
+        <f>D8/D12</f>
+        <v>1.7854498902870296E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="15">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="15">
-        <v>1053.7</v>
-      </c>
-      <c r="E7" s="18">
-        <f>D7-C7</f>
-        <v>53.700000000000045</v>
-      </c>
-      <c r="F7" s="15">
-        <v>1090.69</v>
-      </c>
-      <c r="G7" s="15">
-        <f>F7-C7</f>
-        <v>90.690000000000055</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="D9" s="82">
+        <v>10146.620000000001</v>
+      </c>
+      <c r="E9" s="79">
+        <f>D9/D12</f>
+        <v>0.16573609951498686</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="15">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="15">
-        <v>10065.91</v>
-      </c>
-      <c r="E8" s="18">
-        <f>D8-C8</f>
-        <v>65.909999999999854</v>
-      </c>
-      <c r="F8" s="15">
-        <v>9846.83</v>
-      </c>
-      <c r="G8" s="15">
-        <f t="shared" ref="G8:G9" si="0">F8-C8</f>
-        <v>-153.17000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="15">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="15">
-        <v>10623.79</v>
-      </c>
-      <c r="E9" s="18">
-        <f>D9-C9</f>
-        <v>623.79000000000087</v>
-      </c>
-      <c r="F9" s="15">
-        <v>9968.65</v>
-      </c>
-      <c r="G9" s="15">
-        <f t="shared" si="0"/>
-        <v>-31.350000000000364</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="10.83203125" style="16"/>
-    <col min="3" max="3" width="31.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D6" s="14">
-        <v>20160712</v>
-      </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="13">
-        <v>21864.674763287669</v>
-      </c>
-      <c r="E9" s="13">
-        <v>39.464763287671232</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="23" t="s">
-        <v>29</v>
+      <c r="D10" s="82">
+        <v>10411.31</v>
+      </c>
+      <c r="E10" s="79">
+        <f>D10/D12</f>
+        <v>0.17005957749884962</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="16" t="s">
-        <v>51</v>
+      <c r="C11" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="82">
+        <v>21825.21</v>
+      </c>
+      <c r="E11" s="79">
+        <f>D11/D12</f>
+        <v>0.35649557946345539</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="83">
+        <f>SUM(D6:D11)</f>
+        <v>61221.544549999999</v>
+      </c>
+      <c r="E12" s="80">
+        <f>D12/D12</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="易H股ETF联接（110031）" sheetId="2" r:id="rId4"/>
     <sheet name="打包资产统计" sheetId="3" r:id="rId5"/>
     <sheet name="资产结构" sheetId="8" r:id="rId6"/>
+    <sheet name="Operation" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>黄金基金</t>
   </si>
@@ -433,33 +434,52 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>易H股ETF联接（110031）估值 20160622</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20160622估值</t>
+    <t>累计收益率</t>
+    <rPh sb="0" eb="1">
+      <t>lei'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou'yi'lv</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月收益率</t>
+    <rPh sb="0" eb="1">
+      <t>dang'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou'yi'lv</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易H股ETF联接（110031）估值 20160628</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160628估值</t>
     <rPh sb="8" eb="9">
       <t>gu'zhi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>累计收益率</t>
-    <rPh sb="0" eb="1">
-      <t>lei'ji</t>
-    </rPh>
+    <t>Object</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4%基线</t>
     <rPh sb="2" eb="3">
-      <t>shou'yi'lv</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当月收益率</t>
-    <rPh sb="0" eb="1">
-      <t>dang'yue</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shou'yi'lv</t>
+      <t>ji'xian</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1014,28 +1034,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1048,45 +1049,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1097,34 +1065,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1133,15 +1086,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,15 +1131,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1226,8 +1161,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1684,174 +1704,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="76">
         <v>7000</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="77">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="28">
+      <c r="G17" s="75">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="76">
         <v>10000</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="77">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="76">
         <v>10000</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="77">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="76">
         <v>10000</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="77">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="76">
         <v>1000</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="77">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="76">
         <v>22000</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="77">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="77"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -1941,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -1957,10 +1977,10 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="78">
         <v>20160712</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -1982,11 +2002,11 @@
       </c>
       <c r="F6" s="9">
         <f>E6+G6</f>
-        <v>21864.674763287669</v>
+        <v>22864.674763287672</v>
       </c>
       <c r="G6" s="9">
-        <f>E6*0.022/365*30</f>
-        <v>39.464763287671232</v>
+        <f>1000+E6*0.022/365*30</f>
+        <v>1039.4647632876713</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.3">
@@ -2007,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2031,11 +2051,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="31">
+      <c r="C4" s="78">
         <v>201605</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -2058,7 +2078,7 @@
       <c r="C6" s="14">
         <v>0</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="38">
         <v>40000</v>
       </c>
       <c r="E6" s="14">
@@ -2074,7 +2094,7 @@
       <c r="C7" s="14">
         <v>0</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="38">
         <v>20000</v>
       </c>
       <c r="E7" s="14">
@@ -2090,7 +2110,7 @@
       <c r="C8" s="15">
         <v>0</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="38">
         <f>SUM(D6:D7)</f>
         <v>60000</v>
       </c>
@@ -2106,23 +2126,23 @@
     </row>
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
-      <c r="C11" s="42">
+      <c r="B11" s="34"/>
+      <c r="C11" s="82">
         <v>20160608</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="84"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="53"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="25" t="s">
         <v>57</v>
       </c>
@@ -2133,7 +2153,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>36</v>
@@ -2158,7 +2178,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="53">
+      <c r="B13" s="35">
         <v>216</v>
       </c>
       <c r="C13" s="18">
@@ -2173,7 +2193,7 @@
         <f>C13-E6</f>
         <v>1070.1666666666642</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="66">
         <f>E13/C13</f>
         <v>2.6057032476939815E-2</v>
       </c>
@@ -2191,7 +2211,7 @@
         <f>C13-H13</f>
         <v>40856.133666666661</v>
       </c>
-      <c r="K13" s="100">
+      <c r="K13" s="71">
         <f>J13/J15</f>
         <v>0.66550454060336783</v>
       </c>
@@ -2205,7 +2225,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="35" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="18">
@@ -2220,7 +2240,7 @@
         <f>C14-E7</f>
         <v>535.08333333333212</v>
       </c>
-      <c r="F14" s="95">
+      <c r="F14" s="66">
         <f t="shared" ref="F14:F15" si="0">E14/C14</f>
         <v>2.6057032476939815E-2</v>
       </c>
@@ -2238,7 +2258,7 @@
         <f>C14+I14</f>
         <v>20535.083333333332</v>
       </c>
-      <c r="K14" s="100">
+      <c r="K14" s="71">
         <f>J14/J15</f>
         <v>0.33449545939663217</v>
       </c>
@@ -2252,7 +2272,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="36" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="20">
@@ -2265,7 +2285,7 @@
         <f>C15-E8</f>
         <v>1605.25</v>
       </c>
-      <c r="F15" s="98">
+      <c r="F15" s="69">
         <f t="shared" si="0"/>
         <v>2.605703247693987E-2</v>
       </c>
@@ -2285,7 +2305,7 @@
         <f>J13+J14</f>
         <v>61391.21699999999</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="37">
         <v>1</v>
       </c>
       <c r="L15" s="21">
@@ -2297,199 +2317,208 @@
         <v>1605.2499999999927</v>
       </c>
     </row>
-    <row r="17" spans="2:14" s="58" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="66"/>
-      <c r="K17" s="66"/>
-    </row>
-    <row r="18" spans="2:14" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="101"/>
-      <c r="C18" s="104">
-        <v>20160622</v>
-      </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-    </row>
-    <row r="19" spans="2:14" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="63"/>
-      <c r="C19" s="64" t="s">
+    <row r="17" spans="2:14" s="39" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="43"/>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="72"/>
+      <c r="C18" s="79">
+        <v>20160704</v>
+      </c>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="81"/>
+    </row>
+    <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="40"/>
+      <c r="C19" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="64" t="s">
+      <c r="F19" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="64" t="s">
+      <c r="I19" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="64" t="s">
+      <c r="J19" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="64" t="s">
+      <c r="K19" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="93" t="s">
+      <c r="L19" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="M19" s="64" t="s">
+      <c r="M19" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="N19" s="94" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="63">
+      <c r="N19" s="65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="40">
         <v>216</v>
       </c>
-      <c r="C20" s="95">
+      <c r="C20" s="66">
         <f>C22*D20</f>
-        <v>40743.21588077637</v>
-      </c>
-      <c r="D20" s="95">
+        <v>41105.816419235714</v>
+      </c>
+      <c r="D20" s="66">
         <f>K13</f>
         <v>0.66550454060336783</v>
       </c>
-      <c r="E20" s="95">
+      <c r="E20" s="66">
         <f>C20-J13</f>
-        <v>-112.91778589029127</v>
-      </c>
-      <c r="F20" s="95">
+        <v>249.68275256905326</v>
+      </c>
+      <c r="F20" s="66">
         <f>E20/C20</f>
-        <v>-2.7714500058295252E-3</v>
-      </c>
-      <c r="G20" s="95">
-        <v>0</v>
-      </c>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="95">
+        <v>6.0741465398121306E-3</v>
+      </c>
+      <c r="G20" s="66">
+        <f>E20*0.2</f>
+        <v>49.936550513810658</v>
+      </c>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="66">
         <f>L13</f>
         <v>214.03299999999999</v>
       </c>
-      <c r="M20" s="95">
+      <c r="M20" s="66">
         <f>C20-D6+L20</f>
-        <v>957.2488807763699</v>
-      </c>
-      <c r="N20" s="94">
+        <v>1319.8494192357143</v>
+      </c>
+      <c r="N20" s="65">
         <f>M20/D6</f>
-        <v>2.3931222019409247E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="63" t="s">
+        <v>3.2996235480892859E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="95">
+      <c r="C21" s="66">
         <f>C22*D21</f>
-        <v>20478.328669223632</v>
-      </c>
-      <c r="D21" s="95">
+        <v>20660.578716051954</v>
+      </c>
+      <c r="D21" s="66">
         <f>K14</f>
         <v>0.33449545939663217</v>
       </c>
-      <c r="E21" s="95">
+      <c r="E21" s="66">
         <f>C21-J14</f>
-        <v>-56.754664109699661</v>
-      </c>
-      <c r="F21" s="95">
+        <v>125.49538271862184</v>
+      </c>
+      <c r="F21" s="66">
         <f t="shared" ref="F21:F22" si="3">E21/C21</f>
-        <v>-2.7714500058295686E-3</v>
-      </c>
-      <c r="G21" s="95">
-        <v>0</v>
-      </c>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="95">
+        <v>6.0741465398120682E-3</v>
+      </c>
+      <c r="G21" s="66">
+        <f>E21*0.2</f>
+        <v>25.099076543724369</v>
+      </c>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="66">
         <f t="shared" ref="L21" si="4">H21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="95">
+      <c r="M21" s="66">
         <f>C21-D7+L21</f>
-        <v>478.32866922363246</v>
-      </c>
-      <c r="N21" s="94">
+        <v>660.57871605195396</v>
+      </c>
+      <c r="N21" s="65">
         <f>M21/D7</f>
-        <v>2.3916433461181622E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" s="58" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="102" t="s">
+        <v>3.3028935802597699E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="39" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="97">
-        <v>61221.544549999999</v>
-      </c>
-      <c r="D22" s="97">
+      <c r="C22" s="68">
+        <f>资产结构!D6+资产结构!D7+资产结构!D8+资产结构!D9+资产结构!D10+资产结构!D11</f>
+        <v>61766.395135287668</v>
+      </c>
+      <c r="D22" s="68">
         <v>1</v>
       </c>
-      <c r="E22" s="98">
+      <c r="E22" s="69">
         <f>SUM(E20:E21)</f>
-        <v>-169.67244999999093</v>
-      </c>
-      <c r="F22" s="98">
+        <v>375.1781352876751</v>
+      </c>
+      <c r="F22" s="69">
         <f t="shared" si="3"/>
-        <v>-2.7714500058295399E-3</v>
-      </c>
-      <c r="G22" s="98">
-        <v>0</v>
-      </c>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="98">
+        <v>6.0741465398121098E-3</v>
+      </c>
+      <c r="G22" s="69">
+        <f>G20+G21</f>
+        <v>75.035627057535024</v>
+      </c>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="69">
         <f>L15</f>
         <v>214.03299999999999</v>
       </c>
-      <c r="M22" s="98">
+      <c r="M22" s="69">
         <f>C22-D8+L22</f>
-        <v>1435.5775499999986</v>
-      </c>
-      <c r="N22" s="103">
+        <v>1980.4281352876683</v>
+      </c>
+      <c r="N22" s="74">
         <f>M22/D8</f>
-        <v>2.3926292499999977E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="66"/>
-      <c r="K23" s="66"/>
+        <v>3.3007135588127803E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="39">
+        <v>60400</v>
+      </c>
+      <c r="K23" s="43"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D24" s="14"/>
       <c r="M24" s="9">
         <f>M21/M20</f>
-        <v>0.49969101957652579</v>
+        <v>0.50049551594641417</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M25" s="14">
         <f>M20+L20</f>
-        <v>1171.2818807763699</v>
+        <v>1533.8824192357142</v>
       </c>
     </row>
   </sheetData>
@@ -2507,155 +2536,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="58"/>
-    <col min="2" max="2" width="31.33203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="58" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="58" customWidth="1"/>
-    <col min="7" max="7" width="11" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="58" customWidth="1"/>
-    <col min="9" max="11" width="11" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="58" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="58"/>
+    <col min="1" max="1" width="10.83203125" style="39"/>
+    <col min="2" max="2" width="31.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="39" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="11" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="39" customWidth="1"/>
+    <col min="9" max="11" width="11" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="39" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-    </row>
-    <row r="5" spans="3:12" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="63" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+    </row>
+    <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="67">
+      <c r="C6" s="44">
         <v>11866.62</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="45">
         <v>0.8427</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="45">
         <f>C6*D6</f>
         <v>10000.000674000001</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="49" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="76">
+      <c r="C10" s="50">
         <v>0.8972</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="51">
         <f>C10*C6</f>
         <v>10646.731464</v>
       </c>
-      <c r="E10" s="77">
+      <c r="E10" s="51">
         <f>D10-E6</f>
         <v>646.73078999999962</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="52">
         <f>D10-E6</f>
         <v>646.73078999999962</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
+      <c r="C12" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="49" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="76">
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="D14" s="77">
+      <c r="C14" s="50">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="D14" s="51">
         <f>C14*C6</f>
-        <v>10709.62455</v>
-      </c>
-      <c r="E14" s="77">
+        <v>10924.410372</v>
+      </c>
+      <c r="E14" s="51">
         <f>D14-D10</f>
-        <v>62.893086000000039</v>
-      </c>
-      <c r="F14" s="78">
+        <v>277.67890799999986</v>
+      </c>
+      <c r="F14" s="52">
         <f>D14-E6</f>
-        <v>709.62387599999965</v>
+        <v>924.40969799999948</v>
       </c>
     </row>
   </sheetData>
@@ -2677,7 +2706,7 @@
   <dimension ref="B3:M18"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2700,20 +2729,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="42" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -2728,7 +2757,7 @@
       <c r="F5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="33" t="s">
         <v>45</v>
       </c>
       <c r="H5" s="25" t="s">
@@ -2757,41 +2786,41 @@
       <c r="C6" s="13">
         <v>7000</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="95">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="28">
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="93">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="29">
         <v>7058.1</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="28">
         <f>H6-C6</f>
         <v>58.100000000000364</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="28">
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="95">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="95">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="91">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -2806,12 +2835,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33">
+      <c r="E7" s="95"/>
+      <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="93"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -2819,13 +2848,13 @@
         <f>H7-C7</f>
         <v>78.759999999999991</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="28">
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="48"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="91"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -2837,12 +2866,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33">
+      <c r="E8" s="95"/>
+      <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="51"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -2850,13 +2879,13 @@
         <f>H8-C8</f>
         <v>-14.799999999999272</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="28">
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="48"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="91"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -2868,26 +2897,26 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="38">
+      <c r="E9" s="96"/>
+      <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="52"/>
+      <c r="G9" s="94"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="32">
         <f>H9-C9</f>
         <v>251.95000000000073</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="31">
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="92"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -2897,14 +2926,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
+      <c r="D13" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -2927,89 +2956,89 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="36">
-        <v>7035.7</v>
-      </c>
-      <c r="E15" s="33">
+      <c r="D15" s="29">
+        <v>7203.7</v>
+      </c>
+      <c r="E15" s="28">
         <f>D15-C6</f>
-        <v>35.699999999999818</v>
-      </c>
-      <c r="F15" s="33">
+        <v>203.69999999999982</v>
+      </c>
+      <c r="F15" s="28">
         <f>D15-D6</f>
-        <v>22.399999999999636</v>
-      </c>
-      <c r="G15" s="45">
+        <v>190.39999999999964</v>
+      </c>
+      <c r="G15" s="97">
         <f>F15+F16+F17+F18</f>
-        <v>-69.990000000000919</v>
-      </c>
-      <c r="H15" s="45">
+        <v>-779.39000000000124</v>
+      </c>
+      <c r="H15" s="97">
         <f>SUM(D15:D18)</f>
-        <v>28686.71</v>
-      </c>
-      <c r="I15" s="88">
+        <v>27977.309999999998</v>
+      </c>
+      <c r="I15" s="100">
         <f>SUM(E15:E18)</f>
-        <v>686.71</v>
+        <v>-22.690000000000282</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="63" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="25">
-        <v>1093.08</v>
-      </c>
-      <c r="E16" s="33">
+        <v>185.2</v>
+      </c>
+      <c r="E16" s="28">
         <f>D16-C7</f>
-        <v>93.079999999999927</v>
-      </c>
-      <c r="F16" s="33">
+        <v>-814.8</v>
+      </c>
+      <c r="F16" s="28">
         <f>D16-D7</f>
-        <v>39.379999999999882</v>
-      </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="89"/>
+        <v>-868.5</v>
+      </c>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="101"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="63" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="25">
-        <v>10146.620000000001</v>
-      </c>
-      <c r="E17" s="33">
+        <v>10354.16</v>
+      </c>
+      <c r="E17" s="28">
         <f>D17-C8</f>
-        <v>146.6200000000008</v>
-      </c>
-      <c r="F17" s="33">
+        <v>354.15999999999985</v>
+      </c>
+      <c r="F17" s="28">
         <f>D17-D8</f>
-        <v>80.710000000000946</v>
-      </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="89"/>
+        <v>288.25</v>
+      </c>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="101"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="63" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="26">
-        <v>10411.31</v>
-      </c>
-      <c r="E18" s="38">
+        <v>10234.25</v>
+      </c>
+      <c r="E18" s="31">
         <f>D18-C9</f>
-        <v>411.30999999999949</v>
-      </c>
-      <c r="F18" s="38">
+        <v>234.25</v>
+      </c>
+      <c r="F18" s="31">
         <f>D18-D9</f>
-        <v>-212.48000000000138</v>
-      </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="90"/>
+        <v>-389.54000000000087</v>
+      </c>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3035,7 +3064,7 @@
   <dimension ref="C3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -3050,100 +3079,105 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="34">
+      <c r="D4" s="103">
         <v>20160622</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="104"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="81">
-        <v>10709.62455</v>
-      </c>
-      <c r="E6" s="79">
+      <c r="D6" s="55">
+        <f>'易H股ETF联接（110031）'!D14</f>
+        <v>10924.410372</v>
+      </c>
+      <c r="E6" s="53">
         <f>D6/D12</f>
-        <v>0.17493228288700535</v>
+        <v>0.176866568755909</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="82">
-        <v>7035.7</v>
-      </c>
-      <c r="E7" s="79">
+      <c r="D7" s="56">
+        <f>打包资产统计!D15</f>
+        <v>7203.7</v>
+      </c>
+      <c r="E7" s="53">
         <f>D7/D12</f>
-        <v>0.11492196173283249</v>
+        <v>0.11662814357583359</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="82">
-        <v>1093.08</v>
-      </c>
-      <c r="E8" s="79">
+      <c r="D8" s="56">
+        <f>打包资产统计!D16</f>
+        <v>185.2</v>
+      </c>
+      <c r="E8" s="53">
         <f>D8/D12</f>
-        <v>1.7854498902870296E-2</v>
+        <v>2.9983941849666671E-3</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="82">
-        <v>10146.620000000001</v>
-      </c>
-      <c r="E9" s="79">
+      <c r="D9" s="56">
+        <f>打包资产统计!D17</f>
+        <v>10354.16</v>
+      </c>
+      <c r="E9" s="53">
         <f>D9/D12</f>
-        <v>0.16573609951498686</v>
+        <v>0.167634196189063</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="82">
-        <v>10411.31</v>
-      </c>
-      <c r="E10" s="79">
+      <c r="D10" s="56">
+        <f>打包资产统计!D18</f>
+        <v>10234.25</v>
+      </c>
+      <c r="E10" s="53">
         <f>D10/D12</f>
-        <v>0.17005957749884962</v>
+        <v>0.16569284928453087</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="82">
-        <v>21825.21</v>
-      </c>
-      <c r="E11" s="79">
+      <c r="D11" s="56">
+        <v>22864.674763287672</v>
+      </c>
+      <c r="E11" s="53">
         <f>D11/D12</f>
-        <v>0.35649557946345539</v>
+        <v>0.37017984800969694</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="83">
+      <c r="D12" s="57">
         <f>SUM(D6:D11)</f>
-        <v>61221.544549999999</v>
-      </c>
-      <c r="E12" s="80">
+        <v>61766.395135287668</v>
+      </c>
+      <c r="E12" s="54">
         <f>D12/D12</f>
         <v>1</v>
       </c>
@@ -3155,4 +3189,39 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="23" x14ac:dyDescent="0.3">
+      <c r="B3" s="60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="资产结构" sheetId="8" r:id="rId6"/>
     <sheet name="Operation" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -454,10 +454,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>易H股ETF联接（110031）估值 20160628</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20160628估值</t>
     <rPh sb="8" eb="9">
       <t>gu'zhi</t>
@@ -481,6 +477,10 @@
     <rPh sb="2" eb="3">
       <t>ji'xian</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易H股ETF联接（110031）估值 20160708</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1962,7 +1962,7 @@
   <dimension ref="C4:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -1978,7 +1978,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="78">
-        <v>20160712</v>
+        <v>20160708</v>
       </c>
       <c r="G4" s="78"/>
     </row>
@@ -2027,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2324,7 +2324,7 @@
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
       <c r="C18" s="79">
-        <v>20160704</v>
+        <v>20160708</v>
       </c>
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="C20" s="66">
         <f>C22*D20</f>
-        <v>41105.816419235714</v>
+        <v>40900.291432439146</v>
       </c>
       <c r="D20" s="66">
         <f>K13</f>
@@ -2391,31 +2391,41 @@
       </c>
       <c r="E20" s="66">
         <f>C20-J13</f>
-        <v>249.68275256905326</v>
+        <v>44.157765772484709</v>
       </c>
       <c r="F20" s="66">
         <f>E20/C20</f>
-        <v>6.0741465398121306E-3</v>
+        <v>1.0796442818855312E-3</v>
       </c>
       <c r="G20" s="66">
         <f>E20*0.2</f>
-        <v>49.936550513810658</v>
-      </c>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67"/>
+        <v>8.8315531544969428</v>
+      </c>
+      <c r="H20" s="66">
+        <v>8.83</v>
+      </c>
+      <c r="I20" s="66">
+        <v>0</v>
+      </c>
+      <c r="J20" s="66">
+        <f>C20-H20</f>
+        <v>40891.461432439144</v>
+      </c>
+      <c r="K20" s="67">
+        <f>J20/J22</f>
+        <v>0.66545647460657964</v>
+      </c>
       <c r="L20" s="66">
-        <f>L13</f>
-        <v>214.03299999999999</v>
+        <f>L13+H20</f>
+        <v>222.863</v>
       </c>
       <c r="M20" s="66">
-        <f>C20-D6+L20</f>
-        <v>1319.8494192357143</v>
+        <f>J20+L20-D6</f>
+        <v>1114.3244324391417</v>
       </c>
       <c r="N20" s="65">
         <f>M20/D6</f>
-        <v>3.2996235480892859E-2</v>
+        <v>2.7858110810978543E-2</v>
       </c>
     </row>
     <row r="21" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
@@ -2424,7 +2434,7 @@
       </c>
       <c r="C21" s="66">
         <f>C22*D21</f>
-        <v>20660.578716051954</v>
+        <v>20557.277880848524</v>
       </c>
       <c r="D21" s="66">
         <f>K14</f>
@@ -2432,31 +2442,41 @@
       </c>
       <c r="E21" s="66">
         <f>C21-J14</f>
-        <v>125.49538271862184</v>
+        <v>22.194547515191516</v>
       </c>
       <c r="F21" s="66">
         <f t="shared" ref="F21:F22" si="3">E21/C21</f>
-        <v>6.0741465398120682E-3</v>
+        <v>1.0796442818856041E-3</v>
       </c>
       <c r="G21" s="66">
         <f>E21*0.2</f>
-        <v>25.099076543724369</v>
-      </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="67"/>
+        <v>4.4389095030383032</v>
+      </c>
+      <c r="H21" s="66">
+        <v>0</v>
+      </c>
+      <c r="I21" s="66">
+        <v>0</v>
+      </c>
+      <c r="J21" s="66">
+        <f t="shared" ref="J21:J22" si="4">C21-H21</f>
+        <v>20557.277880848524</v>
+      </c>
+      <c r="K21" s="67">
+        <f>J21/J22</f>
+        <v>0.33454352539342042</v>
+      </c>
       <c r="L21" s="66">
-        <f t="shared" ref="L21" si="4">H21</f>
+        <f t="shared" ref="L21:L22" si="5">L14+H21</f>
         <v>0</v>
       </c>
       <c r="M21" s="66">
-        <f>C21-D7+L21</f>
-        <v>660.57871605195396</v>
+        <f t="shared" ref="M21:M22" si="6">J21+L21-D7</f>
+        <v>557.27788084852364</v>
       </c>
       <c r="N21" s="65">
         <f>M21/D7</f>
-        <v>3.3028935802597699E-2</v>
+        <v>2.7863894042426181E-2</v>
       </c>
     </row>
     <row r="22" spans="2:14" s="39" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
@@ -2465,43 +2485,54 @@
       </c>
       <c r="C22" s="68">
         <f>资产结构!D6+资产结构!D7+资产结构!D8+资产结构!D9+资产结构!D10+资产结构!D11</f>
-        <v>61766.395135287668</v>
+        <v>61457.56931328767</v>
       </c>
       <c r="D22" s="68">
         <v>1</v>
       </c>
       <c r="E22" s="69">
         <f>SUM(E20:E21)</f>
-        <v>375.1781352876751</v>
+        <v>66.352313287676225</v>
       </c>
       <c r="F22" s="69">
         <f t="shared" si="3"/>
-        <v>6.0741465398121098E-3</v>
+        <v>1.0796442818855555E-3</v>
       </c>
       <c r="G22" s="69">
         <f>G20+G21</f>
-        <v>75.035627057535024</v>
-      </c>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="69">
-        <f>L15</f>
-        <v>214.03299999999999</v>
-      </c>
-      <c r="M22" s="69">
-        <f>C22-D8+L22</f>
-        <v>1980.4281352876683</v>
+        <v>13.270462657535246</v>
+      </c>
+      <c r="H22" s="69">
+        <f>H20+H21</f>
+        <v>8.83</v>
+      </c>
+      <c r="I22" s="69">
+        <v>0</v>
+      </c>
+      <c r="J22" s="66">
+        <f t="shared" si="4"/>
+        <v>61448.739313287668</v>
+      </c>
+      <c r="K22" s="70">
+        <f>J22/J22</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="66">
+        <f t="shared" si="5"/>
+        <v>222.863</v>
+      </c>
+      <c r="M22" s="66">
+        <f t="shared" si="6"/>
+        <v>1671.6023132876653</v>
       </c>
       <c r="N22" s="74">
         <f>M22/D8</f>
-        <v>3.3007135588127803E-2</v>
+        <v>2.7860038554794422E-2</v>
       </c>
     </row>
     <row r="23" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="39">
         <v>60400</v>
@@ -2512,13 +2543,13 @@
       <c r="D24" s="14"/>
       <c r="M24" s="9">
         <f>M21/M20</f>
-        <v>0.50049551594641417</v>
+        <v>0.50010379798341098</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M25" s="14">
         <f>M20+L20</f>
-        <v>1533.8824192357142</v>
+        <v>1337.1874324391417</v>
       </c>
     </row>
   </sheetData>
@@ -2537,7 +2568,7 @@
   <dimension ref="C1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2650,7 +2681,7 @@
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C12" s="85" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D12" s="86"/>
       <c r="E12" s="86"/>
@@ -2672,19 +2703,19 @@
     </row>
     <row r="14" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="50">
-        <v>0.92059999999999997</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="D14" s="51">
         <f>C14*C6</f>
-        <v>10924.410372</v>
+        <v>10709.62455</v>
       </c>
       <c r="E14" s="51">
         <f>D14-D10</f>
-        <v>277.67890799999986</v>
+        <v>62.893086000000039</v>
       </c>
       <c r="F14" s="52">
         <f>D14-E6</f>
-        <v>924.40969799999948</v>
+        <v>709.62387599999965</v>
       </c>
     </row>
   </sheetData>
@@ -2927,7 +2958,7 @@
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D13" s="82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="83"/>
       <c r="F13" s="83"/>
@@ -2960,27 +2991,27 @@
         <v>28</v>
       </c>
       <c r="D15" s="29">
-        <v>7203.7</v>
+        <v>7221.2</v>
       </c>
       <c r="E15" s="28">
         <f>D15-C6</f>
-        <v>203.69999999999982</v>
+        <v>221.19999999999982</v>
       </c>
       <c r="F15" s="28">
         <f>D15-D6</f>
-        <v>190.39999999999964</v>
+        <v>207.89999999999964</v>
       </c>
       <c r="G15" s="97">
         <f>F15+F16+F17+F18</f>
-        <v>-779.39000000000124</v>
+        <v>-873.43000000000166</v>
       </c>
       <c r="H15" s="97">
         <f>SUM(D15:D18)</f>
-        <v>27977.309999999998</v>
+        <v>27883.269999999997</v>
       </c>
       <c r="I15" s="100">
         <f>SUM(E15:E18)</f>
-        <v>-22.690000000000282</v>
+        <v>-116.7300000000007</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
@@ -2988,15 +3019,15 @@
         <v>29</v>
       </c>
       <c r="D16" s="25">
-        <v>185.2</v>
+        <v>184.43</v>
       </c>
       <c r="E16" s="28">
         <f>D16-C7</f>
-        <v>-814.8</v>
+        <v>-815.56999999999994</v>
       </c>
       <c r="F16" s="28">
         <f>D16-D7</f>
-        <v>-868.5</v>
+        <v>-869.27</v>
       </c>
       <c r="G16" s="98"/>
       <c r="H16" s="98"/>
@@ -3007,15 +3038,15 @@
         <v>30</v>
       </c>
       <c r="D17" s="25">
-        <v>10354.16</v>
+        <v>10296.51</v>
       </c>
       <c r="E17" s="28">
         <f>D17-C8</f>
-        <v>354.15999999999985</v>
+        <v>296.51000000000022</v>
       </c>
       <c r="F17" s="28">
         <f>D17-D8</f>
-        <v>288.25</v>
+        <v>230.60000000000036</v>
       </c>
       <c r="G17" s="98"/>
       <c r="H17" s="98"/>
@@ -3026,15 +3057,15 @@
         <v>31</v>
       </c>
       <c r="D18" s="26">
-        <v>10234.25</v>
+        <v>10181.129999999999</v>
       </c>
       <c r="E18" s="31">
         <f>D18-C9</f>
-        <v>234.25</v>
+        <v>181.1299999999992</v>
       </c>
       <c r="F18" s="31">
         <f>D18-D9</f>
-        <v>-389.54000000000087</v>
+        <v>-442.66000000000167</v>
       </c>
       <c r="G18" s="99"/>
       <c r="H18" s="99"/>
@@ -3064,7 +3095,7 @@
   <dimension ref="C3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -3098,11 +3129,11 @@
       </c>
       <c r="D6" s="55">
         <f>'易H股ETF联接（110031）'!D14</f>
-        <v>10924.410372</v>
+        <v>10709.62455</v>
       </c>
       <c r="E6" s="53">
         <f>D6/D12</f>
-        <v>0.176866568755909</v>
+        <v>0.17426046408386811</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
@@ -3111,11 +3142,11 @@
       </c>
       <c r="D7" s="56">
         <f>打包资产统计!D15</f>
-        <v>7203.7</v>
+        <v>7221.2</v>
       </c>
       <c r="E7" s="53">
         <f>D7/D12</f>
-        <v>0.11662814357583359</v>
+        <v>0.11749895221512954</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
@@ -3124,11 +3155,11 @@
       </c>
       <c r="D8" s="56">
         <f>打包资产统计!D16</f>
-        <v>185.2</v>
+        <v>184.43</v>
       </c>
       <c r="E8" s="53">
         <f>D8/D12</f>
-        <v>2.9983941849666671E-3</v>
+        <v>3.0009322213809817E-3</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
@@ -3137,11 +3168,11 @@
       </c>
       <c r="D9" s="56">
         <f>打包资产统计!D17</f>
-        <v>10354.16</v>
+        <v>10296.51</v>
       </c>
       <c r="E9" s="53">
         <f>D9/D12</f>
-        <v>0.167634196189063</v>
+        <v>0.16753851665548711</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
@@ -3150,11 +3181,11 @@
       </c>
       <c r="D10" s="56">
         <f>打包资产统计!D18</f>
-        <v>10234.25</v>
+        <v>10181.129999999999</v>
       </c>
       <c r="E10" s="53">
         <f>D10/D12</f>
-        <v>0.16569284928453087</v>
+        <v>0.16566112382512904</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
@@ -3166,7 +3197,7 @@
       </c>
       <c r="E11" s="53">
         <f>D11/D12</f>
-        <v>0.37017984800969694</v>
+        <v>0.37204001099900524</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
@@ -3175,7 +3206,7 @@
       </c>
       <c r="D12" s="57">
         <f>SUM(D6:D11)</f>
-        <v>61766.395135287668</v>
+        <v>61457.56931328767</v>
       </c>
       <c r="E12" s="54">
         <f>D12/D12</f>
@@ -3206,13 +3237,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="23" x14ac:dyDescent="0.3">

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
   <si>
     <t>黄金基金</t>
   </si>
@@ -481,6 +481,10 @@
   </si>
   <si>
     <t>易H股ETF联接（110031）估值 20160708</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易H股ETF联接（110031）估值 20160810</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -973,7 +977,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1161,6 +1165,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1207,6 +1220,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1219,35 +1256,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1704,174 +1720,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="79">
         <v>7000</v>
       </c>
-      <c r="E17" s="77">
+      <c r="E17" s="80">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="75">
+      <c r="G17" s="78">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="79">
         <v>10000</v>
       </c>
-      <c r="E19" s="77">
+      <c r="E19" s="80">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="79">
         <v>10000</v>
       </c>
-      <c r="E21" s="77">
+      <c r="E21" s="80">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="79">
         <v>10000</v>
       </c>
-      <c r="E23" s="77">
+      <c r="E23" s="80">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="76" t="s">
+      <c r="C25" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="79">
         <v>1000</v>
       </c>
-      <c r="E25" s="77">
+      <c r="E25" s="80">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="76">
+      <c r="D27" s="79">
         <v>22000</v>
       </c>
-      <c r="E27" s="77">
+      <c r="E27" s="80">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="77"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -1909,13 +1925,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -1930,27 +1960,13 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1959,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:G13"/>
+  <dimension ref="C4:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -1970,19 +1986,26 @@
     <col min="1" max="4" width="10.83203125" style="9"/>
     <col min="5" max="5" width="20.83203125" style="9" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="9"/>
+    <col min="7" max="7" width="21.1640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="75" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" style="75" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="78">
+      <c r="F4" s="81">
         <v>20160708</v>
       </c>
-      <c r="G4" s="78"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="81"/>
+      <c r="H4" s="81">
+        <v>20160712</v>
+      </c>
+      <c r="I4" s="81"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1992,8 +2015,14 @@
       <c r="G5" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
@@ -2008,15 +2037,24 @@
         <f>1000+E6*0.022/365*30</f>
         <v>1039.4647632876713</v>
       </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="75">
+        <f>(F6-8.43)*(1+0.022/12)</f>
+        <v>22898.147878687032</v>
+      </c>
+      <c r="I6" s="75">
+        <f>H6-F6</f>
+        <v>33.473115399359813</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
       <c r="G13" s="9">
         <v>21864.674763287669</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2025,19 +2063,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:N25"/>
+  <dimension ref="B4:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="9"/>
     <col min="2" max="2" width="10.83203125" style="10"/>
-    <col min="3" max="5" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="9" customWidth="1"/>
     <col min="6" max="6" width="16" style="9" customWidth="1"/>
-    <col min="7" max="10" width="15.6640625" style="9" customWidth="1"/>
+    <col min="7" max="9" width="15.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="23" style="9" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" style="10" customWidth="1"/>
     <col min="12" max="12" width="16" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.5" style="9" bestFit="1" customWidth="1"/>
@@ -2051,11 +2092,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="78">
+      <c r="C4" s="81">
         <v>201605</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -2127,19 +2168,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="82">
+      <c r="C11" s="85">
         <v>20160608</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="84"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="87"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -2323,20 +2364,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="79">
+      <c r="C18" s="82">
         <v>20160708</v>
       </c>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="81"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="84"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -2552,11 +2593,200 @@
         <v>1337.1874324391417</v>
       </c>
     </row>
+    <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="72"/>
+      <c r="C27" s="82">
+        <v>20160712</v>
+      </c>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="84"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="40"/>
+      <c r="C28" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="40">
+        <v>216</v>
+      </c>
+      <c r="C29" s="66">
+        <f>C31*D29</f>
+        <v>41221.009873419083</v>
+      </c>
+      <c r="D29" s="66">
+        <f>K20</f>
+        <v>0.66545647460657964</v>
+      </c>
+      <c r="E29" s="66">
+        <f>C29-J20</f>
+        <v>329.54844097993919</v>
+      </c>
+      <c r="F29" s="66">
+        <f>E29/C29</f>
+        <v>7.9946716975618035E-3</v>
+      </c>
+      <c r="G29" s="66">
+        <f>E29*0.2</f>
+        <v>65.90968819598784</v>
+      </c>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="66">
+        <f>L22+H29</f>
+        <v>222.863</v>
+      </c>
+      <c r="M29" s="66">
+        <f>C29+L29-40000</f>
+        <v>1443.8728734190809</v>
+      </c>
+      <c r="N29" s="65">
+        <f>M29/40000</f>
+        <v>3.6096821835477022E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="66">
+        <f>C31*D30</f>
+        <v>20722.951071267948</v>
+      </c>
+      <c r="D30" s="66">
+        <f>K21</f>
+        <v>0.33454352539342042</v>
+      </c>
+      <c r="E30" s="66">
+        <f>C30-J21</f>
+        <v>165.67319041942392</v>
+      </c>
+      <c r="F30" s="66">
+        <f t="shared" ref="F30:F31" si="7">E30/C30</f>
+        <v>7.9946716975618035E-3</v>
+      </c>
+      <c r="G30" s="66">
+        <f>E30*0.2</f>
+        <v>33.134638083884788</v>
+      </c>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="66">
+        <f t="shared" ref="L30:L31" si="8">L23+H30</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="66">
+        <f>C30+L30-20000</f>
+        <v>722.95107126794755</v>
+      </c>
+      <c r="N30" s="65">
+        <f>M30/20000</f>
+        <v>3.6147553563397376E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="68">
+        <f>资产结构!D23</f>
+        <v>61943.960944687031</v>
+      </c>
+      <c r="D31" s="68">
+        <v>1</v>
+      </c>
+      <c r="E31" s="69">
+        <f>SUM(E29:E30)</f>
+        <v>495.2216313993631</v>
+      </c>
+      <c r="F31" s="69">
+        <f t="shared" si="7"/>
+        <v>7.9946716975618035E-3</v>
+      </c>
+      <c r="G31" s="69">
+        <f>G29+G30</f>
+        <v>99.044326279872621</v>
+      </c>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="66">
+        <f>L29+L30</f>
+        <v>222.863</v>
+      </c>
+      <c r="M31" s="66">
+        <f>M29+M30</f>
+        <v>2166.8239446870284</v>
+      </c>
+      <c r="N31" s="74">
+        <f>(C31+L31)/60000-1</f>
+        <v>3.6113732411450439E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="39">
+        <f>60000*0.04/12*3+60000</f>
+        <v>60600</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C11:M11"/>
+    <mergeCell ref="C27:N27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2565,10 +2795,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:L14"/>
+  <dimension ref="C1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2576,7 +2806,7 @@
     <col min="1" max="1" width="10.83203125" style="39"/>
     <col min="2" max="2" width="31.33203125" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="38" style="39" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="39" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" style="39" customWidth="1"/>
     <col min="7" max="7" width="11" style="39" bestFit="1" customWidth="1"/>
@@ -2587,27 +2817,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -2640,12 +2870,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="87"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -2680,12 +2910,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="87"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -2718,8 +2948,49 @@
         <v>709.62387599999965</v>
       </c>
     </row>
+    <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="90"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="50">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="D18" s="51">
+        <f>C18*C6</f>
+        <v>11086.983066000001</v>
+      </c>
+      <c r="E18" s="51">
+        <f>D18-D14</f>
+        <v>377.35851600000024</v>
+      </c>
+      <c r="F18" s="52">
+        <f>D18-E6</f>
+        <v>1086.9823919999999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C1:F1"/>
@@ -2736,8 +3007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2760,20 +3031,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="82" t="s">
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -2820,7 +3091,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="95">
+      <c r="E6" s="100">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -2828,7 +3099,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="93">
+      <c r="G6" s="104">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -2843,15 +3114,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="95">
+      <c r="K6" s="100">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="95">
+      <c r="L6" s="100">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="91">
+      <c r="M6" s="102">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -2866,12 +3137,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="95"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="93"/>
+      <c r="G7" s="104"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -2883,9 +3154,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="91"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -2897,12 +3168,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="95"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="93"/>
+      <c r="G8" s="104"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -2914,9 +3185,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="91"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -2928,12 +3199,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="96"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="94"/>
+      <c r="G9" s="105"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -2945,9 +3216,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="92"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="103"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -2957,14 +3228,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="87"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -3001,15 +3272,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="97">
+      <c r="G15" s="94">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="97">
+      <c r="H15" s="94">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="100">
+      <c r="I15" s="97">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3029,9 +3300,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="101"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="98"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3048,9 +3319,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="101"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="98"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3067,23 +3338,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="102"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3092,10 +3363,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E12"/>
+  <dimension ref="C3:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -3110,10 +3381,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="103">
+      <c r="D4" s="106">
         <v>20160622</v>
       </c>
-      <c r="E4" s="104"/>
+      <c r="E4" s="107"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -3213,9 +3484,112 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="106">
+        <v>20160713</v>
+      </c>
+      <c r="E15" s="107"/>
+    </row>
+    <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="55">
+        <f>'易H股ETF联接（110031）'!D18</f>
+        <v>11086.983066000001</v>
+      </c>
+      <c r="E17" s="53">
+        <f>D17/D23</f>
+        <v>0.17898408330555649</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="108">
+        <v>7228.2</v>
+      </c>
+      <c r="E18" s="53">
+        <f>D18/D23</f>
+        <v>0.11668934129760339</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="56">
+        <v>184.62</v>
+      </c>
+      <c r="E19" s="53">
+        <f>D19/D23</f>
+        <v>2.9804358194797514E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="56">
+        <v>10400.290000000001</v>
+      </c>
+      <c r="E20" s="53">
+        <f>D20/D23</f>
+        <v>0.16789836880607228</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="56">
+        <v>10145.719999999999</v>
+      </c>
+      <c r="E21" s="53">
+        <f>D21/D23</f>
+        <v>0.16378868650423628</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="56">
+        <f>余额宝!H6</f>
+        <v>22898.147878687032</v>
+      </c>
+      <c r="E22" s="53">
+        <f>D22/D23</f>
+        <v>0.36965908426705185</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="57">
+        <f>SUM(D17:D22)</f>
+        <v>61943.960944687031</v>
+      </c>
+      <c r="E23" s="54">
+        <f>D23/D23</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -16,11 +16,11 @@
     <sheet name="余额宝" sheetId="7" r:id="rId2"/>
     <sheet name="投资者权益表" sheetId="6" r:id="rId3"/>
     <sheet name="易H股ETF联接（110031）" sheetId="2" r:id="rId4"/>
-    <sheet name="打包资产统计" sheetId="3" r:id="rId5"/>
+    <sheet name="打包资产统计" sheetId="3" state="hidden" r:id="rId5"/>
     <sheet name="资产结构" sheetId="8" r:id="rId6"/>
     <sheet name="Operation" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="79">
   <si>
     <t>黄金基金</t>
   </si>
@@ -485,6 +485,96 @@
   </si>
   <si>
     <t>易H股ETF联接（110031）估值 20160810</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赎回</t>
+    <rPh sb="0" eb="1">
+      <t>shu'hui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="1">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手续费</t>
+    <rPh sb="0" eb="1">
+      <t>shou'xu'f</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H指数十字星。先把利润拿出来。11%了</t>
+    <rPh sb="1" eb="2">
+      <t>zhi'shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'zi'xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>li'run</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>na'chu'lai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>le</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交价格</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'ge</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <rPh sb="0" eb="1">
+      <t>dan'jia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月操作</t>
+    <rPh sb="0" eb="1">
+      <t>dang'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cao'zuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.赎回944份</t>
+    <rPh sb="2" eb="3">
+      <t>shu'hui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fen</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +613,7 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Microsoft YaHei"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="14"/>
@@ -977,7 +1067,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1174,6 +1264,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1202,6 +1301,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1214,12 +1319,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,9 +1360,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1720,174 +1816,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="82">
         <v>7000</v>
       </c>
-      <c r="E17" s="80">
+      <c r="E17" s="83">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="78">
+      <c r="G17" s="81">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="83"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="82">
         <v>10000</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="83">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="82">
         <v>10000</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="83">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="82">
         <v>10000</v>
       </c>
-      <c r="E23" s="80">
+      <c r="E23" s="83">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="82">
         <v>1000</v>
       </c>
-      <c r="E25" s="80">
+      <c r="E25" s="83">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="82">
         <v>22000</v>
       </c>
-      <c r="E27" s="80">
+      <c r="E27" s="83">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="83"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -1975,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:I13"/>
+  <dimension ref="C4:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -1989,23 +2085,29 @@
     <col min="7" max="7" width="21.1640625" style="9" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" style="75" customWidth="1"/>
     <col min="9" max="9" width="22.83203125" style="75" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="9"/>
+    <col min="10" max="10" width="13.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.83203125" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="81">
+      <c r="F4" s="84">
         <v>20160708</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81">
+      <c r="G4" s="84"/>
+      <c r="H4" s="84">
         <v>20160712</v>
       </c>
-      <c r="I4" s="81"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="84"/>
+      <c r="J4" s="84">
+        <v>20160810</v>
+      </c>
+      <c r="K4" s="84"/>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
@@ -2021,8 +2123,14 @@
       <c r="I5" s="75" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="79" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
@@ -2045,16 +2153,25 @@
         <f>H6-F6</f>
         <v>33.473115399359813</v>
       </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="79">
+        <f>22898.15*(1+0.024/12)+944.8</f>
+        <v>23888.746300000003</v>
+      </c>
+      <c r="K6" s="79">
+        <f>J6-H6</f>
+        <v>990.59842131297046</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="G13" s="9">
         <v>21864.674763287669</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2065,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2092,11 +2209,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="81">
+      <c r="C4" s="84">
         <v>201605</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -2168,19 +2285,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="85">
+      <c r="C11" s="88">
         <v>20160608</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -2364,20 +2481,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="82">
+      <c r="C18" s="85">
         <v>20160708</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="84"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="87"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -2596,20 +2713,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="82">
-        <v>20160712</v>
-      </c>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="84"/>
+      <c r="C27" s="85">
+        <v>20160808</v>
+      </c>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="87"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -2656,7 +2773,7 @@
       </c>
       <c r="C29" s="66">
         <f>C31*D29</f>
-        <v>41221.009873419083</v>
+        <v>41227.122327583667</v>
       </c>
       <c r="D29" s="66">
         <f>K20</f>
@@ -2664,31 +2781,41 @@
       </c>
       <c r="E29" s="66">
         <f>C29-J20</f>
-        <v>329.54844097993919</v>
+        <v>335.66089514452324</v>
       </c>
       <c r="F29" s="66">
         <f>E29/C29</f>
-        <v>7.9946716975618035E-3</v>
+        <v>8.1417493192325954E-3</v>
       </c>
       <c r="G29" s="66">
         <f>E29*0.2</f>
-        <v>65.90968819598784</v>
-      </c>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="67"/>
+        <v>67.132179028904645</v>
+      </c>
+      <c r="H29" s="66">
+        <v>67.13</v>
+      </c>
+      <c r="I29" s="66">
+        <v>0</v>
+      </c>
+      <c r="J29" s="66">
+        <f>C29-H29</f>
+        <v>41159.99232758367</v>
+      </c>
+      <c r="K29" s="67">
+        <f>J29/J31</f>
+        <v>0.66509358314575606</v>
+      </c>
       <c r="L29" s="66">
         <f>L22+H29</f>
-        <v>222.863</v>
+        <v>289.99299999999999</v>
       </c>
       <c r="M29" s="66">
         <f>C29+L29-40000</f>
-        <v>1443.8728734190809</v>
+        <v>1517.1153275836696</v>
       </c>
       <c r="N29" s="65">
         <f>M29/40000</f>
-        <v>3.6096821835477022E-2</v>
+        <v>3.7927883189591741E-2</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
@@ -2697,7 +2824,7 @@
       </c>
       <c r="C30" s="66">
         <f>C31*D30</f>
-        <v>20722.951071267948</v>
+        <v>20726.023972416344</v>
       </c>
       <c r="D30" s="66">
         <f>K21</f>
@@ -2705,31 +2832,41 @@
       </c>
       <c r="E30" s="66">
         <f>C30-J21</f>
-        <v>165.67319041942392</v>
+        <v>168.74609156782026</v>
       </c>
       <c r="F30" s="66">
         <f t="shared" ref="F30:F31" si="7">E30/C30</f>
-        <v>7.9946716975618035E-3</v>
+        <v>8.1417493192326457E-3</v>
       </c>
       <c r="G30" s="66">
         <f>E30*0.2</f>
-        <v>33.134638083884788</v>
-      </c>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
+        <v>33.74921831356405</v>
+      </c>
+      <c r="H30" s="66">
+        <v>0</v>
+      </c>
+      <c r="I30" s="66">
+        <v>0</v>
+      </c>
+      <c r="J30" s="66">
+        <f t="shared" ref="J30:J31" si="8">C30-H30</f>
+        <v>20726.023972416344</v>
+      </c>
+      <c r="K30" s="67">
+        <f>J30/J31</f>
+        <v>0.33490641685424405</v>
+      </c>
       <c r="L30" s="66">
-        <f t="shared" ref="L30:L31" si="8">L23+H30</f>
+        <f t="shared" ref="L30" si="9">L23+H30</f>
         <v>0</v>
       </c>
       <c r="M30" s="66">
         <f>C30+L30-20000</f>
-        <v>722.95107126794755</v>
+        <v>726.0239724163439</v>
       </c>
       <c r="N30" s="65">
         <f>M30/20000</f>
-        <v>3.6147553563397376E-2</v>
+        <v>3.6301198620817196E-2</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35">
@@ -2737,39 +2874,50 @@
         <v>43</v>
       </c>
       <c r="C31" s="68">
-        <f>资产结构!D23</f>
-        <v>61943.960944687031</v>
+        <f>资产结构!D33</f>
+        <v>61953.146300000008</v>
       </c>
       <c r="D31" s="68">
         <v>1</v>
       </c>
       <c r="E31" s="69">
         <f>SUM(E29:E30)</f>
-        <v>495.2216313993631</v>
+        <v>504.4069867123435</v>
       </c>
       <c r="F31" s="69">
         <f t="shared" si="7"/>
-        <v>7.9946716975618035E-3</v>
+        <v>8.1417493192326128E-3</v>
       </c>
       <c r="G31" s="69">
         <f>G29+G30</f>
-        <v>99.044326279872621</v>
-      </c>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="70"/>
+        <v>100.88139734246869</v>
+      </c>
+      <c r="H31" s="69">
+        <f>H29+H30</f>
+        <v>67.13</v>
+      </c>
+      <c r="I31" s="69">
+        <v>0</v>
+      </c>
+      <c r="J31" s="66">
+        <f t="shared" si="8"/>
+        <v>61886.01630000001</v>
+      </c>
+      <c r="K31" s="70">
+        <f>J31/J31</f>
+        <v>1</v>
+      </c>
       <c r="L31" s="66">
         <f>L29+L30</f>
-        <v>222.863</v>
+        <v>289.99299999999999</v>
       </c>
       <c r="M31" s="66">
         <f>M29+M30</f>
-        <v>2166.8239446870284</v>
+        <v>2243.1393000000135</v>
       </c>
       <c r="N31" s="74">
         <f>(C31+L31)/60000-1</f>
-        <v>3.6113732411450439E-2</v>
+        <v>3.738565500000024E-2</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
@@ -2798,7 +2946,7 @@
   <dimension ref="C1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2817,27 +2965,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -2870,12 +3018,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="90"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="95"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -2910,12 +3058,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="95"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -2950,14 +3098,14 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="95"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
         <v>22</v>
       </c>
@@ -2970,33 +3118,39 @@
       <c r="F17" s="49" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="50">
-        <v>0.93430000000000002</v>
+        <v>0.95250000000000001</v>
       </c>
       <c r="D18" s="51">
-        <f>C18*C6</f>
-        <v>11086.983066000001</v>
+        <f>C18*G18</f>
+        <v>10344.15</v>
       </c>
       <c r="E18" s="51">
         <f>D18-D14</f>
-        <v>377.35851600000024</v>
+        <v>-365.47455000000082</v>
       </c>
       <c r="F18" s="52">
         <f>D18-E6</f>
-        <v>1086.9823919999999</v>
+        <v>344.14932599999884</v>
+      </c>
+      <c r="G18" s="39">
+        <v>10860</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C4:F4"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3007,8 +3161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -3031,20 +3185,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="85" t="s">
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="87"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="90"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3091,7 +3245,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="103">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3099,7 +3253,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="104">
+      <c r="G6" s="107">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3114,15 +3268,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="100">
+      <c r="K6" s="103">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="100">
+      <c r="L6" s="103">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="102">
+      <c r="M6" s="105">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3137,12 +3291,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="100"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="104"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3154,9 +3308,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="102"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="105"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3168,12 +3322,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="100"/>
+      <c r="E8" s="103"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="104"/>
+      <c r="G8" s="107"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3185,9 +3339,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="102"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3199,12 +3353,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="101"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="105"/>
+      <c r="G9" s="108"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3216,9 +3370,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="103"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="106"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3228,14 +3382,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="87"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -3272,15 +3426,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="94">
+      <c r="G15" s="97">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H15" s="97">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="97">
+      <c r="I15" s="100">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3300,9 +3454,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="101"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3319,9 +3473,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="101"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3338,9 +3492,9 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3363,10 +3517,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E23"/>
+  <dimension ref="C3:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -3376,15 +3530,17 @@
     <col min="3" max="3" width="32.33203125" style="11" customWidth="1"/>
     <col min="4" max="4" width="21" style="9" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="9"/>
+    <col min="6" max="7" width="10.83203125" style="9"/>
+    <col min="8" max="8" width="20.33203125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="106">
+      <c r="D4" s="109">
         <v>20160622</v>
       </c>
-      <c r="E4" s="107"/>
+      <c r="E4" s="110"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -3486,10 +3642,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="106">
+      <c r="D15" s="109">
         <v>20160713</v>
       </c>
-      <c r="E15" s="107"/>
+      <c r="E15" s="110"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -3499,68 +3655,68 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="58" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="55">
         <f>'易H股ETF联接（110031）'!D18</f>
-        <v>11086.983066000001</v>
+        <v>10344.15</v>
       </c>
       <c r="E17" s="53">
         <f>D17/D23</f>
-        <v>0.17898408330555649</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+        <v>0.16798890542880221</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="108">
-        <v>7228.2</v>
+      <c r="D18" s="78">
+        <v>7157.5</v>
       </c>
       <c r="E18" s="53">
         <f>D18/D23</f>
-        <v>0.11668934129760339</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+        <v>0.11623773733043817</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="60" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="56">
-        <v>184.62</v>
+        <v>181.33</v>
       </c>
       <c r="E19" s="53">
         <f>D19/D23</f>
-        <v>2.9804358194797514E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+        <v>2.9447976123127286E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="60" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="56">
-        <v>10400.290000000001</v>
+        <v>10619.36</v>
       </c>
       <c r="E20" s="53">
         <f>D20/D23</f>
-        <v>0.16789836880607228</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+        <v>0.17245831341912146</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="60" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="56">
-        <v>10145.719999999999</v>
+        <v>10375.9</v>
       </c>
       <c r="E21" s="53">
         <f>D21/D23</f>
-        <v>0.16378868650423628</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+        <v>0.16850452515080591</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="60" t="s">
         <v>59</v>
       </c>
@@ -3570,26 +3726,160 @@
       </c>
       <c r="E22" s="53">
         <f>D22/D23</f>
-        <v>0.36965908426705185</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.37186572105851945</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="61" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="57">
         <f>SUM(D17:D22)</f>
-        <v>61943.960944687031</v>
+        <v>61576.387878687034</v>
       </c>
       <c r="E23" s="54">
         <f>D23/D23</f>
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D25" s="109">
+        <v>20160810</v>
+      </c>
+      <c r="E25" s="110"/>
+    </row>
+    <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="55">
+        <f>'易H股ETF联接（110031）'!D18</f>
+        <v>10344.15</v>
+      </c>
+      <c r="E27" s="53">
+        <f>D27/D33</f>
+        <v>0.16696730703409002</v>
+      </c>
+      <c r="F27" s="39">
+        <v>10860</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="78">
+        <v>7261.8</v>
+      </c>
+      <c r="E28" s="53">
+        <f>D28/D33</f>
+        <v>0.11721438593022675</v>
+      </c>
+      <c r="F28" s="9">
+        <f>D28/G28</f>
+        <v>6999.9999999999991</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1.0374000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="56">
+        <v>171.47</v>
+      </c>
+      <c r="E29" s="53">
+        <f>D29/D33</f>
+        <v>2.7677367533471011E-3</v>
+      </c>
+      <c r="F29" s="9">
+        <v>193.32</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="56">
+        <v>10123.56</v>
+      </c>
+      <c r="E30" s="53">
+        <f>D30/D33</f>
+        <v>0.16340671305018126</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="56">
+        <v>10163.42</v>
+      </c>
+      <c r="E31" s="53">
+        <f>D31/D33</f>
+        <v>0.16405010248849941</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="56">
+        <f>余额宝!J6</f>
+        <v>23888.746300000003</v>
+      </c>
+      <c r="E32" s="53">
+        <f>D32/D33</f>
+        <v>0.38559375474365537</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="57">
+        <f>SUM(D27:D32)</f>
+        <v>61953.146300000008</v>
+      </c>
+      <c r="E33" s="54">
+        <f>D33/D33</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3598,18 +3888,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D3"/>
+  <dimension ref="A2:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
       <c r="B2" t="s">
         <v>64</v>
       </c>
@@ -3617,12 +3911,33 @@
         <v>65</v>
       </c>
       <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="23" x14ac:dyDescent="0.3">
-      <c r="B3" s="60" t="s">
-        <v>29</v>
+    <row r="3" spans="1:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20160722</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="83">
   <si>
     <t>黄金基金</t>
   </si>
@@ -568,11 +568,36 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.赎回944份</t>
+    <t>易H股ETF联接（110031）估值 20160808</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上月总额</t>
+    <rPh sb="0" eb="1">
+      <t>shang'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市值</t>
+    <rPh sb="0" eb="1">
+      <t>shi'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.赎回1000份</t>
     <rPh sb="2" eb="3">
       <t>shu'hui</t>
     </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="8" eb="9">
       <t>fen</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -667,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1055,6 +1080,37 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1067,7 +1123,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1273,6 +1329,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1300,6 +1369,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1816,174 +1894,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="87">
         <v>7000</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="88">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="81">
+      <c r="G17" s="86">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="83"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="87">
         <v>10000</v>
       </c>
-      <c r="E19" s="83">
+      <c r="E19" s="88">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="83"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="87">
         <v>10000</v>
       </c>
-      <c r="E21" s="83">
+      <c r="E21" s="88">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="87">
         <v>10000</v>
       </c>
-      <c r="E23" s="83">
+      <c r="E23" s="88">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="87">
         <v>1000</v>
       </c>
-      <c r="E25" s="83">
+      <c r="E25" s="88">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="87">
         <v>22000</v>
       </c>
-      <c r="E27" s="83">
+      <c r="E27" s="88">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -2074,13 +2152,14 @@
   <dimension ref="C4:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="9"/>
-    <col min="5" max="5" width="20.83203125" style="9" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="9"/>
+    <col min="4" max="4" width="24.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" style="9" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.1640625" style="9" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" style="75" customWidth="1"/>
@@ -2094,18 +2173,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="84">
+      <c r="F4" s="89">
         <v>20160708</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84">
+      <c r="G4" s="89"/>
+      <c r="H4" s="89">
         <v>20160712</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84">
-        <v>20160810</v>
-      </c>
-      <c r="K4" s="84"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89">
+        <v>20160808</v>
+      </c>
+      <c r="K4" s="89"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -2162,16 +2241,47 @@
         <v>990.59842131297046</v>
       </c>
     </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E8" s="89">
+        <v>20160810</v>
+      </c>
+      <c r="F8" s="89"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D10" s="9">
+        <v>23888.746299999999</v>
+      </c>
+      <c r="E10" s="81">
+        <f>23888.7462999999*(1+0.024/12)</f>
+        <v>23936.523792599997</v>
+      </c>
+      <c r="F10" s="81">
+        <f>E10-D10</f>
+        <v>47.777492599998368</v>
+      </c>
+    </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="G13" s="9">
         <v>21864.674763287669</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2180,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:N32"/>
+  <dimension ref="B4:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2209,11 +2319,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="84">
+      <c r="C4" s="89">
         <v>201605</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -2285,19 +2395,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="88">
+      <c r="C11" s="93">
         <v>20160608</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="95"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -2481,20 +2591,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="85">
+      <c r="C18" s="90">
         <v>20160708</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="87"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="92"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -2713,20 +2823,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="85">
+      <c r="C27" s="90">
         <v>20160808</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="87"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="92"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -2806,7 +2916,6 @@
         <v>0.66509358314575606</v>
       </c>
       <c r="L29" s="66">
-        <f>L22+H29</f>
         <v>289.99299999999999</v>
       </c>
       <c r="M29" s="66">
@@ -2929,12 +3038,230 @@
         <v>60600</v>
       </c>
     </row>
+    <row r="34" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="72"/>
+      <c r="C35" s="90">
+        <v>20160910</v>
+      </c>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="92"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="40"/>
+      <c r="C36" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="M36" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" s="65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="40">
+        <v>216</v>
+      </c>
+      <c r="C37" s="66">
+        <f>C39*D37</f>
+        <v>41723.578822078998</v>
+      </c>
+      <c r="D37" s="66">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="E37" s="66">
+        <f>C37-J29</f>
+        <v>563.58649449532822</v>
+      </c>
+      <c r="F37" s="66">
+        <f>E37/C37</f>
+        <v>1.3507625913362287E-2</v>
+      </c>
+      <c r="G37" s="66">
+        <f>E37*0.2</f>
+        <v>112.71729889906565</v>
+      </c>
+      <c r="H37" s="85">
+        <f>ROUND(G37,2)</f>
+        <v>112.72</v>
+      </c>
+      <c r="I37" s="66">
+        <v>0</v>
+      </c>
+      <c r="J37" s="66">
+        <f>C37-H37</f>
+        <v>41610.858822078997</v>
+      </c>
+      <c r="K37" s="67">
+        <f>J37/J39</f>
+        <v>0.66439707010732441</v>
+      </c>
+      <c r="L37" s="66">
+        <f>289.93+H37</f>
+        <v>402.65</v>
+      </c>
+      <c r="M37" s="66">
+        <f>J37+L37-40000</f>
+        <v>2013.5088220789985</v>
+      </c>
+      <c r="N37" s="65">
+        <f>M37/40000</f>
+        <v>5.0337720551974961E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="66">
+        <f>C39*D38</f>
+        <v>21018.644970521</v>
+      </c>
+      <c r="D38" s="66">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="E38" s="66">
+        <f>C38-J30</f>
+        <v>292.62099810465588</v>
+      </c>
+      <c r="F38" s="66">
+        <f t="shared" ref="F38:F39" si="10">E38/C38</f>
+        <v>1.3921972539859811E-2</v>
+      </c>
+      <c r="G38" s="66">
+        <f>E38*0.2</f>
+        <v>58.524199620931178</v>
+      </c>
+      <c r="H38" s="66">
+        <v>0</v>
+      </c>
+      <c r="I38" s="66">
+        <v>0</v>
+      </c>
+      <c r="J38" s="66">
+        <f t="shared" ref="J38" si="11">C38-H38</f>
+        <v>21018.644970521</v>
+      </c>
+      <c r="K38" s="67">
+        <f>J38/J39</f>
+        <v>0.33560292989267565</v>
+      </c>
+      <c r="L38" s="66">
+        <v>0</v>
+      </c>
+      <c r="M38" s="66">
+        <f>C38-20000</f>
+        <v>1018.6449705209998</v>
+      </c>
+      <c r="N38" s="65">
+        <f>M38/20000</f>
+        <v>5.0932248526049988E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="68">
+        <f>资产结构!D43</f>
+        <v>62742.223792599994</v>
+      </c>
+      <c r="D39" s="68">
+        <v>1</v>
+      </c>
+      <c r="E39" s="69">
+        <f>SUM(E37:E38)</f>
+        <v>856.20749259998411</v>
+      </c>
+      <c r="F39" s="69">
+        <f t="shared" si="10"/>
+        <v>1.3646432033238958E-2</v>
+      </c>
+      <c r="G39" s="69">
+        <f>G37+G38</f>
+        <v>171.24149851999684</v>
+      </c>
+      <c r="H39" s="69">
+        <f>SUM(H37:H38)</f>
+        <v>112.72</v>
+      </c>
+      <c r="I39" s="69">
+        <v>0</v>
+      </c>
+      <c r="J39" s="69">
+        <f>C39-H39</f>
+        <v>62629.503792599993</v>
+      </c>
+      <c r="K39" s="70">
+        <f>J39/J39</f>
+        <v>1</v>
+      </c>
+      <c r="L39" s="69">
+        <f>L37+L38</f>
+        <v>402.65</v>
+      </c>
+      <c r="M39" s="69">
+        <f>M37+M38</f>
+        <v>3032.1537925999983</v>
+      </c>
+      <c r="N39" s="74">
+        <f>(J39+L39)/60000-1</f>
+        <v>5.0535896543333347E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="39">
+        <v>60800</v>
+      </c>
+      <c r="K40" s="83"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C11:M11"/>
     <mergeCell ref="C27:N27"/>
+    <mergeCell ref="C35:N35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2943,10 +3270,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:L18"/>
+  <dimension ref="C1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2965,27 +3292,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3018,12 +3345,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="95"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="103"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3058,12 +3385,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="95"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="103"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3098,12 +3425,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="95"/>
+      <c r="C16" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="103"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3128,22 +3455,71 @@
       </c>
       <c r="D18" s="51">
         <f>C18*G18</f>
-        <v>10344.15</v>
+        <v>9391.65</v>
       </c>
       <c r="E18" s="51">
         <f>D18-D14</f>
-        <v>-365.47455000000082</v>
+        <v>-1317.9745500000008</v>
       </c>
       <c r="F18" s="52">
         <f>D18-E6</f>
-        <v>344.14932599999884</v>
+        <v>-608.35067400000116</v>
       </c>
       <c r="G18" s="39">
-        <v>10860</v>
+        <f>10860-1000</f>
+        <v>9860</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="98"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="50">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="D22" s="51">
+        <f>C22*G22</f>
+        <v>9574.06</v>
+      </c>
+      <c r="E22" s="51">
+        <f>D22-D18</f>
+        <v>182.40999999999985</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="46">
+        <f>10860-1000</f>
+        <v>9860</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
@@ -3185,20 +3561,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="88" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="90"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="95"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3245,7 +3621,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="103">
+      <c r="E6" s="111">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3253,7 +3629,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="107">
+      <c r="G6" s="115">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3268,15 +3644,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="103">
+      <c r="K6" s="111">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="103">
+      <c r="L6" s="111">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="105">
+      <c r="M6" s="113">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3291,12 +3667,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="103"/>
+      <c r="E7" s="111"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="107"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3308,9 +3684,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="105"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="113"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3322,12 +3698,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="103"/>
+      <c r="E8" s="111"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="107"/>
+      <c r="G8" s="115"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3339,9 +3715,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="105"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="113"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3353,12 +3729,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="104"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="108"/>
+      <c r="G9" s="116"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3370,9 +3746,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="106"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="114"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3382,14 +3758,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -3426,15 +3802,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="97">
+      <c r="G15" s="105">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="97">
+      <c r="H15" s="105">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="100">
+      <c r="I15" s="108">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3454,9 +3830,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="101"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="109"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3473,9 +3849,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="101"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="109"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3492,9 +3868,9 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="102"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3517,10 +3893,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H33"/>
+  <dimension ref="C3:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -3537,10 +3913,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="109">
+      <c r="D4" s="117">
         <v>20160622</v>
       </c>
-      <c r="E4" s="110"/>
+      <c r="E4" s="118"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -3642,10 +4018,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="109">
+      <c r="D15" s="117">
         <v>20160713</v>
       </c>
-      <c r="E15" s="110"/>
+      <c r="E15" s="118"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -3660,12 +4036,18 @@
         <v>41</v>
       </c>
       <c r="D17" s="55">
-        <f>'易H股ETF联接（110031）'!D18</f>
-        <v>10344.15</v>
+        <f>F17*G17</f>
+        <v>10703.65</v>
       </c>
       <c r="E17" s="53">
         <f>D17/D23</f>
-        <v>0.16798890542880221</v>
+        <v>0.17281822165793587</v>
+      </c>
+      <c r="F17" s="9">
+        <v>11860</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.90249999999999997</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
@@ -3677,7 +4059,7 @@
       </c>
       <c r="E18" s="53">
         <f>D18/D23</f>
-        <v>0.11623773733043817</v>
+        <v>0.11556304826079665</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
@@ -3689,7 +4071,7 @@
       </c>
       <c r="E19" s="53">
         <f>D19/D23</f>
-        <v>2.9447976123127286E-3</v>
+        <v>2.9277048607936093E-3</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
@@ -3701,7 +4083,7 @@
       </c>
       <c r="E20" s="53">
         <f>D20/D23</f>
-        <v>0.17245831341912146</v>
+        <v>0.17145729824362888</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
@@ -3713,7 +4095,7 @@
       </c>
       <c r="E21" s="53">
         <f>D21/D23</f>
-        <v>0.16850452515080591</v>
+        <v>0.16752645930132029</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
@@ -3726,7 +4108,7 @@
       </c>
       <c r="E22" s="53">
         <f>D22/D23</f>
-        <v>0.37186572105851945</v>
+        <v>0.3697072676755247</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
@@ -3735,7 +4117,7 @@
       </c>
       <c r="D23" s="57">
         <f>SUM(D17:D22)</f>
-        <v>61576.387878687034</v>
+        <v>61935.887878687034</v>
       </c>
       <c r="E23" s="54">
         <f>D23/D23</f>
@@ -3744,10 +4126,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="109">
-        <v>20160810</v>
-      </c>
-      <c r="E25" s="110"/>
+      <c r="D25" s="117">
+        <v>20160808</v>
+      </c>
+      <c r="E25" s="118"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -3771,7 +4153,7 @@
         <v>41</v>
       </c>
       <c r="D27" s="55">
-        <f>'易H股ETF联接（110031）'!D18</f>
+        <f>F27*G27</f>
         <v>10344.15</v>
       </c>
       <c r="E27" s="53">
@@ -3785,7 +4167,7 @@
         <v>0.95250000000000001</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
@@ -3862,7 +4244,7 @@
         <v>0.38559375474365537</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="61" t="s">
         <v>60</v>
       </c>
@@ -3875,11 +4257,133 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D35" s="117">
+        <v>20160908</v>
+      </c>
+      <c r="E35" s="118"/>
+    </row>
+    <row r="36" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="55">
+        <f>F37*G37</f>
+        <v>10545.06</v>
+      </c>
+      <c r="E37" s="53">
+        <f>D37/D43</f>
+        <v>0.16806959273323868</v>
+      </c>
+      <c r="F37" s="9">
+        <v>10860</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="H37" s="9">
+        <f>944+D37-10000</f>
+        <v>1489.0599999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="78">
+        <v>7220.5</v>
+      </c>
+      <c r="E38" s="53">
+        <f>D38/D43</f>
+        <v>0.1150819904609694</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="56">
+        <v>173.79</v>
+      </c>
+      <c r="E39" s="53">
+        <f>D39/D43</f>
+        <v>2.7699050096547154E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="56">
+        <v>10331.1</v>
+      </c>
+      <c r="E40" s="53">
+        <f>D40/D43</f>
+        <v>0.16465944902033391</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="56">
+        <v>10535.25</v>
+      </c>
+      <c r="E41" s="53">
+        <f>D41/D43</f>
+        <v>0.1679132386959252</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="56">
+        <f>余额宝!E10</f>
+        <v>23936.523792599997</v>
+      </c>
+      <c r="E42" s="53">
+        <f>D42/D43</f>
+        <v>0.38150582407987815</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="57">
+        <f>SUM(D37:D42)</f>
+        <v>62742.223792599994</v>
+      </c>
+      <c r="E43" s="54">
+        <f>D43/D43</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D35:E35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3891,13 +4395,13 @@
   <dimension ref="A2:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" customWidth="1"/>
+    <col min="7" max="7" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="易H股ETF联接（110031）" sheetId="2" r:id="rId4"/>
     <sheet name="打包资产统计" sheetId="3" state="hidden" r:id="rId5"/>
     <sheet name="资产结构" sheetId="8" r:id="rId6"/>
-    <sheet name="Operation" sheetId="9" r:id="rId7"/>
+    <sheet name="策略" sheetId="10" r:id="rId7"/>
+    <sheet name="Operation" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="91">
   <si>
     <t>黄金基金</t>
   </si>
@@ -599,6 +600,71 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>fen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值</t>
+    <rPh sb="0" eb="1">
+      <t>jing'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资对象</t>
+    <rPh sb="0" eb="1">
+      <t>tou'zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dui'xiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金</t>
+    <rPh sb="0" eb="1">
+      <t>ji'jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战略投资</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'lue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>港股</t>
+    <rPh sb="0" eb="1">
+      <t>gang'gu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石油</t>
+    <rPh sb="0" eb="1">
+      <t>shi'you</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160811申购1000元</t>
+    <rPh sb="8" eb="9">
+      <t>shen'qing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gou'mai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yuan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1397,6 +1463,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1413,24 +1497,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2099,13 +2165,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -2120,27 +2200,13 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2152,7 +2218,7 @@
   <dimension ref="C4:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2292,7 +2358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -3621,7 +3687,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="109">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3629,7 +3695,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="115">
+      <c r="G6" s="107">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3644,15 +3710,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="111">
+      <c r="K6" s="109">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="111">
+      <c r="L6" s="109">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="113">
+      <c r="M6" s="105">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3667,12 +3733,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="111"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="115"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3684,9 +3750,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="113"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="105"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3698,12 +3764,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="111"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="115"/>
+      <c r="G8" s="107"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3715,9 +3781,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="113"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3729,12 +3795,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="112"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="116"/>
+      <c r="G9" s="108"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3746,9 +3812,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="114"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="106"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3802,15 +3868,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="105">
+      <c r="G15" s="111">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="105">
+      <c r="H15" s="111">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="108">
+      <c r="I15" s="114">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3830,9 +3896,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="109"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="115"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3849,9 +3915,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="109"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="115"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3868,23 +3934,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="110"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3893,10 +3959,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H43"/>
+  <dimension ref="C3:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -3906,9 +3972,12 @@
     <col min="3" max="3" width="32.33203125" style="11" customWidth="1"/>
     <col min="4" max="4" width="21" style="9" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" style="9" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="9"/>
+    <col min="6" max="6" width="15.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="9"/>
     <col min="8" max="8" width="20.33203125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="9"/>
+    <col min="9" max="9" width="10.83203125" style="9"/>
+    <col min="10" max="10" width="36.6640625" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4244,7 +4313,7 @@
         <v>0.38559375474365537</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="61" t="s">
         <v>60</v>
       </c>
@@ -4257,14 +4326,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D35" s="117">
         <v>20160908</v>
       </c>
       <c r="E35" s="118"/>
     </row>
-    <row r="36" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
         <v>24</v>
       </c>
@@ -4275,13 +4344,19 @@
         <v>23</v>
       </c>
       <c r="G36" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="J36" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C37" s="58" t="s">
         <v>41</v>
       </c>
@@ -4300,11 +4375,15 @@
         <v>0.97099999999999997</v>
       </c>
       <c r="H37" s="9">
+        <f>F37*G37</f>
+        <v>10545.06</v>
+      </c>
+      <c r="I37" s="9">
         <f>944+D37-10000</f>
         <v>1489.0599999999995</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C38" s="59" t="s">
         <v>28</v>
       </c>
@@ -4315,8 +4394,22 @@
         <f>D38/D43</f>
         <v>0.1150819904609694</v>
       </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F38" s="9">
+        <v>7000</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1.0262</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" ref="H38:H42" si="0">F38*G38</f>
+        <v>7183.4</v>
+      </c>
+      <c r="I38" s="9">
+        <f>H38-F38</f>
+        <v>183.39999999999964</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C39" s="60" t="s">
         <v>29</v>
       </c>
@@ -4327,8 +4420,22 @@
         <f>D39/D43</f>
         <v>2.7699050096547154E-3</v>
       </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F39" s="9">
+        <v>193.32</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" si="0"/>
+        <v>170.89488</v>
+      </c>
+      <c r="I39" s="9">
+        <f>-1000+933+H39-4.67</f>
+        <v>99.224879999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C40" s="60" t="s">
         <v>30</v>
       </c>
@@ -4339,8 +4446,22 @@
         <f>D40/D43</f>
         <v>0.16465944902033391</v>
       </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F40" s="9">
+        <v>11530.25</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="0"/>
+        <v>10319.57375</v>
+      </c>
+      <c r="I40" s="9">
+        <f>H40-10000</f>
+        <v>319.57374999999956</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C41" s="60" t="s">
         <v>31</v>
       </c>
@@ -4351,8 +4472,25 @@
         <f>D41/D43</f>
         <v>0.1679132386959252</v>
       </c>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F41" s="9">
+        <v>17706.310000000001</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="0"/>
+        <v>10411.31028</v>
+      </c>
+      <c r="I41" s="9">
+        <f>F41*G41-10000</f>
+        <v>411.31027999999969</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C42" s="60" t="s">
         <v>59</v>
       </c>
@@ -4364,8 +4502,18 @@
         <f>D42/D43</f>
         <v>0.38150582407987815</v>
       </c>
-    </row>
-    <row r="43" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F42" s="9">
+        <v>23936.523792599997</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="0"/>
+        <v>23936.523792599997</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C43" s="61" t="s">
         <v>60</v>
       </c>
@@ -4391,6 +4539,43 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G3"/>
   <sheetViews>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="94">
   <si>
     <t>黄金基金</t>
   </si>
@@ -665,6 +665,42 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结</t>
+    <rPh sb="0" eb="1">
+      <t>dong'jie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160811申购华宝油气1000元</t>
+    <rPh sb="8" eb="9">
+      <t>shen'qing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gou'mai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hua'bao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you'qi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计总值</t>
+    <rPh sb="0" eb="1">
+      <t>lei'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'zhi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -758,7 +794,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1174,6 +1210,19 @@
         <color auto="1"/>
       </right>
       <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -1189,7 +1238,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1463,6 +1512,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1475,36 +1548,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2165,13 +2222,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -2186,27 +2257,13 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2218,7 +2275,7 @@
   <dimension ref="C4:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2356,10 +2413,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:N40"/>
+  <dimension ref="B4:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -3104,8 +3161,8 @@
         <v>60600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
       <c r="C35" s="90">
         <v>20160910</v>
@@ -3120,9 +3177,10 @@
       <c r="K35" s="91"/>
       <c r="L35" s="91"/>
       <c r="M35" s="91"/>
-      <c r="N35" s="92"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N35" s="91"/>
+      <c r="O35" s="92"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
       <c r="C36" s="41" t="s">
         <v>57</v>
@@ -3157,11 +3215,14 @@
       <c r="M36" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="65" t="s">
+      <c r="N36" s="64" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O36" s="121" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="40">
         <v>216</v>
       </c>
@@ -3207,12 +3268,16 @@
         <f>J37+L37-40000</f>
         <v>2013.5088220789985</v>
       </c>
-      <c r="N37" s="65">
+      <c r="N37" s="64">
         <f>M37/40000</f>
         <v>5.0337720551974961E-2</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O37" s="19">
+        <f t="shared" ref="O37:O38" si="10">J37+L37</f>
+        <v>42013.508822078998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="40" t="s">
         <v>32</v>
       </c>
@@ -3228,7 +3293,7 @@
         <v>292.62099810465588</v>
       </c>
       <c r="F38" s="66">
-        <f t="shared" ref="F38:F39" si="10">E38/C38</f>
+        <f t="shared" ref="F38:F39" si="11">E38/C38</f>
         <v>1.3921972539859811E-2</v>
       </c>
       <c r="G38" s="66">
@@ -3242,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="66">
-        <f t="shared" ref="J38" si="11">C38-H38</f>
+        <f t="shared" ref="J38" si="12">C38-H38</f>
         <v>21018.644970521</v>
       </c>
       <c r="K38" s="67">
@@ -3256,17 +3321,21 @@
         <f>C38-20000</f>
         <v>1018.6449705209998</v>
       </c>
-      <c r="N38" s="65">
+      <c r="N38" s="64">
         <f>M38/20000</f>
         <v>5.0932248526049988E-2</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O38" s="19">
+        <f t="shared" si="10"/>
+        <v>21018.644970521</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="73" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="68">
-        <f>资产结构!D43</f>
+        <f>资产结构!D44</f>
         <v>62742.223792599994</v>
       </c>
       <c r="D39" s="68">
@@ -3277,7 +3346,7 @@
         <v>856.20749259998411</v>
       </c>
       <c r="F39" s="69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3646432033238958E-2</v>
       </c>
       <c r="G39" s="69">
@@ -3307,12 +3376,16 @@
         <f>M37+M38</f>
         <v>3032.1537925999983</v>
       </c>
-      <c r="N39" s="74">
+      <c r="N39" s="122">
         <f>(J39+L39)/60000-1</f>
         <v>5.0535896543333347E-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O39" s="22">
+        <f>J39+L39</f>
+        <v>63032.153792599995</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="84" t="s">
         <v>67</v>
       </c>
@@ -3327,7 +3400,7 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C11:M11"/>
     <mergeCell ref="C27:N27"/>
-    <mergeCell ref="C35:N35"/>
+    <mergeCell ref="C35:O35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3687,7 +3760,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="109">
+      <c r="E6" s="111">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3695,7 +3768,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="107">
+      <c r="G6" s="115">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3710,15 +3783,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="109">
+      <c r="K6" s="111">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="109">
+      <c r="L6" s="111">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="105">
+      <c r="M6" s="113">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3733,12 +3806,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="109"/>
+      <c r="E7" s="111"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="107"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3750,9 +3823,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="105"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="113"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3764,12 +3837,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="109"/>
+      <c r="E8" s="111"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="107"/>
+      <c r="G8" s="115"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3781,9 +3854,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="105"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="113"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3795,12 +3868,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="110"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="108"/>
+      <c r="G9" s="116"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3812,9 +3885,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="106"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="114"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3868,15 +3941,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="105">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="111">
+      <c r="H15" s="105">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="114">
+      <c r="I15" s="108">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3896,9 +3969,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="115"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="109"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3915,9 +3988,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="115"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="109"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3934,23 +4007,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="116"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3959,10 +4032,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J43"/>
+  <dimension ref="C3:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4365,7 +4438,7 @@
         <v>10545.06</v>
       </c>
       <c r="E37" s="53">
-        <f>D37/D43</f>
+        <f>D37/D44</f>
         <v>0.16806959273323868</v>
       </c>
       <c r="F37" s="9">
@@ -4391,7 +4464,7 @@
         <v>7220.5</v>
       </c>
       <c r="E38" s="53">
-        <f>D38/D43</f>
+        <f>D38/D44</f>
         <v>0.1150819904609694</v>
       </c>
       <c r="F38" s="9">
@@ -4417,7 +4490,7 @@
         <v>173.79</v>
       </c>
       <c r="E39" s="53">
-        <f>D39/D43</f>
+        <f>D39/D44</f>
         <v>2.7699050096547154E-3</v>
       </c>
       <c r="F39" s="9">
@@ -4443,7 +4516,7 @@
         <v>10331.1</v>
       </c>
       <c r="E40" s="53">
-        <f>D40/D43</f>
+        <f>D40/D44</f>
         <v>0.16465944902033391</v>
       </c>
       <c r="F40" s="9">
@@ -4469,7 +4542,7 @@
         <v>10535.25</v>
       </c>
       <c r="E41" s="53">
-        <f>D41/D43</f>
+        <f>D41/D44</f>
         <v>0.1679132386959252</v>
       </c>
       <c r="F41" s="9">
@@ -4494,13 +4567,12 @@
       <c r="C42" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="56">
-        <f>余额宝!E10</f>
-        <v>23936.523792599997</v>
+      <c r="D42" s="11">
+        <v>22936.523792600001</v>
       </c>
       <c r="E42" s="53">
-        <f>D42/D43</f>
-        <v>0.38150582407987815</v>
+        <f>D42/D44</f>
+        <v>0.36556759397656546</v>
       </c>
       <c r="F42" s="9">
         <v>23936.523792599997</v>
@@ -4512,17 +4584,32 @@
         <f t="shared" si="0"/>
         <v>23936.523792599997</v>
       </c>
-    </row>
-    <row r="43" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="61" t="s">
+      <c r="J42" s="9">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C43" s="119" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="120"/>
+      <c r="J43" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="57">
-        <f>SUM(D37:D42)</f>
+      <c r="D44" s="57">
+        <f>SUM(D37:D43)</f>
         <v>62742.223792599994</v>
       </c>
-      <c r="E43" s="54">
-        <f>D43/D43</f>
+      <c r="E44" s="54">
+        <f>D44/D44</f>
         <v>1</v>
       </c>
     </row>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -15,7 +15,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="余额宝" sheetId="7" r:id="rId2"/>
     <sheet name="投资者权益表" sheetId="6" r:id="rId3"/>
-    <sheet name="易H股ETF联接（110031）" sheetId="2" r:id="rId4"/>
+    <sheet name="易H股ETF联接（110031）" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="打包资产统计" sheetId="3" state="hidden" r:id="rId5"/>
     <sheet name="资产结构" sheetId="8" r:id="rId6"/>
     <sheet name="策略" sheetId="10" r:id="rId7"/>
@@ -676,31 +676,25 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20160811申购华宝油气1000元</t>
-    <rPh sb="8" eb="9">
-      <t>shen'qing</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>gou'mai</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>hua'bao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>you'qi</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>yuan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>累计总值</t>
     <rPh sb="0" eb="1">
       <t>lei'ji</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>zong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申购黄金基金</t>
+    <rPh sb="0" eb="1">
+      <t>shen'gou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huang'jin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'jin</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -740,7 +734,7 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Microsoft YaHei"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="14"/>
@@ -794,7 +788,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1210,19 +1204,6 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -1238,7 +1219,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1457,6 +1438,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="179" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1512,6 +1495,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1530,38 +1531,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2017,174 +1995,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="87">
+      <c r="D17" s="89">
         <v>7000</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="90">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="86">
+      <c r="G17" s="88">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C19" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="87">
+      <c r="D19" s="89">
         <v>10000</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="90">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="87">
+      <c r="D21" s="89">
         <v>10000</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="90">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="90"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="87">
+      <c r="D23" s="89">
         <v>10000</v>
       </c>
-      <c r="E23" s="88">
+      <c r="E23" s="90">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="87">
+      <c r="D25" s="89">
         <v>1000</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="90">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="90"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="87" t="s">
+      <c r="C27" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="87">
+      <c r="D27" s="89">
         <v>22000</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="90">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="90"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -2222,13 +2200,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -2243,27 +2235,13 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2274,7 +2252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2296,18 +2274,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="89">
+      <c r="F4" s="91">
         <v>20160708</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89">
+      <c r="G4" s="91"/>
+      <c r="H4" s="91">
         <v>20160712</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89">
+      <c r="I4" s="91"/>
+      <c r="J4" s="91">
         <v>20160808</v>
       </c>
-      <c r="K4" s="89"/>
+      <c r="K4" s="91"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -2365,10 +2343,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="89">
+      <c r="E8" s="91">
         <v>20160810</v>
       </c>
-      <c r="F8" s="89"/>
+      <c r="F8" s="91"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -2386,12 +2364,12 @@
         <v>23888.746299999999</v>
       </c>
       <c r="E10" s="81">
-        <f>23888.7462999999*(1+0.024/12)</f>
-        <v>23936.523792599997</v>
+        <f>19888.7462999999*(1+0.024/12)</f>
+        <v>19928.523792599899</v>
       </c>
       <c r="F10" s="81">
         <f>E10-D10</f>
-        <v>47.777492599998368</v>
+        <v>-3960.2225074000999</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.3">
@@ -2415,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2442,11 +2420,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="89">
+      <c r="C4" s="91">
         <v>201605</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -2518,19 +2496,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="93">
+      <c r="C11" s="95">
         <v>20160608</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="95"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="97"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -2714,20 +2692,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="90">
+      <c r="C18" s="92">
         <v>20160708</v>
       </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="92"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="94"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -2946,20 +2924,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="90">
+      <c r="C27" s="92">
         <v>20160808</v>
       </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="92"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="94"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -3164,21 +3142,21 @@
     <row r="34" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="90">
+      <c r="C35" s="92">
         <v>20160910</v>
       </c>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="92"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="94"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -3218,8 +3196,8 @@
       <c r="N36" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="O36" s="121" t="s">
-        <v>93</v>
+      <c r="O36" s="86" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
@@ -3228,53 +3206,53 @@
       </c>
       <c r="C37" s="66">
         <f>C39*D37</f>
-        <v>41723.578822078998</v>
+        <v>42009.285432078999</v>
       </c>
       <c r="D37" s="66">
         <v>0.66500000000000004</v>
       </c>
       <c r="E37" s="66">
         <f>C37-J29</f>
-        <v>563.58649449532822</v>
+        <v>849.29310449532932</v>
       </c>
       <c r="F37" s="66">
         <f>E37/C37</f>
-        <v>1.3507625913362287E-2</v>
+        <v>2.0216794829049742E-2</v>
       </c>
       <c r="G37" s="66">
         <f>E37*0.2</f>
-        <v>112.71729889906565</v>
+        <v>169.85862089906587</v>
       </c>
       <c r="H37" s="85">
         <f>ROUND(G37,2)</f>
-        <v>112.72</v>
+        <v>169.86</v>
       </c>
       <c r="I37" s="66">
         <v>0</v>
       </c>
       <c r="J37" s="66">
         <f>C37-H37</f>
-        <v>41610.858822078997</v>
+        <v>41839.425432078999</v>
       </c>
       <c r="K37" s="67">
         <f>J37/J39</f>
-        <v>0.66439707010732441</v>
+        <v>0.66409680483169242</v>
       </c>
       <c r="L37" s="66">
         <f>289.93+H37</f>
-        <v>402.65</v>
+        <v>459.79</v>
       </c>
       <c r="M37" s="66">
         <f>J37+L37-40000</f>
-        <v>2013.5088220789985</v>
+        <v>2299.2154320789996</v>
       </c>
       <c r="N37" s="64">
         <f>M37/40000</f>
-        <v>5.0337720551974961E-2</v>
+        <v>5.7480385801974988E-2</v>
       </c>
       <c r="O37" s="19">
         <f t="shared" ref="O37:O38" si="10">J37+L37</f>
-        <v>42013.508822078998</v>
+        <v>42299.215432079</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
@@ -3283,22 +3261,22 @@
       </c>
       <c r="C38" s="66">
         <f>C39*D38</f>
-        <v>21018.644970521</v>
+        <v>21162.572360521001</v>
       </c>
       <c r="D38" s="66">
         <v>0.33500000000000002</v>
       </c>
       <c r="E38" s="66">
         <f>C38-J30</f>
-        <v>292.62099810465588</v>
+        <v>436.54838810465662</v>
       </c>
       <c r="F38" s="66">
         <f t="shared" ref="F38:F39" si="11">E38/C38</f>
-        <v>1.3921972539859811E-2</v>
+        <v>2.0628323469742374E-2</v>
       </c>
       <c r="G38" s="66">
         <f>E38*0.2</f>
-        <v>58.524199620931178</v>
+        <v>87.309677620931325</v>
       </c>
       <c r="H38" s="66">
         <v>0</v>
@@ -3308,26 +3286,26 @@
       </c>
       <c r="J38" s="66">
         <f t="shared" ref="J38" si="12">C38-H38</f>
-        <v>21018.644970521</v>
+        <v>21162.572360521001</v>
       </c>
       <c r="K38" s="67">
         <f>J38/J39</f>
-        <v>0.33560292989267565</v>
+        <v>0.33590319516830758</v>
       </c>
       <c r="L38" s="66">
         <v>0</v>
       </c>
       <c r="M38" s="66">
         <f>C38-20000</f>
-        <v>1018.6449705209998</v>
+        <v>1162.5723605210005</v>
       </c>
       <c r="N38" s="64">
         <f>M38/20000</f>
-        <v>5.0932248526049988E-2</v>
+        <v>5.8128618026050023E-2</v>
       </c>
       <c r="O38" s="19">
         <f t="shared" si="10"/>
-        <v>21018.644970521</v>
+        <v>21162.572360521001</v>
       </c>
     </row>
     <row r="39" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.35">
@@ -3336,33 +3314,33 @@
       </c>
       <c r="C39" s="68">
         <f>资产结构!D44</f>
-        <v>62742.223792599994</v>
+        <v>63171.8577926</v>
       </c>
       <c r="D39" s="68">
         <v>1</v>
       </c>
       <c r="E39" s="69">
         <f>SUM(E37:E38)</f>
-        <v>856.20749259998411</v>
+        <v>1285.8414925999859</v>
       </c>
       <c r="F39" s="69">
         <f t="shared" si="11"/>
-        <v>1.3646432033238958E-2</v>
+        <v>2.0354656923681772E-2</v>
       </c>
       <c r="G39" s="69">
         <f>G37+G38</f>
-        <v>171.24149851999684</v>
+        <v>257.16829851999717</v>
       </c>
       <c r="H39" s="69">
         <f>SUM(H37:H38)</f>
-        <v>112.72</v>
+        <v>169.86</v>
       </c>
       <c r="I39" s="69">
         <v>0</v>
       </c>
       <c r="J39" s="69">
         <f>C39-H39</f>
-        <v>62629.503792599993</v>
+        <v>63001.997792599999</v>
       </c>
       <c r="K39" s="70">
         <f>J39/J39</f>
@@ -3370,19 +3348,19 @@
       </c>
       <c r="L39" s="69">
         <f>L37+L38</f>
-        <v>402.65</v>
+        <v>459.79</v>
       </c>
       <c r="M39" s="69">
         <f>M37+M38</f>
-        <v>3032.1537925999983</v>
-      </c>
-      <c r="N39" s="122">
+        <v>3461.7877926000001</v>
+      </c>
+      <c r="N39" s="87">
         <f>(J39+L39)/60000-1</f>
-        <v>5.0535896543333347E-2</v>
+        <v>5.7696463210000104E-2</v>
       </c>
       <c r="O39" s="22">
         <f>J39+L39</f>
-        <v>63032.153792599995</v>
+        <v>63461.7877926</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
@@ -3411,7 +3389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -3431,27 +3409,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3484,12 +3462,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3524,12 +3502,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="103"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="105"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3564,12 +3542,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="103"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="105"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3611,13 +3589,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="98"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="100"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3700,20 +3678,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="93" t="s">
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="95"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3768,7 +3746,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="115">
+      <c r="G6" s="109">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3791,7 +3769,7 @@
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="113">
+      <c r="M6" s="107">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3811,7 +3789,7 @@
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="115"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3825,7 +3803,7 @@
       </c>
       <c r="K7" s="111"/>
       <c r="L7" s="111"/>
-      <c r="M7" s="113"/>
+      <c r="M7" s="107"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3842,7 +3820,7 @@
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="115"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3856,7 +3834,7 @@
       </c>
       <c r="K8" s="111"/>
       <c r="L8" s="111"/>
-      <c r="M8" s="113"/>
+      <c r="M8" s="107"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3873,7 +3851,7 @@
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="116"/>
+      <c r="G9" s="110"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3887,7 +3865,7 @@
       </c>
       <c r="K9" s="112"/>
       <c r="L9" s="112"/>
-      <c r="M9" s="114"/>
+      <c r="M9" s="108"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3897,14 +3875,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="97"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -3941,15 +3919,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="105">
+      <c r="G15" s="113">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="105">
+      <c r="H15" s="113">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="108">
+      <c r="I15" s="116">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3969,9 +3947,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="109"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="117"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3988,9 +3966,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="109"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="117"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -4007,23 +3985,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="110"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4035,7 +4013,7 @@
   <dimension ref="C3:J44"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4055,10 +4033,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="117">
+      <c r="D4" s="119">
         <v>20160622</v>
       </c>
-      <c r="E4" s="118"/>
+      <c r="E4" s="120"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -4160,10 +4138,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="117">
+      <c r="D15" s="119">
         <v>20160713</v>
       </c>
-      <c r="E15" s="118"/>
+      <c r="E15" s="120"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4268,10 +4246,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="117">
+      <c r="D25" s="119">
         <v>20160808</v>
       </c>
-      <c r="E25" s="118"/>
+      <c r="E25" s="120"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4401,10 +4379,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="117">
+      <c r="D35" s="119">
         <v>20160908</v>
       </c>
-      <c r="E35" s="118"/>
+      <c r="E35" s="120"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4435,25 +4413,25 @@
       </c>
       <c r="D37" s="55">
         <f>F37*G37</f>
-        <v>10545.06</v>
+        <v>10918.644</v>
       </c>
       <c r="E37" s="53">
         <f>D37/D44</f>
-        <v>0.16806959273323868</v>
+        <v>0.17284031816583711</v>
       </c>
       <c r="F37" s="9">
         <v>10860</v>
       </c>
       <c r="G37" s="9">
-        <v>0.97099999999999997</v>
+        <v>1.0054000000000001</v>
       </c>
       <c r="H37" s="9">
         <f>F37*G37</f>
-        <v>10545.06</v>
+        <v>10918.644</v>
       </c>
       <c r="I37" s="9">
         <f>944+D37-10000</f>
-        <v>1489.0599999999995</v>
+        <v>1862.6440000000002</v>
       </c>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
@@ -4465,21 +4443,21 @@
       </c>
       <c r="E38" s="53">
         <f>D38/D44</f>
-        <v>0.1150819904609694</v>
+        <v>0.11429931384487184</v>
       </c>
       <c r="F38" s="9">
         <v>7000</v>
       </c>
       <c r="G38" s="9">
-        <v>1.0262</v>
+        <v>1.0266999999999999</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" ref="H38:H42" si="0">F38*G38</f>
-        <v>7183.4</v>
+        <f t="shared" ref="H38:H43" si="0">F38*G38</f>
+        <v>7186.9</v>
       </c>
       <c r="I38" s="9">
         <f>H38-F38</f>
-        <v>183.39999999999964</v>
+        <v>186.89999999999964</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.3">
@@ -4491,7 +4469,7 @@
       </c>
       <c r="E39" s="53">
         <f>D39/D44</f>
-        <v>2.7699050096547154E-3</v>
+        <v>2.7510667894329031E-3</v>
       </c>
       <c r="F39" s="9">
         <v>193.32</v>
@@ -4517,7 +4495,7 @@
       </c>
       <c r="E40" s="53">
         <f>D40/D44</f>
-        <v>0.16465944902033391</v>
+        <v>0.163539594385812</v>
       </c>
       <c r="F40" s="9">
         <v>11530.25</v>
@@ -4539,25 +4517,25 @@
         <v>31</v>
       </c>
       <c r="D41" s="56">
-        <v>10535.25</v>
+        <v>11591.3</v>
       </c>
       <c r="E41" s="53">
         <f>D41/D44</f>
-        <v>0.1679132386959252</v>
+        <v>0.18348835074718689</v>
       </c>
       <c r="F41" s="9">
-        <v>17706.310000000001</v>
+        <v>19351.080000000002</v>
       </c>
       <c r="G41" s="9">
-        <v>0.58799999999999997</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="H41" s="9">
         <f t="shared" si="0"/>
-        <v>10411.31028</v>
+        <v>11591.296920000001</v>
       </c>
       <c r="I41" s="9">
-        <f>F41*G41-10000</f>
-        <v>411.31027999999969</v>
+        <f>F41*G41-11000</f>
+        <v>591.29692000000068</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>90</v>
@@ -4565,39 +4543,49 @@
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C42" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="11">
-        <v>22936.523792600001</v>
-      </c>
-      <c r="E42" s="53">
-        <f>D42/D44</f>
-        <v>0.36556759397656546</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D42" s="121">
+        <v>3000</v>
+      </c>
+      <c r="E42" s="53"/>
       <c r="F42" s="9">
-        <v>23936.523792599997</v>
+        <v>3000</v>
       </c>
       <c r="G42" s="9">
         <v>1</v>
       </c>
       <c r="H42" s="9">
         <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C43" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="11">
+        <v>19936.523792600001</v>
+      </c>
+      <c r="E43" s="53">
+        <f>D43/D44</f>
+        <v>0.31559185512722693</v>
+      </c>
+      <c r="F43" s="9">
         <v>23936.523792599997</v>
       </c>
-      <c r="J42" s="9">
+      <c r="G43" s="9">
+        <v>1</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="0"/>
+        <v>23936.523792599997</v>
+      </c>
+      <c r="J43" s="9">
         <v>-1000</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C43" s="119" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="11">
-        <v>1000</v>
-      </c>
-      <c r="E43" s="120"/>
-      <c r="J43" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
@@ -4606,7 +4594,7 @@
       </c>
       <c r="D44" s="57">
         <f>SUM(D37:D43)</f>
-        <v>62742.223792599994</v>
+        <v>63171.8577926</v>
       </c>
       <c r="E44" s="54">
         <f>D44/D44</f>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
   <si>
     <t>黄金基金</t>
   </si>
@@ -496,13 +496,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>数量</t>
-    <rPh sb="0" eb="1">
-      <t>shu'liang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>手续费</t>
     <rPh sb="0" eb="1">
       <t>shou'xu'f</t>
@@ -669,13 +662,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>冻结</t>
-    <rPh sb="0" eb="1">
-      <t>dong'jie</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>累计总值</t>
     <rPh sb="0" eb="1">
       <t>lei'ji</t>
@@ -686,15 +672,33 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>申购黄金基金</t>
-    <rPh sb="0" eb="1">
+    <t>购买</t>
+    <rPh sb="0" eb="1">
+      <t>gou'mai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <rPh sb="0" eb="1">
+      <t>jin'e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160816 申购3000元</t>
+    <rPh sb="9" eb="10">
       <t>shen'gou</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>huang'jin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ji'jin</t>
+    <rPh sb="15" eb="16">
+      <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160819 卖出2000 0.9996</t>
+    <rPh sb="9" eb="10">
+      <t>mai'chu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1219,7 +1223,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1440,6 +1444,9 @@
     <xf numFmtId="179" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1537,9 +1544,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1995,174 +2000,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="89">
+      <c r="D17" s="90">
         <v>7000</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="91">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="88">
+      <c r="G17" s="89">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="89">
+      <c r="D19" s="90">
         <v>10000</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E19" s="91">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="89">
+      <c r="D21" s="90">
         <v>10000</v>
       </c>
-      <c r="E21" s="90">
+      <c r="E21" s="91">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="89">
+      <c r="D23" s="90">
         <v>10000</v>
       </c>
-      <c r="E23" s="90">
+      <c r="E23" s="91">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="91"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="89">
+      <c r="D25" s="90">
         <v>1000</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="91">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="90"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="91"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="89">
+      <c r="D27" s="90">
         <v>22000</v>
       </c>
-      <c r="E27" s="90">
+      <c r="E27" s="91">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="91"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -2253,7 +2258,7 @@
   <dimension ref="C4:K13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2274,18 +2279,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="91">
+      <c r="F4" s="92">
         <v>20160708</v>
       </c>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91">
+      <c r="G4" s="92"/>
+      <c r="H4" s="92">
         <v>20160712</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91">
+      <c r="I4" s="92"/>
+      <c r="J4" s="92">
         <v>20160808</v>
       </c>
-      <c r="K4" s="91"/>
+      <c r="K4" s="92"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -2343,14 +2348,14 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="91">
+      <c r="E8" s="92">
         <v>20160810</v>
       </c>
-      <c r="F8" s="91"/>
+      <c r="F8" s="92"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="81" t="s">
         <v>40</v>
@@ -2391,10 +2396,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:O40"/>
+  <dimension ref="B4:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2420,11 +2425,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="91">
+      <c r="C4" s="92">
         <v>201605</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -2496,19 +2501,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="95">
+      <c r="C11" s="96">
         <v>20160608</v>
       </c>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="98"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -2692,20 +2697,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="92">
+      <c r="C18" s="93">
         <v>20160708</v>
       </c>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="95"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -2924,20 +2929,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="92">
+      <c r="C27" s="93">
         <v>20160808</v>
       </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="95"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -3139,26 +3144,26 @@
         <v>60600</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="92">
+      <c r="C35" s="93">
         <v>20160910</v>
       </c>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="93"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="93"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="94"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="95"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
       <c r="C36" s="41" t="s">
         <v>57</v>
@@ -3197,86 +3202,86 @@
         <v>61</v>
       </c>
       <c r="O36" s="86" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="40">
         <v>216</v>
       </c>
       <c r="C37" s="66">
         <f>C39*D37</f>
-        <v>42009.285432078999</v>
+        <v>41952.42966639893</v>
       </c>
       <c r="D37" s="66">
         <v>0.66500000000000004</v>
       </c>
       <c r="E37" s="66">
         <f>C37-J29</f>
-        <v>849.29310449532932</v>
+        <v>792.43733881525986</v>
       </c>
       <c r="F37" s="66">
         <f>E37/C37</f>
-        <v>2.0216794829049742E-2</v>
+        <v>1.8888949820466509E-2</v>
       </c>
       <c r="G37" s="66">
         <f>E37*0.2</f>
-        <v>169.85862089906587</v>
+        <v>158.487467763052</v>
       </c>
       <c r="H37" s="85">
         <f>ROUND(G37,2)</f>
-        <v>169.86</v>
+        <v>158.49</v>
       </c>
       <c r="I37" s="66">
         <v>0</v>
       </c>
       <c r="J37" s="66">
         <f>C37-H37</f>
-        <v>41839.425432078999</v>
+        <v>41793.939666398932</v>
       </c>
       <c r="K37" s="67">
         <f>J37/J39</f>
-        <v>0.66409680483169242</v>
+        <v>0.66415626971543773</v>
       </c>
       <c r="L37" s="66">
         <f>289.93+H37</f>
-        <v>459.79</v>
+        <v>448.42</v>
       </c>
       <c r="M37" s="66">
         <f>J37+L37-40000</f>
-        <v>2299.2154320789996</v>
+        <v>2242.3596663989301</v>
       </c>
       <c r="N37" s="64">
         <f>M37/40000</f>
-        <v>5.7480385801974988E-2</v>
+        <v>5.6058991659973252E-2</v>
       </c>
       <c r="O37" s="19">
         <f t="shared" ref="O37:O38" si="10">J37+L37</f>
-        <v>42299.215432079</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+        <v>42242.35966639893</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="40" t="s">
         <v>32</v>
       </c>
       <c r="C38" s="66">
         <f>C39*D38</f>
-        <v>21162.572360521001</v>
+        <v>21133.930734200967</v>
       </c>
       <c r="D38" s="66">
         <v>0.33500000000000002</v>
       </c>
       <c r="E38" s="66">
         <f>C38-J30</f>
-        <v>436.54838810465662</v>
+        <v>407.90676178462309</v>
       </c>
       <c r="F38" s="66">
         <f t="shared" ref="F38:F39" si="11">E38/C38</f>
-        <v>2.0628323469742374E-2</v>
+        <v>1.9301036182753688E-2</v>
       </c>
       <c r="G38" s="66">
         <f>E38*0.2</f>
-        <v>87.309677620931325</v>
+        <v>81.581352356924626</v>
       </c>
       <c r="H38" s="66">
         <v>0</v>
@@ -3286,61 +3291,61 @@
       </c>
       <c r="J38" s="66">
         <f t="shared" ref="J38" si="12">C38-H38</f>
-        <v>21162.572360521001</v>
+        <v>21133.930734200967</v>
       </c>
       <c r="K38" s="67">
         <f>J38/J39</f>
-        <v>0.33590319516830758</v>
+        <v>0.33584373028456238</v>
       </c>
       <c r="L38" s="66">
         <v>0</v>
       </c>
       <c r="M38" s="66">
         <f>C38-20000</f>
-        <v>1162.5723605210005</v>
+        <v>1133.930734200967</v>
       </c>
       <c r="N38" s="64">
         <f>M38/20000</f>
-        <v>5.8128618026050023E-2</v>
+        <v>5.6696536710048352E-2</v>
       </c>
       <c r="O38" s="19">
         <f t="shared" si="10"/>
-        <v>21162.572360521001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+        <v>21133.930734200967</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="73" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="68">
-        <f>资产结构!D44</f>
-        <v>63171.8577926</v>
+        <f>资产结构!D43</f>
+        <v>63086.360400599893</v>
       </c>
       <c r="D39" s="68">
         <v>1</v>
       </c>
       <c r="E39" s="69">
         <f>SUM(E37:E38)</f>
-        <v>1285.8414925999859</v>
+        <v>1200.3441005998829</v>
       </c>
       <c r="F39" s="69">
         <f t="shared" si="11"/>
-        <v>2.0354656923681772E-2</v>
+        <v>1.9026998751832714E-2</v>
       </c>
       <c r="G39" s="69">
         <f>G37+G38</f>
-        <v>257.16829851999717</v>
+        <v>240.06882011997664</v>
       </c>
       <c r="H39" s="69">
         <f>SUM(H37:H38)</f>
-        <v>169.86</v>
+        <v>158.49</v>
       </c>
       <c r="I39" s="69">
         <v>0</v>
       </c>
       <c r="J39" s="69">
         <f>C39-H39</f>
-        <v>63001.997792599999</v>
+        <v>62927.870400599895</v>
       </c>
       <c r="K39" s="70">
         <f>J39/J39</f>
@@ -3348,29 +3353,29 @@
       </c>
       <c r="L39" s="69">
         <f>L37+L38</f>
-        <v>459.79</v>
+        <v>448.42</v>
       </c>
       <c r="M39" s="69">
         <f>M37+M38</f>
-        <v>3461.7877926000001</v>
+        <v>3376.2904005998971</v>
       </c>
       <c r="N39" s="87">
         <f>(J39+L39)/60000-1</f>
-        <v>5.7696463210000104E-2</v>
+        <v>5.6271506676664806E-2</v>
       </c>
       <c r="O39" s="22">
         <f>J39+L39</f>
-        <v>63461.7877926</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="84" t="s">
+        <v>63376.290400599893</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K40" s="83"/>
+      <c r="O40" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="39">
+      <c r="P40" s="39">
         <v>60800</v>
       </c>
-      <c r="K40" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3409,27 +3414,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3462,12 +3467,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="106"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3502,12 +3507,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="106"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3542,12 +3547,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="105"/>
+      <c r="C16" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="106"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3589,13 +3594,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="101"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3627,7 +3632,7 @@
         <v>182.40999999999985</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="46">
         <f>10860-1000</f>
@@ -3678,20 +3683,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="95" t="s">
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="98"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3738,7 +3743,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="112">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3746,7 +3751,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="109">
+      <c r="G6" s="110">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3761,15 +3766,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="111">
+      <c r="K6" s="112">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="111">
+      <c r="L6" s="112">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="107">
+      <c r="M6" s="108">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3784,12 +3789,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="111"/>
+      <c r="E7" s="112"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="109"/>
+      <c r="G7" s="110"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3801,9 +3806,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="107"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="108"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3815,12 +3820,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="111"/>
+      <c r="E8" s="112"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="109"/>
+      <c r="G8" s="110"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3832,9 +3837,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="107"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="108"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3846,12 +3851,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="112"/>
+      <c r="E9" s="113"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="110"/>
+      <c r="G9" s="111"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3863,9 +3868,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="108"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="109"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3875,14 +3880,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="98"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -3919,15 +3924,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="113">
+      <c r="G15" s="114">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="113">
+      <c r="H15" s="114">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="116">
+      <c r="I15" s="117">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3947,9 +3952,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="117"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="118"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3966,9 +3971,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="117"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="118"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3985,9 +3990,9 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="118"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4010,10 +4015,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J44"/>
+  <dimension ref="C3:J43"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4023,20 +4028,20 @@
     <col min="3" max="3" width="32.33203125" style="11" customWidth="1"/>
     <col min="4" max="4" width="21" style="9" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18" style="9" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="9"/>
     <col min="8" max="8" width="20.33203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="9"/>
+    <col min="9" max="9" width="17.5" style="9" customWidth="1"/>
     <col min="10" max="10" width="36.6640625" style="9" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="119">
+      <c r="D4" s="120">
         <v>20160622</v>
       </c>
-      <c r="E4" s="120"/>
+      <c r="E4" s="121"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -4138,10 +4143,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="119">
+      <c r="D15" s="120">
         <v>20160713</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="121"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4246,10 +4251,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="119">
+      <c r="D25" s="120">
         <v>20160808</v>
       </c>
-      <c r="E25" s="120"/>
+      <c r="E25" s="121"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4262,10 +4267,10 @@
         <v>23</v>
       </c>
       <c r="G26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
@@ -4287,7 +4292,7 @@
         <v>0.95250000000000001</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
@@ -4379,10 +4384,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="119">
+      <c r="D35" s="120">
         <v>20160908</v>
       </c>
-      <c r="E35" s="120"/>
+      <c r="E35" s="121"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4395,16 +4400,16 @@
         <v>23</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>56</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.3">
@@ -4413,25 +4418,28 @@
       </c>
       <c r="D37" s="55">
         <f>F37*G37</f>
-        <v>10918.644</v>
+        <v>8856.4560000000001</v>
       </c>
       <c r="E37" s="53">
-        <f>D37/D44</f>
-        <v>0.17284031816583711</v>
+        <f>D37/D43</f>
+        <v>0.14038622522778765</v>
       </c>
       <c r="F37" s="9">
-        <v>10860</v>
+        <v>8860</v>
       </c>
       <c r="G37" s="9">
-        <v>1.0054000000000001</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="H37" s="9">
         <f>F37*G37</f>
-        <v>10918.644</v>
+        <v>8856.4560000000001</v>
       </c>
       <c r="I37" s="9">
-        <f>944+D37-10000</f>
-        <v>1862.6440000000002</v>
+        <f>933+D37-10000</f>
+        <v>-210.54399999999987</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
@@ -4439,25 +4447,29 @@
         <v>28</v>
       </c>
       <c r="D38" s="78">
-        <v>7220.5</v>
+        <f>H38</f>
+        <v>10215.670608</v>
       </c>
       <c r="E38" s="53">
-        <f>D38/D44</f>
-        <v>0.11429931384487184</v>
-      </c>
-      <c r="F38" s="9">
-        <v>7000</v>
+        <f>D38/D43</f>
+        <v>0.16193152597693461</v>
+      </c>
+      <c r="F38" s="122">
+        <v>9921.98</v>
       </c>
       <c r="G38" s="9">
-        <v>1.0266999999999999</v>
+        <v>1.0296000000000001</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" ref="H38:H43" si="0">F38*G38</f>
-        <v>7186.9</v>
+        <f t="shared" ref="H38:H42" si="0">F38*G38</f>
+        <v>10215.670608</v>
       </c>
       <c r="I38" s="9">
-        <f>H38-F38</f>
-        <v>186.89999999999964</v>
+        <f>H38-10000</f>
+        <v>215.67060800000036</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.3">
@@ -4468,22 +4480,22 @@
         <v>173.79</v>
       </c>
       <c r="E39" s="53">
-        <f>D39/D44</f>
-        <v>2.7510667894329031E-3</v>
+        <f>D39/D43</f>
+        <v>2.7547951553462484E-3</v>
       </c>
       <c r="F39" s="9">
         <v>193.32</v>
       </c>
       <c r="G39" s="9">
-        <v>0.88400000000000001</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="H39" s="9">
         <f t="shared" si="0"/>
-        <v>170.89488</v>
+        <v>175.53456</v>
       </c>
       <c r="I39" s="9">
-        <f>-1000+933+H39-4.67</f>
-        <v>99.224879999999999</v>
+        <f>-1000+944+H39-4.67</f>
+        <v>114.86456</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
@@ -4494,22 +4506,22 @@
         <v>10331.1</v>
       </c>
       <c r="E40" s="53">
-        <f>D40/D44</f>
-        <v>0.163539594385812</v>
+        <f>D40/D43</f>
+        <v>0.16376123038953697</v>
       </c>
       <c r="F40" s="9">
         <v>11530.25</v>
       </c>
       <c r="G40" s="9">
-        <v>0.89500000000000002</v>
+        <v>0.91</v>
       </c>
       <c r="H40" s="9">
         <f t="shared" si="0"/>
-        <v>10319.57375</v>
+        <v>10492.5275</v>
       </c>
       <c r="I40" s="9">
         <f>H40-10000</f>
-        <v>319.57374999999956</v>
+        <v>492.52750000000015</v>
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.3">
@@ -4520,84 +4532,64 @@
         <v>11591.3</v>
       </c>
       <c r="E41" s="53">
-        <f>D41/D44</f>
-        <v>0.18348835074718689</v>
+        <f>D41/D43</f>
+        <v>0.18373702217713889</v>
       </c>
       <c r="F41" s="9">
         <v>19351.080000000002</v>
       </c>
       <c r="G41" s="9">
-        <v>0.59899999999999998</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="H41" s="9">
         <f t="shared" si="0"/>
-        <v>11591.296920000001</v>
+        <v>11746.10556</v>
       </c>
       <c r="I41" s="9">
         <f>F41*G41-11000</f>
-        <v>591.29692000000068</v>
+        <v>746.10555999999997</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C42" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="121">
-        <v>3000</v>
-      </c>
-      <c r="E42" s="53"/>
-      <c r="F42" s="9">
-        <v>3000</v>
+        <v>59</v>
+      </c>
+      <c r="D42" s="88">
+        <f>H42</f>
+        <v>21918.043792599899</v>
+      </c>
+      <c r="E42" s="53">
+        <f>D42/D43</f>
+        <v>0.34742920107325576</v>
+      </c>
+      <c r="F42" s="88">
+        <f>19888.7462999999*(1+0.024/12)+2000*0.9996-121/25000*2000</f>
+        <v>21918.043792599899</v>
       </c>
       <c r="G42" s="9">
         <v>1</v>
       </c>
       <c r="H42" s="9">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C43" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="11">
-        <v>19936.523792600001</v>
-      </c>
-      <c r="E43" s="53">
-        <f>D43/D44</f>
-        <v>0.31559185512722693</v>
-      </c>
-      <c r="F43" s="9">
-        <v>23936.523792599997</v>
-      </c>
-      <c r="G43" s="9">
-        <v>1</v>
-      </c>
-      <c r="H43" s="9">
-        <f t="shared" si="0"/>
-        <v>23936.523792599997</v>
-      </c>
-      <c r="J43" s="9">
+        <v>21918.043792599899</v>
+      </c>
+      <c r="J42" s="9">
         <v>-1000</v>
       </c>
     </row>
-    <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="61" t="s">
+    <row r="43" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="57">
-        <f>SUM(D37:D43)</f>
-        <v>63171.8577926</v>
-      </c>
-      <c r="E44" s="54">
-        <f>D44/D44</f>
+      <c r="D43" s="57">
+        <f>SUM(D37:D42)</f>
+        <v>63086.360400599893</v>
+      </c>
+      <c r="E43" s="54">
+        <f>D43/D43</f>
         <v>1</v>
       </c>
     </row>
@@ -4625,23 +4617,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4652,10 +4644,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G3"/>
+  <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4666,7 +4658,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -4675,13 +4667,13 @@
         <v>65</v>
       </c>
       <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
         <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
       </c>
       <c r="G2" t="s">
         <v>66</v>
@@ -4701,7 +4693,35 @@
         <v>1000</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20160816</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="23" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>20160816</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="余额宝" sheetId="7" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="余额宝" sheetId="7" state="hidden" r:id="rId2"/>
     <sheet name="投资者权益表" sheetId="6" r:id="rId3"/>
     <sheet name="易H股ETF联接（110031）" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="打包资产统计" sheetId="3" state="hidden" r:id="rId5"/>
     <sheet name="资产结构" sheetId="8" r:id="rId6"/>
-    <sheet name="策略" sheetId="10" r:id="rId7"/>
-    <sheet name="Operation" sheetId="9" r:id="rId8"/>
+    <sheet name="Operation" sheetId="9" state="hidden" r:id="rId7"/>
+    <sheet name="余额宝损益表" sheetId="11" r:id="rId8"/>
+    <sheet name="策略" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="112">
   <si>
     <t>黄金基金</t>
   </si>
@@ -686,19 +687,154 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20160816 申购3000元</t>
-    <rPh sb="9" eb="10">
-      <t>shen'gou</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yuan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20160819 卖出2000 0.9996</t>
     <rPh sb="9" eb="10">
       <t>mai'chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160816 申购3000元@1.0267
+20160823 卖出162.21 @1.0216</t>
+    <rPh sb="9" eb="10">
+      <t>shen'gou</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>mai'chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始</t>
+    <rPh sb="0" eb="1">
+      <t>qi'shi'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月基值</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="1">
+      <t>cao'zuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交净值</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手续费</t>
+    <rPh sb="0" eb="1">
+      <t>shou'xu'fei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净额</t>
+    <rPh sb="0" eb="1">
+      <t>jin'ge</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额宝总额</t>
+    <rPh sb="0" eb="1">
+      <t>yu'e'b</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOLD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金</t>
+    <rPh sb="0" eb="1">
+      <t>huang'jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谨慎做多</t>
+    <rPh sb="0" eb="1">
+      <t>jin'shen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuo'duo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期做多</t>
+    <rPh sb="0" eb="1">
+      <t>chang'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuo'zuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>duo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超长期做多</t>
+    <rPh sb="0" eb="1">
+      <t>chao'chang'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zuo'duo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月终值</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong'zhi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1223,7 +1359,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1447,6 +1583,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1502,6 +1639,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1514,37 +1675,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2000,174 +2155,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="91">
         <v>7000</v>
       </c>
-      <c r="E17" s="91">
+      <c r="E17" s="92">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="89">
+      <c r="G17" s="90">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="91"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D19" s="91">
         <v>10000</v>
       </c>
-      <c r="E19" s="91">
+      <c r="E19" s="92">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="91"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="91">
         <v>10000</v>
       </c>
-      <c r="E21" s="91">
+      <c r="E21" s="92">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D23" s="91">
         <v>10000</v>
       </c>
-      <c r="E23" s="91">
+      <c r="E23" s="92">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="91"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="91">
         <v>1000</v>
       </c>
-      <c r="E25" s="91">
+      <c r="E25" s="92">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="91"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="92"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="91">
         <v>22000</v>
       </c>
-      <c r="E27" s="91">
+      <c r="E27" s="92">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="91"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="92"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -2205,13 +2360,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -2226,27 +2395,13 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2258,7 +2413,7 @@
   <dimension ref="C4:K13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2279,18 +2434,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="92">
+      <c r="F4" s="93">
         <v>20160708</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92">
+      <c r="G4" s="93"/>
+      <c r="H4" s="93">
         <v>20160712</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92">
+      <c r="I4" s="93"/>
+      <c r="J4" s="93">
         <v>20160808</v>
       </c>
-      <c r="K4" s="92"/>
+      <c r="K4" s="93"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -2348,10 +2503,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="92">
+      <c r="E8" s="93">
         <v>20160810</v>
       </c>
-      <c r="F8" s="92"/>
+      <c r="F8" s="93"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -2366,15 +2521,15 @@
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D10" s="9">
-        <v>23888.746299999999</v>
+        <v>23888.746299999901</v>
       </c>
       <c r="E10" s="81">
-        <f>19888.7462999999*(1+0.024/12)</f>
-        <v>19928.523792599899</v>
+        <f>19888.7462999999*(1+0.024/12)+165.71-0.33</f>
+        <v>20093.903792599896</v>
       </c>
       <c r="F10" s="81">
         <f>E10-D10</f>
-        <v>-3960.2225074000999</v>
+        <v>-3794.8425074000043</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.3">
@@ -2398,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2425,11 +2580,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="92">
+      <c r="C4" s="93">
         <v>201605</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -2501,19 +2656,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="96">
+      <c r="C11" s="97">
         <v>20160608</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="99"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -2697,20 +2852,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="93">
+      <c r="C18" s="94">
         <v>20160708</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="96"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -2929,20 +3084,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="93">
+      <c r="C27" s="94">
         <v>20160808</v>
       </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="96"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -3147,21 +3302,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="93">
+      <c r="C35" s="94">
         <v>20160910</v>
       </c>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="96"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -3211,53 +3366,53 @@
       </c>
       <c r="C37" s="66">
         <f>C39*D37</f>
-        <v>41952.42966639893</v>
+        <v>42418.615513195771</v>
       </c>
       <c r="D37" s="66">
         <v>0.66500000000000004</v>
       </c>
       <c r="E37" s="66">
         <f>C37-J29</f>
-        <v>792.43733881525986</v>
+        <v>1258.6231856121012</v>
       </c>
       <c r="F37" s="66">
         <f>E37/C37</f>
-        <v>1.8888949820466509E-2</v>
+        <v>2.9671481975185238E-2</v>
       </c>
       <c r="G37" s="66">
         <f>E37*0.2</f>
-        <v>158.487467763052</v>
+        <v>251.72463712242026</v>
       </c>
       <c r="H37" s="85">
         <f>ROUND(G37,2)</f>
-        <v>158.49</v>
+        <v>251.72</v>
       </c>
       <c r="I37" s="66">
         <v>0</v>
       </c>
       <c r="J37" s="66">
         <f>C37-H37</f>
-        <v>41793.939666398932</v>
+        <v>42166.89551319577</v>
       </c>
       <c r="K37" s="67">
         <f>J37/J39</f>
-        <v>0.66415626971543773</v>
+        <v>0.66367277392874802</v>
       </c>
       <c r="L37" s="66">
         <f>289.93+H37</f>
-        <v>448.42</v>
+        <v>541.65</v>
       </c>
       <c r="M37" s="66">
         <f>J37+L37-40000</f>
-        <v>2242.3596663989301</v>
+        <v>2708.5455131957715</v>
       </c>
       <c r="N37" s="64">
         <f>M37/40000</f>
-        <v>5.6058991659973252E-2</v>
+        <v>6.7713637829894285E-2</v>
       </c>
       <c r="O37" s="19">
         <f t="shared" ref="O37:O38" si="10">J37+L37</f>
-        <v>42242.35966639893</v>
+        <v>42708.545513195771</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
@@ -3266,22 +3421,22 @@
       </c>
       <c r="C38" s="66">
         <f>C39*D38</f>
-        <v>21133.930734200967</v>
+        <v>21368.776235970803</v>
       </c>
       <c r="D38" s="66">
         <v>0.33500000000000002</v>
       </c>
       <c r="E38" s="66">
         <f>C38-J30</f>
-        <v>407.90676178462309</v>
+        <v>642.7522635544592</v>
       </c>
       <c r="F38" s="66">
         <f t="shared" ref="F38:F39" si="11">E38/C38</f>
-        <v>1.9301036182753688E-2</v>
+        <v>3.0079039457228816E-2</v>
       </c>
       <c r="G38" s="66">
         <f>E38*0.2</f>
-        <v>81.581352356924626</v>
+        <v>128.55045271089185</v>
       </c>
       <c r="H38" s="66">
         <v>0</v>
@@ -3291,26 +3446,26 @@
       </c>
       <c r="J38" s="66">
         <f t="shared" ref="J38" si="12">C38-H38</f>
-        <v>21133.930734200967</v>
+        <v>21368.776235970803</v>
       </c>
       <c r="K38" s="67">
         <f>J38/J39</f>
-        <v>0.33584373028456238</v>
+        <v>0.33632722607125198</v>
       </c>
       <c r="L38" s="66">
         <v>0</v>
       </c>
       <c r="M38" s="66">
         <f>C38-20000</f>
-        <v>1133.930734200967</v>
+        <v>1368.7762359708031</v>
       </c>
       <c r="N38" s="64">
         <f>M38/20000</f>
-        <v>5.6696536710048352E-2</v>
+        <v>6.8438811798540153E-2</v>
       </c>
       <c r="O38" s="19">
         <f t="shared" si="10"/>
-        <v>21133.930734200967</v>
+        <v>21368.776235970803</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35">
@@ -3319,33 +3474,33 @@
       </c>
       <c r="C39" s="68">
         <f>资产结构!D43</f>
-        <v>63086.360400599893</v>
+        <v>63787.391749166571</v>
       </c>
       <c r="D39" s="68">
         <v>1</v>
       </c>
       <c r="E39" s="69">
         <f>SUM(E37:E38)</f>
-        <v>1200.3441005998829</v>
+        <v>1901.3754491665604</v>
       </c>
       <c r="F39" s="69">
         <f t="shared" si="11"/>
-        <v>1.9026998751832714E-2</v>
+        <v>2.9808013731669837E-2</v>
       </c>
       <c r="G39" s="69">
         <f>G37+G38</f>
-        <v>240.06882011997664</v>
+        <v>380.27508983331211</v>
       </c>
       <c r="H39" s="69">
         <f>SUM(H37:H38)</f>
-        <v>158.49</v>
+        <v>251.72</v>
       </c>
       <c r="I39" s="69">
         <v>0</v>
       </c>
       <c r="J39" s="69">
         <f>C39-H39</f>
-        <v>62927.870400599895</v>
+        <v>63535.671749166569</v>
       </c>
       <c r="K39" s="70">
         <f>J39/J39</f>
@@ -3353,19 +3508,19 @@
       </c>
       <c r="L39" s="69">
         <f>L37+L38</f>
-        <v>448.42</v>
+        <v>541.65</v>
       </c>
       <c r="M39" s="69">
         <f>M37+M38</f>
-        <v>3376.2904005998971</v>
+        <v>4077.3217491665746</v>
       </c>
       <c r="N39" s="87">
         <f>(J39+L39)/60000-1</f>
-        <v>5.6271506676664806E-2</v>
+        <v>6.7955362486109561E-2</v>
       </c>
       <c r="O39" s="22">
         <f>J39+L39</f>
-        <v>63376.290400599893</v>
+        <v>64077.321749166571</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
@@ -3414,27 +3569,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3467,12 +3622,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3507,12 +3662,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3547,12 +3702,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="107"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3594,13 +3749,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3683,20 +3838,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="96" t="s">
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3743,7 +3898,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="112">
+      <c r="E6" s="115">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3751,7 +3906,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="110">
+      <c r="G6" s="119">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3766,15 +3921,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="112">
+      <c r="K6" s="115">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="112">
+      <c r="L6" s="115">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="108">
+      <c r="M6" s="117">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3789,12 +3944,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="112"/>
+      <c r="E7" s="115"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="110"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3806,9 +3961,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="108"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="117"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3820,12 +3975,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="112"/>
+      <c r="E8" s="115"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="110"/>
+      <c r="G8" s="119"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3837,9 +3992,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="108"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="117"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3851,12 +4006,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="113"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="111"/>
+      <c r="G9" s="120"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3868,9 +4023,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="109"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="118"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3880,14 +4035,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="99"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -3924,15 +4079,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="114">
+      <c r="G15" s="109">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="114">
+      <c r="H15" s="109">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="117">
+      <c r="I15" s="112">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3952,9 +4107,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="118"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="113"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3971,9 +4126,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="118"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="113"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3990,23 +4145,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="119"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4017,8 +4172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4030,18 +4185,18 @@
     <col min="5" max="5" width="19.83203125" style="9" customWidth="1"/>
     <col min="6" max="6" width="18" style="9" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="9"/>
-    <col min="8" max="8" width="20.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="11" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="36.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="49.33203125" style="9" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="120">
+      <c r="D4" s="121">
         <v>20160622</v>
       </c>
-      <c r="E4" s="121"/>
+      <c r="E4" s="122"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -4143,10 +4298,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="120">
+      <c r="D15" s="121">
         <v>20160713</v>
       </c>
-      <c r="E15" s="121"/>
+      <c r="E15" s="122"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4251,10 +4406,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="120">
+      <c r="D25" s="121">
         <v>20160808</v>
       </c>
-      <c r="E25" s="121"/>
+      <c r="E25" s="122"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4269,7 +4424,7 @@
       <c r="G26" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4291,7 +4446,7 @@
       <c r="G27" s="9">
         <v>0.95250000000000001</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4384,10 +4539,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="120">
+      <c r="D35" s="121">
         <v>20160908</v>
       </c>
-      <c r="E35" s="121"/>
+      <c r="E35" s="122"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4402,7 +4557,7 @@
       <c r="G36" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="11" t="s">
         <v>80</v>
       </c>
       <c r="I36" s="9" t="s">
@@ -4422,7 +4577,7 @@
       </c>
       <c r="E37" s="53">
         <f>D37/D43</f>
-        <v>0.14038622522778765</v>
+        <v>0.1388433631967044</v>
       </c>
       <c r="F37" s="9">
         <v>8860</v>
@@ -4430,7 +4585,7 @@
       <c r="G37" s="9">
         <v>0.99960000000000004</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="11">
         <f>F37*G37</f>
         <v>8856.4560000000001</v>
       </c>
@@ -4439,37 +4594,38 @@
         <v>-210.54399999999987</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" ht="46" x14ac:dyDescent="0.3">
       <c r="C38" s="59" t="s">
         <v>28</v>
       </c>
       <c r="D38" s="78">
         <f>H38</f>
-        <v>10215.670608</v>
+        <v>10048.659192000001</v>
       </c>
       <c r="E38" s="53">
         <f>D38/D43</f>
-        <v>0.16193152597693461</v>
-      </c>
-      <c r="F38" s="122">
-        <v>9921.98</v>
+        <v>0.15753362720198219</v>
+      </c>
+      <c r="F38" s="89">
+        <f>9921.98-162.21</f>
+        <v>9759.77</v>
       </c>
       <c r="G38" s="9">
         <v>1.0296000000000001</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="11">
         <f t="shared" ref="H38:H42" si="0">F38*G38</f>
-        <v>10215.670608</v>
+        <v>10048.659192000001</v>
       </c>
       <c r="I38" s="9">
         <f>H38-10000</f>
-        <v>215.67060800000036</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>93</v>
+        <v>48.659192000000985</v>
+      </c>
+      <c r="J38" s="123" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.3">
@@ -4477,25 +4633,26 @@
         <v>29</v>
       </c>
       <c r="D39" s="56">
-        <v>173.79</v>
+        <f>H39</f>
+        <v>173.60136</v>
       </c>
       <c r="E39" s="53">
         <f>D39/D43</f>
-        <v>2.7547951553462484E-3</v>
+        <v>2.7215622905959035E-3</v>
       </c>
       <c r="F39" s="9">
         <v>193.32</v>
       </c>
       <c r="G39" s="9">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="H39" s="9">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="H39" s="11">
         <f t="shared" si="0"/>
-        <v>175.53456</v>
+        <v>173.60136</v>
       </c>
       <c r="I39" s="9">
         <f>-1000+944+H39-4.67</f>
-        <v>114.86456</v>
+        <v>112.93136</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
@@ -4503,25 +4660,26 @@
         <v>30</v>
       </c>
       <c r="D40" s="56">
-        <v>10331.1</v>
+        <f>H40</f>
+        <v>10607.83</v>
       </c>
       <c r="E40" s="53">
         <f>D40/D43</f>
-        <v>0.16376123038953697</v>
+        <v>0.16629979231183409</v>
       </c>
       <c r="F40" s="9">
         <v>11530.25</v>
       </c>
       <c r="G40" s="9">
-        <v>0.91</v>
-      </c>
-      <c r="H40" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="H40" s="11">
         <f t="shared" si="0"/>
-        <v>10492.5275</v>
+        <v>10607.83</v>
       </c>
       <c r="I40" s="9">
         <f>H40-10000</f>
-        <v>492.52750000000015</v>
+        <v>607.82999999999993</v>
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.3">
@@ -4529,25 +4687,26 @@
         <v>31</v>
       </c>
       <c r="D41" s="56">
-        <v>11591.3</v>
+        <f>H41</f>
+        <v>12017.020680000001</v>
       </c>
       <c r="E41" s="53">
         <f>D41/D43</f>
-        <v>0.18373702217713889</v>
+        <v>0.18839178637770548</v>
       </c>
       <c r="F41" s="9">
         <v>19351.080000000002</v>
       </c>
       <c r="G41" s="9">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="H41" s="9">
+        <v>0.621</v>
+      </c>
+      <c r="H41" s="11">
         <f t="shared" si="0"/>
-        <v>11746.10556</v>
+        <v>12017.020680000001</v>
       </c>
       <c r="I41" s="9">
         <f>F41*G41-11000</f>
-        <v>746.10555999999997</v>
+        <v>1017.0206800000014</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>89</v>
@@ -4557,24 +4716,24 @@
       <c r="C42" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="88">
+      <c r="D42" s="11">
         <f>H42</f>
-        <v>21918.043792599899</v>
+        <v>22083.824517166569</v>
       </c>
       <c r="E42" s="53">
         <f>D42/D43</f>
-        <v>0.34742920107325576</v>
+        <v>0.34620986862117797</v>
       </c>
       <c r="F42" s="88">
-        <f>19888.7462999999*(1+0.024/12)+2000*0.9996-121/25000*2000</f>
-        <v>21918.043792599899</v>
+        <f>余额宝损益表!C13</f>
+        <v>22083.824517166569</v>
       </c>
       <c r="G42" s="9">
         <v>1</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="11">
         <f t="shared" si="0"/>
-        <v>21918.043792599899</v>
+        <v>22083.824517166569</v>
       </c>
       <c r="J42" s="9">
         <v>-1000</v>
@@ -4586,7 +4745,7 @@
       </c>
       <c r="D43" s="57">
         <f>SUM(D37:D42)</f>
-        <v>63086.360400599893</v>
+        <v>63787.391749166571</v>
       </c>
       <c r="E43" s="54">
         <f>D43/D43</f>
@@ -4606,43 +4765,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G5"/>
   <sheetViews>
@@ -4728,4 +4850,275 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="7"/>
+    <col min="7" max="7" width="7.5" style="127" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2">
+        <v>201608</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <v>23888.746299999901</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4">
+        <f>C3*(1+0.02/12)</f>
+        <v>23928.560877166568</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="124" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="124" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="124">
+        <v>20160808</v>
+      </c>
+      <c r="C6" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="124">
+        <v>1</v>
+      </c>
+      <c r="F6" s="124">
+        <v>1</v>
+      </c>
+      <c r="G6" s="128">
+        <v>0</v>
+      </c>
+      <c r="H6" s="124">
+        <f>C4</f>
+        <v>23928.560877166568</v>
+      </c>
+      <c r="I6" s="124">
+        <f>H6</f>
+        <v>23928.560877166568</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B7" s="124">
+        <v>20160811</v>
+      </c>
+      <c r="C7" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="124">
+        <v>1644.77</v>
+      </c>
+      <c r="F7" s="124">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="G7" s="128">
+        <v>-14.78</v>
+      </c>
+      <c r="H7" s="124">
+        <f>-(E7*F7-G7)</f>
+        <v>-999.99722999999994</v>
+      </c>
+      <c r="I7" s="124">
+        <f>I6+H7</f>
+        <v>22928.563647166568</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="23" x14ac:dyDescent="0.15">
+      <c r="B8" s="124">
+        <v>20160816</v>
+      </c>
+      <c r="C8" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="129" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="124">
+        <v>2921.98</v>
+      </c>
+      <c r="F8" s="124">
+        <v>1.0266999999999999</v>
+      </c>
+      <c r="G8" s="128">
+        <v>0</v>
+      </c>
+      <c r="H8" s="124">
+        <f>-1*E8*F8</f>
+        <v>-2999.996866</v>
+      </c>
+      <c r="I8" s="124">
+        <f>I7+H8</f>
+        <v>19928.566781166566</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B9" s="124">
+        <v>20160819</v>
+      </c>
+      <c r="C9" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="124">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="124">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="G9" s="128">
+        <f>120.7/25000*2000*-1</f>
+        <v>-9.6559999999999988</v>
+      </c>
+      <c r="H9" s="124">
+        <f>E9*F9+G9</f>
+        <v>1989.5440000000001</v>
+      </c>
+      <c r="I9" s="124">
+        <f>I8+H9</f>
+        <v>21918.110781166568</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="23" x14ac:dyDescent="0.15">
+      <c r="B10" s="124">
+        <v>20160816</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="124">
+        <v>162.21</v>
+      </c>
+      <c r="F10" s="124">
+        <v>1.0216000000000001</v>
+      </c>
+      <c r="G10" s="128">
+        <v>0</v>
+      </c>
+      <c r="H10" s="124">
+        <f>E10*F10</f>
+        <v>165.71373600000001</v>
+      </c>
+      <c r="I10" s="124">
+        <f>I9+H10</f>
+        <v>22083.824517166569</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13">
+        <f>I10</f>
+        <v>22083.824517166569</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1581,9 +1581,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1680,25 +1701,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2155,174 +2157,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="91">
+      <c r="D17" s="98">
         <v>7000</v>
       </c>
-      <c r="E17" s="92">
+      <c r="E17" s="99">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="90">
+      <c r="G17" s="97">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="91">
+      <c r="D19" s="98">
         <v>10000</v>
       </c>
-      <c r="E19" s="92">
+      <c r="E19" s="99">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="99"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="91">
+      <c r="D21" s="98">
         <v>10000</v>
       </c>
-      <c r="E21" s="92">
+      <c r="E21" s="99">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="99"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="91">
+      <c r="D23" s="98">
         <v>10000</v>
       </c>
-      <c r="E23" s="92">
+      <c r="E23" s="99">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="99"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="91" t="s">
+      <c r="C25" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="91">
+      <c r="D25" s="98">
         <v>1000</v>
       </c>
-      <c r="E25" s="92">
+      <c r="E25" s="99">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="92"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="91">
+      <c r="D27" s="98">
         <v>22000</v>
       </c>
-      <c r="E27" s="92">
+      <c r="E27" s="99">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="92"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="99"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -2434,18 +2436,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="93">
+      <c r="F4" s="100">
         <v>20160708</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93">
+      <c r="G4" s="100"/>
+      <c r="H4" s="100">
         <v>20160712</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93">
+      <c r="I4" s="100"/>
+      <c r="J4" s="100">
         <v>20160808</v>
       </c>
-      <c r="K4" s="93"/>
+      <c r="K4" s="100"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -2503,10 +2505,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="93">
+      <c r="E8" s="100">
         <v>20160810</v>
       </c>
-      <c r="F8" s="93"/>
+      <c r="F8" s="100"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -2553,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2580,11 +2582,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="93">
+      <c r="C4" s="100">
         <v>201605</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -2656,19 +2658,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="97">
+      <c r="C11" s="104">
         <v>20160608</v>
       </c>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="99"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="106"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -2852,20 +2854,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="94">
+      <c r="C18" s="101">
         <v>20160708</v>
       </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="96"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="103"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -3084,20 +3086,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="94">
+      <c r="C27" s="101">
         <v>20160808</v>
       </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="96"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="103"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -3302,21 +3304,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="94">
-        <v>20160910</v>
-      </c>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="96"/>
+      <c r="C35" s="101">
+        <v>20160825</v>
+      </c>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="102"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="102"/>
+      <c r="N35" s="102"/>
+      <c r="O35" s="103"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -3366,53 +3368,53 @@
       </c>
       <c r="C37" s="66">
         <f>C39*D37</f>
-        <v>42418.615513195771</v>
+        <v>42300.346964542856</v>
       </c>
       <c r="D37" s="66">
         <v>0.66500000000000004</v>
       </c>
       <c r="E37" s="66">
         <f>C37-J29</f>
-        <v>1258.6231856121012</v>
+        <v>1140.3546369591859</v>
       </c>
       <c r="F37" s="66">
         <f>E37/C37</f>
-        <v>2.9671481975185238E-2</v>
+        <v>2.6958517335922989E-2</v>
       </c>
       <c r="G37" s="66">
         <f>E37*0.2</f>
-        <v>251.72463712242026</v>
+        <v>228.07092739183719</v>
       </c>
       <c r="H37" s="85">
         <f>ROUND(G37,2)</f>
-        <v>251.72</v>
+        <v>228.07</v>
       </c>
       <c r="I37" s="66">
         <v>0</v>
       </c>
       <c r="J37" s="66">
         <f>C37-H37</f>
-        <v>42166.89551319577</v>
+        <v>42072.276964542856</v>
       </c>
       <c r="K37" s="67">
         <f>J37/J39</f>
-        <v>0.66367277392874802</v>
+        <v>0.66379454602729471</v>
       </c>
       <c r="L37" s="66">
         <f>289.93+H37</f>
-        <v>541.65</v>
+        <v>518</v>
       </c>
       <c r="M37" s="66">
         <f>J37+L37-40000</f>
-        <v>2708.5455131957715</v>
+        <v>2590.2769645428561</v>
       </c>
       <c r="N37" s="64">
         <f>M37/40000</f>
-        <v>6.7713637829894285E-2</v>
+        <v>6.475692411357141E-2</v>
       </c>
       <c r="O37" s="19">
         <f t="shared" ref="O37:O38" si="10">J37+L37</f>
-        <v>42708.545513195771</v>
+        <v>42590.276964542856</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
@@ -3421,22 +3423,22 @@
       </c>
       <c r="C38" s="66">
         <f>C39*D38</f>
-        <v>21368.776235970803</v>
+        <v>21309.197343040385</v>
       </c>
       <c r="D38" s="66">
         <v>0.33500000000000002</v>
       </c>
       <c r="E38" s="66">
         <f>C38-J30</f>
-        <v>642.7522635544592</v>
+        <v>583.17337062404113</v>
       </c>
       <c r="F38" s="66">
         <f t="shared" ref="F38:F39" si="11">E38/C38</f>
-        <v>3.0079039457228816E-2</v>
+        <v>2.7367214317647982E-2</v>
       </c>
       <c r="G38" s="66">
         <f>E38*0.2</f>
-        <v>128.55045271089185</v>
+        <v>116.63467412480823</v>
       </c>
       <c r="H38" s="66">
         <v>0</v>
@@ -3446,26 +3448,26 @@
       </c>
       <c r="J38" s="66">
         <f t="shared" ref="J38" si="12">C38-H38</f>
-        <v>21368.776235970803</v>
+        <v>21309.197343040385</v>
       </c>
       <c r="K38" s="67">
         <f>J38/J39</f>
-        <v>0.33632722607125198</v>
+        <v>0.3362054539727054</v>
       </c>
       <c r="L38" s="66">
         <v>0</v>
       </c>
       <c r="M38" s="66">
         <f>C38-20000</f>
-        <v>1368.7762359708031</v>
+        <v>1309.197343040385</v>
       </c>
       <c r="N38" s="64">
         <f>M38/20000</f>
-        <v>6.8438811798540153E-2</v>
+        <v>6.5459867152019249E-2</v>
       </c>
       <c r="O38" s="19">
         <f t="shared" si="10"/>
-        <v>21368.776235970803</v>
+        <v>21309.197343040385</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35">
@@ -3474,33 +3476,33 @@
       </c>
       <c r="C39" s="68">
         <f>资产结构!D43</f>
-        <v>63787.391749166571</v>
+        <v>63609.544307583237</v>
       </c>
       <c r="D39" s="68">
         <v>1</v>
       </c>
       <c r="E39" s="69">
         <f>SUM(E37:E38)</f>
-        <v>1901.3754491665604</v>
+        <v>1723.528007583227</v>
       </c>
       <c r="F39" s="69">
         <f t="shared" si="11"/>
-        <v>2.9808013731669837E-2</v>
+        <v>2.709543082480086E-2</v>
       </c>
       <c r="G39" s="69">
         <f>G37+G38</f>
-        <v>380.27508983331211</v>
+        <v>344.7056015166454</v>
       </c>
       <c r="H39" s="69">
         <f>SUM(H37:H38)</f>
-        <v>251.72</v>
+        <v>228.07</v>
       </c>
       <c r="I39" s="69">
         <v>0</v>
       </c>
       <c r="J39" s="69">
         <f>C39-H39</f>
-        <v>63535.671749166569</v>
+        <v>63381.474307583238</v>
       </c>
       <c r="K39" s="70">
         <f>J39/J39</f>
@@ -3508,19 +3510,19 @@
       </c>
       <c r="L39" s="69">
         <f>L37+L38</f>
-        <v>541.65</v>
+        <v>518</v>
       </c>
       <c r="M39" s="69">
         <f>M37+M38</f>
-        <v>4077.3217491665746</v>
+        <v>3899.4743075832412</v>
       </c>
       <c r="N39" s="87">
         <f>(J39+L39)/60000-1</f>
-        <v>6.7955362486109561E-2</v>
+        <v>6.4991238459720657E-2</v>
       </c>
       <c r="O39" s="22">
         <f>J39+L39</f>
-        <v>64077.321749166571</v>
+        <v>63899.474307583238</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
@@ -3569,27 +3571,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3622,12 +3624,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="114"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3662,12 +3664,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="107"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3702,12 +3704,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="107"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="114"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3749,13 +3751,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="100" t="s">
+      <c r="C20" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="109"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3838,20 +3840,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="97" t="s">
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="106"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3898,7 +3900,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="115">
+      <c r="E6" s="122">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3906,7 +3908,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="119">
+      <c r="G6" s="126">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3921,15 +3923,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="115">
+      <c r="K6" s="122">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="115">
+      <c r="L6" s="122">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="117">
+      <c r="M6" s="124">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3944,12 +3946,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="115"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="119"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3961,9 +3963,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="117"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="124"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3975,12 +3977,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="115"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="119"/>
+      <c r="G8" s="126"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3992,9 +3994,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="117"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="124"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -4006,12 +4008,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="116"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="120"/>
+      <c r="G9" s="127"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -4023,9 +4025,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="118"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="125"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -4035,14 +4037,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="106"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -4079,15 +4081,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="109">
+      <c r="G15" s="116">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="109">
+      <c r="H15" s="116">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="112">
+      <c r="I15" s="119">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -4107,9 +4109,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="113"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="120"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -4126,9 +4128,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="113"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="120"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -4145,9 +4147,9 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="114"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4172,8 +4174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4183,7 +4185,7 @@
     <col min="3" max="3" width="32.33203125" style="11" customWidth="1"/>
     <col min="4" max="4" width="21" style="9" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18" style="11" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="9"/>
     <col min="8" max="8" width="20.33203125" style="11" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="9" customWidth="1"/>
@@ -4193,10 +4195,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="121">
+      <c r="D4" s="128">
         <v>20160622</v>
       </c>
-      <c r="E4" s="122"/>
+      <c r="E4" s="129"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -4298,10 +4300,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="121">
+      <c r="D15" s="128">
         <v>20160713</v>
       </c>
-      <c r="E15" s="122"/>
+      <c r="E15" s="129"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4323,7 +4325,7 @@
         <f>D17/D23</f>
         <v>0.17281822165793587</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="11">
         <v>11860</v>
       </c>
       <c r="G17" s="9">
@@ -4406,10 +4408,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="121">
+      <c r="D25" s="128">
         <v>20160808</v>
       </c>
-      <c r="E25" s="122"/>
+      <c r="E25" s="129"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4418,7 +4420,7 @@
       <c r="E26" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="9" t="s">
@@ -4440,7 +4442,7 @@
         <f>D27/D33</f>
         <v>0.16696730703409002</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="95">
         <v>10860</v>
       </c>
       <c r="G27" s="9">
@@ -4461,7 +4463,7 @@
         <f>D28/D33</f>
         <v>0.11721438593022675</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="11">
         <f>D28/G28</f>
         <v>6999.9999999999991</v>
       </c>
@@ -4480,7 +4482,7 @@
         <f>D29/D33</f>
         <v>2.7677367533471011E-3</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="11">
         <v>193.32</v>
       </c>
       <c r="G29" s="9">
@@ -4539,10 +4541,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="121">
-        <v>20160908</v>
-      </c>
-      <c r="E35" s="122"/>
+      <c r="D35" s="128">
+        <v>20160825</v>
+      </c>
+      <c r="E35" s="129"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4551,7 +4553,7 @@
       <c r="E36" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="9" t="s">
@@ -4573,25 +4575,25 @@
       </c>
       <c r="D37" s="55">
         <f>F37*G37</f>
-        <v>8856.4560000000001</v>
+        <v>8749.25</v>
       </c>
       <c r="E37" s="53">
         <f>D37/D43</f>
-        <v>0.1388433631967044</v>
-      </c>
-      <c r="F37" s="9">
+        <v>0.13754618265606652</v>
+      </c>
+      <c r="F37" s="11">
         <v>8860</v>
       </c>
       <c r="G37" s="9">
-        <v>0.99960000000000004</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="H37" s="11">
         <f>F37*G37</f>
-        <v>8856.4560000000001</v>
+        <v>8749.25</v>
       </c>
       <c r="I37" s="9">
-        <f>933+D37-10000</f>
-        <v>-210.54399999999987</v>
+        <f>933+D37-10000+2000-9.656</f>
+        <v>1672.5940000000001</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>93</v>
@@ -4603,28 +4605,28 @@
       </c>
       <c r="D38" s="78">
         <f>H38</f>
-        <v>10048.659192000001</v>
+        <v>9981.3167790000007</v>
       </c>
       <c r="E38" s="53">
         <f>D38/D43</f>
-        <v>0.15753362720198219</v>
-      </c>
-      <c r="F38" s="89">
+        <v>0.15691539512899913</v>
+      </c>
+      <c r="F38" s="96">
         <f>9921.98-162.21</f>
         <v>9759.77</v>
       </c>
       <c r="G38" s="9">
-        <v>1.0296000000000001</v>
+        <v>1.0226999999999999</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" ref="H38:H42" si="0">F38*G38</f>
-        <v>10048.659192000001</v>
+        <v>9981.3167790000007</v>
       </c>
       <c r="I38" s="9">
         <f>H38-10000</f>
-        <v>48.659192000000985</v>
-      </c>
-      <c r="J38" s="123" t="s">
+        <v>-18.683220999999321</v>
+      </c>
+      <c r="J38" s="88" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4634,25 +4636,25 @@
       </c>
       <c r="D39" s="56">
         <f>H39</f>
-        <v>173.60136</v>
+        <v>174.56796</v>
       </c>
       <c r="E39" s="53">
         <f>D39/D43</f>
-        <v>2.7215622905959035E-3</v>
-      </c>
-      <c r="F39" s="9">
+        <v>2.7443674042983012E-3</v>
+      </c>
+      <c r="F39" s="11">
         <v>193.32</v>
       </c>
       <c r="G39" s="9">
-        <v>0.89800000000000002</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="0"/>
-        <v>173.60136</v>
+        <v>174.56796</v>
       </c>
       <c r="I39" s="9">
         <f>-1000+944+H39-4.67</f>
-        <v>112.93136</v>
+        <v>113.89796</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
@@ -4661,25 +4663,25 @@
       </c>
       <c r="D40" s="56">
         <f>H40</f>
-        <v>10607.83</v>
+        <v>10584.7695</v>
       </c>
       <c r="E40" s="53">
         <f>D40/D43</f>
-        <v>0.16629979231183409</v>
-      </c>
-      <c r="F40" s="9">
+        <v>0.16640222179265216</v>
+      </c>
+      <c r="F40" s="11">
         <v>11530.25</v>
       </c>
       <c r="G40" s="9">
-        <v>0.92</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="0"/>
-        <v>10607.83</v>
+        <v>10584.7695</v>
       </c>
       <c r="I40" s="9">
         <f>H40-10000</f>
-        <v>607.82999999999993</v>
+        <v>584.76950000000033</v>
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.3">
@@ -4688,25 +4690,25 @@
       </c>
       <c r="D41" s="56">
         <f>H41</f>
-        <v>12017.020680000001</v>
+        <v>12055.72284</v>
       </c>
       <c r="E41" s="53">
         <f>D41/D43</f>
-        <v>0.18839178637770548</v>
-      </c>
-      <c r="F41" s="9">
+        <v>0.18952694868720782</v>
+      </c>
+      <c r="F41" s="11">
         <v>19351.080000000002</v>
       </c>
       <c r="G41" s="9">
-        <v>0.621</v>
+        <v>0.623</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="0"/>
-        <v>12017.020680000001</v>
+        <v>12055.72284</v>
       </c>
       <c r="I41" s="9">
         <f>F41*G41-11000</f>
-        <v>1017.0206800000014</v>
+        <v>1055.7228400000004</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>89</v>
@@ -4718,22 +4720,22 @@
       </c>
       <c r="D42" s="11">
         <f>H42</f>
-        <v>22083.824517166569</v>
+        <v>22063.917228583232</v>
       </c>
       <c r="E42" s="53">
         <f>D42/D43</f>
-        <v>0.34620986862117797</v>
-      </c>
-      <c r="F42" s="88">
+        <v>0.346864884330776</v>
+      </c>
+      <c r="F42" s="11">
         <f>余额宝损益表!C13</f>
-        <v>22083.824517166569</v>
+        <v>22063.917228583232</v>
       </c>
       <c r="G42" s="9">
         <v>1</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="0"/>
-        <v>22083.824517166569</v>
+        <v>22063.917228583232</v>
       </c>
       <c r="J42" s="9">
         <v>-1000</v>
@@ -4745,7 +4747,7 @@
       </c>
       <c r="D43" s="57">
         <f>SUM(D37:D42)</f>
-        <v>63787.391749166571</v>
+        <v>63609.544307583237</v>
       </c>
       <c r="E43" s="54">
         <f>D43/D43</f>
@@ -4856,15 +4858,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="46.5" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="7"/>
-    <col min="7" max="7" width="7.5" style="127" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="92" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4886,175 +4888,175 @@
         <v>96</v>
       </c>
       <c r="C4">
-        <f>C3*(1+0.02/12)</f>
-        <v>23928.560877166568</v>
+        <f>C3*(1+0.02/12/2)</f>
+        <v>23908.653588583231</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="128" t="s">
+      <c r="G5" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="124" t="s">
+      <c r="H5" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="124" t="s">
+      <c r="I5" s="89" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="124">
+      <c r="B6" s="89">
         <v>20160808</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="124">
+      <c r="E6" s="89">
         <v>1</v>
       </c>
-      <c r="F6" s="124">
+      <c r="F6" s="89">
         <v>1</v>
       </c>
-      <c r="G6" s="128">
+      <c r="G6" s="93">
         <v>0</v>
       </c>
-      <c r="H6" s="124">
+      <c r="H6" s="89">
         <f>C4</f>
-        <v>23928.560877166568</v>
-      </c>
-      <c r="I6" s="124">
+        <v>23908.653588583231</v>
+      </c>
+      <c r="I6" s="89">
         <f>H6</f>
-        <v>23928.560877166568</v>
+        <v>23908.653588583231</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="23" x14ac:dyDescent="0.3">
-      <c r="B7" s="124">
+      <c r="B7" s="89">
         <v>20160811</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="124">
+      <c r="E7" s="89">
         <v>1644.77</v>
       </c>
-      <c r="F7" s="124">
+      <c r="F7" s="89">
         <v>0.59899999999999998</v>
       </c>
-      <c r="G7" s="128">
+      <c r="G7" s="93">
         <v>-14.78</v>
       </c>
-      <c r="H7" s="124">
+      <c r="H7" s="89">
         <f>-(E7*F7-G7)</f>
         <v>-999.99722999999994</v>
       </c>
-      <c r="I7" s="124">
+      <c r="I7" s="89">
         <f>I6+H7</f>
-        <v>22928.563647166568</v>
+        <v>22908.65635858323</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="23" x14ac:dyDescent="0.15">
-      <c r="B8" s="124">
+      <c r="B8" s="89">
         <v>20160816</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="129" t="s">
+      <c r="D8" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="124">
+      <c r="E8" s="89">
         <v>2921.98</v>
       </c>
-      <c r="F8" s="124">
+      <c r="F8" s="89">
         <v>1.0266999999999999</v>
       </c>
-      <c r="G8" s="128">
+      <c r="G8" s="93">
         <v>0</v>
       </c>
-      <c r="H8" s="124">
+      <c r="H8" s="89">
         <f>-1*E8*F8</f>
         <v>-2999.996866</v>
       </c>
-      <c r="I8" s="124">
+      <c r="I8" s="89">
         <f>I7+H8</f>
-        <v>19928.566781166566</v>
+        <v>19908.659492583229</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="23" x14ac:dyDescent="0.3">
-      <c r="B9" s="124">
+      <c r="B9" s="89">
         <v>20160819</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="124">
+      <c r="E9" s="89">
         <v>2000</v>
       </c>
-      <c r="F9" s="124">
+      <c r="F9" s="89">
         <v>0.99960000000000004</v>
       </c>
-      <c r="G9" s="128">
+      <c r="G9" s="93">
         <f>120.7/25000*2000*-1</f>
         <v>-9.6559999999999988</v>
       </c>
-      <c r="H9" s="124">
+      <c r="H9" s="89">
         <f>E9*F9+G9</f>
         <v>1989.5440000000001</v>
       </c>
-      <c r="I9" s="124">
+      <c r="I9" s="89">
         <f>I8+H9</f>
-        <v>21918.110781166568</v>
+        <v>21898.20349258323</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="23" x14ac:dyDescent="0.15">
-      <c r="B10" s="124">
+      <c r="B10" s="89">
         <v>20160816</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="124">
+      <c r="E10" s="89">
         <v>162.21</v>
       </c>
-      <c r="F10" s="124">
+      <c r="F10" s="89">
         <v>1.0216000000000001</v>
       </c>
-      <c r="G10" s="128">
+      <c r="G10" s="93">
         <v>0</v>
       </c>
-      <c r="H10" s="124">
+      <c r="H10" s="89">
         <f>E10*F10</f>
         <v>165.71373600000001</v>
       </c>
-      <c r="I10" s="124">
+      <c r="I10" s="89">
         <f>I9+H10</f>
-        <v>22083.824517166569</v>
+        <v>22063.917228583232</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -5063,7 +5065,7 @@
       </c>
       <c r="C13">
         <f>I10</f>
-        <v>22083.824517166569</v>
+        <v>22063.917228583232</v>
       </c>
     </row>
   </sheetData>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="113">
   <si>
     <t>黄金基金</t>
   </si>
@@ -829,13 +829,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9月终值</t>
-    <rPh sb="1" eb="2">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <t>0825终值</t>
+    <rPh sb="4" eb="5">
       <t>zhong'zhi</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -843,11 +844,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="179" formatCode="#,##0.000_ ;[Red]\-#,##0.000\ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.000000_ ;[Red]\-#,##0.000000\ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1359,7 +1361,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1605,6 +1607,15 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1660,6 +1671,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1678,29 +1707,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2157,174 +2171,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="101">
         <v>7000</v>
       </c>
-      <c r="E17" s="99">
+      <c r="E17" s="102">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="97">
+      <c r="G17" s="100">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="98">
+      <c r="D19" s="101">
         <v>10000</v>
       </c>
-      <c r="E19" s="99">
+      <c r="E19" s="102">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="98">
+      <c r="D21" s="101">
         <v>10000</v>
       </c>
-      <c r="E21" s="99">
+      <c r="E21" s="102">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="99"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="98">
+      <c r="D23" s="101">
         <v>10000</v>
       </c>
-      <c r="E23" s="99">
+      <c r="E23" s="102">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="99"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="98">
+      <c r="D25" s="101">
         <v>1000</v>
       </c>
-      <c r="E25" s="99">
+      <c r="E25" s="102">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="99"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="98">
+      <c r="D27" s="101">
         <v>22000</v>
       </c>
-      <c r="E27" s="99">
+      <c r="E27" s="102">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="99"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="102"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -2362,13 +2376,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -2383,27 +2411,13 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2436,18 +2450,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="100">
+      <c r="F4" s="103">
         <v>20160708</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100">
+      <c r="G4" s="103"/>
+      <c r="H4" s="103">
         <v>20160712</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100">
+      <c r="I4" s="103"/>
+      <c r="J4" s="103">
         <v>20160808</v>
       </c>
-      <c r="K4" s="100"/>
+      <c r="K4" s="103"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -2505,10 +2519,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="100">
+      <c r="E8" s="103">
         <v>20160810</v>
       </c>
-      <c r="F8" s="100"/>
+      <c r="F8" s="103"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -2553,10 +2567,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:P40"/>
+  <dimension ref="B4:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2569,7 +2583,7 @@
     <col min="6" max="6" width="16" style="9" customWidth="1"/>
     <col min="7" max="9" width="15.6640625" style="9" customWidth="1"/>
     <col min="10" max="10" width="23" style="9" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="26.1640625" style="10" customWidth="1"/>
     <col min="12" max="12" width="16" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.5" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.5" style="9" customWidth="1"/>
@@ -2582,11 +2596,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="100">
+      <c r="C4" s="103">
         <v>201605</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -2658,19 +2672,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="104">
+      <c r="C11" s="107">
         <v>20160608</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="106"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="109"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -2854,20 +2868,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="101">
+      <c r="C18" s="104">
         <v>20160708</v>
       </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="103"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="106"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -3086,20 +3100,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="101">
+      <c r="C27" s="104">
         <v>20160808</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="103"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="106"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -3304,21 +3318,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="101">
+      <c r="C35" s="104">
         <v>20160825</v>
       </c>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="102"/>
-      <c r="L35" s="102"/>
-      <c r="M35" s="102"/>
-      <c r="N35" s="102"/>
-      <c r="O35" s="103"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="106"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -3396,7 +3410,7 @@
         <f>C37-H37</f>
         <v>42072.276964542856</v>
       </c>
-      <c r="K37" s="67">
+      <c r="K37" s="133">
         <f>J37/J39</f>
         <v>0.66379454602729471</v>
       </c>
@@ -3450,7 +3464,7 @@
         <f t="shared" ref="J38" si="12">C38-H38</f>
         <v>21309.197343040385</v>
       </c>
-      <c r="K38" s="67">
+      <c r="K38" s="133">
         <f>J38/J39</f>
         <v>0.3362054539727054</v>
       </c>
@@ -3531,11 +3545,246 @@
         <v>67</v>
       </c>
       <c r="P40" s="39">
+        <v>60700</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="72"/>
+      <c r="C42" s="104">
+        <v>20160908</v>
+      </c>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="106"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B43" s="40"/>
+      <c r="C43" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="M43" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="N43" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="O43" s="86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B44" s="40">
+        <v>216</v>
+      </c>
+      <c r="C44" s="66">
+        <f>C46*D44</f>
+        <v>42084.481887809801</v>
+      </c>
+      <c r="D44" s="133">
+        <v>0.66379454602729471</v>
+      </c>
+      <c r="E44" s="66">
+        <f>C44-J37</f>
+        <v>12.204923266945116</v>
+      </c>
+      <c r="F44" s="66">
+        <f>E44/C44</f>
+        <v>2.9001006355457582E-4</v>
+      </c>
+      <c r="G44" s="66">
+        <f>E44*0.2</f>
+        <v>2.4409846533890232</v>
+      </c>
+      <c r="H44" s="85">
+        <f>ROUND(G44,2)</f>
+        <v>2.44</v>
+      </c>
+      <c r="I44" s="66">
+        <v>0</v>
+      </c>
+      <c r="J44" s="66">
+        <f>C44-H44</f>
+        <v>42082.041887809799</v>
+      </c>
+      <c r="K44" s="67">
+        <f>J44/J46</f>
+        <v>0.66378160636356742</v>
+      </c>
+      <c r="L44" s="66">
+        <f>518+H44</f>
+        <v>520.44000000000005</v>
+      </c>
+      <c r="M44" s="66">
+        <f>J44+L44-40000</f>
+        <v>2602.4818878098013</v>
+      </c>
+      <c r="N44" s="64">
+        <f>M44/40000</f>
+        <v>6.5062047195245026E-2</v>
+      </c>
+      <c r="O44" s="19">
+        <f t="shared" ref="O44:O45" si="13">J44+L44</f>
+        <v>42602.481887809801</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B45" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="66">
+        <f>C46*D45</f>
+        <v>21315.379017463929</v>
+      </c>
+      <c r="D45" s="133">
+        <v>0.3362054539727054</v>
+      </c>
+      <c r="E45" s="66">
+        <f>C45-J38</f>
+        <v>6.1816744235438819</v>
+      </c>
+      <c r="F45" s="66">
+        <f t="shared" ref="F45:F46" si="14">E45/C45</f>
+        <v>2.9001006355454281E-4</v>
+      </c>
+      <c r="G45" s="66">
+        <f>E45*0.2</f>
+        <v>1.2363348847087765</v>
+      </c>
+      <c r="H45" s="66">
+        <v>0</v>
+      </c>
+      <c r="I45" s="66">
+        <v>0</v>
+      </c>
+      <c r="J45" s="66">
+        <f t="shared" ref="J45" si="15">C45-H45</f>
+        <v>21315.379017463929</v>
+      </c>
+      <c r="K45" s="67">
+        <f>J45/J46</f>
+        <v>0.33621839363643274</v>
+      </c>
+      <c r="L45" s="66">
+        <v>0</v>
+      </c>
+      <c r="M45" s="66">
+        <f>C45-20000</f>
+        <v>1315.3790174639289</v>
+      </c>
+      <c r="N45" s="64">
+        <f>M45/20000</f>
+        <v>6.5768950873196438E-2</v>
+      </c>
+      <c r="O45" s="19">
+        <f t="shared" si="13"/>
+        <v>21315.379017463929</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="68">
+        <f>资产结构!D53</f>
+        <v>63399.860905273723</v>
+      </c>
+      <c r="D46" s="68">
+        <v>1</v>
+      </c>
+      <c r="E46" s="69">
+        <f>SUM(E44:E45)</f>
+        <v>18.386597690488998</v>
+      </c>
+      <c r="F46" s="69">
+        <f t="shared" si="14"/>
+        <v>2.9001006355456476E-4</v>
+      </c>
+      <c r="G46" s="69">
+        <f>G44+G45</f>
+        <v>3.6773195380977999</v>
+      </c>
+      <c r="H46" s="69">
+        <f>SUM(H44:H45)</f>
+        <v>2.44</v>
+      </c>
+      <c r="I46" s="69">
+        <v>0</v>
+      </c>
+      <c r="J46" s="69">
+        <f>C46-H46</f>
+        <v>63397.420905273721</v>
+      </c>
+      <c r="K46" s="70">
+        <f>J46/J46</f>
+        <v>1</v>
+      </c>
+      <c r="L46" s="69">
+        <f>L44+L45</f>
+        <v>520.44000000000005</v>
+      </c>
+      <c r="M46" s="69">
+        <f>M44+M45</f>
+        <v>3917.8609052737302</v>
+      </c>
+      <c r="N46" s="87">
+        <f>(J46+L46)/60000-1</f>
+        <v>6.5297681754562076E-2</v>
+      </c>
+      <c r="O46" s="22">
+        <f>J46+L46</f>
+        <v>63917.860905273723</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47" s="97"/>
+      <c r="K47" s="97"/>
+      <c r="O47" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="P47" s="39">
         <v>60800</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C42:O42"/>
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C11:M11"/>
@@ -3571,27 +3820,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3624,12 +3873,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="114"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3664,12 +3913,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="117"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3704,12 +3953,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="114"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="117"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3751,13 +4000,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="109"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="112"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3840,20 +4089,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="104" t="s">
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="106"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="109"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3900,7 +4149,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="122">
+      <c r="E6" s="123">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3908,7 +4157,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="126">
+      <c r="G6" s="121">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3923,15 +4172,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="122">
+      <c r="K6" s="123">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="122">
+      <c r="L6" s="123">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="124">
+      <c r="M6" s="119">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3946,12 +4195,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="122"/>
+      <c r="E7" s="123"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="126"/>
+      <c r="G7" s="121"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3963,9 +4212,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="124"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="119"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3977,12 +4226,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="122"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="126"/>
+      <c r="G8" s="121"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3994,9 +4243,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="124"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="119"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -4008,12 +4257,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="123"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="127"/>
+      <c r="G9" s="122"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -4025,9 +4274,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="125"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="120"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -4037,14 +4286,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="106"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="109"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -4081,15 +4330,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="116">
+      <c r="G15" s="125">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="116">
+      <c r="H15" s="125">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="119">
+      <c r="I15" s="128">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -4109,9 +4358,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="120"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="129"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -4128,9 +4377,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="120"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="129"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -4147,23 +4396,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="121"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4172,10 +4421,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J43"/>
+  <dimension ref="C3:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4195,10 +4444,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="128">
+      <c r="D4" s="131">
         <v>20160622</v>
       </c>
-      <c r="E4" s="129"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -4300,10 +4549,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="128">
+      <c r="D15" s="131">
         <v>20160713</v>
       </c>
-      <c r="E15" s="129"/>
+      <c r="E15" s="132"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4408,10 +4657,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="128">
+      <c r="D25" s="131">
         <v>20160808</v>
       </c>
-      <c r="E25" s="129"/>
+      <c r="E25" s="132"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4541,10 +4790,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="128">
+      <c r="D35" s="131">
         <v>20160825</v>
       </c>
-      <c r="E35" s="129"/>
+      <c r="E35" s="132"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4754,12 +5003,200 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D45" s="131">
+        <v>20160908</v>
+      </c>
+      <c r="E45" s="132"/>
+    </row>
+    <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D46" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C47" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="55">
+        <f>F47*G47</f>
+        <v>8749.25</v>
+      </c>
+      <c r="E47" s="53">
+        <f>D47/D53</f>
+        <v>0.13800109140731917</v>
+      </c>
+      <c r="F47" s="11">
+        <v>8860</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="H47" s="11">
+        <f>F47*G47</f>
+        <v>8749.25</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C48" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="78">
+        <f>H48</f>
+        <v>9981.3167790000007</v>
+      </c>
+      <c r="E48" s="53">
+        <f>D48/D53</f>
+        <v>0.15743436399510674</v>
+      </c>
+      <c r="F48" s="96">
+        <f>9921.98-162.21</f>
+        <v>9759.77</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1.0226999999999999</v>
+      </c>
+      <c r="H48" s="11">
+        <f t="shared" ref="H48:H52" si="1">F48*G48</f>
+        <v>9981.3167790000007</v>
+      </c>
+      <c r="J48" s="88"/>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C49" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="56">
+        <f>H49</f>
+        <v>174.56796</v>
+      </c>
+      <c r="E49" s="53">
+        <f>D49/D53</f>
+        <v>2.7534438957338325E-3</v>
+      </c>
+      <c r="F49" s="11">
+        <v>193.32</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H49" s="11">
+        <f t="shared" si="1"/>
+        <v>174.56796</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C50" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="56">
+        <f>H50</f>
+        <v>10584.7695</v>
+      </c>
+      <c r="E50" s="53">
+        <f>D50/D53</f>
+        <v>0.16695256659655444</v>
+      </c>
+      <c r="F50" s="11">
+        <v>11530.25</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="H50" s="11">
+        <f t="shared" si="1"/>
+        <v>10584.7695</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C51" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="56">
+        <f>H51</f>
+        <v>12055.72284</v>
+      </c>
+      <c r="E51" s="53">
+        <f>D51/D53</f>
+        <v>0.19015377428055497</v>
+      </c>
+      <c r="F51" s="11">
+        <v>19351.080000000002</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0.623</v>
+      </c>
+      <c r="H51" s="11">
+        <f t="shared" si="1"/>
+        <v>12055.72284</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C52" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="11">
+        <f>F52</f>
+        <v>21854.233826273718</v>
+      </c>
+      <c r="E52" s="53">
+        <f>D52/D53</f>
+        <v>0.34470475982473081</v>
+      </c>
+      <c r="F52" s="11">
+        <f>余额宝损益表!C27</f>
+        <v>21854.233826273718</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
+      <c r="H52" s="11">
+        <f t="shared" si="1"/>
+        <v>21854.233826273718</v>
+      </c>
+      <c r="J52" s="9">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="57">
+        <f>SUM(D47:D52)</f>
+        <v>63399.860905273723</v>
+      </c>
+      <c r="E53" s="54">
+        <f>D53/D53</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D45:E45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4856,10 +5293,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I13"/>
+  <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5066,6 +5503,149 @@
       <c r="C13">
         <f>I10</f>
         <v>22063.917228583232</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>20160908</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17">
+        <v>22063.917228583232</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18">
+        <f>C17*(1+0.02/12/2)</f>
+        <v>22082.303826273717</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="89" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="89">
+        <v>20160825</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="89">
+        <v>1</v>
+      </c>
+      <c r="F20" s="89">
+        <v>1</v>
+      </c>
+      <c r="G20" s="93">
+        <v>0</v>
+      </c>
+      <c r="H20" s="89">
+        <f>C18</f>
+        <v>22082.303826273717</v>
+      </c>
+      <c r="I20" s="89">
+        <f>H20</f>
+        <v>22082.303826273717</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="89">
+        <v>20160825</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="89">
+        <v>228.07</v>
+      </c>
+      <c r="F21" s="89">
+        <v>1</v>
+      </c>
+      <c r="G21" s="93">
+        <v>0</v>
+      </c>
+      <c r="H21" s="89">
+        <f>-E21*F21</f>
+        <v>-228.07</v>
+      </c>
+      <c r="I21" s="89">
+        <f>I20+H21</f>
+        <v>21854.233826273718</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="23" x14ac:dyDescent="0.15">
+      <c r="B22" s="89"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+    </row>
+    <row r="23" spans="2:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+    </row>
+    <row r="24" spans="2:9" ht="23" x14ac:dyDescent="0.15">
+      <c r="B24" s="89"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27">
+        <f>I21</f>
+        <v>21854.233826273718</v>
       </c>
     </row>
   </sheetData>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="易H股ETF联接（110031）" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="打包资产统计" sheetId="3" state="hidden" r:id="rId5"/>
     <sheet name="资产结构" sheetId="8" r:id="rId6"/>
-    <sheet name="Operation" sheetId="9" state="hidden" r:id="rId7"/>
+    <sheet name="Operation" sheetId="9" r:id="rId7"/>
     <sheet name="余额宝损益表" sheetId="11" r:id="rId8"/>
     <sheet name="策略" sheetId="10" r:id="rId9"/>
   </sheets>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="123">
   <si>
     <t>黄金基金</t>
   </si>
@@ -715,13 +715,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9月基值</t>
-    <rPh sb="1" eb="2">
-      <t>yue</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SELL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -837,6 +830,110 @@
   </si>
   <si>
     <t>OUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500份</t>
+    <rPh sb="3" eb="4">
+      <t>fen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月基值</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25基值</t>
+    <rPh sb="4" eb="5">
+      <t>ji'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0908终值</t>
+    <rPh sb="4" eb="5">
+      <t>zhong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安赎回500份手续费</t>
+    <rPh sb="0" eb="1">
+      <t>hua'an</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'hui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shou'xu'f</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金在途。手续费从余额宝扣除</t>
+    <rPh sb="0" eb="1">
+      <t>zi'ji'n</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zai'tu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou'xu'f</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yu'e'bao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kou'chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安基金赎回</t>
+    <rPh sb="0" eb="1">
+      <t>hua'an</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'jin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'hui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不看好A股，短期</t>
+    <rPh sb="0" eb="1">
+      <t>bu'kan'hao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>duan'qi</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -844,12 +941,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="179" formatCode="#,##0.000_ ;[Red]\-#,##0.000\ "/>
     <numFmt numFmtId="180" formatCode="#,##0.000000_ ;[Red]\-#,##0.000000\ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.00000_ ;[Red]\-#,##0.00000\ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1361,7 +1459,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1616,6 +1714,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1671,6 +1775,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1683,38 +1811,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2171,174 +2272,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="101">
+      <c r="D17" s="103">
         <v>7000</v>
       </c>
-      <c r="E17" s="102">
+      <c r="E17" s="104">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="100">
+      <c r="G17" s="102">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="104"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="101">
+      <c r="D19" s="103">
         <v>10000</v>
       </c>
-      <c r="E19" s="102">
+      <c r="E19" s="104">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="104"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="101">
+      <c r="D21" s="103">
         <v>10000</v>
       </c>
-      <c r="E21" s="102">
+      <c r="E21" s="104">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="104"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="101">
+      <c r="D23" s="103">
         <v>10000</v>
       </c>
-      <c r="E23" s="102">
+      <c r="E23" s="104">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="101">
+      <c r="D25" s="103">
         <v>1000</v>
       </c>
-      <c r="E25" s="102">
+      <c r="E25" s="104">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="101" t="s">
+      <c r="C27" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="101">
+      <c r="D27" s="103">
         <v>22000</v>
       </c>
-      <c r="E27" s="102">
+      <c r="E27" s="104">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -2376,13 +2477,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -2397,27 +2512,13 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2450,18 +2551,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="103">
+      <c r="F4" s="105">
         <v>20160708</v>
       </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103">
+      <c r="G4" s="105"/>
+      <c r="H4" s="105">
         <v>20160712</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103">
+      <c r="I4" s="105"/>
+      <c r="J4" s="105">
         <v>20160808</v>
       </c>
-      <c r="K4" s="103"/>
+      <c r="K4" s="105"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -2519,10 +2620,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="103">
+      <c r="E8" s="105">
         <v>20160810</v>
       </c>
-      <c r="F8" s="103"/>
+      <c r="F8" s="105"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -2567,23 +2668,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:P47"/>
+  <dimension ref="B4:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="9"/>
     <col min="2" max="2" width="10.83203125" style="10"/>
-    <col min="3" max="3" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="24.1640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="9" customWidth="1"/>
     <col min="7" max="9" width="15.6640625" style="9" customWidth="1"/>
     <col min="10" max="10" width="23" style="9" customWidth="1"/>
-    <col min="11" max="11" width="26.1640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="34.33203125" style="10" customWidth="1"/>
     <col min="12" max="12" width="16" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.5" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.5" style="9" customWidth="1"/>
@@ -2596,11 +2697,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="103">
+      <c r="C4" s="105">
         <v>201605</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -2672,19 +2773,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="107">
+      <c r="C11" s="109">
         <v>20160608</v>
       </c>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="109"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="111"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -2868,20 +2969,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="104">
+      <c r="C18" s="106">
         <v>20160708</v>
       </c>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="106"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="108"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -3100,20 +3201,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="104">
+      <c r="C27" s="106">
         <v>20160808</v>
       </c>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="106"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="108"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -3188,7 +3289,7 @@
         <f>C29-H29</f>
         <v>41159.99232758367</v>
       </c>
-      <c r="K29" s="67">
+      <c r="K29" s="101">
         <f>J29/J31</f>
         <v>0.66509358314575606</v>
       </c>
@@ -3196,12 +3297,12 @@
         <v>289.99299999999999</v>
       </c>
       <c r="M29" s="66">
-        <f>C29+L29-40000</f>
-        <v>1517.1153275836696</v>
+        <f>J29+L29-40000</f>
+        <v>1449.9853275836722</v>
       </c>
       <c r="N29" s="65">
         <f>M29/40000</f>
-        <v>3.7927883189591741E-2</v>
+        <v>3.6249633189591804E-2</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
@@ -3238,7 +3339,7 @@
         <f t="shared" ref="J30:J31" si="8">C30-H30</f>
         <v>20726.023972416344</v>
       </c>
-      <c r="K30" s="67">
+      <c r="K30" s="101">
         <f>J30/J31</f>
         <v>0.33490641685424405</v>
       </c>
@@ -3299,7 +3400,7 @@
       </c>
       <c r="M31" s="66">
         <f>M29+M30</f>
-        <v>2243.1393000000135</v>
+        <v>2176.0093000000161</v>
       </c>
       <c r="N31" s="74">
         <f>(C31+L31)/60000-1</f>
@@ -3318,21 +3419,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="104">
+      <c r="C35" s="106">
         <v>20160825</v>
       </c>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="106"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="107"/>
+      <c r="M35" s="107"/>
+      <c r="N35" s="107"/>
+      <c r="O35" s="108"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -3382,53 +3483,53 @@
       </c>
       <c r="C37" s="66">
         <f>C39*D37</f>
-        <v>42300.346964542856</v>
+        <v>42306.299745799268</v>
       </c>
       <c r="D37" s="66">
-        <v>0.66500000000000004</v>
+        <v>0.66509358314575606</v>
       </c>
       <c r="E37" s="66">
         <f>C37-J29</f>
-        <v>1140.3546369591859</v>
+        <v>1146.3074182155979</v>
       </c>
       <c r="F37" s="66">
         <f>E37/C37</f>
-        <v>2.6958517335922989E-2</v>
+        <v>2.7095430824800947E-2</v>
       </c>
       <c r="G37" s="66">
         <f>E37*0.2</f>
-        <v>228.07092739183719</v>
+        <v>229.26148364311959</v>
       </c>
       <c r="H37" s="85">
         <f>ROUND(G37,2)</f>
-        <v>228.07</v>
+        <v>229.26</v>
       </c>
       <c r="I37" s="66">
         <v>0</v>
       </c>
       <c r="J37" s="66">
         <f>C37-H37</f>
-        <v>42072.276964542856</v>
-      </c>
-      <c r="K37" s="133">
+        <v>42077.039745799266</v>
+      </c>
+      <c r="K37" s="100">
         <f>J37/J39</f>
-        <v>0.66379454602729471</v>
+        <v>0.66388215523932081</v>
       </c>
       <c r="L37" s="66">
         <f>289.93+H37</f>
-        <v>518</v>
+        <v>519.19000000000005</v>
       </c>
       <c r="M37" s="66">
         <f>J37+L37-40000</f>
-        <v>2590.2769645428561</v>
+        <v>2596.2297457992681</v>
       </c>
       <c r="N37" s="64">
         <f>M37/40000</f>
-        <v>6.475692411357141E-2</v>
+        <v>6.4905743644981709E-2</v>
       </c>
       <c r="O37" s="19">
         <f t="shared" ref="O37:O38" si="10">J37+L37</f>
-        <v>42590.276964542856</v>
+        <v>42596.229745799268</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
@@ -3437,22 +3538,22 @@
       </c>
       <c r="C38" s="66">
         <f>C39*D38</f>
-        <v>21309.197343040385</v>
+        <v>21303.244561783977</v>
       </c>
       <c r="D38" s="66">
-        <v>0.33500000000000002</v>
+        <v>0.33490641685424405</v>
       </c>
       <c r="E38" s="66">
         <f>C38-J30</f>
-        <v>583.17337062404113</v>
+        <v>577.22058936763278</v>
       </c>
       <c r="F38" s="66">
         <f t="shared" ref="F38:F39" si="11">E38/C38</f>
-        <v>2.7367214317647982E-2</v>
+        <v>2.7095430824800856E-2</v>
       </c>
       <c r="G38" s="66">
         <f>E38*0.2</f>
-        <v>116.63467412480823</v>
+        <v>115.44411787352657</v>
       </c>
       <c r="H38" s="66">
         <v>0</v>
@@ -3462,26 +3563,26 @@
       </c>
       <c r="J38" s="66">
         <f t="shared" ref="J38" si="12">C38-H38</f>
-        <v>21309.197343040385</v>
-      </c>
-      <c r="K38" s="133">
+        <v>21303.244561783977</v>
+      </c>
+      <c r="K38" s="100">
         <f>J38/J39</f>
-        <v>0.3362054539727054</v>
+        <v>0.33611784476067924</v>
       </c>
       <c r="L38" s="66">
         <v>0</v>
       </c>
       <c r="M38" s="66">
         <f>C38-20000</f>
-        <v>1309.197343040385</v>
+        <v>1303.2445617839767</v>
       </c>
       <c r="N38" s="64">
         <f>M38/20000</f>
-        <v>6.5459867152019249E-2</v>
+        <v>6.5162228089198831E-2</v>
       </c>
       <c r="O38" s="19">
         <f t="shared" si="10"/>
-        <v>21309.197343040385</v>
+        <v>21303.244561783977</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35">
@@ -3497,26 +3598,26 @@
       </c>
       <c r="E39" s="69">
         <f>SUM(E37:E38)</f>
-        <v>1723.528007583227</v>
+        <v>1723.5280075832306</v>
       </c>
       <c r="F39" s="69">
         <f t="shared" si="11"/>
-        <v>2.709543082480086E-2</v>
+        <v>2.7095430824800919E-2</v>
       </c>
       <c r="G39" s="69">
         <f>G37+G38</f>
-        <v>344.7056015166454</v>
+        <v>344.70560151664614</v>
       </c>
       <c r="H39" s="69">
         <f>SUM(H37:H38)</f>
-        <v>228.07</v>
+        <v>229.26</v>
       </c>
       <c r="I39" s="69">
         <v>0</v>
       </c>
       <c r="J39" s="69">
         <f>C39-H39</f>
-        <v>63381.474307583238</v>
+        <v>63380.284307583235</v>
       </c>
       <c r="K39" s="70">
         <f>J39/J39</f>
@@ -3524,11 +3625,11 @@
       </c>
       <c r="L39" s="69">
         <f>L37+L38</f>
-        <v>518</v>
+        <v>519.19000000000005</v>
       </c>
       <c r="M39" s="69">
         <f>M37+M38</f>
-        <v>3899.4743075832412</v>
+        <v>3899.4743075832448</v>
       </c>
       <c r="N39" s="87">
         <f>(J39+L39)/60000-1</f>
@@ -3551,21 +3652,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="104">
-        <v>20160908</v>
-      </c>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
-      <c r="O42" s="106"/>
+      <c r="C42" s="106">
+        <v>20160906</v>
+      </c>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="108"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -3615,53 +3716,53 @@
       </c>
       <c r="C44" s="66">
         <f>C46*D44</f>
-        <v>42084.481887809801</v>
-      </c>
-      <c r="D44" s="133">
-        <v>0.66379454602729471</v>
+        <v>42275.869028111563</v>
+      </c>
+      <c r="D44" s="100">
+        <v>0.66388215523932081</v>
       </c>
       <c r="E44" s="66">
         <f>C44-J37</f>
-        <v>12.204923266945116</v>
+        <v>198.82928231229744</v>
       </c>
       <c r="F44" s="66">
         <f>E44/C44</f>
-        <v>2.9001006355457582E-4</v>
+        <v>4.7031388563552618E-3</v>
       </c>
       <c r="G44" s="66">
         <f>E44*0.2</f>
-        <v>2.4409846533890232</v>
+        <v>39.765856462459489</v>
       </c>
       <c r="H44" s="85">
         <f>ROUND(G44,2)</f>
-        <v>2.44</v>
+        <v>39.770000000000003</v>
       </c>
       <c r="I44" s="66">
         <v>0</v>
       </c>
       <c r="J44" s="66">
         <f>C44-H44</f>
-        <v>42082.041887809799</v>
-      </c>
-      <c r="K44" s="67">
+        <v>42236.099028111566</v>
+      </c>
+      <c r="K44" s="100">
         <f>J44/J46</f>
-        <v>0.66378160636356742</v>
+        <v>0.66367210802429988</v>
       </c>
       <c r="L44" s="66">
-        <f>518+H44</f>
-        <v>520.44000000000005</v>
+        <f>519.19+H44</f>
+        <v>558.96</v>
       </c>
       <c r="M44" s="66">
         <f>J44+L44-40000</f>
-        <v>2602.4818878098013</v>
+        <v>2795.0590281115656</v>
       </c>
       <c r="N44" s="64">
         <f>M44/40000</f>
-        <v>6.5062047195245026E-2</v>
+        <v>6.987647570278914E-2</v>
       </c>
       <c r="O44" s="19">
         <f t="shared" ref="O44:O45" si="13">J44+L44</f>
-        <v>42602.481887809801</v>
+        <v>42795.059028111566</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
@@ -3670,22 +3771,22 @@
       </c>
       <c r="C45" s="66">
         <f>C46*D45</f>
-        <v>21315.379017463929</v>
-      </c>
-      <c r="D45" s="133">
-        <v>0.3362054539727054</v>
+        <v>21403.910123162157</v>
+      </c>
+      <c r="D45" s="100">
+        <v>0.33611784476067924</v>
       </c>
       <c r="E45" s="66">
         <f>C45-J38</f>
-        <v>6.1816744235438819</v>
+        <v>100.66556137818043</v>
       </c>
       <c r="F45" s="66">
         <f t="shared" ref="F45:F46" si="14">E45/C45</f>
-        <v>2.9001006355454281E-4</v>
+        <v>4.7031388563552965E-3</v>
       </c>
       <c r="G45" s="66">
         <f>E45*0.2</f>
-        <v>1.2363348847087765</v>
+        <v>20.133112275636087</v>
       </c>
       <c r="H45" s="66">
         <v>0</v>
@@ -3695,26 +3796,26 @@
       </c>
       <c r="J45" s="66">
         <f t="shared" ref="J45" si="15">C45-H45</f>
-        <v>21315.379017463929</v>
-      </c>
-      <c r="K45" s="67">
+        <v>21403.910123162157</v>
+      </c>
+      <c r="K45" s="100">
         <f>J45/J46</f>
-        <v>0.33621839363643274</v>
+        <v>0.33632789197570018</v>
       </c>
       <c r="L45" s="66">
         <v>0</v>
       </c>
       <c r="M45" s="66">
         <f>C45-20000</f>
-        <v>1315.3790174639289</v>
+        <v>1403.9101231621571</v>
       </c>
       <c r="N45" s="64">
         <f>M45/20000</f>
-        <v>6.5768950873196438E-2</v>
+        <v>7.0195506158107851E-2</v>
       </c>
       <c r="O45" s="19">
         <f t="shared" si="13"/>
-        <v>21315.379017463929</v>
+        <v>21403.910123162157</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35">
@@ -3723,33 +3824,33 @@
       </c>
       <c r="C46" s="68">
         <f>资产结构!D53</f>
-        <v>63399.860905273723</v>
-      </c>
-      <c r="D46" s="68">
+        <v>63679.779151273717</v>
+      </c>
+      <c r="D46" s="70">
         <v>1</v>
       </c>
       <c r="E46" s="69">
         <f>SUM(E44:E45)</f>
-        <v>18.386597690488998</v>
+        <v>299.49484369047786</v>
       </c>
       <c r="F46" s="69">
         <f t="shared" si="14"/>
-        <v>2.9001006355456476E-4</v>
+        <v>4.703138856355274E-3</v>
       </c>
       <c r="G46" s="69">
         <f>G44+G45</f>
-        <v>3.6773195380977999</v>
+        <v>59.898968738095576</v>
       </c>
       <c r="H46" s="69">
         <f>SUM(H44:H45)</f>
-        <v>2.44</v>
+        <v>39.770000000000003</v>
       </c>
       <c r="I46" s="69">
         <v>0</v>
       </c>
       <c r="J46" s="69">
         <f>C46-H46</f>
-        <v>63397.420905273721</v>
+        <v>63640.00915127372</v>
       </c>
       <c r="K46" s="70">
         <f>J46/J46</f>
@@ -3757,19 +3858,19 @@
       </c>
       <c r="L46" s="69">
         <f>L44+L45</f>
-        <v>520.44000000000005</v>
+        <v>558.96</v>
       </c>
       <c r="M46" s="69">
         <f>M44+M45</f>
-        <v>3917.8609052737302</v>
+        <v>4198.9691512737227</v>
       </c>
       <c r="N46" s="87">
         <f>(J46+L46)/60000-1</f>
-        <v>6.5297681754562076E-2</v>
+        <v>6.9982819187895284E-2</v>
       </c>
       <c r="O46" s="22">
         <f>J46+L46</f>
-        <v>63917.860905273723</v>
+        <v>64198.969151273719</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
@@ -3781,6 +3882,9 @@
       <c r="P47" s="39">
         <v>60800</v>
       </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3820,27 +3924,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3873,12 +3977,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="117"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3913,12 +4017,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="117"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3953,12 +4057,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="115" t="s">
+      <c r="C16" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="117"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="119"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -4000,13 +4104,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="110" t="s">
+      <c r="C20" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="114"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -4089,20 +4193,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="107" t="s">
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="109"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="111"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -4149,7 +4253,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="123">
+      <c r="E6" s="127">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -4157,7 +4261,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="121">
+      <c r="G6" s="131">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -4172,15 +4276,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="123">
+      <c r="K6" s="127">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="123">
+      <c r="L6" s="127">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="119">
+      <c r="M6" s="129">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -4195,12 +4299,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="123"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="121"/>
+      <c r="G7" s="131"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -4212,9 +4316,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="119"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="129"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -4226,12 +4330,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="123"/>
+      <c r="E8" s="127"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="121"/>
+      <c r="G8" s="131"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -4243,9 +4347,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="119"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="129"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -4257,12 +4361,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="124"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="122"/>
+      <c r="G9" s="132"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -4274,9 +4378,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="120"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="130"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -4286,14 +4390,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="109"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="111"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -4330,15 +4434,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="125">
+      <c r="G15" s="121">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="125">
+      <c r="H15" s="121">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="128">
+      <c r="I15" s="124">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -4358,9 +4462,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="129"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="125"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -4377,9 +4481,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="125"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -4396,23 +4500,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="130"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4423,8 +4527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4444,10 +4548,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="131">
+      <c r="D4" s="133">
         <v>20160622</v>
       </c>
-      <c r="E4" s="132"/>
+      <c r="E4" s="134"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -4549,10 +4653,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="131">
+      <c r="D15" s="133">
         <v>20160713</v>
       </c>
-      <c r="E15" s="132"/>
+      <c r="E15" s="134"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4657,10 +4761,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="131">
+      <c r="D25" s="133">
         <v>20160808</v>
       </c>
-      <c r="E25" s="132"/>
+      <c r="E25" s="134"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4790,10 +4894,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="131">
+      <c r="D35" s="133">
         <v>20160825</v>
       </c>
-      <c r="E35" s="132"/>
+      <c r="E35" s="134"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -5005,10 +5109,10 @@
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="131">
+      <c r="D45" s="133">
         <v>20160908</v>
       </c>
-      <c r="E45" s="132"/>
+      <c r="E45" s="134"/>
     </row>
     <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="29" t="s">
@@ -5039,21 +5143,21 @@
       </c>
       <c r="D47" s="55">
         <f>F47*G47</f>
-        <v>8749.25</v>
+        <v>9143.52</v>
       </c>
       <c r="E47" s="53">
         <f>D47/D53</f>
-        <v>0.13800109140731917</v>
+        <v>0.14358592510629198</v>
       </c>
       <c r="F47" s="11">
         <v>8860</v>
       </c>
       <c r="G47" s="9">
-        <v>0.98750000000000004</v>
+        <v>1.032</v>
       </c>
       <c r="H47" s="11">
         <f>F47*G47</f>
-        <v>8749.25</v>
+        <v>9143.52</v>
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.3">
@@ -5062,22 +5166,22 @@
       </c>
       <c r="D48" s="78">
         <f>H48</f>
-        <v>9981.3167790000007</v>
+        <v>9979.3648250000006</v>
       </c>
       <c r="E48" s="53">
         <f>D48/D53</f>
-        <v>0.15743436399510674</v>
+        <v>0.15671167453790383</v>
       </c>
       <c r="F48" s="96">
         <f>9921.98-162.21</f>
         <v>9759.77</v>
       </c>
       <c r="G48" s="9">
-        <v>1.0226999999999999</v>
+        <v>1.0225</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" ref="H48:H52" si="1">F48*G48</f>
-        <v>9981.3167790000007</v>
+        <v>9979.3648250000006</v>
       </c>
       <c r="J48" s="88"/>
     </row>
@@ -5087,21 +5191,21 @@
       </c>
       <c r="D49" s="56">
         <f>H49</f>
-        <v>174.56796</v>
+        <v>175.34124</v>
       </c>
       <c r="E49" s="53">
         <f>D49/D53</f>
-        <v>2.7534438957338325E-3</v>
+        <v>2.7534837955934216E-3</v>
       </c>
       <c r="F49" s="11">
         <v>193.32</v>
       </c>
       <c r="G49" s="9">
-        <v>0.90300000000000002</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="1"/>
-        <v>174.56796</v>
+        <v>175.34124</v>
       </c>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.3">
@@ -5110,21 +5214,21 @@
       </c>
       <c r="D50" s="56">
         <f>H50</f>
-        <v>10584.7695</v>
+        <v>10037.5275</v>
       </c>
       <c r="E50" s="53">
         <f>D50/D53</f>
-        <v>0.16695256659655444</v>
+        <v>0.15762503629535957</v>
       </c>
       <c r="F50" s="11">
-        <v>11530.25</v>
+        <v>11030.25</v>
       </c>
       <c r="G50" s="9">
-        <v>0.91800000000000004</v>
+        <v>0.91</v>
       </c>
       <c r="H50" s="11">
         <f t="shared" si="1"/>
-        <v>10584.7695</v>
+        <v>10037.5275</v>
       </c>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.3">
@@ -5133,21 +5237,21 @@
       </c>
       <c r="D51" s="56">
         <f>H51</f>
-        <v>12055.72284</v>
+        <v>12036.371760000002</v>
       </c>
       <c r="E51" s="53">
         <f>D51/D53</f>
-        <v>0.19015377428055497</v>
+        <v>0.18901403114805324</v>
       </c>
       <c r="F51" s="11">
         <v>19351.080000000002</v>
       </c>
       <c r="G51" s="9">
-        <v>0.623</v>
+        <v>0.622</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="1"/>
-        <v>12055.72284</v>
+        <v>12036.371760000002</v>
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.3">
@@ -5156,22 +5260,22 @@
       </c>
       <c r="D52" s="11">
         <f>F52</f>
-        <v>21854.233826273718</v>
+        <v>22307.653826273716</v>
       </c>
       <c r="E52" s="53">
         <f>D52/D53</f>
-        <v>0.34470475982473081</v>
+        <v>0.35030984911679802</v>
       </c>
       <c r="F52" s="11">
         <f>余额宝损益表!C27</f>
-        <v>21854.233826273718</v>
+        <v>22307.653826273716</v>
       </c>
       <c r="G52" s="9">
         <v>1</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="1"/>
-        <v>21854.233826273718</v>
+        <v>22307.653826273716</v>
       </c>
       <c r="J52" s="9">
         <v>-1000</v>
@@ -5183,7 +5287,7 @@
       </c>
       <c r="D53" s="57">
         <f>SUM(D47:D52)</f>
-        <v>63399.860905273723</v>
+        <v>63679.779151273717</v>
       </c>
       <c r="E53" s="54">
         <f>D53/D53</f>
@@ -5205,10 +5309,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G5"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5285,6 +5389,52 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="6" spans="1:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>20160829</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="F6">
+        <v>2.29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>20160907</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7">
+        <v>304.18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5293,10 +5443,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I27"/>
+  <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5305,6 +5455,7 @@
     <col min="4" max="4" width="10.83203125" style="7"/>
     <col min="7" max="7" width="7.5" style="92" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
@@ -5322,7 +5473,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C4">
         <f>C3*(1+0.02/12/2)</f>
@@ -5334,25 +5485,25 @@
         <v>73</v>
       </c>
       <c r="C5" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="94" t="s">
         <v>98</v>
-      </c>
-      <c r="D5" s="94" t="s">
-        <v>99</v>
       </c>
       <c r="E5" s="89" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="H5" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="89" t="s">
+      <c r="I5" s="89" t="s">
         <v>102</v>
-      </c>
-      <c r="I5" s="89" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
@@ -5363,7 +5514,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="89">
         <v>1</v>
@@ -5391,7 +5542,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="89">
         <v>1644.77</v>
@@ -5419,7 +5570,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="89">
         <v>2921.98</v>
@@ -5447,7 +5598,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="89">
         <v>2000</v>
@@ -5476,7 +5627,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="89">
         <v>162.21</v>
@@ -5498,7 +5649,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13">
         <f>I10</f>
@@ -5506,11 +5657,14 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16">
         <v>20160908</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>95</v>
       </c>
@@ -5518,42 +5672,42 @@
         <v>22063.917228583232</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C18">
         <f>C17*(1+0.02/12/2)</f>
         <v>22082.303826273717</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="89" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="94" t="s">
         <v>98</v>
-      </c>
-      <c r="D19" s="94" t="s">
-        <v>99</v>
       </c>
       <c r="E19" s="89" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="93" t="s">
+      <c r="H19" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="H19" s="89" t="s">
+      <c r="I19" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="I19" s="89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="89">
         <v>20160825</v>
       </c>
@@ -5561,7 +5715,7 @@
         <v>38</v>
       </c>
       <c r="D20" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20" s="89">
         <v>1</v>
@@ -5581,7 +5735,7 @@
         <v>22082.303826273717</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="89">
         <v>20160825</v>
       </c>
@@ -5589,7 +5743,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="89">
         <v>228.07</v>
@@ -5609,27 +5763,68 @@
         <v>21854.233826273718</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="23" x14ac:dyDescent="0.15">
-      <c r="B22" s="89"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-    </row>
-    <row r="23" spans="2:9" ht="23" x14ac:dyDescent="0.3">
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-    </row>
-    <row r="24" spans="2:9" ht="23" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="89">
+        <v>20160902</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="89">
+        <v>2.29</v>
+      </c>
+      <c r="F22" s="89">
+        <v>1</v>
+      </c>
+      <c r="G22" s="93">
+        <v>0</v>
+      </c>
+      <c r="H22" s="89">
+        <f>-E22*F22</f>
+        <v>-2.29</v>
+      </c>
+      <c r="I22" s="89">
+        <f>I21+H22</f>
+        <v>21851.943826273717</v>
+      </c>
+      <c r="J22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="89">
+        <v>455.71</v>
+      </c>
+      <c r="F23" s="89">
+        <v>1</v>
+      </c>
+      <c r="G23" s="93">
+        <v>0</v>
+      </c>
+      <c r="H23" s="89">
+        <v>455.71</v>
+      </c>
+      <c r="I23" s="89">
+        <f>I22+H23</f>
+        <v>22307.653826273716</v>
+      </c>
+      <c r="J23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="23" x14ac:dyDescent="0.15">
       <c r="B24" s="89"/>
       <c r="C24" s="91"/>
       <c r="D24" s="94"/>
@@ -5639,13 +5834,13 @@
       <c r="H24" s="89"/>
       <c r="I24" s="89"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C27">
-        <f>I21</f>
-        <v>21854.233826273718</v>
+        <f>I23</f>
+        <v>22307.653826273716</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5854,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5680,7 +5875,7 @@
         <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -5688,15 +5883,15 @@
         <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="124">
   <si>
     <t>黄金基金</t>
   </si>
@@ -854,85 +854,98 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0908终值</t>
+    <t>华安赎回500份手续费</t>
+    <rPh sb="0" eb="1">
+      <t>hua'an</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'hui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shou'xu'f</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金在途。手续费从余额宝扣除</t>
+    <rPh sb="0" eb="1">
+      <t>zi'ji'n</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zai'tu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou'xu'f</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yu'e'bao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kou'chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安基金赎回</t>
+    <rPh sb="0" eb="1">
+      <t>hua'an</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'jin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'hui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不看好A股，短期</t>
+    <rPh sb="0" eb="1">
+      <t>bu'kan'hao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>duan'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.06基值</t>
+    <rPh sb="4" eb="5">
+      <t>ji'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0906终值</t>
     <rPh sb="4" eb="5">
       <t>zhong'zhi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>华安赎回500份手续费</t>
-    <rPh sb="0" eb="1">
-      <t>hua'an</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shu'hui</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fen</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shou'xu'f</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金在途。手续费从余额宝扣除</t>
-    <rPh sb="0" eb="1">
-      <t>zi'ji'n</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zai'tu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shou'xu'f</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>cong</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yu'e'bao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>kou'chu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安基金赎回</t>
-    <rPh sb="0" eb="1">
-      <t>hua'an</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'jin</t>
-    </rPh>
+    <t>国防基金</t>
+    <rPh sb="0" eb="1">
+      <t>guo'fang'ji'jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0921终值</t>
     <rPh sb="4" eb="5">
-      <t>shu'hui</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不看好A股，短期</t>
-    <rPh sb="0" eb="1">
-      <t>bu'kan'hao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>duan'qi</t>
+      <t>zhong'zhi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1459,7 +1472,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1720,6 +1733,15 @@
     <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1775,6 +1797,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1791,24 +1831,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2272,174 +2294,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="103">
+      <c r="D17" s="106">
         <v>7000</v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="107">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="102">
+      <c r="G17" s="105">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="104"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="107"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="103">
+      <c r="D19" s="106">
         <v>10000</v>
       </c>
-      <c r="E19" s="104">
+      <c r="E19" s="107">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="104"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="103" t="s">
+      <c r="C21" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="103">
+      <c r="D21" s="106">
         <v>10000</v>
       </c>
-      <c r="E21" s="104">
+      <c r="E21" s="107">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="104"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C23" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="103">
+      <c r="D23" s="106">
         <v>10000</v>
       </c>
-      <c r="E23" s="104">
+      <c r="E23" s="107">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="104"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="103" t="s">
+      <c r="C25" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="103">
+      <c r="D25" s="106">
         <v>1000</v>
       </c>
-      <c r="E25" s="104">
+      <c r="E25" s="107">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="104"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="107"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="103" t="s">
+      <c r="C27" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="103">
+      <c r="D27" s="106">
         <v>22000</v>
       </c>
-      <c r="E27" s="104">
+      <c r="E27" s="107">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="104"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="107"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -2477,13 +2499,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -2498,27 +2534,13 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2551,18 +2573,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="105">
+      <c r="F4" s="108">
         <v>20160708</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105">
+      <c r="G4" s="108"/>
+      <c r="H4" s="108">
         <v>20160712</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105">
+      <c r="I4" s="108"/>
+      <c r="J4" s="108">
         <v>20160808</v>
       </c>
-      <c r="K4" s="105"/>
+      <c r="K4" s="108"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -2620,10 +2642,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="105">
+      <c r="E8" s="108">
         <v>20160810</v>
       </c>
-      <c r="F8" s="105"/>
+      <c r="F8" s="108"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -2668,10 +2690,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:P54"/>
+  <dimension ref="B4:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2697,11 +2719,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="105">
+      <c r="C4" s="108">
         <v>201605</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -2773,19 +2795,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="109">
+      <c r="C11" s="112">
         <v>20160608</v>
       </c>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="111"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="114"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -2969,20 +2991,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="106">
+      <c r="C18" s="109">
         <v>20160708</v>
       </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="108"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="111"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -3201,20 +3223,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="106">
+      <c r="C27" s="109">
         <v>20160808</v>
       </c>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="108"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="111"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -3419,21 +3441,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="106">
+      <c r="C35" s="109">
         <v>20160825</v>
       </c>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="107"/>
-      <c r="N35" s="107"/>
-      <c r="O35" s="108"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="111"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -3652,21 +3674,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="106">
+      <c r="C42" s="109">
         <v>20160906</v>
       </c>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="107"/>
-      <c r="N42" s="107"/>
-      <c r="O42" s="108"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
+      <c r="N42" s="110"/>
+      <c r="O42" s="111"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -3883,11 +3905,243 @@
         <v>60800</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D54" s="66"/>
+    <row r="49" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50" s="72"/>
+      <c r="C50" s="109">
+        <v>20160921</v>
+      </c>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="110"/>
+      <c r="K50" s="110"/>
+      <c r="L50" s="110"/>
+      <c r="M50" s="110"/>
+      <c r="N50" s="110"/>
+      <c r="O50" s="111"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51" s="40"/>
+      <c r="C51" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I51" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="J51" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="L51" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="M51" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="N51" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="O51" s="86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B52" s="40">
+        <v>216</v>
+      </c>
+      <c r="C52" s="66">
+        <f>C54*D52</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="D52" s="100">
+        <v>0.66367210802429988</v>
+      </c>
+      <c r="E52" s="66">
+        <f>C52-J44</f>
+        <v>7.0906852302359766</v>
+      </c>
+      <c r="F52" s="66">
+        <f>E52/C52</f>
+        <v>1.6785392576537615E-4</v>
+      </c>
+      <c r="G52" s="66">
+        <f>E52*0.2</f>
+        <v>1.4181370460471954</v>
+      </c>
+      <c r="H52" s="85">
+        <f>ROUND(G52,2)</f>
+        <v>1.42</v>
+      </c>
+      <c r="I52" s="66">
+        <v>0</v>
+      </c>
+      <c r="J52" s="66">
+        <f>C52-H52</f>
+        <v>42241.769713341804</v>
+      </c>
+      <c r="K52" s="100">
+        <f>J52/J54</f>
+        <v>0.66366460462979393</v>
+      </c>
+      <c r="L52" s="66">
+        <f>558.96+H52</f>
+        <v>560.38</v>
+      </c>
+      <c r="M52" s="66">
+        <f>J52+L52-40000</f>
+        <v>2802.1497133418015</v>
+      </c>
+      <c r="N52" s="64">
+        <f>M52/40000</f>
+        <v>7.0053742833545041E-2</v>
+      </c>
+      <c r="O52" s="19">
+        <f t="shared" ref="O52:O53" si="16">J52+L52</f>
+        <v>42802.149713341802</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B53" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="66">
+        <f>C54*D53</f>
+        <v>21407.503456658196</v>
+      </c>
+      <c r="D53" s="100">
+        <v>0.33632789197570018</v>
+      </c>
+      <c r="E53" s="66">
+        <f>C53-J45</f>
+        <v>3.5933334960391221</v>
+      </c>
+      <c r="F53" s="66">
+        <f t="shared" ref="F53:F54" si="17">E53/C53</f>
+        <v>1.6785392576552488E-4</v>
+      </c>
+      <c r="G53" s="66">
+        <f>E53*0.2</f>
+        <v>0.71866669920782444</v>
+      </c>
+      <c r="H53" s="66">
+        <v>0</v>
+      </c>
+      <c r="I53" s="66">
+        <v>0</v>
+      </c>
+      <c r="J53" s="66">
+        <f t="shared" ref="J53" si="18">C53-H53</f>
+        <v>21407.503456658196</v>
+      </c>
+      <c r="K53" s="100">
+        <f>J53/J54</f>
+        <v>0.33633539537020601</v>
+      </c>
+      <c r="L53" s="66">
+        <v>0</v>
+      </c>
+      <c r="M53" s="66">
+        <f>J53-20000</f>
+        <v>1407.5034566581962</v>
+      </c>
+      <c r="N53" s="64">
+        <f>M53/20000</f>
+        <v>7.037517283290981E-2</v>
+      </c>
+      <c r="O53" s="19">
+        <f t="shared" si="16"/>
+        <v>21407.503456658196</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="68">
+        <f>资产结构!D63</f>
+        <v>63650.693169999999</v>
+      </c>
+      <c r="D54" s="70">
+        <v>1</v>
+      </c>
+      <c r="E54" s="69">
+        <f>SUM(E52:E53)</f>
+        <v>10.684018726275099</v>
+      </c>
+      <c r="F54" s="69">
+        <f t="shared" si="17"/>
+        <v>1.6785392576542619E-4</v>
+      </c>
+      <c r="G54" s="69">
+        <f>G52+G53</f>
+        <v>2.1368037452550199</v>
+      </c>
+      <c r="H54" s="69">
+        <f>SUM(H52:H53)</f>
+        <v>1.42</v>
+      </c>
+      <c r="I54" s="69">
+        <v>0</v>
+      </c>
+      <c r="J54" s="69">
+        <f>C54-H54</f>
+        <v>63649.27317</v>
+      </c>
+      <c r="K54" s="70">
+        <f>J54/J54</f>
+        <v>1</v>
+      </c>
+      <c r="L54" s="69">
+        <f>L52+L53</f>
+        <v>560.38</v>
+      </c>
+      <c r="M54" s="69">
+        <f>M52+M53</f>
+        <v>4209.6531699999978</v>
+      </c>
+      <c r="N54" s="87">
+        <f>(J54+L54)/60000-1</f>
+        <v>7.0160886166666714E-2</v>
+      </c>
+      <c r="O54" s="22">
+        <f>J54+L54</f>
+        <v>64209.653169999998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B55" s="102"/>
+      <c r="K55" s="102"/>
+      <c r="O55" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="P55" s="39">
+        <v>61000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C50:O50"/>
     <mergeCell ref="C42:O42"/>
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="C4:E4"/>
@@ -3924,27 +4178,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3977,12 +4231,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="119"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="122"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -4017,12 +4271,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="119"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="122"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -4057,12 +4311,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="119"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="122"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -4104,13 +4358,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="114"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="117"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -4193,20 +4447,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="109" t="s">
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="111"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="114"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -4253,7 +4507,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="127">
+      <c r="E6" s="128">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -4261,7 +4515,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="131">
+      <c r="G6" s="126">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -4276,15 +4530,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="127">
+      <c r="K6" s="128">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="127">
+      <c r="L6" s="128">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="129">
+      <c r="M6" s="124">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -4299,12 +4553,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="127"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="131"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -4316,9 +4570,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="129"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="124"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -4330,12 +4584,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="127"/>
+      <c r="E8" s="128"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="131"/>
+      <c r="G8" s="126"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -4347,9 +4601,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="129"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="124"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -4361,12 +4615,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="128"/>
+      <c r="E9" s="129"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="132"/>
+      <c r="G9" s="127"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -4378,9 +4632,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="130"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="125"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -4390,14 +4644,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="111"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="114"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -4434,15 +4688,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="121">
+      <c r="G15" s="130">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="121">
+      <c r="H15" s="130">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="124">
+      <c r="I15" s="133">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -4462,9 +4716,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="125"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="134"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -4481,9 +4735,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="134"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -4500,23 +4754,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="126"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4525,10 +4779,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J53"/>
+  <dimension ref="C3:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4548,10 +4802,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="133">
+      <c r="D4" s="136">
         <v>20160622</v>
       </c>
-      <c r="E4" s="134"/>
+      <c r="E4" s="137"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -4653,10 +4907,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="133">
+      <c r="D15" s="136">
         <v>20160713</v>
       </c>
-      <c r="E15" s="134"/>
+      <c r="E15" s="137"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4761,10 +5015,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="133">
+      <c r="D25" s="136">
         <v>20160808</v>
       </c>
-      <c r="E25" s="134"/>
+      <c r="E25" s="137"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4894,10 +5148,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="133">
+      <c r="D35" s="136">
         <v>20160825</v>
       </c>
-      <c r="E35" s="134"/>
+      <c r="E35" s="137"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -5109,10 +5363,10 @@
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="133">
-        <v>20160908</v>
-      </c>
-      <c r="E45" s="134"/>
+      <c r="D45" s="136">
+        <v>20160906</v>
+      </c>
+      <c r="E45" s="137"/>
     </row>
     <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="29" t="s">
@@ -5294,8 +5548,173 @@
         <v>1</v>
       </c>
     </row>
+    <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D56" s="136">
+        <v>20160921</v>
+      </c>
+      <c r="E56" s="137"/>
+    </row>
+    <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D57" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C58" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="55">
+        <f>F58*G58</f>
+        <v>9757.8724000000002</v>
+      </c>
+      <c r="E58" s="53">
+        <f>D58/D63</f>
+        <v>0.15330347422829174</v>
+      </c>
+      <c r="F58" s="11">
+        <v>8860</v>
+      </c>
+      <c r="G58" s="9">
+        <v>1.10134</v>
+      </c>
+      <c r="H58" s="11">
+        <f>F58*G58</f>
+        <v>9757.8724000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="78">
+        <f>H59</f>
+        <v>9896.4067800000012</v>
+      </c>
+      <c r="E59" s="53">
+        <f>D59/D63</f>
+        <v>0.15547995296089565</v>
+      </c>
+      <c r="F59" s="96">
+        <f>9921.98-162.21</f>
+        <v>9759.77</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1.014</v>
+      </c>
+      <c r="H59" s="11">
+        <f t="shared" ref="H59:H62" si="2">F59*G59</f>
+        <v>9896.4067800000012</v>
+      </c>
+      <c r="J59" s="88"/>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="56">
+        <f>H60</f>
+        <v>9827.9527500000004</v>
+      </c>
+      <c r="E60" s="53">
+        <f>D60/D63</f>
+        <v>0.15440448894643202</v>
+      </c>
+      <c r="F60" s="11">
+        <v>11030.25</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="H60" s="11">
+        <f t="shared" si="2"/>
+        <v>9827.9527500000004</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="56">
+        <f>H61</f>
+        <v>11668.70124</v>
+      </c>
+      <c r="E61" s="53">
+        <f>D61/D63</f>
+        <v>0.18332402459207972</v>
+      </c>
+      <c r="F61" s="11">
+        <v>19351.080000000002</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="H61" s="11">
+        <f t="shared" si="2"/>
+        <v>11668.70124</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="11">
+        <f>余额宝损益表!C37</f>
+        <v>22499.759999999998</v>
+      </c>
+      <c r="E62" s="53">
+        <f>D62/D63</f>
+        <v>0.35348805927230093</v>
+      </c>
+      <c r="F62" s="11">
+        <f>D62</f>
+        <v>22499.759999999998</v>
+      </c>
+      <c r="G62" s="9">
+        <v>1</v>
+      </c>
+      <c r="H62" s="11">
+        <f t="shared" si="2"/>
+        <v>22499.759999999998</v>
+      </c>
+      <c r="J62" s="9">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="57">
+        <f>SUM(D58:D62)</f>
+        <v>63650.693169999999</v>
+      </c>
+      <c r="E63" s="54">
+        <f>D63/D63</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D25:E25"/>
@@ -5309,19 +5728,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G7"/>
+  <dimension ref="A2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="35.83203125" customWidth="1"/>
-    <col min="7" max="7" width="37.1640625" customWidth="1"/>
+    <col min="8" max="8" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -5341,10 +5760,13 @@
         <v>71</v>
       </c>
       <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20160722</v>
       </c>
@@ -5357,11 +5779,11 @@
       <c r="D3">
         <v>1000</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20160816</v>
       </c>
@@ -5375,7 +5797,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="23" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>20160816</v>
       </c>
@@ -5389,7 +5811,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20160829</v>
       </c>
@@ -5408,11 +5830,11 @@
       <c r="F6">
         <v>2.29</v>
       </c>
-      <c r="G6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20160907</v>
       </c>
@@ -5422,17 +5844,21 @@
       <c r="C7" t="s">
         <v>70</v>
       </c>
-      <c r="D7">
-        <v>304.18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" t="s">
-        <v>122</v>
+      <c r="D7" s="11">
+        <v>193.32</v>
+      </c>
+      <c r="E7">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="F7">
+        <v>1.63</v>
+      </c>
+      <c r="G7">
+        <f>ROUND(E7*D7-F7,2)</f>
+        <v>173.52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5443,10 +5869,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J27"/>
+  <dimension ref="B2:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5661,7 +6087,7 @@
         <v>97</v>
       </c>
       <c r="C16">
-        <v>20160908</v>
+        <v>20160906</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
@@ -5791,7 +6217,7 @@
         <v>21851.943826273717</v>
       </c>
       <c r="J22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
@@ -5802,7 +6228,7 @@
         <v>38</v>
       </c>
       <c r="D23" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" s="89">
         <v>455.71</v>
@@ -5821,7 +6247,7 @@
         <v>22307.653826273716</v>
       </c>
       <c r="J23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="23" x14ac:dyDescent="0.15">
@@ -5836,11 +6262,112 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C27">
         <f>I23</f>
         <v>22307.653826273716</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29">
+        <v>20160921</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30">
+        <v>22307.653826273716</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31">
+        <f>C30*(1+0.02/12/2)</f>
+        <v>22326.24353779561</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="89" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="89">
+        <v>20160908</v>
+      </c>
+      <c r="C33" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="89">
+        <v>173.52</v>
+      </c>
+      <c r="F33" s="89">
+        <v>1</v>
+      </c>
+      <c r="G33" s="93">
+        <v>0</v>
+      </c>
+      <c r="H33" s="89">
+        <f>E33</f>
+        <v>173.52</v>
+      </c>
+      <c r="I33" s="89">
+        <f>C31+E33</f>
+        <v>22499.76353779561</v>
+      </c>
+      <c r="J33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="23" x14ac:dyDescent="0.15">
+      <c r="B34" s="89"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37">
+        <f>ROUND(I33,2)</f>
+        <v>22499.759999999998</v>
       </c>
     </row>
   </sheetData>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,18 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="余额宝" sheetId="7" state="hidden" r:id="rId2"/>
     <sheet name="投资者权益表" sheetId="6" r:id="rId3"/>
-    <sheet name="易H股ETF联接（110031）" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="打包资产统计" sheetId="3" state="hidden" r:id="rId5"/>
-    <sheet name="资产结构" sheetId="8" r:id="rId6"/>
-    <sheet name="Operation" sheetId="9" r:id="rId7"/>
-    <sheet name="余额宝损益表" sheetId="11" r:id="rId8"/>
-    <sheet name="策略" sheetId="10" r:id="rId9"/>
+    <sheet name="投资者份数权益表" sheetId="18" r:id="rId4"/>
+    <sheet name="净值" sheetId="12" r:id="rId5"/>
+    <sheet name="216" sheetId="13" state="hidden" r:id="rId6"/>
+    <sheet name="rand资产报告" sheetId="16" r:id="rId7"/>
+    <sheet name="216资产报告" sheetId="17" r:id="rId8"/>
+    <sheet name="分红选择" sheetId="15" state="hidden" r:id="rId9"/>
+    <sheet name="易H股ETF联接（110031）" sheetId="2" state="hidden" r:id="rId10"/>
+    <sheet name="打包资产统计" sheetId="3" state="hidden" r:id="rId11"/>
+    <sheet name="资产结构" sheetId="8" r:id="rId12"/>
+    <sheet name="用户资产" sheetId="14" state="hidden" r:id="rId13"/>
+    <sheet name="Operation" sheetId="9" r:id="rId14"/>
+    <sheet name="余额宝损益表" sheetId="11" r:id="rId15"/>
+    <sheet name="策略" sheetId="10" state="hidden" r:id="rId16"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="171">
   <si>
     <t>黄金基金</t>
   </si>
@@ -946,6 +953,401 @@
     <t>0921终值</t>
     <rPh sb="4" eb="5">
       <t>zhong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总份数</t>
+    <rPh sb="0" eb="1">
+      <t>zong'fen'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产</t>
+    <rPh sb="0" eb="1">
+      <t>zong'zi'chan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值变化</t>
+    <rPh sb="0" eb="1">
+      <t>jing'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红后净值</t>
+    <rPh sb="0" eb="1">
+      <t>fen'hong'hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jing'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <rPh sb="0" eb="1">
+      <t>lai'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原有</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'you</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红利在投资</t>
+    <rPh sb="0" eb="1">
+      <t>hong'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zai'tou'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红利在投资</t>
+    <rPh sb="0" eb="1">
+      <t>hong'li'zai'tou'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每份红利</t>
+    <rPh sb="0" eb="1">
+      <t>mei'fen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hong'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额变动</t>
+    <rPh sb="0" eb="1">
+      <t>jin'e</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'dong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红利选择</t>
+    <rPh sb="0" eb="1">
+      <t>hong'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红利金额</t>
+    <rPh sb="0" eb="1">
+      <t>hong'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红后净资产</t>
+    <rPh sb="0" eb="1">
+      <t>fen'hong'hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jing'zi'chan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红前总资产</t>
+    <rPh sb="0" eb="1">
+      <t>fen'hong'qian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zong'zi'chan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红总额</t>
+    <rPh sb="0" eb="1">
+      <t>fen'hong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资表</t>
+    <rPh sb="0" eb="1">
+      <t>tou'zi'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资金额</t>
+    <rPh sb="0" eb="1">
+      <t>tou'zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>折算份数</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资后份数</t>
+    <rPh sb="0" eb="1">
+      <t>tou'zi'hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fen'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红利再投资</t>
+    <rPh sb="0" eb="1">
+      <t>hong'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tou'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红利再投资</t>
+    <rPh sb="0" eb="1">
+      <t>hong'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zai'tou'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>承前结余</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'qian'jie'yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额变化</t>
+    <rPh sb="0" eb="1">
+      <t>jin'e</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产总额</t>
+    <rPh sb="0" eb="1">
+      <t>zi'chan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <rPh sb="0" eb="1">
+      <t>ri'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资</t>
+    <rPh sb="0" eb="1">
+      <t>tou'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总份数</t>
+    <rPh sb="0" eb="1">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fen'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时计算区</t>
+    <rPh sb="0" eb="1">
+      <t>lin'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产</t>
+    <rPh sb="0" eb="1">
+      <t>zi'chan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红</t>
+    <rPh sb="0" eb="1">
+      <t>fen'hong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0921起始值</t>
+    <rPh sb="4" eb="5">
+      <t>qi'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010基值</t>
+    <rPh sb="4" eb="5">
+      <t>ji'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rand投资2000</t>
+    <rPh sb="4" eb="5">
+      <t>tou'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本净值</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计分红</t>
+    <rPh sb="0" eb="1">
+      <t>lei'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'hong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计成本</t>
+    <rPh sb="0" eb="1">
+      <t>lei'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计分红率</t>
+    <rPh sb="0" eb="1">
+      <t>lei'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'hong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lv</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值收益率</t>
+    <rPh sb="0" eb="1">
+      <t>jing'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou'yi'lv</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周结算</t>
+    <rPh sb="0" eb="1">
+      <t>yi'zhou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'suan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -962,7 +1364,7 @@
     <numFmt numFmtId="180" formatCode="#,##0.000000_ ;[Red]\-#,##0.000000\ "/>
     <numFmt numFmtId="181" formatCode="#,##0.00000_ ;[Red]\-#,##0.00000\ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1026,8 +1428,13 @@
       <name val="ヒラギノ角ゴ Pro W3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1040,8 +1447,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1460,6 +1873,45 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1472,7 +1924,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1739,8 +2191,33 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1770,6 +2247,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1797,6 +2283,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1809,35 +2319,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2294,174 +2789,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="106">
+      <c r="D17" s="115">
         <v>7000</v>
       </c>
-      <c r="E17" s="107">
+      <c r="E17" s="116">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="105">
+      <c r="G17" s="114">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="107"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="106">
+      <c r="D19" s="115">
         <v>10000</v>
       </c>
-      <c r="E19" s="107">
+      <c r="E19" s="116">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="106" t="s">
+      <c r="C21" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="106">
+      <c r="D21" s="115">
         <v>10000</v>
       </c>
-      <c r="E21" s="107">
+      <c r="E21" s="116">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="106" t="s">
+      <c r="C23" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="106">
+      <c r="D23" s="115">
         <v>10000</v>
       </c>
-      <c r="E23" s="107">
+      <c r="E23" s="116">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="107"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="106" t="s">
+      <c r="B25" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="106" t="s">
+      <c r="C25" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="106">
+      <c r="D25" s="115">
         <v>1000</v>
       </c>
-      <c r="E25" s="107">
+      <c r="E25" s="116">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="107"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="106">
+      <c r="D27" s="115">
         <v>22000</v>
       </c>
-      <c r="E27" s="107">
+      <c r="E27" s="116">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="107"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -2499,13 +2994,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -2520,28 +3029,2683 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:L22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="39"/>
+    <col min="2" max="2" width="31.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="38" style="39" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="39" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="11" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="39" customWidth="1"/>
+    <col min="9" max="11" width="11" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="39" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C1" s="130" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+    </row>
+    <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+    </row>
+    <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="44">
+        <v>11866.62</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0.8427</v>
+      </c>
+      <c r="E6" s="45">
+        <f>C6*D6</f>
+        <v>10000.000674000001</v>
+      </c>
+      <c r="F6" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="134"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="50">
+        <v>0.8972</v>
+      </c>
+      <c r="D10" s="51">
+        <f>C10*C6</f>
+        <v>10646.731464</v>
+      </c>
+      <c r="E10" s="51">
+        <f>D10-E6</f>
+        <v>646.73078999999962</v>
+      </c>
+      <c r="F10" s="52">
+        <f>D10-E6</f>
+        <v>646.73078999999962</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="134"/>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="50">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="D14" s="51">
+        <f>C14*C6</f>
+        <v>10709.62455</v>
+      </c>
+      <c r="E14" s="51">
+        <f>D14-D10</f>
+        <v>62.893086000000039</v>
+      </c>
+      <c r="F14" s="52">
+        <f>D14-E6</f>
+        <v>709.62387599999965</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="134"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="50">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="D18" s="51">
+        <f>C18*G18</f>
+        <v>9391.65</v>
+      </c>
+      <c r="E18" s="51">
+        <f>D18-D14</f>
+        <v>-1317.9745500000008</v>
+      </c>
+      <c r="F18" s="52">
+        <f>D18-E6</f>
+        <v>-608.35067400000116</v>
+      </c>
+      <c r="G18" s="39">
+        <f>10860-1000</f>
+        <v>9860</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="129"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="50">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="D22" s="51">
+        <f>C22*G22</f>
+        <v>9574.06</v>
+      </c>
+      <c r="E22" s="51">
+        <f>D22-D18</f>
+        <v>182.40999999999985</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="46">
+        <f>10860-1000</f>
+        <v>9860</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:M18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="10"/>
+    <col min="2" max="2" width="43.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="10"/>
+    <col min="4" max="4" width="21.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="10"/>
+    <col min="7" max="7" width="14.83203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="10"/>
+    <col min="9" max="9" width="14.33203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D4" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="123"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7000</v>
+      </c>
+      <c r="D6" s="29">
+        <v>7013.3</v>
+      </c>
+      <c r="E6" s="142">
+        <f>SUM(D6:D9)</f>
+        <v>28756.7</v>
+      </c>
+      <c r="F6" s="28">
+        <f>D6-C6</f>
+        <v>13.300000000000182</v>
+      </c>
+      <c r="G6" s="146">
+        <f>F6+F7+F8+F9</f>
+        <v>756.70000000000095</v>
+      </c>
+      <c r="H6" s="29">
+        <v>7058.1</v>
+      </c>
+      <c r="I6" s="28">
+        <f>H6-C6</f>
+        <v>58.100000000000364</v>
+      </c>
+      <c r="J6" s="28">
+        <f>H6-D6</f>
+        <v>44.800000000000182</v>
+      </c>
+      <c r="K6" s="142">
+        <f>J6+J7+J8+J9</f>
+        <v>-382.68999999999915</v>
+      </c>
+      <c r="L6" s="142">
+        <f>SUM(H6:H9)</f>
+        <v>28374.010000000002</v>
+      </c>
+      <c r="M6" s="144">
+        <f>SUM(I6:I9)</f>
+        <v>374.01000000000181</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1053.7</v>
+      </c>
+      <c r="E7" s="142"/>
+      <c r="F7" s="28">
+        <f>D7-C7</f>
+        <v>53.700000000000045</v>
+      </c>
+      <c r="G7" s="146"/>
+      <c r="H7" s="25">
+        <v>1078.76</v>
+      </c>
+      <c r="I7" s="24">
+        <f>H7-C7</f>
+        <v>78.759999999999991</v>
+      </c>
+      <c r="J7" s="28">
+        <f>H7-D7</f>
+        <v>25.059999999999945</v>
+      </c>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="144"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="25">
+        <v>10065.91</v>
+      </c>
+      <c r="E8" s="142"/>
+      <c r="F8" s="28">
+        <f>D8-C8</f>
+        <v>65.909999999999854</v>
+      </c>
+      <c r="G8" s="146"/>
+      <c r="H8" s="25">
+        <v>9985.2000000000007</v>
+      </c>
+      <c r="I8" s="24">
+        <f>H8-C8</f>
+        <v>-14.799999999999272</v>
+      </c>
+      <c r="J8" s="28">
+        <f>H8-D8</f>
+        <v>-80.709999999999127</v>
+      </c>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="144"/>
+    </row>
+    <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="26">
+        <v>10623.79</v>
+      </c>
+      <c r="E9" s="143"/>
+      <c r="F9" s="31">
+        <f>D9-C9</f>
+        <v>623.79000000000087</v>
+      </c>
+      <c r="G9" s="147"/>
+      <c r="H9" s="26">
+        <v>10251.950000000001</v>
+      </c>
+      <c r="I9" s="32">
+        <f>H9-C9</f>
+        <v>251.95000000000073</v>
+      </c>
+      <c r="J9" s="31">
+        <f>H9-D9</f>
+        <v>-371.84000000000015</v>
+      </c>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="145"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="10">
+        <f>SUM(C6:C9)</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D13" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="29">
+        <v>7221.2</v>
+      </c>
+      <c r="E15" s="28">
+        <f>D15-C6</f>
+        <v>221.19999999999982</v>
+      </c>
+      <c r="F15" s="28">
+        <f>D15-D6</f>
+        <v>207.89999999999964</v>
+      </c>
+      <c r="G15" s="136">
+        <f>F15+F16+F17+F18</f>
+        <v>-873.43000000000166</v>
+      </c>
+      <c r="H15" s="136">
+        <f>SUM(D15:D18)</f>
+        <v>27883.269999999997</v>
+      </c>
+      <c r="I15" s="139">
+        <f>SUM(E15:E18)</f>
+        <v>-116.7300000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="25">
+        <v>184.43</v>
+      </c>
+      <c r="E16" s="28">
+        <f>D16-C7</f>
+        <v>-815.56999999999994</v>
+      </c>
+      <c r="F16" s="28">
+        <f>D16-D7</f>
+        <v>-869.27</v>
+      </c>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="140"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="25">
+        <v>10296.51</v>
+      </c>
+      <c r="E17" s="28">
+        <f>D17-C8</f>
+        <v>296.51000000000022</v>
+      </c>
+      <c r="F17" s="28">
+        <f>D17-D8</f>
+        <v>230.60000000000036</v>
+      </c>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="140"/>
+    </row>
+    <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="26">
+        <v>10181.129999999999</v>
+      </c>
+      <c r="E18" s="31">
+        <f>D18-C9</f>
+        <v>181.1299999999992</v>
+      </c>
+      <c r="F18" s="31">
+        <f>D18-D9</f>
+        <v>-442.66000000000167</v>
+      </c>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="141"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:J73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="14.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="21" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18" style="11" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="9"/>
+    <col min="8" max="8" width="20.33203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="9" customWidth="1"/>
+    <col min="10" max="10" width="49.33203125" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="148">
+        <v>20160622</v>
+      </c>
+      <c r="E4" s="149"/>
+    </row>
+    <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="55">
+        <f>'易H股ETF联接（110031）'!D14</f>
+        <v>10709.62455</v>
+      </c>
+      <c r="E6" s="53">
+        <f>D6/D12</f>
+        <v>0.17426046408386811</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="56">
+        <f>打包资产统计!D15</f>
+        <v>7221.2</v>
+      </c>
+      <c r="E7" s="53">
+        <f>D7/D12</f>
+        <v>0.11749895221512954</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="56">
+        <f>打包资产统计!D16</f>
+        <v>184.43</v>
+      </c>
+      <c r="E8" s="53">
+        <f>D8/D12</f>
+        <v>3.0009322213809817E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="56">
+        <f>打包资产统计!D17</f>
+        <v>10296.51</v>
+      </c>
+      <c r="E9" s="53">
+        <f>D9/D12</f>
+        <v>0.16753851665548711</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="56">
+        <f>打包资产统计!D18</f>
+        <v>10181.129999999999</v>
+      </c>
+      <c r="E10" s="53">
+        <f>D10/D12</f>
+        <v>0.16566112382512904</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="56">
+        <v>22864.674763287672</v>
+      </c>
+      <c r="E11" s="53">
+        <f>D11/D12</f>
+        <v>0.37204001099900524</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="57">
+        <f>SUM(D6:D11)</f>
+        <v>61457.56931328767</v>
+      </c>
+      <c r="E12" s="54">
+        <f>D12/D12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="148">
+        <v>20160713</v>
+      </c>
+      <c r="E15" s="149"/>
+    </row>
+    <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="55">
+        <f>F17*G17</f>
+        <v>10703.65</v>
+      </c>
+      <c r="E17" s="53">
+        <f>D17/D23</f>
+        <v>0.17281822165793587</v>
+      </c>
+      <c r="F17" s="11">
+        <v>11860</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.90249999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="78">
+        <v>7157.5</v>
+      </c>
+      <c r="E18" s="53">
+        <f>D18/D23</f>
+        <v>0.11556304826079665</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="56">
+        <v>181.33</v>
+      </c>
+      <c r="E19" s="53">
+        <f>D19/D23</f>
+        <v>2.9277048607936093E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="56">
+        <v>10619.36</v>
+      </c>
+      <c r="E20" s="53">
+        <f>D20/D23</f>
+        <v>0.17145729824362888</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="56">
+        <v>10375.9</v>
+      </c>
+      <c r="E21" s="53">
+        <f>D21/D23</f>
+        <v>0.16752645930132029</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="56">
+        <f>余额宝!H6</f>
+        <v>22898.147878687032</v>
+      </c>
+      <c r="E22" s="53">
+        <f>D22/D23</f>
+        <v>0.3697072676755247</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="57">
+        <f>SUM(D17:D22)</f>
+        <v>61935.887878687034</v>
+      </c>
+      <c r="E23" s="54">
+        <f>D23/D23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D25" s="148">
+        <v>20160808</v>
+      </c>
+      <c r="E25" s="149"/>
+    </row>
+    <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="55">
+        <f>F27*G27</f>
+        <v>10344.15</v>
+      </c>
+      <c r="E27" s="53">
+        <f>D27/D33</f>
+        <v>0.16696730703409002</v>
+      </c>
+      <c r="F27" s="95">
+        <v>10860</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="78">
+        <v>7261.8</v>
+      </c>
+      <c r="E28" s="53">
+        <f>D28/D33</f>
+        <v>0.11721438593022675</v>
+      </c>
+      <c r="F28" s="11">
+        <f>D28/G28</f>
+        <v>6999.9999999999991</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1.0374000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="56">
+        <v>171.47</v>
+      </c>
+      <c r="E29" s="53">
+        <f>D29/D33</f>
+        <v>2.7677367533471011E-3</v>
+      </c>
+      <c r="F29" s="11">
+        <v>193.32</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="56">
+        <v>10123.56</v>
+      </c>
+      <c r="E30" s="53">
+        <f>D30/D33</f>
+        <v>0.16340671305018126</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="56">
+        <v>10163.42</v>
+      </c>
+      <c r="E31" s="53">
+        <f>D31/D33</f>
+        <v>0.16405010248849941</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="56">
+        <f>余额宝!J6</f>
+        <v>23888.746300000003</v>
+      </c>
+      <c r="E32" s="53">
+        <f>D32/D33</f>
+        <v>0.38559375474365537</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="57">
+        <f>SUM(D27:D32)</f>
+        <v>61953.146300000008</v>
+      </c>
+      <c r="E33" s="54">
+        <f>D33/D33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="148">
+        <v>20160825</v>
+      </c>
+      <c r="E35" s="149"/>
+    </row>
+    <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C37" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="55">
+        <f>F37*G37</f>
+        <v>8749.25</v>
+      </c>
+      <c r="E37" s="53">
+        <f>D37/D43</f>
+        <v>0.13754618265606652</v>
+      </c>
+      <c r="F37" s="11">
+        <v>8860</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="H37" s="11">
+        <f>F37*G37</f>
+        <v>8749.25</v>
+      </c>
+      <c r="I37" s="9">
+        <f>933+D37-10000+2000-9.656</f>
+        <v>1672.5940000000001</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" ht="46" x14ac:dyDescent="0.3">
+      <c r="C38" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="78">
+        <f>H38</f>
+        <v>9981.3167790000007</v>
+      </c>
+      <c r="E38" s="53">
+        <f>D38/D43</f>
+        <v>0.15691539512899913</v>
+      </c>
+      <c r="F38" s="96">
+        <f>9921.98-162.21</f>
+        <v>9759.77</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1.0226999999999999</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" ref="H38:H42" si="0">F38*G38</f>
+        <v>9981.3167790000007</v>
+      </c>
+      <c r="I38" s="9">
+        <f>H38-10000</f>
+        <v>-18.683220999999321</v>
+      </c>
+      <c r="J38" s="88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C39" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="56">
+        <f>H39</f>
+        <v>174.56796</v>
+      </c>
+      <c r="E39" s="53">
+        <f>D39/D43</f>
+        <v>2.7443674042983012E-3</v>
+      </c>
+      <c r="F39" s="11">
+        <v>193.32</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" si="0"/>
+        <v>174.56796</v>
+      </c>
+      <c r="I39" s="9">
+        <f>-1000+944+H39-4.67</f>
+        <v>113.89796</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C40" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="56">
+        <f>H40</f>
+        <v>10584.7695</v>
+      </c>
+      <c r="E40" s="53">
+        <f>D40/D43</f>
+        <v>0.16640222179265216</v>
+      </c>
+      <c r="F40" s="11">
+        <v>11530.25</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" si="0"/>
+        <v>10584.7695</v>
+      </c>
+      <c r="I40" s="9">
+        <f>H40-10000</f>
+        <v>584.76950000000033</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C41" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="56">
+        <f>H41</f>
+        <v>12055.72284</v>
+      </c>
+      <c r="E41" s="53">
+        <f>D41/D43</f>
+        <v>0.18952694868720782</v>
+      </c>
+      <c r="F41" s="11">
+        <v>19351.080000000002</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0.623</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="0"/>
+        <v>12055.72284</v>
+      </c>
+      <c r="I41" s="9">
+        <f>F41*G41-11000</f>
+        <v>1055.7228400000004</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C42" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="11">
+        <f>H42</f>
+        <v>22063.917228583232</v>
+      </c>
+      <c r="E42" s="53">
+        <f>D42/D43</f>
+        <v>0.346864884330776</v>
+      </c>
+      <c r="F42" s="11">
+        <f>余额宝损益表!C13</f>
+        <v>22063.917228583232</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1</v>
+      </c>
+      <c r="H42" s="11">
+        <f t="shared" si="0"/>
+        <v>22063.917228583232</v>
+      </c>
+      <c r="J42" s="9">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="57">
+        <f>SUM(D37:D42)</f>
+        <v>63609.544307583237</v>
+      </c>
+      <c r="E43" s="54">
+        <f>D43/D43</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D45" s="148">
+        <v>20160906</v>
+      </c>
+      <c r="E45" s="149"/>
+    </row>
+    <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D46" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C47" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="55">
+        <f>F47*G47</f>
+        <v>9143.52</v>
+      </c>
+      <c r="E47" s="53">
+        <f>D47/D53</f>
+        <v>0.14358592510629198</v>
+      </c>
+      <c r="F47" s="11">
+        <v>8860</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1.032</v>
+      </c>
+      <c r="H47" s="11">
+        <f>F47*G47</f>
+        <v>9143.52</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C48" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="78">
+        <f>H48</f>
+        <v>9979.3648250000006</v>
+      </c>
+      <c r="E48" s="53">
+        <f>D48/D53</f>
+        <v>0.15671167453790383</v>
+      </c>
+      <c r="F48" s="96">
+        <f>9921.98-162.21</f>
+        <v>9759.77</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1.0225</v>
+      </c>
+      <c r="H48" s="11">
+        <f t="shared" ref="H48:H52" si="1">F48*G48</f>
+        <v>9979.3648250000006</v>
+      </c>
+      <c r="J48" s="88"/>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C49" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="56">
+        <f>H49</f>
+        <v>175.34124</v>
+      </c>
+      <c r="E49" s="53">
+        <f>D49/D53</f>
+        <v>2.7534837955934216E-3</v>
+      </c>
+      <c r="F49" s="11">
+        <v>193.32</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="H49" s="11">
+        <f t="shared" si="1"/>
+        <v>175.34124</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C50" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="56">
+        <f>H50</f>
+        <v>10037.5275</v>
+      </c>
+      <c r="E50" s="53">
+        <f>D50/D53</f>
+        <v>0.15762503629535957</v>
+      </c>
+      <c r="F50" s="11">
+        <v>11030.25</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.91</v>
+      </c>
+      <c r="H50" s="11">
+        <f t="shared" si="1"/>
+        <v>10037.5275</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C51" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="56">
+        <f>H51</f>
+        <v>12036.371760000002</v>
+      </c>
+      <c r="E51" s="53">
+        <f>D51/D53</f>
+        <v>0.18901403114805324</v>
+      </c>
+      <c r="F51" s="11">
+        <v>19351.080000000002</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0.622</v>
+      </c>
+      <c r="H51" s="11">
+        <f t="shared" si="1"/>
+        <v>12036.371760000002</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C52" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="11">
+        <f>F52</f>
+        <v>22307.653826273716</v>
+      </c>
+      <c r="E52" s="53">
+        <f>D52/D53</f>
+        <v>0.35030984911679802</v>
+      </c>
+      <c r="F52" s="11">
+        <f>余额宝损益表!C27</f>
+        <v>22307.653826273716</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
+      <c r="H52" s="11">
+        <f t="shared" si="1"/>
+        <v>22307.653826273716</v>
+      </c>
+      <c r="J52" s="9">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="57">
+        <f>SUM(D47:D52)</f>
+        <v>63679.779151273717</v>
+      </c>
+      <c r="E53" s="54">
+        <f>D53/D53</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D56" s="148">
+        <v>20160921</v>
+      </c>
+      <c r="E56" s="149"/>
+    </row>
+    <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D57" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C58" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="106">
+        <f>F58*G58</f>
+        <v>9757.8724000000002</v>
+      </c>
+      <c r="E58" s="107">
+        <f>D58/D63</f>
+        <v>0.15330347422829174</v>
+      </c>
+      <c r="F58" s="11">
+        <v>8860</v>
+      </c>
+      <c r="G58" s="9">
+        <v>1.10134</v>
+      </c>
+      <c r="H58" s="11">
+        <f>F58*G58</f>
+        <v>9757.8724000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="78">
+        <f>H59</f>
+        <v>9896.4067800000012</v>
+      </c>
+      <c r="E59" s="53">
+        <f>D59/D63</f>
+        <v>0.15547995296089565</v>
+      </c>
+      <c r="F59" s="96">
+        <f>9921.98-162.21</f>
+        <v>9759.77</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1.014</v>
+      </c>
+      <c r="H59" s="11">
+        <f t="shared" ref="H59:H62" si="2">F59*G59</f>
+        <v>9896.4067800000012</v>
+      </c>
+      <c r="J59" s="88"/>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="56">
+        <f>H60</f>
+        <v>9827.9527500000004</v>
+      </c>
+      <c r="E60" s="53">
+        <f>D60/D63</f>
+        <v>0.15440448894643202</v>
+      </c>
+      <c r="F60" s="11">
+        <v>11030.25</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="H60" s="11">
+        <f t="shared" si="2"/>
+        <v>9827.9527500000004</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="56">
+        <f>H61</f>
+        <v>11668.70124</v>
+      </c>
+      <c r="E61" s="53">
+        <f>D61/D63</f>
+        <v>0.18332402459207972</v>
+      </c>
+      <c r="F61" s="11">
+        <v>19351.080000000002</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="H61" s="11">
+        <f t="shared" si="2"/>
+        <v>11668.70124</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="108">
+        <f>余额宝损益表!C37</f>
+        <v>22499.759999999998</v>
+      </c>
+      <c r="E62" s="53">
+        <f>D62/D63</f>
+        <v>0.35348805927230093</v>
+      </c>
+      <c r="F62" s="11">
+        <f>D62</f>
+        <v>22499.759999999998</v>
+      </c>
+      <c r="G62" s="9">
+        <v>1</v>
+      </c>
+      <c r="H62" s="11">
+        <f t="shared" si="2"/>
+        <v>22499.759999999998</v>
+      </c>
+      <c r="J62" s="9">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="57">
+        <f>SUM(D58:D62)</f>
+        <v>63650.693169999999</v>
+      </c>
+      <c r="E63" s="54">
+        <f>D63/D63</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D66" s="148">
+        <v>20161010</v>
+      </c>
+      <c r="E66" s="149"/>
+    </row>
+    <row r="67" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D67" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="106">
+        <f>F68*G68</f>
+        <v>9026.5679999999993</v>
+      </c>
+      <c r="E68" s="107">
+        <f>D68/D73</f>
+        <v>0.13992173906874003</v>
+      </c>
+      <c r="F68" s="11">
+        <v>8860</v>
+      </c>
+      <c r="G68" s="9">
+        <v>1.0187999999999999</v>
+      </c>
+      <c r="H68" s="11">
+        <f>F68*G68</f>
+        <v>9026.5679999999993</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="78">
+        <f>H69</f>
+        <v>9999.8603419999999</v>
+      </c>
+      <c r="E69" s="53">
+        <f>D69/D73</f>
+        <v>0.1550088416214408</v>
+      </c>
+      <c r="F69" s="96">
+        <f>9921.98-162.21</f>
+        <v>9759.77</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1.0246</v>
+      </c>
+      <c r="H69" s="11">
+        <f t="shared" ref="H69:H72" si="3">F69*G69</f>
+        <v>9999.8603419999999</v>
+      </c>
+      <c r="J69" s="88"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="56">
+        <f>H70</f>
+        <v>9960.3157499999998</v>
+      </c>
+      <c r="E70" s="53">
+        <f>D70/D73</f>
+        <v>0.15439585692078781</v>
+      </c>
+      <c r="F70" s="11">
+        <v>11030.25</v>
+      </c>
+      <c r="G70" s="9">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H70" s="11">
+        <f t="shared" si="3"/>
+        <v>9960.3157499999998</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="56">
+        <f>H71</f>
+        <v>10999.153872000001</v>
+      </c>
+      <c r="E71" s="53">
+        <f>D71/D73</f>
+        <v>0.17049899120628192</v>
+      </c>
+      <c r="F71" s="11">
+        <v>19351.080000000002</v>
+      </c>
+      <c r="G71" s="9">
+        <v>0.56840000000000002</v>
+      </c>
+      <c r="H71" s="11">
+        <f t="shared" si="3"/>
+        <v>10999.153872000001</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C72" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="108">
+        <f>H72</f>
+        <v>24525.65013479452</v>
+      </c>
+      <c r="E72" s="53">
+        <f>D72/D73</f>
+        <v>0.38017457118274939</v>
+      </c>
+      <c r="F72" s="11">
+        <f>余额宝损益表!I45</f>
+        <v>24525.65013479452</v>
+      </c>
+      <c r="G72" s="9">
+        <v>1</v>
+      </c>
+      <c r="H72" s="11">
+        <f t="shared" si="3"/>
+        <v>24525.65013479452</v>
+      </c>
+      <c r="J72" s="9">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C73" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="57">
+        <f>SUM(D68:D72)</f>
+        <v>64511.548098794519</v>
+      </c>
+      <c r="E73" s="54">
+        <f>D73/D73</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D45:E45"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="7" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" customWidth="1"/>
+    <col min="9" max="9" width="51.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>20160921</v>
+      </c>
+      <c r="B5">
+        <v>216</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>42241.769713341804</v>
+      </c>
+      <c r="G5">
+        <v>2.9109582199993157E-5</v>
+      </c>
+      <c r="H5">
+        <v>0.99997089041779996</v>
+      </c>
+      <c r="I5">
+        <v>42241.769713341804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="66">
+        <v>21407.503456658196</v>
+      </c>
+      <c r="G6">
+        <v>2.9109582199993157E-5</v>
+      </c>
+      <c r="H6">
+        <v>0.99997089041779996</v>
+      </c>
+      <c r="I6" s="66">
+        <f>F6*H6</f>
+        <v>21406.880293176626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7">
+        <f>F7*G7</f>
+        <v>0.62316348156822943</v>
+      </c>
+      <c r="F7" s="66">
+        <v>21407.503456658196</v>
+      </c>
+      <c r="G7">
+        <v>2.9109582199993157E-5</v>
+      </c>
+      <c r="H7">
+        <v>0.99997089041779996</v>
+      </c>
+      <c r="I7" s="66">
+        <f>F7*H7</f>
+        <v>21406.880293176626</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="35.83203125" customWidth="1"/>
+    <col min="8" max="8" width="37.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="23" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20160722</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="23" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20160816</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="23" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>20160816</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="23" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>20160829</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="F6">
+        <v>2.29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="23" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>20160907</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="11">
+        <v>193.32</v>
+      </c>
+      <c r="E7">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="F7">
+        <v>1.63</v>
+      </c>
+      <c r="G7">
+        <f>ROUND(E7*D7-F7,2)</f>
+        <v>173.52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="7"/>
+    <col min="7" max="7" width="7.5" style="92" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2">
+        <v>201608</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <v>23888.746299999901</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4">
+        <f>C3*(1+0.02/12/2)</f>
+        <v>23908.653588583231</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="89" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="89">
+        <v>20160808</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="89">
+        <v>1</v>
+      </c>
+      <c r="F6" s="89">
+        <v>1</v>
+      </c>
+      <c r="G6" s="93">
+        <v>0</v>
+      </c>
+      <c r="H6" s="89">
+        <f>C4</f>
+        <v>23908.653588583231</v>
+      </c>
+      <c r="I6" s="89">
+        <f>H6</f>
+        <v>23908.653588583231</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B7" s="89">
+        <v>20160811</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="89">
+        <v>1644.77</v>
+      </c>
+      <c r="F7" s="89">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="G7" s="93">
+        <v>-14.78</v>
+      </c>
+      <c r="H7" s="89">
+        <f>-(E7*F7-G7)</f>
+        <v>-999.99722999999994</v>
+      </c>
+      <c r="I7" s="89">
+        <f>I6+H7</f>
+        <v>22908.65635858323</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="23" x14ac:dyDescent="0.15">
+      <c r="B8" s="89">
+        <v>20160816</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="89">
+        <v>2921.98</v>
+      </c>
+      <c r="F8" s="89">
+        <v>1.0266999999999999</v>
+      </c>
+      <c r="G8" s="93">
+        <v>0</v>
+      </c>
+      <c r="H8" s="89">
+        <f>-1*E8*F8</f>
+        <v>-2999.996866</v>
+      </c>
+      <c r="I8" s="89">
+        <f>I7+H8</f>
+        <v>19908.659492583229</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B9" s="89">
+        <v>20160819</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="89">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="89">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="G9" s="93">
+        <f>120.7/25000*2000*-1</f>
+        <v>-9.6559999999999988</v>
+      </c>
+      <c r="H9" s="89">
+        <f>E9*F9+G9</f>
+        <v>1989.5440000000001</v>
+      </c>
+      <c r="I9" s="89">
+        <f>I8+H9</f>
+        <v>21898.20349258323</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="23" x14ac:dyDescent="0.15">
+      <c r="B10" s="89">
+        <v>20160816</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="89">
+        <v>162.21</v>
+      </c>
+      <c r="F10" s="89">
+        <v>1.0216000000000001</v>
+      </c>
+      <c r="G10" s="93">
+        <v>0</v>
+      </c>
+      <c r="H10" s="89">
+        <f>E10*F10</f>
+        <v>165.71373600000001</v>
+      </c>
+      <c r="I10" s="89">
+        <f>I9+H10</f>
+        <v>22063.917228583232</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13">
+        <f>I10</f>
+        <v>22063.917228583232</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16">
+        <v>20160906</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17">
+        <v>22063.917228583232</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18">
+        <f>C17*(1+0.02/12/2)</f>
+        <v>22082.303826273717</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="89" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="89">
+        <v>20160825</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="89">
+        <v>1</v>
+      </c>
+      <c r="F20" s="89">
+        <v>1</v>
+      </c>
+      <c r="G20" s="93">
+        <v>0</v>
+      </c>
+      <c r="H20" s="89">
+        <f>C18</f>
+        <v>22082.303826273717</v>
+      </c>
+      <c r="I20" s="89">
+        <f>H20</f>
+        <v>22082.303826273717</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="89">
+        <v>20160825</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="89">
+        <v>228.07</v>
+      </c>
+      <c r="F21" s="89">
+        <v>1</v>
+      </c>
+      <c r="G21" s="93">
+        <v>0</v>
+      </c>
+      <c r="H21" s="89">
+        <f>-E21*F21</f>
+        <v>-228.07</v>
+      </c>
+      <c r="I21" s="89">
+        <f>I20+H21</f>
+        <v>21854.233826273718</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="89">
+        <v>20160902</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="89">
+        <v>2.29</v>
+      </c>
+      <c r="F22" s="89">
+        <v>1</v>
+      </c>
+      <c r="G22" s="93">
+        <v>0</v>
+      </c>
+      <c r="H22" s="89">
+        <f>-E22*F22</f>
+        <v>-2.29</v>
+      </c>
+      <c r="I22" s="89">
+        <f>I21+H22</f>
+        <v>21851.943826273717</v>
+      </c>
+      <c r="J22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="89">
+        <v>455.71</v>
+      </c>
+      <c r="F23" s="89">
+        <v>1</v>
+      </c>
+      <c r="G23" s="93">
+        <v>0</v>
+      </c>
+      <c r="H23" s="89">
+        <v>455.71</v>
+      </c>
+      <c r="I23" s="89">
+        <f>I22+H23</f>
+        <v>22307.653826273716</v>
+      </c>
+      <c r="J23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="23" x14ac:dyDescent="0.15">
+      <c r="B24" s="89"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27">
+        <f>I23</f>
+        <v>22307.653826273716</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29">
+        <v>20160921</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30">
+        <v>22307.653826273716</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31">
+        <f>C30*(1+0.02/12/2)</f>
+        <v>22326.24353779561</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="89" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="89">
+        <v>20160908</v>
+      </c>
+      <c r="C33" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="89">
+        <v>173.52</v>
+      </c>
+      <c r="F33" s="89">
+        <v>1</v>
+      </c>
+      <c r="G33" s="93">
+        <v>0</v>
+      </c>
+      <c r="H33" s="89">
+        <f>E33</f>
+        <v>173.52</v>
+      </c>
+      <c r="I33" s="89">
+        <f>C31+E33</f>
+        <v>22499.76353779561</v>
+      </c>
+      <c r="J33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="23" x14ac:dyDescent="0.15">
+      <c r="B34" s="89"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37">
+        <f>ROUND(I33,2)</f>
+        <v>22499.759999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40">
+        <v>22499.759999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41">
+        <v>20161010</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42">
+        <v>22499.759999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43">
+        <f>C42*(1+0.02/365*21)</f>
+        <v>22525.65013479452</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B44" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" s="89" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B45" s="89">
+        <v>20160921</v>
+      </c>
+      <c r="C45" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" s="89">
+        <v>2000</v>
+      </c>
+      <c r="F45" s="89">
+        <v>2000</v>
+      </c>
+      <c r="G45" s="93">
+        <v>0</v>
+      </c>
+      <c r="H45" s="89">
+        <f>E45</f>
+        <v>2000</v>
+      </c>
+      <c r="I45" s="89">
+        <f>C43+E45</f>
+        <v>24525.65013479452</v>
+      </c>
+      <c r="J45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="23" x14ac:dyDescent="0.15">
+      <c r="B46" s="89"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2573,18 +5737,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="108">
+      <c r="F4" s="117">
         <v>20160708</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108">
+      <c r="G4" s="117"/>
+      <c r="H4" s="117">
         <v>20160712</v>
       </c>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108">
+      <c r="I4" s="117"/>
+      <c r="J4" s="117">
         <v>20160808</v>
       </c>
-      <c r="K4" s="108"/>
+      <c r="K4" s="117"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -2642,10 +5806,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="108">
+      <c r="E8" s="117">
         <v>20160810</v>
       </c>
-      <c r="F8" s="108"/>
+      <c r="F8" s="117"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -2692,15 +5856,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView topLeftCell="A37" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="9"/>
     <col min="2" max="2" width="10.83203125" style="10"/>
-    <col min="3" max="3" width="27.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36" style="9" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="24.1640625" style="9" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="9" customWidth="1"/>
@@ -2719,11 +5883,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="108">
+      <c r="C4" s="117">
         <v>201605</v>
       </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -2795,19 +5959,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="112">
+      <c r="C11" s="121">
         <v>20160608</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="114"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="123"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -2991,20 +6155,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="109">
+      <c r="C18" s="118">
         <v>20160708</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="111"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="120"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -3223,20 +6387,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="109">
+      <c r="C27" s="118">
         <v>20160808</v>
       </c>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="111"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="119"/>
+      <c r="N27" s="120"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -3441,21 +6605,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="109">
+      <c r="C35" s="118">
         <v>20160825</v>
       </c>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="111"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="119"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="120"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -3674,21 +6838,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="109">
+      <c r="C42" s="118">
         <v>20160906</v>
       </c>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="110"/>
-      <c r="O42" s="111"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="119"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="119"/>
+      <c r="K42" s="119"/>
+      <c r="L42" s="119"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="119"/>
+      <c r="O42" s="120"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -3908,21 +7072,21 @@
     <row r="49" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="72"/>
-      <c r="C50" s="109">
+      <c r="C50" s="118">
         <v>20160921</v>
       </c>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="110"/>
-      <c r="I50" s="110"/>
-      <c r="J50" s="110"/>
-      <c r="K50" s="110"/>
-      <c r="L50" s="110"/>
-      <c r="M50" s="110"/>
-      <c r="N50" s="110"/>
-      <c r="O50" s="111"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="119"/>
+      <c r="I50" s="119"/>
+      <c r="J50" s="119"/>
+      <c r="K50" s="119"/>
+      <c r="L50" s="119"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="119"/>
+      <c r="O50" s="120"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
@@ -4051,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="66">
-        <f t="shared" ref="J53" si="18">C53-H53</f>
+        <f>C53</f>
         <v>21407.503456658196</v>
       </c>
       <c r="K53" s="100">
@@ -4156,264 +7320,147 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:L22"/>
+  <dimension ref="A4:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="39"/>
-    <col min="2" max="2" width="31.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="38" style="39" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="39" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="11" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="39" customWidth="1"/>
-    <col min="9" max="11" width="11" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="39" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="39"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="118" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-    </row>
-    <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="123" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-    </row>
-    <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="40" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>20160921</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>0.99983214607399995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B5" s="40"/>
+      <c r="C5" s="150" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="44">
-        <v>11866.62</v>
-      </c>
-      <c r="D6" s="45">
-        <v>0.8427</v>
-      </c>
-      <c r="E6" s="45">
-        <f>C6*D6</f>
-        <v>10000.000674000001</v>
-      </c>
-      <c r="F6" s="46">
+        <v>42</v>
+      </c>
+      <c r="F5" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="152" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="152" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="152" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B6" s="40">
+        <v>216</v>
+      </c>
+      <c r="C6" s="150">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="D6" s="66">
+        <f>C4*C6</f>
+        <v>42236.099028101657</v>
+      </c>
+      <c r="E6" s="100">
+        <v>0.66367210802429988</v>
+      </c>
+      <c r="F6">
+        <v>560.38</v>
+      </c>
+      <c r="G6">
+        <v>40000</v>
+      </c>
+      <c r="H6">
+        <f>F6/G6</f>
+        <v>1.4009499999999999E-2</v>
+      </c>
+      <c r="I6">
+        <f>D6/40000-1</f>
+        <v>5.5902475702541476E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B7" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="150">
+        <v>23408.289291309895</v>
+      </c>
+      <c r="D7" s="66">
+        <f>C7*C4</f>
+        <v>23404.360118051405</v>
+      </c>
+      <c r="E7" s="100">
+        <v>0.33632789197570018</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="120" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="122"/>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="50">
-        <v>0.8972</v>
-      </c>
-      <c r="D10" s="51">
-        <f>C10*C6</f>
-        <v>10646.731464</v>
-      </c>
-      <c r="E10" s="51">
-        <f>D10-E6</f>
-        <v>646.73078999999962</v>
-      </c>
-      <c r="F10" s="52">
-        <f>D10-E6</f>
-        <v>646.73078999999962</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="122"/>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="50">
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="D14" s="51">
-        <f>C14*C6</f>
-        <v>10709.62455</v>
-      </c>
-      <c r="E14" s="51">
-        <f>D14-D10</f>
-        <v>62.893086000000039</v>
-      </c>
-      <c r="F14" s="52">
-        <f>D14-E6</f>
-        <v>709.62387599999965</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="122"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="50">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="D18" s="51">
-        <f>C18*G18</f>
-        <v>9391.65</v>
-      </c>
-      <c r="E18" s="51">
-        <f>D18-D14</f>
-        <v>-1317.9745500000008</v>
-      </c>
-      <c r="F18" s="52">
-        <f>D18-E6</f>
-        <v>-608.35067400000116</v>
-      </c>
-      <c r="G18" s="39">
-        <f>10860-1000</f>
-        <v>9860</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="117"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C21" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="50">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="D22" s="51">
-        <f>C22*G22</f>
-        <v>9574.06</v>
-      </c>
-      <c r="E22" s="51">
-        <f>D22-D18</f>
-        <v>182.40999999999985</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="46">
-        <f>10860-1000</f>
-        <v>9860</v>
+      <c r="G7">
+        <v>22000</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>D7/22000-1</f>
+        <v>6.3834550820518476E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="151">
+        <f>C6+C7</f>
+        <v>65651.479004651701</v>
+      </c>
+      <c r="D8" s="68">
+        <f>D6+D7</f>
+        <v>65640.459146153065</v>
+      </c>
+      <c r="E8" s="70">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>F6+F7</f>
+        <v>560.38</v>
+      </c>
+      <c r="G8">
+        <f>G6+G7</f>
+        <v>62000</v>
+      </c>
+      <c r="H8">
+        <f>F8/G8</f>
+        <v>9.038387096774193E-3</v>
+      </c>
+      <c r="I8">
+        <f>D8/62000-1</f>
+        <v>5.8717083002468806E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C4:F4"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4421,357 +7468,155 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M18"/>
+  <dimension ref="B2:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="10"/>
-    <col min="2" max="2" width="43.1640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="10"/>
-    <col min="4" max="4" width="21.5" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="10"/>
-    <col min="7" max="7" width="14.83203125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="10"/>
-    <col min="9" max="9" width="14.33203125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="10"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="10" width="21.5" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="114"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="24" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="13">
-        <v>7000</v>
-      </c>
-      <c r="D6" s="29">
-        <v>7013.3</v>
-      </c>
-      <c r="E6" s="128">
-        <f>SUM(D6:D9)</f>
-        <v>28756.7</v>
-      </c>
-      <c r="F6" s="28">
-        <f>D6-C6</f>
-        <v>13.300000000000182</v>
-      </c>
-      <c r="G6" s="126">
-        <f>F6+F7+F8+F9</f>
-        <v>756.70000000000095</v>
-      </c>
-      <c r="H6" s="29">
-        <v>7058.1</v>
-      </c>
-      <c r="I6" s="28">
-        <f>H6-C6</f>
-        <v>58.100000000000364</v>
-      </c>
-      <c r="J6" s="28">
-        <f>H6-D6</f>
-        <v>44.800000000000182</v>
-      </c>
-      <c r="K6" s="128">
-        <f>J6+J7+J8+J9</f>
-        <v>-382.68999999999915</v>
-      </c>
-      <c r="L6" s="128">
-        <f>SUM(H6:H9)</f>
-        <v>28374.010000000002</v>
-      </c>
-      <c r="M6" s="124">
-        <f>SUM(I6:I9)</f>
-        <v>374.01000000000181</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="25">
-        <v>1053.7</v>
-      </c>
-      <c r="E7" s="128"/>
-      <c r="F7" s="28">
-        <f>D7-C7</f>
-        <v>53.700000000000045</v>
-      </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="25">
-        <v>1078.76</v>
-      </c>
-      <c r="I7" s="24">
-        <f>H7-C7</f>
-        <v>78.759999999999991</v>
-      </c>
-      <c r="J7" s="28">
-        <f>H7-D7</f>
-        <v>25.059999999999945</v>
-      </c>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="124"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="10">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="25">
-        <v>10065.91</v>
-      </c>
-      <c r="E8" s="128"/>
-      <c r="F8" s="28">
-        <f>D8-C8</f>
-        <v>65.909999999999854</v>
-      </c>
-      <c r="G8" s="126"/>
-      <c r="H8" s="25">
-        <v>9985.2000000000007</v>
-      </c>
-      <c r="I8" s="24">
-        <f>H8-C8</f>
-        <v>-14.799999999999272</v>
-      </c>
-      <c r="J8" s="28">
-        <f>H8-D8</f>
-        <v>-80.709999999999127</v>
-      </c>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="124"/>
-    </row>
-    <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="10">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="26">
-        <v>10623.79</v>
-      </c>
-      <c r="E9" s="129"/>
-      <c r="F9" s="31">
-        <f>D9-C9</f>
-        <v>623.79000000000087</v>
-      </c>
-      <c r="G9" s="127"/>
-      <c r="H9" s="26">
-        <v>10251.950000000001</v>
-      </c>
-      <c r="I9" s="32">
-        <f>H9-C9</f>
-        <v>251.95000000000073</v>
-      </c>
-      <c r="J9" s="31">
-        <f>H9-D9</f>
-        <v>-371.84000000000015</v>
-      </c>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="125"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="10">
-        <f>SUM(C6:C9)</f>
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="114"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D14" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="29">
-        <v>7221.2</v>
-      </c>
-      <c r="E15" s="28">
-        <f>D15-C6</f>
-        <v>221.19999999999982</v>
-      </c>
-      <c r="F15" s="28">
-        <f>D15-D6</f>
-        <v>207.89999999999964</v>
-      </c>
-      <c r="G15" s="130">
-        <f>F15+F16+F17+F18</f>
-        <v>-873.43000000000166</v>
-      </c>
-      <c r="H15" s="130">
-        <f>SUM(D15:D18)</f>
-        <v>27883.269999999997</v>
-      </c>
-      <c r="I15" s="133">
-        <f>SUM(E15:E18)</f>
-        <v>-116.7300000000007</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="25">
-        <v>184.43</v>
-      </c>
-      <c r="E16" s="28">
-        <f>D16-C7</f>
-        <v>-815.56999999999994</v>
-      </c>
-      <c r="F16" s="28">
-        <f>D16-D7</f>
-        <v>-869.27</v>
-      </c>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="134"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="25">
-        <v>10296.51</v>
-      </c>
-      <c r="E17" s="28">
-        <f>D17-C8</f>
-        <v>296.51000000000022</v>
-      </c>
-      <c r="F17" s="28">
-        <f>D17-D8</f>
-        <v>230.60000000000036</v>
-      </c>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="134"/>
-    </row>
-    <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="26">
-        <v>10181.129999999999</v>
-      </c>
-      <c r="E18" s="31">
-        <f>D18-C9</f>
-        <v>181.1299999999992</v>
-      </c>
-      <c r="F18" s="31">
-        <f>D18-D9</f>
-        <v>-442.66000000000167</v>
-      </c>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="135"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>20160908</v>
+      </c>
+      <c r="C3">
+        <v>63640.00915127372</v>
+      </c>
+      <c r="D3">
+        <v>63650.693169999999</v>
+      </c>
+      <c r="E3">
+        <f>ROUND(C3/D3,12)</f>
+        <v>0.99983214607399995</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>E3</f>
+        <v>0.99983214607399995</v>
+      </c>
+      <c r="J3">
+        <v>63640.009151273698</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>20160921</v>
+      </c>
+      <c r="C4">
+        <v>63650.693169999999</v>
+      </c>
+      <c r="D4">
+        <v>63650.693169999999</v>
+      </c>
+      <c r="E4">
+        <f>ROUND(C4/D4,12)</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>E4-E3</f>
+        <v>1.6785392600005E-4</v>
+      </c>
+      <c r="G4">
+        <f>F4*0.2</f>
+        <v>3.3570785200010005E-5</v>
+      </c>
+      <c r="H4">
+        <f>G4*D4</f>
+        <v>2.1368037482418138</v>
+      </c>
+      <c r="I4">
+        <f>E4-G4</f>
+        <v>0.99996642921479995</v>
+      </c>
+      <c r="J4">
+        <f>I4*D4</f>
+        <v>63648.556366251752</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>20160926</v>
+      </c>
+      <c r="C5">
+        <v>64511.548098794519</v>
+      </c>
+      <c r="D5">
+        <v>65651.479004651701</v>
+      </c>
+      <c r="E5">
+        <f>C5/D5</f>
+        <v>0.98263663023073078</v>
+      </c>
+      <c r="F5">
+        <f>E5-E4</f>
+        <v>-1.7363369769269221E-2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>E5-G5</f>
+        <v>0.98263663023073078</v>
+      </c>
+      <c r="J5">
+        <f>I5*D5</f>
+        <v>64511.548098794519</v>
+      </c>
+      <c r="K5">
+        <f>J5-J4-2000</f>
+        <v>-1137.0082674572332</v>
+      </c>
+      <c r="L5" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="E6:E9"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4779,948 +7624,151 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J63"/>
+  <dimension ref="A3:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="9"/>
-    <col min="2" max="2" width="14.83203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="21" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18" style="11" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="9"/>
-    <col min="8" max="8" width="20.33203125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="49.33203125" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="11" max="11" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="136">
-        <v>20160622</v>
-      </c>
-      <c r="E4" s="137"/>
-    </row>
-    <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="55">
-        <f>'易H股ETF联接（110031）'!D14</f>
-        <v>10709.62455</v>
-      </c>
-      <c r="E6" s="53">
-        <f>D6/D12</f>
-        <v>0.17426046408386811</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="56">
-        <f>打包资产统计!D15</f>
-        <v>7221.2</v>
-      </c>
-      <c r="E7" s="53">
-        <f>D7/D12</f>
-        <v>0.11749895221512954</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="56">
-        <f>打包资产统计!D16</f>
-        <v>184.43</v>
-      </c>
-      <c r="E8" s="53">
-        <f>D8/D12</f>
-        <v>3.0009322213809817E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="56">
-        <f>打包资产统计!D17</f>
-        <v>10296.51</v>
-      </c>
-      <c r="E9" s="53">
-        <f>D9/D12</f>
-        <v>0.16753851665548711</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="56">
-        <f>打包资产统计!D18</f>
-        <v>10181.129999999999</v>
-      </c>
-      <c r="E10" s="53">
-        <f>D10/D12</f>
-        <v>0.16566112382512904</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="56">
-        <v>22864.674763287672</v>
-      </c>
-      <c r="E11" s="53">
-        <f>D11/D12</f>
-        <v>0.37204001099900524</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="61" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20160921</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <f>净值!I4</f>
+        <v>0.99996642921479995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4">
+        <f>净值!G4</f>
+        <v>3.3570785200010005E-5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>216</v>
+      </c>
+      <c r="C6">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="D6">
+        <f>C6*C4</f>
+        <v>1.4181370480298698</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6">
+        <f>C6*C3</f>
+        <v>42241.771576293773</v>
+      </c>
+      <c r="G6">
+        <v>42241.769713341804</v>
+      </c>
+      <c r="K6">
+        <f>F6</f>
+        <v>42241.771576293773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7">
+        <v>21407.503456658196</v>
+      </c>
+      <c r="D7">
+        <f>C4*C7</f>
+        <v>0.71866670021194401</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7">
+        <f>C7*C3</f>
+        <v>21406.784789957983</v>
+      </c>
+      <c r="H7">
+        <f>C4*C7</f>
+        <v>0.71866670021194401</v>
+      </c>
+      <c r="I7">
+        <f>H7/C3</f>
+        <v>0.71869082722733013</v>
+      </c>
+      <c r="J7">
+        <f>C7+I7</f>
+        <v>21408.222147485423</v>
+      </c>
+      <c r="K7">
+        <f>J7*C3</f>
+        <v>21407.503456658196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="57">
-        <f>SUM(D6:D11)</f>
-        <v>61457.56931328767</v>
-      </c>
-      <c r="E12" s="54">
-        <f>D12/D12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="136">
-        <v>20160713</v>
-      </c>
-      <c r="E15" s="137"/>
-    </row>
-    <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="77" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="55">
-        <f>F17*G17</f>
-        <v>10703.65</v>
-      </c>
-      <c r="E17" s="53">
-        <f>D17/D23</f>
-        <v>0.17281822165793587</v>
-      </c>
-      <c r="F17" s="11">
-        <v>11860</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0.90249999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="78">
-        <v>7157.5</v>
-      </c>
-      <c r="E18" s="53">
-        <f>D18/D23</f>
-        <v>0.11556304826079665</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="56">
-        <v>181.33</v>
-      </c>
-      <c r="E19" s="53">
-        <f>D19/D23</f>
-        <v>2.9277048607936093E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="56">
-        <v>10619.36</v>
-      </c>
-      <c r="E20" s="53">
-        <f>D20/D23</f>
-        <v>0.17145729824362888</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="56">
-        <v>10375.9</v>
-      </c>
-      <c r="E21" s="53">
-        <f>D21/D23</f>
-        <v>0.16752645930132029</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="56">
-        <f>余额宝!H6</f>
-        <v>22898.147878687032</v>
-      </c>
-      <c r="E22" s="53">
-        <f>D22/D23</f>
-        <v>0.3697072676755247</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="57">
-        <f>SUM(D17:D22)</f>
-        <v>61935.887878687034</v>
-      </c>
-      <c r="E23" s="54">
-        <f>D23/D23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="136">
-        <v>20160808</v>
-      </c>
-      <c r="E25" s="137"/>
-    </row>
-    <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="55">
-        <f>F27*G27</f>
-        <v>10344.15</v>
-      </c>
-      <c r="E27" s="53">
-        <f>D27/D33</f>
-        <v>0.16696730703409002</v>
-      </c>
-      <c r="F27" s="95">
-        <v>10860</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="78">
-        <v>7261.8</v>
-      </c>
-      <c r="E28" s="53">
-        <f>D28/D33</f>
-        <v>0.11721438593022675</v>
-      </c>
-      <c r="F28" s="11">
-        <f>D28/G28</f>
-        <v>6999.9999999999991</v>
-      </c>
-      <c r="G28" s="9">
-        <v>1.0374000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="56">
-        <v>171.47</v>
-      </c>
-      <c r="E29" s="53">
-        <f>D29/D33</f>
-        <v>2.7677367533471011E-3</v>
-      </c>
-      <c r="F29" s="11">
-        <v>193.32</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0.88700000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="56">
-        <v>10123.56</v>
-      </c>
-      <c r="E30" s="53">
-        <f>D30/D33</f>
-        <v>0.16340671305018126</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="56">
-        <v>10163.42</v>
-      </c>
-      <c r="E31" s="53">
-        <f>D31/D33</f>
-        <v>0.16405010248849941</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="56">
-        <f>余额宝!J6</f>
-        <v>23888.746300000003</v>
-      </c>
-      <c r="E32" s="53">
-        <f>D32/D33</f>
-        <v>0.38559375474365537</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="57">
-        <f>SUM(D27:D32)</f>
-        <v>61953.146300000008</v>
-      </c>
-      <c r="E33" s="54">
-        <f>D33/D33</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="136">
-        <v>20160825</v>
-      </c>
-      <c r="E35" s="137"/>
-    </row>
-    <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C37" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="55">
-        <f>F37*G37</f>
-        <v>8749.25</v>
-      </c>
-      <c r="E37" s="53">
-        <f>D37/D43</f>
-        <v>0.13754618265606652</v>
-      </c>
-      <c r="F37" s="11">
-        <v>8860</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="H37" s="11">
-        <f>F37*G37</f>
-        <v>8749.25</v>
-      </c>
-      <c r="I37" s="9">
-        <f>933+D37-10000+2000-9.656</f>
-        <v>1672.5940000000001</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10" ht="46" x14ac:dyDescent="0.3">
-      <c r="C38" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="78">
-        <f>H38</f>
-        <v>9981.3167790000007</v>
-      </c>
-      <c r="E38" s="53">
-        <f>D38/D43</f>
-        <v>0.15691539512899913</v>
-      </c>
-      <c r="F38" s="96">
-        <f>9921.98-162.21</f>
-        <v>9759.77</v>
-      </c>
-      <c r="G38" s="9">
-        <v>1.0226999999999999</v>
-      </c>
-      <c r="H38" s="11">
-        <f t="shared" ref="H38:H42" si="0">F38*G38</f>
-        <v>9981.3167790000007</v>
-      </c>
-      <c r="I38" s="9">
-        <f>H38-10000</f>
-        <v>-18.683220999999321</v>
-      </c>
-      <c r="J38" s="88" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C39" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="56">
-        <f>H39</f>
-        <v>174.56796</v>
-      </c>
-      <c r="E39" s="53">
-        <f>D39/D43</f>
-        <v>2.7443674042983012E-3</v>
-      </c>
-      <c r="F39" s="11">
-        <v>193.32</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="H39" s="11">
-        <f t="shared" si="0"/>
-        <v>174.56796</v>
-      </c>
-      <c r="I39" s="9">
-        <f>-1000+944+H39-4.67</f>
-        <v>113.89796</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C40" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="56">
-        <f>H40</f>
-        <v>10584.7695</v>
-      </c>
-      <c r="E40" s="53">
-        <f>D40/D43</f>
-        <v>0.16640222179265216</v>
-      </c>
-      <c r="F40" s="11">
-        <v>11530.25</v>
-      </c>
-      <c r="G40" s="9">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="H40" s="11">
-        <f t="shared" si="0"/>
-        <v>10584.7695</v>
-      </c>
-      <c r="I40" s="9">
-        <f>H40-10000</f>
-        <v>584.76950000000033</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C41" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="56">
-        <f>H41</f>
-        <v>12055.72284</v>
-      </c>
-      <c r="E41" s="53">
-        <f>D41/D43</f>
-        <v>0.18952694868720782</v>
-      </c>
-      <c r="F41" s="11">
-        <v>19351.080000000002</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0.623</v>
-      </c>
-      <c r="H41" s="11">
-        <f t="shared" si="0"/>
-        <v>12055.72284</v>
-      </c>
-      <c r="I41" s="9">
-        <f>F41*G41-11000</f>
-        <v>1055.7228400000004</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C42" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="11">
-        <f>H42</f>
-        <v>22063.917228583232</v>
-      </c>
-      <c r="E42" s="53">
-        <f>D42/D43</f>
-        <v>0.346864884330776</v>
-      </c>
-      <c r="F42" s="11">
-        <f>余额宝损益表!C13</f>
-        <v>22063.917228583232</v>
-      </c>
-      <c r="G42" s="9">
-        <v>1</v>
-      </c>
-      <c r="H42" s="11">
-        <f t="shared" si="0"/>
-        <v>22063.917228583232</v>
-      </c>
-      <c r="J42" s="9">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="57">
-        <f>SUM(D37:D42)</f>
-        <v>63609.544307583237</v>
-      </c>
-      <c r="E43" s="54">
-        <f>D43/D43</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="136">
-        <v>20160906</v>
-      </c>
-      <c r="E45" s="137"/>
-    </row>
-    <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="99" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C47" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="55">
-        <f>F47*G47</f>
-        <v>9143.52</v>
-      </c>
-      <c r="E47" s="53">
-        <f>D47/D53</f>
-        <v>0.14358592510629198</v>
-      </c>
-      <c r="F47" s="11">
-        <v>8860</v>
-      </c>
-      <c r="G47" s="9">
-        <v>1.032</v>
-      </c>
-      <c r="H47" s="11">
-        <f>F47*G47</f>
-        <v>9143.52</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C48" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="78">
-        <f>H48</f>
-        <v>9979.3648250000006</v>
-      </c>
-      <c r="E48" s="53">
-        <f>D48/D53</f>
-        <v>0.15671167453790383</v>
-      </c>
-      <c r="F48" s="96">
-        <f>9921.98-162.21</f>
-        <v>9759.77</v>
-      </c>
-      <c r="G48" s="9">
-        <v>1.0225</v>
-      </c>
-      <c r="H48" s="11">
-        <f t="shared" ref="H48:H52" si="1">F48*G48</f>
-        <v>9979.3648250000006</v>
-      </c>
-      <c r="J48" s="88"/>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C49" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="56">
-        <f>H49</f>
-        <v>175.34124</v>
-      </c>
-      <c r="E49" s="53">
-        <f>D49/D53</f>
-        <v>2.7534837955934216E-3</v>
-      </c>
-      <c r="F49" s="11">
-        <v>193.32</v>
-      </c>
-      <c r="G49" s="9">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="H49" s="11">
-        <f t="shared" si="1"/>
-        <v>175.34124</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C50" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="56">
-        <f>H50</f>
-        <v>10037.5275</v>
-      </c>
-      <c r="E50" s="53">
-        <f>D50/D53</f>
-        <v>0.15762503629535957</v>
-      </c>
-      <c r="F50" s="11">
-        <v>11030.25</v>
-      </c>
-      <c r="G50" s="9">
-        <v>0.91</v>
-      </c>
-      <c r="H50" s="11">
-        <f t="shared" si="1"/>
-        <v>10037.5275</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C51" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="56">
-        <f>H51</f>
-        <v>12036.371760000002</v>
-      </c>
-      <c r="E51" s="53">
-        <f>D51/D53</f>
-        <v>0.18901403114805324</v>
-      </c>
-      <c r="F51" s="11">
-        <v>19351.080000000002</v>
-      </c>
-      <c r="G51" s="9">
-        <v>0.622</v>
-      </c>
-      <c r="H51" s="11">
-        <f t="shared" si="1"/>
-        <v>12036.371760000002</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C52" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="11">
-        <f>F52</f>
-        <v>22307.653826273716</v>
-      </c>
-      <c r="E52" s="53">
-        <f>D52/D53</f>
-        <v>0.35030984911679802</v>
-      </c>
-      <c r="F52" s="11">
-        <f>余额宝损益表!C27</f>
-        <v>22307.653826273716</v>
-      </c>
-      <c r="G52" s="9">
-        <v>1</v>
-      </c>
-      <c r="H52" s="11">
-        <f t="shared" si="1"/>
-        <v>22307.653826273716</v>
-      </c>
-      <c r="J52" s="9">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="57">
-        <f>SUM(D47:D52)</f>
-        <v>63679.779151273717</v>
-      </c>
-      <c r="E53" s="54">
-        <f>D53/D53</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="136">
-        <v>20160921</v>
-      </c>
-      <c r="E56" s="137"/>
-    </row>
-    <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D57" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C58" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" s="55">
-        <f>F58*G58</f>
-        <v>9757.8724000000002</v>
-      </c>
-      <c r="E58" s="53">
-        <f>D58/D63</f>
-        <v>0.15330347422829174</v>
-      </c>
-      <c r="F58" s="11">
-        <v>8860</v>
-      </c>
-      <c r="G58" s="9">
-        <v>1.10134</v>
-      </c>
-      <c r="H58" s="11">
-        <f>F58*G58</f>
-        <v>9757.8724000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="78">
-        <f>H59</f>
-        <v>9896.4067800000012</v>
-      </c>
-      <c r="E59" s="53">
-        <f>D59/D63</f>
-        <v>0.15547995296089565</v>
-      </c>
-      <c r="F59" s="96">
-        <f>9921.98-162.21</f>
-        <v>9759.77</v>
-      </c>
-      <c r="G59" s="9">
-        <v>1.014</v>
-      </c>
-      <c r="H59" s="11">
-        <f t="shared" ref="H59:H62" si="2">F59*G59</f>
-        <v>9896.4067800000012</v>
-      </c>
-      <c r="J59" s="88"/>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="56">
-        <f>H60</f>
-        <v>9827.9527500000004</v>
-      </c>
-      <c r="E60" s="53">
-        <f>D60/D63</f>
-        <v>0.15440448894643202</v>
-      </c>
-      <c r="F60" s="11">
-        <v>11030.25</v>
-      </c>
-      <c r="G60" s="9">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="H60" s="11">
-        <f t="shared" si="2"/>
-        <v>9827.9527500000004</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="56">
-        <f>H61</f>
-        <v>11668.70124</v>
-      </c>
-      <c r="E61" s="53">
-        <f>D61/D63</f>
-        <v>0.18332402459207972</v>
-      </c>
-      <c r="F61" s="11">
-        <v>19351.080000000002</v>
-      </c>
-      <c r="G61" s="9">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="H61" s="11">
-        <f t="shared" si="2"/>
-        <v>11668.70124</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" s="11">
-        <f>余额宝损益表!C37</f>
-        <v>22499.759999999998</v>
-      </c>
-      <c r="E62" s="53">
-        <f>D62/D63</f>
-        <v>0.35348805927230093</v>
-      </c>
-      <c r="F62" s="11">
-        <f>D62</f>
-        <v>22499.759999999998</v>
-      </c>
-      <c r="G62" s="9">
-        <v>1</v>
-      </c>
-      <c r="H62" s="11">
-        <f t="shared" si="2"/>
-        <v>22499.759999999998</v>
-      </c>
-      <c r="J62" s="9">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C63" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63" s="57">
-        <f>SUM(D58:D62)</f>
+      <c r="C8">
+        <f>C6+C7</f>
         <v>63650.693169999999</v>
       </c>
-      <c r="E63" s="54">
-        <f>D63/D63</f>
-        <v>1</v>
+      <c r="D8">
+        <f>D6+D7</f>
+        <v>2.1368037482418138</v>
+      </c>
+      <c r="K8">
+        <f>K6+K7</f>
+        <v>63649.275032951969</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D45:E45"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5728,140 +7776,150 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H7"/>
+  <dimension ref="B3:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="35.83203125" customWidth="1"/>
-    <col min="8" max="8" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="110"/>
+    <col min="2" max="2" width="13.83203125" style="110" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="110" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="110" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="111" customWidth="1"/>
+    <col min="6" max="7" width="23.5" style="110" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="110" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="110"/>
+    <col min="10" max="10" width="13.33203125" style="110" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="110"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="23" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>20160722</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-      <c r="H3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="23" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>20160816</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="23" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>20160816</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="23" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>20160829</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="F6">
-        <v>2.29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="23" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>20160907</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="11">
-        <v>193.32</v>
-      </c>
-      <c r="E7">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="F7">
-        <v>1.63</v>
-      </c>
-      <c r="G7">
-        <f>ROUND(E7*D7-F7,2)</f>
-        <v>173.52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>119</v>
+    <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="J3" s="126" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="126"/>
+    </row>
+    <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B4" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="113" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="113" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="113" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="113" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B5" s="124">
+        <v>20160921</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="64">
+        <v>21407.503456658196</v>
+      </c>
+      <c r="E5" s="41">
+        <f>净值!I4</f>
+        <v>0.99996642921479995</v>
+      </c>
+      <c r="F5" s="64">
+        <v>0</v>
+      </c>
+      <c r="G5" s="64">
+        <f>D5</f>
+        <v>21407.503456658196</v>
+      </c>
+      <c r="H5" s="64">
+        <v>21406.78</v>
+      </c>
+      <c r="K5" s="110">
+        <f>ROUND(E5*D5,2)</f>
+        <v>21406.78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B6" s="125"/>
+      <c r="C6" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="64">
+        <f>F6/E6</f>
+        <v>0.71869082722733013</v>
+      </c>
+      <c r="E6" s="41">
+        <f>净值!I4</f>
+        <v>0.99996642921479995</v>
+      </c>
+      <c r="F6" s="64">
+        <f>D5*净值!G4</f>
+        <v>0.71866670021194401</v>
+      </c>
+      <c r="G6" s="64">
+        <f>G5+D6</f>
+        <v>21408.222147485423</v>
+      </c>
+      <c r="H6" s="64">
+        <f>ROUND(H5+F6,2)</f>
+        <v>21407.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B7" s="64">
+        <v>20160923</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="64">
+        <f>F7/E7</f>
+        <v>2000.067143824471</v>
+      </c>
+      <c r="E7" s="41">
+        <f>E6</f>
+        <v>0.99996642921479995</v>
+      </c>
+      <c r="F7" s="64">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="64">
+        <v>23408.289291309895</v>
+      </c>
+      <c r="H7" s="64">
+        <v>23407.5</v>
+      </c>
+      <c r="J7" s="110">
+        <f>G6+D7</f>
+        <v>23408.289291309895</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5869,508 +7927,117 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J37"/>
+  <dimension ref="B4:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="46.5" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="7"/>
-    <col min="7" max="7" width="7.5" style="92" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2">
-        <v>201608</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3">
-        <v>23888.746299999901</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4">
-        <f>C3*(1+0.02/12/2)</f>
-        <v>23908.653588583231</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="89" t="s">
+    <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B4" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="93" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="89">
-        <v>20160808</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="89">
+      <c r="E4" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="113" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="113" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="113" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="113" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" s="39" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B5" s="124">
+        <v>20160921</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="16">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E5" s="41">
         <v>1</v>
       </c>
-      <c r="F6" s="89">
-        <v>1</v>
-      </c>
-      <c r="G6" s="93">
+      <c r="F5" s="64">
         <v>0</v>
       </c>
-      <c r="H6" s="89">
-        <f>C4</f>
-        <v>23908.653588583231</v>
-      </c>
-      <c r="I6" s="89">
-        <f>H6</f>
-        <v>23908.653588583231</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="23" x14ac:dyDescent="0.3">
-      <c r="B7" s="89">
-        <v>20160811</v>
-      </c>
-      <c r="C7" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="89">
-        <v>1644.77</v>
-      </c>
-      <c r="F7" s="89">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="G7" s="93">
-        <v>-14.78</v>
-      </c>
-      <c r="H7" s="89">
-        <f>-(E7*F7-G7)</f>
-        <v>-999.99722999999994</v>
-      </c>
-      <c r="I7" s="89">
-        <f>I6+H7</f>
-        <v>22908.65635858323</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="23" x14ac:dyDescent="0.15">
-      <c r="B8" s="89">
-        <v>20160816</v>
-      </c>
-      <c r="C8" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="89">
-        <v>2921.98</v>
-      </c>
-      <c r="F8" s="89">
-        <v>1.0266999999999999</v>
-      </c>
-      <c r="G8" s="93">
-        <v>0</v>
-      </c>
-      <c r="H8" s="89">
-        <f>-1*E8*F8</f>
-        <v>-2999.996866</v>
-      </c>
-      <c r="I8" s="89">
-        <f>I7+H8</f>
-        <v>19908.659492583229</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="23" x14ac:dyDescent="0.3">
-      <c r="B9" s="89">
-        <v>20160819</v>
-      </c>
-      <c r="C9" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="89">
-        <v>2000</v>
-      </c>
-      <c r="F9" s="89">
-        <v>0.99960000000000004</v>
-      </c>
-      <c r="G9" s="93">
-        <f>120.7/25000*2000*-1</f>
-        <v>-9.6559999999999988</v>
-      </c>
-      <c r="H9" s="89">
-        <f>E9*F9+G9</f>
-        <v>1989.5440000000001</v>
-      </c>
-      <c r="I9" s="89">
-        <f>I8+H9</f>
-        <v>21898.20349258323</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="23" x14ac:dyDescent="0.15">
-      <c r="B10" s="89">
-        <v>20160816</v>
-      </c>
-      <c r="C10" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="89">
-        <v>162.21</v>
-      </c>
-      <c r="F10" s="89">
-        <v>1.0216000000000001</v>
-      </c>
-      <c r="G10" s="93">
-        <v>0</v>
-      </c>
-      <c r="H10" s="89">
-        <f>E10*F10</f>
-        <v>165.71373600000001</v>
-      </c>
-      <c r="I10" s="89">
-        <f>I9+H10</f>
-        <v>22063.917228583232</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13">
-        <f>I10</f>
-        <v>22063.917228583232</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16">
-        <v>20160906</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17">
-        <v>22063.917228583232</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18">
-        <f>C17*(1+0.02/12/2)</f>
-        <v>22082.303826273717</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="93" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" s="89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="89">
-        <v>20160825</v>
-      </c>
-      <c r="C20" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="89">
-        <v>1</v>
-      </c>
-      <c r="F20" s="89">
-        <v>1</v>
-      </c>
-      <c r="G20" s="93">
-        <v>0</v>
-      </c>
-      <c r="H20" s="89">
-        <f>C18</f>
-        <v>22082.303826273717</v>
-      </c>
-      <c r="I20" s="89">
-        <f>H20</f>
-        <v>22082.303826273717</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="89">
-        <v>20160825</v>
-      </c>
-      <c r="C21" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="89">
-        <v>228.07</v>
-      </c>
-      <c r="F21" s="89">
-        <v>1</v>
-      </c>
-      <c r="G21" s="93">
-        <v>0</v>
-      </c>
-      <c r="H21" s="89">
-        <f>-E21*F21</f>
-        <v>-228.07</v>
-      </c>
-      <c r="I21" s="89">
-        <f>I20+H21</f>
-        <v>21854.233826273718</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="89">
-        <v>20160902</v>
-      </c>
-      <c r="C22" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="89">
-        <v>2.29</v>
-      </c>
-      <c r="F22" s="89">
-        <v>1</v>
-      </c>
-      <c r="G22" s="93">
-        <v>0</v>
-      </c>
-      <c r="H22" s="89">
-        <f>-E22*F22</f>
-        <v>-2.29</v>
-      </c>
-      <c r="I22" s="89">
-        <f>I21+H22</f>
-        <v>21851.943826273717</v>
-      </c>
-      <c r="J22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="89">
-        <v>455.71</v>
-      </c>
-      <c r="F23" s="89">
-        <v>1</v>
-      </c>
-      <c r="G23" s="93">
-        <v>0</v>
-      </c>
-      <c r="H23" s="89">
-        <v>455.71</v>
-      </c>
-      <c r="I23" s="89">
-        <f>I22+H23</f>
-        <v>22307.653826273716</v>
-      </c>
-      <c r="J23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="23" x14ac:dyDescent="0.15">
-      <c r="B24" s="89"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27">
-        <f>I23</f>
-        <v>22307.653826273716</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29">
-        <v>20160921</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30">
-        <v>22307.653826273716</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31">
-        <f>C30*(1+0.02/12/2)</f>
-        <v>22326.24353779561</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="93" t="s">
-        <v>100</v>
-      </c>
-      <c r="H32" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="89">
-        <v>20160908</v>
-      </c>
-      <c r="C33" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="89">
-        <v>173.52</v>
-      </c>
-      <c r="F33" s="89">
-        <v>1</v>
-      </c>
-      <c r="G33" s="93">
-        <v>0</v>
-      </c>
-      <c r="H33" s="89">
-        <f>E33</f>
-        <v>173.52</v>
-      </c>
-      <c r="I33" s="89">
-        <f>C31+E33</f>
-        <v>22499.76353779561</v>
-      </c>
-      <c r="J33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="23" x14ac:dyDescent="0.15">
-      <c r="B34" s="89"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37">
-        <f>ROUND(I33,2)</f>
-        <v>22499.759999999998</v>
+      <c r="G5" s="64">
+        <f>D5</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H5" s="64">
+        <f>ROUND(42243.1897133418,2)</f>
+        <v>42243.19</v>
+      </c>
+      <c r="K5" s="39">
+        <f>G5*E5</f>
+        <v>42243.189713341802</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="9" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B6" s="125"/>
+      <c r="C6" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="16">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.99996642921479995</v>
+      </c>
+      <c r="F6" s="16">
+        <f>ROUND(D6*(E6-E5),2)</f>
+        <v>-1.42</v>
+      </c>
+      <c r="G6" s="64">
+        <f>D6</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H6" s="16">
+        <f>ROUND(G6*E6,2)</f>
+        <v>42241.77</v>
+      </c>
+      <c r="K6" s="9">
+        <f>H5-F6</f>
+        <v>42244.61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="F9" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6378,47 +8045,33 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="B4:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" t="s">
-        <v>109</v>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C4">
+        <v>20160921</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="7">
+        <v>216</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="175">
   <si>
     <t>黄金基金</t>
   </si>
@@ -1348,6 +1348,49 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>jie'suan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计盈亏</t>
+    <rPh sb="0" eb="1">
+      <t>lei'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'kui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计盈亏率</t>
+    <rPh sb="0" eb="1">
+      <t>lei'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'kui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lv</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当期盈亏</t>
+    <rPh sb="0" eb="1">
+      <t>dang'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'kui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计分红率</t>
+    <rPh sb="0" eb="1">
+      <t>lei'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'hong'lv</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2219,6 +2262,15 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2283,6 +2335,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2301,38 +2371,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2789,174 +2832,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="115" t="s">
+      <c r="C17" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="115">
+      <c r="D17" s="118">
         <v>7000</v>
       </c>
-      <c r="E17" s="116">
+      <c r="E17" s="119">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="114">
+      <c r="G17" s="117">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="115">
+      <c r="D19" s="118">
         <v>10000</v>
       </c>
-      <c r="E19" s="116">
+      <c r="E19" s="119">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="116"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="115" t="s">
+      <c r="C21" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="115">
+      <c r="D21" s="118">
         <v>10000</v>
       </c>
-      <c r="E21" s="116">
+      <c r="E21" s="119">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="119"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="115">
+      <c r="D23" s="118">
         <v>10000</v>
       </c>
-      <c r="E23" s="116">
+      <c r="E23" s="119">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="116"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="119"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="115" t="s">
+      <c r="C25" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="115">
+      <c r="D25" s="118">
         <v>1000</v>
       </c>
-      <c r="E25" s="116">
+      <c r="E25" s="119">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="116"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="115" t="s">
+      <c r="B27" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="115" t="s">
+      <c r="C27" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="115">
+      <c r="D27" s="118">
         <v>22000</v>
       </c>
-      <c r="E27" s="116">
+      <c r="E27" s="119">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="116"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="119"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -2994,13 +3037,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -3015,27 +3072,13 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3066,27 +3109,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3119,12 +3162,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="137"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3159,12 +3202,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="137"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3199,12 +3242,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="132" t="s">
+      <c r="C16" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="134"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="137"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3246,13 +3289,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="129"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="132"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3335,20 +3378,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="121" t="s">
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="123"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="126"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3395,7 +3438,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="142">
+      <c r="E6" s="143">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3403,7 +3446,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="146">
+      <c r="G6" s="141">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3418,15 +3461,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="142">
+      <c r="K6" s="143">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="142">
+      <c r="L6" s="143">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="144">
+      <c r="M6" s="139">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3441,12 +3484,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="142"/>
+      <c r="E7" s="143"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="146"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3458,9 +3501,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="144"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="139"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3472,12 +3515,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="142"/>
+      <c r="E8" s="143"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="146"/>
+      <c r="G8" s="141"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3489,9 +3532,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="144"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="139"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3503,12 +3546,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="143"/>
+      <c r="E9" s="144"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="147"/>
+      <c r="G9" s="142"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3520,9 +3563,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="145"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="140"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3532,14 +3575,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="121" t="s">
+      <c r="D13" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -3576,15 +3619,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="136">
+      <c r="G15" s="145">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="136">
+      <c r="H15" s="145">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="139">
+      <c r="I15" s="148">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3604,9 +3647,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="140"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="149"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3623,9 +3666,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="140"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="149"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3642,23 +3685,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="141"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3690,10 +3733,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="148">
+      <c r="D4" s="151">
         <v>20160622</v>
       </c>
-      <c r="E4" s="149"/>
+      <c r="E4" s="152"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -3795,10 +3838,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="148">
+      <c r="D15" s="151">
         <v>20160713</v>
       </c>
-      <c r="E15" s="149"/>
+      <c r="E15" s="152"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -3903,10 +3946,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="148">
+      <c r="D25" s="151">
         <v>20160808</v>
       </c>
-      <c r="E25" s="149"/>
+      <c r="E25" s="152"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4036,10 +4079,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="148">
+      <c r="D35" s="151">
         <v>20160825</v>
       </c>
-      <c r="E35" s="149"/>
+      <c r="E35" s="152"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4251,10 +4294,10 @@
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="148">
+      <c r="D45" s="151">
         <v>20160906</v>
       </c>
-      <c r="E45" s="149"/>
+      <c r="E45" s="152"/>
     </row>
     <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="29" t="s">
@@ -4438,10 +4481,10 @@
     </row>
     <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="148">
+      <c r="D56" s="151">
         <v>20160921</v>
       </c>
-      <c r="E56" s="149"/>
+      <c r="E56" s="152"/>
     </row>
     <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="105" t="s">
@@ -4602,10 +4645,10 @@
     </row>
     <row r="65" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D66" s="148">
+      <c r="D66" s="151">
         <v>20161010</v>
       </c>
-      <c r="E66" s="149"/>
+      <c r="E66" s="152"/>
     </row>
     <row r="67" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="105" t="s">
@@ -5737,18 +5780,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="117">
+      <c r="F4" s="120">
         <v>20160708</v>
       </c>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117">
+      <c r="G4" s="120"/>
+      <c r="H4" s="120">
         <v>20160712</v>
       </c>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117">
+      <c r="I4" s="120"/>
+      <c r="J4" s="120">
         <v>20160808</v>
       </c>
-      <c r="K4" s="117"/>
+      <c r="K4" s="120"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -5806,10 +5849,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="117">
+      <c r="E8" s="120">
         <v>20160810</v>
       </c>
-      <c r="F8" s="117"/>
+      <c r="F8" s="120"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -5883,11 +5926,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="117">
+      <c r="C4" s="120">
         <v>201605</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -5959,19 +6002,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="121">
+      <c r="C11" s="124">
         <v>20160608</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="123"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="126"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -6155,20 +6198,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="118">
+      <c r="C18" s="121">
         <v>20160708</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="120"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="123"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -6387,20 +6430,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="118">
+      <c r="C27" s="121">
         <v>20160808</v>
       </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="120"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="123"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -6605,21 +6648,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="118">
+      <c r="C35" s="121">
         <v>20160825</v>
       </c>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="119"/>
-      <c r="K35" s="119"/>
-      <c r="L35" s="119"/>
-      <c r="M35" s="119"/>
-      <c r="N35" s="119"/>
-      <c r="O35" s="120"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="122"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="123"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -6838,21 +6881,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="118">
+      <c r="C42" s="121">
         <v>20160906</v>
       </c>
-      <c r="D42" s="119"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="119"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="119"/>
-      <c r="K42" s="119"/>
-      <c r="L42" s="119"/>
-      <c r="M42" s="119"/>
-      <c r="N42" s="119"/>
-      <c r="O42" s="120"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="122"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="122"/>
+      <c r="M42" s="122"/>
+      <c r="N42" s="122"/>
+      <c r="O42" s="123"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -7072,21 +7115,21 @@
     <row r="49" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="72"/>
-      <c r="C50" s="118">
+      <c r="C50" s="121">
         <v>20160921</v>
       </c>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="119"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="119"/>
-      <c r="O50" s="120"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="123"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
@@ -7320,10 +7363,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I8"/>
+  <dimension ref="A4:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7349,7 +7392,7 @@
     </row>
     <row r="5" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="B5" s="40"/>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="114" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="41" t="s">
@@ -7358,16 +7401,16 @@
       <c r="E5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="152" t="s">
+      <c r="F5" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="152" t="s">
+      <c r="G5" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="152" t="s">
+      <c r="H5" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="I5" s="152" t="s">
+      <c r="I5" s="116" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7375,7 +7418,7 @@
       <c r="B6" s="40">
         <v>216</v>
       </c>
-      <c r="C6" s="150">
+      <c r="C6" s="114">
         <v>42243.189713341802</v>
       </c>
       <c r="D6" s="66">
@@ -7404,7 +7447,7 @@
       <c r="B7" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="150">
+      <c r="C7" s="114">
         <v>23408.289291309895</v>
       </c>
       <c r="D7" s="66">
@@ -7432,7 +7475,7 @@
       <c r="B8" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="151">
+      <c r="C8" s="115">
         <f>C6+C7</f>
         <v>65651.479004651701</v>
       </c>
@@ -7458,6 +7501,131 @@
       <c r="I8">
         <f>D8/62000-1</f>
         <v>5.8717083002468806E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>20160926</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11">
+        <f>净值!E5</f>
+        <v>0.98263663023073078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B12" s="40"/>
+      <c r="C12" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="116" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="116" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B13" s="40">
+        <v>216</v>
+      </c>
+      <c r="C13" s="114">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="D13" s="66">
+        <f>C11*C13</f>
+        <v>41509.705590115656</v>
+      </c>
+      <c r="E13" s="100">
+        <v>0.66367210802429988</v>
+      </c>
+      <c r="F13">
+        <v>560.38</v>
+      </c>
+      <c r="G13">
+        <v>40000</v>
+      </c>
+      <c r="H13">
+        <f>F13/G13</f>
+        <v>1.4009499999999999E-2</v>
+      </c>
+      <c r="I13">
+        <f>D13/40000-1</f>
+        <v>3.7742639752891494E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B14" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="114">
+        <v>23408.289291309895</v>
+      </c>
+      <c r="D14" s="66">
+        <f>C14*C11</f>
+        <v>23001.842508678856</v>
+      </c>
+      <c r="E14" s="100">
+        <v>0.33632789197570018</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>22000</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>D14/22000-1</f>
+        <v>4.5538295849038901E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="115">
+        <f>C13+C14</f>
+        <v>65651.479004651701</v>
+      </c>
+      <c r="D15" s="68">
+        <f>D13+D14</f>
+        <v>64511.548098794512</v>
+      </c>
+      <c r="E15" s="70">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f>F13+F14</f>
+        <v>560.38</v>
+      </c>
+      <c r="G15">
+        <f>G13+G14</f>
+        <v>62000</v>
+      </c>
+      <c r="H15">
+        <f>F15/G15</f>
+        <v>9.038387096774193E-3</v>
+      </c>
+      <c r="I15">
+        <f>D15/62000-1</f>
+        <v>4.0508840303137283E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7468,23 +7636,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L5"/>
+  <dimension ref="B2:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="6" width="19.83203125" customWidth="1"/>
+    <col min="4" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="11" max="15" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>141</v>
       </c>
@@ -7510,10 +7677,22 @@
         <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+      <c r="L2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>20160908</v>
       </c>
@@ -7541,7 +7720,7 @@
         <v>63640.009151273698</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>20160921</v>
       </c>
@@ -7575,8 +7754,11 @@
         <f>I4*D4</f>
         <v>63648.556366251752</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L4">
+        <v>580.38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>20160926</v>
       </c>
@@ -7612,7 +7794,22 @@
         <f>J5-J4-2000</f>
         <v>-1137.0082674572332</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>560.38</v>
+      </c>
+      <c r="M5">
+        <f>L5/62000</f>
+        <v>9.038387096774193E-3</v>
+      </c>
+      <c r="N5">
+        <f>C5-62000+L5</f>
+        <v>3071.9280987945194</v>
+      </c>
+      <c r="O5">
+        <f>N5/62000</f>
+        <v>4.9547227399911603E-2</v>
+      </c>
+      <c r="P5" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7797,10 +7994,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="J3" s="126" t="s">
+      <c r="J3" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="126"/>
+      <c r="K3" s="129"/>
     </row>
     <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
@@ -7832,7 +8029,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B5" s="124">
+      <c r="B5" s="127">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -7861,7 +8058,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B6" s="125"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="64" t="s">
         <v>147</v>
       </c>
@@ -7930,7 +8127,7 @@
   <dimension ref="B4:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7973,7 +8170,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" s="39" customFormat="1" ht="23" x14ac:dyDescent="0.3">
-      <c r="B5" s="124">
+      <c r="B5" s="127">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -8002,7 +8199,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" s="9" customFormat="1" ht="23" x14ac:dyDescent="0.3">
-      <c r="B6" s="125"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="16" t="s">
         <v>160</v>
       </c>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="177">
   <si>
     <t>黄金基金</t>
   </si>
@@ -1392,6 +1392,17 @@
     <rPh sb="2" eb="3">
       <t>fen'hong'lv</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入</t>
+    <rPh sb="0" eb="1">
+      <t>mai'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2335,6 +2346,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2345,30 +2380,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3037,13 +3048,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -3058,27 +3083,13 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3438,7 +3449,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="143">
+      <c r="E6" s="145">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3446,7 +3457,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="141">
+      <c r="G6" s="149">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3461,15 +3472,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="143">
+      <c r="K6" s="145">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="143">
+      <c r="L6" s="145">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="139">
+      <c r="M6" s="147">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3484,12 +3495,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="143"/>
+      <c r="E7" s="145"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="141"/>
+      <c r="G7" s="149"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3501,9 +3512,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="139"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="147"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3515,12 +3526,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="143"/>
+      <c r="E8" s="145"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="141"/>
+      <c r="G8" s="149"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3532,9 +3543,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="139"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="147"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3546,12 +3557,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="144"/>
+      <c r="E9" s="146"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="142"/>
+      <c r="G9" s="150"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3563,9 +3574,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="140"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="148"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3619,15 +3630,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="145">
+      <c r="G15" s="139">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="145">
+      <c r="H15" s="139">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="148">
+      <c r="I15" s="142">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3647,9 +3658,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="149"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="143"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3666,9 +3677,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="149"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="143"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3685,23 +3696,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="150"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3712,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4679,21 +4690,21 @@
       </c>
       <c r="D68" s="106">
         <f>F68*G68</f>
-        <v>9026.5679999999993</v>
+        <v>8856.4560000000001</v>
       </c>
       <c r="E68" s="107">
         <f>D68/D73</f>
-        <v>0.13992173906874003</v>
+        <v>0.13546364186073614</v>
       </c>
       <c r="F68" s="11">
         <v>8860</v>
       </c>
       <c r="G68" s="9">
-        <v>1.0187999999999999</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="H68" s="11">
         <f>F68*G68</f>
-        <v>9026.5679999999993</v>
+        <v>8856.4560000000001</v>
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
@@ -4702,22 +4713,22 @@
       </c>
       <c r="D69" s="78">
         <f>H69</f>
-        <v>9999.8603419999999</v>
+        <v>9940.3257450000001</v>
       </c>
       <c r="E69" s="53">
         <f>D69/D73</f>
-        <v>0.1550088416214408</v>
+        <v>0.15204193716987191</v>
       </c>
       <c r="F69" s="96">
         <f>9921.98-162.21</f>
         <v>9759.77</v>
       </c>
       <c r="G69" s="9">
-        <v>1.0246</v>
+        <v>1.0185</v>
       </c>
       <c r="H69" s="11">
         <f t="shared" ref="H69:H72" si="3">F69*G69</f>
-        <v>9999.8603419999999</v>
+        <v>9940.3257450000001</v>
       </c>
       <c r="J69" s="88"/>
     </row>
@@ -4727,21 +4738,21 @@
       </c>
       <c r="D70" s="56">
         <f>H70</f>
-        <v>9960.3157499999998</v>
+        <v>10015.467000000001</v>
       </c>
       <c r="E70" s="53">
         <f>D70/D73</f>
-        <v>0.15439585692078781</v>
+        <v>0.15319125785257912</v>
       </c>
       <c r="F70" s="11">
         <v>11030.25</v>
       </c>
       <c r="G70" s="9">
-        <v>0.90300000000000002</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="H70" s="11">
         <f t="shared" si="3"/>
-        <v>9960.3157499999998</v>
+        <v>10015.467000000001</v>
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
@@ -4750,21 +4761,22 @@
       </c>
       <c r="D71" s="56">
         <f>H71</f>
-        <v>10999.153872000001</v>
+        <v>13040.94284</v>
       </c>
       <c r="E71" s="53">
         <f>D71/D73</f>
-        <v>0.17049899120628192</v>
+        <v>0.19946732760870614</v>
       </c>
       <c r="F71" s="11">
-        <v>19351.080000000002</v>
+        <f>19351.08+Operation!H8</f>
+        <v>20932.492520064206</v>
       </c>
       <c r="G71" s="9">
-        <v>0.56840000000000002</v>
+        <v>0.623</v>
       </c>
       <c r="H71" s="11">
         <f t="shared" si="3"/>
-        <v>10999.153872000001</v>
+        <v>13040.94284</v>
       </c>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.3">
@@ -4773,22 +4785,22 @@
       </c>
       <c r="D72" s="108">
         <f>H72</f>
-        <v>24525.65013479452</v>
+        <v>23525.65013479452</v>
       </c>
       <c r="E72" s="53">
         <f>D72/D73</f>
-        <v>0.38017457118274939</v>
+        <v>0.35983583550810661</v>
       </c>
       <c r="F72" s="11">
-        <f>余额宝损益表!I45</f>
-        <v>24525.65013479452</v>
+        <f>余额宝损益表!I46</f>
+        <v>23525.65013479452</v>
       </c>
       <c r="G72" s="9">
         <v>1</v>
       </c>
       <c r="H72" s="11">
         <f t="shared" si="3"/>
-        <v>24525.65013479452</v>
+        <v>23525.65013479452</v>
       </c>
       <c r="J72" s="9">
         <v>-1000</v>
@@ -4800,7 +4812,7 @@
       </c>
       <c r="D73" s="57">
         <f>SUM(D68:D72)</f>
-        <v>64511.548098794519</v>
+        <v>65378.841719794524</v>
       </c>
       <c r="E73" s="54">
         <f>D73/D73</f>
@@ -4955,19 +4967,19 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H7"/>
+  <dimension ref="A2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="35.83203125" customWidth="1"/>
-    <col min="8" max="8" width="37.1640625" customWidth="1"/>
+    <col min="9" max="9" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -4990,10 +5002,13 @@
         <v>60</v>
       </c>
       <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20160722</v>
       </c>
@@ -5006,11 +5021,11 @@
       <c r="D3">
         <v>1000</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20160816</v>
       </c>
@@ -5024,7 +5039,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="23" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>20160816</v>
       </c>
@@ -5038,7 +5053,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20160829</v>
       </c>
@@ -5057,11 +5072,11 @@
       <c r="F6">
         <v>2.29</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20160907</v>
       </c>
@@ -5084,8 +5099,35 @@
         <f>ROUND(E7*D7-F7,2)</f>
         <v>173.52</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20160930</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>0.623</v>
+      </c>
+      <c r="F8">
+        <v>14.78</v>
+      </c>
+      <c r="H8">
+        <f>(D8-F8)/E8</f>
+        <v>1581.4125200642054</v>
+      </c>
+      <c r="I8" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5098,8 +5140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5687,15 +5729,36 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="23" x14ac:dyDescent="0.15">
-      <c r="B46" s="89"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B46" s="89">
+        <v>20160930</v>
+      </c>
+      <c r="C46" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" s="89">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="89">
+        <v>1</v>
+      </c>
+      <c r="G46" s="93">
+        <v>0</v>
+      </c>
+      <c r="H46" s="89">
+        <f>E46</f>
+        <v>1000</v>
+      </c>
+      <c r="I46" s="89">
+        <f>I45-E46</f>
+        <v>23525.65013479452</v>
+      </c>
+      <c r="J46" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5900,7 +5963,7 @@
   <dimension ref="B4:P55"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -7363,10 +7426,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I15"/>
+  <dimension ref="A4:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7628,6 +7691,133 @@
         <v>4.0508840303137283E-2</v>
       </c>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>20161010</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <f>净值!E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B19" s="40"/>
+      <c r="C19" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="116" t="s">
+        <v>168</v>
+      </c>
+      <c r="I19" s="116" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B20" s="40">
+        <v>216</v>
+      </c>
+      <c r="C20" s="114">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="D20" s="66">
+        <f>C18*C20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="100">
+        <f>C20/C22</f>
+        <v>0.64344612419696867</v>
+      </c>
+      <c r="F20">
+        <v>560.38</v>
+      </c>
+      <c r="G20">
+        <v>40000</v>
+      </c>
+      <c r="H20">
+        <f>F20/G20</f>
+        <v>1.4009499999999999E-2</v>
+      </c>
+      <c r="I20">
+        <f>D20/40000-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B21" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="64">
+        <v>23408.289291309895</v>
+      </c>
+      <c r="D21" s="66">
+        <f>C21*C18</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="100">
+        <f>C21/C22</f>
+        <v>0.35655387580303122</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>22000</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>D21/22000-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="115">
+        <f>C20+C21</f>
+        <v>65651.479004651701</v>
+      </c>
+      <c r="D22" s="68">
+        <f>D20+D21</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="70">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f>F20+F21</f>
+        <v>560.38</v>
+      </c>
+      <c r="G22">
+        <f>G20+G21</f>
+        <v>62000</v>
+      </c>
+      <c r="H22">
+        <f>F22/G22</f>
+        <v>9.038387096774193E-3</v>
+      </c>
+      <c r="I22">
+        <f>D22/62000-1</f>
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7636,10 +7826,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P5"/>
+  <dimension ref="B2:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7811,6 +8001,43 @@
       </c>
       <c r="P5" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>20161010</v>
+      </c>
+      <c r="C6">
+        <v>65378.841719794524</v>
+      </c>
+      <c r="D6">
+        <v>65651.479004651701</v>
+      </c>
+      <c r="E6">
+        <f>C6/D6</f>
+        <v>0.99584720269839067</v>
+      </c>
+      <c r="F6">
+        <f>E6-E5</f>
+        <v>1.3210572467659887E-2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>E6-G6</f>
+        <v>0.99584720269839067</v>
+      </c>
+      <c r="J6">
+        <f>I6*D6</f>
+        <v>65378.841719794524</v>
+      </c>
+      <c r="K6">
+        <f>(E6-E5)*D6</f>
+        <v>867.29362100000287</v>
       </c>
     </row>
   </sheetData>
@@ -7973,10 +8200,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K7"/>
+  <dimension ref="B3:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8112,6 +8339,43 @@
         <v>23408.289291309895</v>
       </c>
     </row>
+    <row r="8" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B8" s="48">
+        <v>20161010</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="64">
+        <f>投资者份数权益表!C21</f>
+        <v>23408.289291309895</v>
+      </c>
+      <c r="E8" s="41">
+        <f>净值!E6</f>
+        <v>0.99584720269839067</v>
+      </c>
+      <c r="F8" s="64">
+        <v>0</v>
+      </c>
+      <c r="G8" s="64">
+        <f>D8</f>
+        <v>23408.289291309895</v>
+      </c>
+      <c r="H8" s="64">
+        <f>E8*D8</f>
+        <v>23311.079410705654</v>
+      </c>
+      <c r="K8" s="110">
+        <f>ROUND(E8*D8,2)</f>
+        <v>23311.08</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="H14" s="110">
+        <f>H8-22000</f>
+        <v>1311.0794107056536</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B5:B6"/>
@@ -8126,8 +8390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8224,6 +8488,37 @@
       <c r="K6" s="9">
         <f>H5-F6</f>
         <v>42244.61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B7" s="48">
+        <v>20161010</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="64">
+        <f>投资者份数权益表!C20</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E7" s="41">
+        <f>净值!E6</f>
+        <v>0.99584720269839067</v>
+      </c>
+      <c r="F7" s="64">
+        <v>0</v>
+      </c>
+      <c r="G7" s="64">
+        <f>D7</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H7" s="64">
+        <f>E7*D7</f>
+        <v>42067.762309088866</v>
+      </c>
+      <c r="K7" s="110">
+        <f>ROUND(E7*D7,2)</f>
+        <v>42067.76</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="177">
   <si>
     <t>黄金基金</t>
   </si>
@@ -2346,6 +2346,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2362,24 +2380,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3048,13 +3048,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -3069,27 +3083,13 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3449,7 +3449,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="145">
+      <c r="E6" s="143">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3457,7 +3457,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="149">
+      <c r="G6" s="141">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3472,15 +3472,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="145">
+      <c r="K6" s="143">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="145">
+      <c r="L6" s="143">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="147">
+      <c r="M6" s="139">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3495,12 +3495,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="145"/>
+      <c r="E7" s="143"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="149"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3512,9 +3512,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="147"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="139"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3526,12 +3526,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="145"/>
+      <c r="E8" s="143"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="149"/>
+      <c r="G8" s="141"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3543,9 +3543,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="147"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="139"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3557,12 +3557,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="146"/>
+      <c r="E9" s="144"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="150"/>
+      <c r="G9" s="142"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3574,9 +3574,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="148"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="140"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3630,15 +3630,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="139">
+      <c r="G15" s="145">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="139">
+      <c r="H15" s="145">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="142">
+      <c r="I15" s="148">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3658,9 +3658,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="143"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="149"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3677,9 +3677,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="143"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="149"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3696,23 +3696,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="144"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3723,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4657,7 +4657,7 @@
     <row r="65" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D66" s="151">
-        <v>20161010</v>
+        <v>20161017</v>
       </c>
       <c r="E66" s="152"/>
     </row>
@@ -4690,21 +4690,21 @@
       </c>
       <c r="D68" s="106">
         <f>F68*G68</f>
-        <v>8856.4560000000001</v>
+        <v>8916.7039999999997</v>
       </c>
       <c r="E68" s="107">
         <f>D68/D73</f>
-        <v>0.13546364186073614</v>
+        <v>0.13583162050827591</v>
       </c>
       <c r="F68" s="11">
         <v>8860</v>
       </c>
       <c r="G68" s="9">
-        <v>0.99960000000000004</v>
+        <v>1.0064</v>
       </c>
       <c r="H68" s="11">
         <f>F68*G68</f>
-        <v>8856.4560000000001</v>
+        <v>8916.7039999999997</v>
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
@@ -4713,22 +4713,22 @@
       </c>
       <c r="D69" s="78">
         <f>H69</f>
-        <v>9940.3257450000001</v>
+        <v>9556.7667839999995</v>
       </c>
       <c r="E69" s="53">
         <f>D69/D73</f>
-        <v>0.15204193716987191</v>
+        <v>0.14558194587264359</v>
       </c>
       <c r="F69" s="96">
         <f>9921.98-162.21</f>
         <v>9759.77</v>
       </c>
       <c r="G69" s="9">
-        <v>1.0185</v>
+        <v>0.97919999999999996</v>
       </c>
       <c r="H69" s="11">
         <f t="shared" ref="H69:H72" si="3">F69*G69</f>
-        <v>9940.3257450000001</v>
+        <v>9556.7667839999995</v>
       </c>
       <c r="J69" s="88"/>
     </row>
@@ -4738,21 +4738,21 @@
       </c>
       <c r="D70" s="56">
         <f>H70</f>
-        <v>10015.467000000001</v>
+        <v>10291.223250000001</v>
       </c>
       <c r="E70" s="53">
         <f>D70/D73</f>
-        <v>0.15319125785257912</v>
+        <v>0.15677020691277249</v>
       </c>
       <c r="F70" s="11">
         <v>11030.25</v>
       </c>
       <c r="G70" s="9">
-        <v>0.90800000000000003</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="H70" s="11">
         <f t="shared" si="3"/>
-        <v>10015.467000000001</v>
+        <v>10291.223250000001</v>
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
@@ -4761,22 +4761,22 @@
       </c>
       <c r="D71" s="56">
         <f>H71</f>
-        <v>13040.94284</v>
+        <v>13354.930227800964</v>
       </c>
       <c r="E71" s="53">
         <f>D71/D73</f>
-        <v>0.19946732760870614</v>
+        <v>0.20344084704585499</v>
       </c>
       <c r="F71" s="11">
         <f>19351.08+Operation!H8</f>
         <v>20932.492520064206</v>
       </c>
       <c r="G71" s="9">
-        <v>0.623</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="H71" s="11">
         <f t="shared" si="3"/>
-        <v>13040.94284</v>
+        <v>13354.930227800964</v>
       </c>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.3">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="E72" s="53">
         <f>D72/D73</f>
-        <v>0.35983583550810661</v>
+        <v>0.35837537966045296</v>
       </c>
       <c r="F72" s="11">
         <f>余额宝损益表!I46</f>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="D73" s="57">
         <f>SUM(D68:D72)</f>
-        <v>65378.841719794524</v>
+        <v>65645.274396595487</v>
       </c>
       <c r="E73" s="54">
         <f>D73/D73</f>
@@ -4970,7 +4970,7 @@
   <dimension ref="A2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5141,7 +5141,7 @@
   <dimension ref="B2:J46"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7428,8 +7428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7826,16 +7826,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P6"/>
+  <dimension ref="B2:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="10" width="21.5" customWidth="1"/>
     <col min="11" max="15" width="13.5" customWidth="1"/>
@@ -8038,6 +8039,43 @@
       <c r="K6">
         <f>(E6-E5)*D6</f>
         <v>867.29362100000287</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>20161017</v>
+      </c>
+      <c r="C7">
+        <v>65645.274396595487</v>
+      </c>
+      <c r="D7">
+        <v>65651.479004651701</v>
+      </c>
+      <c r="E7">
+        <f>C7/D7</f>
+        <v>0.99990549172463006</v>
+      </c>
+      <c r="F7">
+        <f>E7-I4</f>
+        <v>-6.0937490169887809E-5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>E7-G7</f>
+        <v>0.99990549172463006</v>
+      </c>
+      <c r="J7">
+        <f>I7*D7</f>
+        <v>65645.274396595487</v>
+      </c>
+      <c r="K7">
+        <f>(E7-E6)*D7</f>
+        <v>266.43267680096386</v>
       </c>
     </row>
   </sheetData>
@@ -8203,7 +8241,7 @@
   <dimension ref="B3:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8370,6 +8408,31 @@
         <v>23311.08</v>
       </c>
     </row>
+    <row r="9" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B9" s="48">
+        <v>20161017</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="64">
+        <v>23408.289291309895</v>
+      </c>
+      <c r="E9" s="41">
+        <v>0.99990549172463006</v>
+      </c>
+      <c r="F9" s="64">
+        <v>0</v>
+      </c>
+      <c r="G9" s="64">
+        <f>D9</f>
+        <v>23408.289291309895</v>
+      </c>
+      <c r="H9" s="64">
+        <f>E9*D9</f>
+        <v>23406.077014259612</v>
+      </c>
+    </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="H14" s="110">
         <f>H8-22000</f>
@@ -8391,7 +8454,7 @@
   <dimension ref="B4:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8519,6 +8582,31 @@
       <c r="K7" s="110">
         <f>ROUND(E7*D7,2)</f>
         <v>42067.76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B8" s="48">
+        <v>20161017</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0.99990549172463006</v>
+      </c>
+      <c r="F8" s="64">
+        <v>0</v>
+      </c>
+      <c r="G8" s="64">
+        <f>D8</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H8" s="64">
+        <f>E8*D8</f>
+        <v>42239.197382335871</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="181">
   <si>
     <t>黄金基金</t>
   </si>
@@ -1202,10 +1202,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>·</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
       <t>ri'qi</t>
@@ -1403,6 +1399,38 @@
   </si>
   <si>
     <t>OUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息</t>
+    <rPh sb="0" eb="1">
+      <t>li'xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rand认购1000</t>
+    <rPh sb="4" eb="5">
+      <t>ren'gou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计收益</t>
+    <rPh sb="0" eb="1">
+      <t>lei'ji'shou'yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红率</t>
+    <rPh sb="0" eb="1">
+      <t>fen'hong'lv</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1978,7 +2006,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2282,6 +2310,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2346,6 +2380,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2356,30 +2414,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2843,174 +2877,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="118">
+      <c r="D17" s="120">
         <v>7000</v>
       </c>
-      <c r="E17" s="119">
+      <c r="E17" s="121">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="117">
+      <c r="G17" s="119">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="118">
+      <c r="D19" s="120">
         <v>10000</v>
       </c>
-      <c r="E19" s="119">
+      <c r="E19" s="121">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="118" t="s">
+      <c r="C21" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="118">
+      <c r="D21" s="120">
         <v>10000</v>
       </c>
-      <c r="E21" s="119">
+      <c r="E21" s="121">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="118" t="s">
+      <c r="C23" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="118">
+      <c r="D23" s="120">
         <v>10000</v>
       </c>
-      <c r="E23" s="119">
+      <c r="E23" s="121">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="119"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="118" t="s">
+      <c r="C25" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="118">
+      <c r="D25" s="120">
         <v>1000</v>
       </c>
-      <c r="E25" s="119">
+      <c r="E25" s="121">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="118" t="s">
+      <c r="B27" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="118" t="s">
+      <c r="C27" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="118">
+      <c r="D27" s="120">
         <v>22000</v>
       </c>
-      <c r="E27" s="119">
+      <c r="E27" s="121">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="119"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -3048,13 +3082,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -3069,27 +3117,13 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3120,27 +3154,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3173,12 +3207,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="137"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="139"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3213,12 +3247,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="137"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="139"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3253,12 +3287,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="137"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="139"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3300,13 +3334,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="132"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="134"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3389,20 +3423,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="124" t="s">
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="126"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="128"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3449,7 +3483,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="143">
+      <c r="E6" s="147">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3457,7 +3491,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="141">
+      <c r="G6" s="151">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3472,15 +3506,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="143">
+      <c r="K6" s="147">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="143">
+      <c r="L6" s="147">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="139">
+      <c r="M6" s="149">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3495,12 +3529,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="143"/>
+      <c r="E7" s="147"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="141"/>
+      <c r="G7" s="151"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3512,9 +3546,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="139"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="149"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3526,12 +3560,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="143"/>
+      <c r="E8" s="147"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="141"/>
+      <c r="G8" s="151"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3543,9 +3577,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="139"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="149"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3557,12 +3591,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="144"/>
+      <c r="E9" s="148"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="142"/>
+      <c r="G9" s="152"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3574,9 +3608,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="140"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="150"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3586,14 +3620,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="124" t="s">
+      <c r="D13" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -3630,15 +3664,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="145">
+      <c r="G15" s="141">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="145">
+      <c r="H15" s="141">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="148">
+      <c r="I15" s="144">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3658,9 +3692,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="149"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="145"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3677,9 +3711,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="149"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="145"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3696,23 +3730,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="150"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3721,10 +3755,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J73"/>
+  <dimension ref="C3:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -3744,10 +3778,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="151">
+      <c r="D4" s="153">
         <v>20160622</v>
       </c>
-      <c r="E4" s="152"/>
+      <c r="E4" s="154"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -3849,10 +3883,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="151">
+      <c r="D15" s="153">
         <v>20160713</v>
       </c>
-      <c r="E15" s="152"/>
+      <c r="E15" s="154"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -3957,10 +3991,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="151">
+      <c r="D25" s="153">
         <v>20160808</v>
       </c>
-      <c r="E25" s="152"/>
+      <c r="E25" s="154"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4090,10 +4124,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="151">
+      <c r="D35" s="153">
         <v>20160825</v>
       </c>
-      <c r="E35" s="152"/>
+      <c r="E35" s="154"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4305,10 +4339,10 @@
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="151">
+      <c r="D45" s="153">
         <v>20160906</v>
       </c>
-      <c r="E45" s="152"/>
+      <c r="E45" s="154"/>
     </row>
     <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="29" t="s">
@@ -4492,10 +4526,10 @@
     </row>
     <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="151">
+      <c r="D56" s="153">
         <v>20160921</v>
       </c>
-      <c r="E56" s="152"/>
+      <c r="E56" s="154"/>
     </row>
     <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="105" t="s">
@@ -4656,10 +4690,10 @@
     </row>
     <row r="65" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D66" s="151">
+      <c r="D66" s="153">
         <v>20161017</v>
       </c>
-      <c r="E66" s="152"/>
+      <c r="E66" s="154"/>
     </row>
     <row r="67" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="105" t="s">
@@ -4678,7 +4712,7 @@
         <v>80</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J67" s="9" t="s">
         <v>88</v>
@@ -4819,8 +4853,170 @@
         <v>1</v>
       </c>
     </row>
+    <row r="74" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D75" s="153">
+        <v>20161117</v>
+      </c>
+      <c r="E75" s="154"/>
+    </row>
+    <row r="76" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D76" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="117" t="s">
+        <v>42</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="106">
+        <f>F77*G77</f>
+        <v>9006.19</v>
+      </c>
+      <c r="E77" s="107">
+        <f>D77/D82</f>
+        <v>0.12573360774307302</v>
+      </c>
+      <c r="F77" s="11">
+        <v>8860</v>
+      </c>
+      <c r="G77" s="9">
+        <v>1.0165</v>
+      </c>
+      <c r="H77" s="11">
+        <f>F77*G77</f>
+        <v>9006.19</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="78">
+        <f>H78</f>
+        <v>9657.2924150000017</v>
+      </c>
+      <c r="E78" s="53">
+        <f>D78/D82</f>
+        <v>0.13482351764372777</v>
+      </c>
+      <c r="F78" s="96">
+        <f>9921.98-162.21</f>
+        <v>9759.77</v>
+      </c>
+      <c r="G78" s="9">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="H78" s="11">
+        <f t="shared" ref="H78:H80" si="4">F78*G78</f>
+        <v>9657.2924150000017</v>
+      </c>
+      <c r="J78" s="88"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="56">
+        <f>H79</f>
+        <v>10291.223250000001</v>
+      </c>
+      <c r="E79" s="53">
+        <f>D79/D82</f>
+        <v>0.14367369856863926</v>
+      </c>
+      <c r="F79" s="11">
+        <v>11030.25</v>
+      </c>
+      <c r="G79" s="9">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="H79" s="11">
+        <f t="shared" si="4"/>
+        <v>10291.223250000001</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="56">
+        <f>H80</f>
+        <v>13124.672810080257</v>
+      </c>
+      <c r="E80" s="53">
+        <f>D80/D82</f>
+        <v>0.18323091816393025</v>
+      </c>
+      <c r="F80" s="11">
+        <v>20932.492520064206</v>
+      </c>
+      <c r="G80" s="9">
+        <v>0.627</v>
+      </c>
+      <c r="H80" s="11">
+        <f t="shared" si="4"/>
+        <v>13124.672810080257</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C81" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81" s="11">
+        <v>29549.759999999998</v>
+      </c>
+      <c r="E81" s="53">
+        <f>D81/D82</f>
+        <v>0.41253825788062981</v>
+      </c>
+      <c r="F81" s="11">
+        <v>29549.759999999998</v>
+      </c>
+      <c r="G81" s="9">
+        <v>1</v>
+      </c>
+      <c r="H81" s="11">
+        <v>29549.759999999998</v>
+      </c>
+      <c r="J81" s="9">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="57">
+        <f>SUM(D77:D81)</f>
+        <v>71629.138475080254</v>
+      </c>
+      <c r="E82" s="54">
+        <f>D82/D82</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="D75:E75"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D4:E4"/>
@@ -5127,7 +5323,7 @@
         <v>1581.4125200642054</v>
       </c>
       <c r="I8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5138,10 +5334,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J46"/>
+  <dimension ref="B2:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5641,7 +5837,7 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C40">
         <v>22499.759999999998</v>
@@ -5665,7 +5861,7 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C43">
         <f>C42*(1+0.02/365*21)</f>
@@ -5706,7 +5902,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E45" s="89">
         <v>2000</v>
@@ -5726,7 +5922,7 @@
         <v>24525.65013479452</v>
       </c>
       <c r="J45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
@@ -5737,7 +5933,7 @@
         <v>38</v>
       </c>
       <c r="D46" s="94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E46" s="89">
         <v>1000</v>
@@ -5757,7 +5953,125 @@
         <v>23525.65013479452</v>
       </c>
       <c r="J46" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B49" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49" s="89" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B50" s="89">
+        <v>20161010</v>
+      </c>
+      <c r="C50" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="94" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" s="89">
+        <f>23525.65*0.022/365*17</f>
+        <v>24.105734520547948</v>
+      </c>
+      <c r="F50" s="89">
+        <v>1</v>
+      </c>
+      <c r="G50" s="93">
+        <v>0</v>
+      </c>
+      <c r="H50" s="89">
+        <f>E50</f>
+        <v>24.105734520547948</v>
+      </c>
+      <c r="I50" s="89">
+        <f>23525.65+E50</f>
+        <v>23549.75573452055</v>
+      </c>
+      <c r="J50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B51" s="89">
+        <v>20160930</v>
+      </c>
+      <c r="C51" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="94" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="89">
+        <v>1000</v>
+      </c>
+      <c r="F51" s="89">
+        <v>1</v>
+      </c>
+      <c r="G51" s="93">
+        <v>0</v>
+      </c>
+      <c r="H51" s="89">
+        <f>E51</f>
+        <v>1000</v>
+      </c>
+      <c r="I51" s="89">
+        <v>24549.759999999998</v>
+      </c>
+      <c r="J51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B52" s="89">
+        <v>20161019</v>
+      </c>
+      <c r="C52" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="89">
+        <v>5000</v>
+      </c>
+      <c r="F52" s="89">
+        <v>1</v>
+      </c>
+      <c r="G52" s="93">
+        <v>0</v>
+      </c>
+      <c r="H52" s="89">
+        <f>E52</f>
+        <v>5000</v>
+      </c>
+      <c r="I52" s="89">
+        <v>29549.759999999998</v>
+      </c>
+      <c r="J52" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5843,18 +6157,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="120">
+      <c r="F4" s="122">
         <v>20160708</v>
       </c>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120">
+      <c r="G4" s="122"/>
+      <c r="H4" s="122">
         <v>20160712</v>
       </c>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120">
+      <c r="I4" s="122"/>
+      <c r="J4" s="122">
         <v>20160808</v>
       </c>
-      <c r="K4" s="120"/>
+      <c r="K4" s="122"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -5912,10 +6226,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="120">
+      <c r="E8" s="122">
         <v>20160810</v>
       </c>
-      <c r="F8" s="120"/>
+      <c r="F8" s="122"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -5989,11 +6303,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="120">
+      <c r="C4" s="122">
         <v>201605</v>
       </c>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -6065,19 +6379,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="124">
+      <c r="C11" s="126">
         <v>20160608</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="126"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="128"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -6261,20 +6575,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="121">
+      <c r="C18" s="123">
         <v>20160708</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="123"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="125"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -6493,20 +6807,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="121">
+      <c r="C27" s="123">
         <v>20160808</v>
       </c>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="122"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="123"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="125"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -6711,21 +7025,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="121">
+      <c r="C35" s="123">
         <v>20160825</v>
       </c>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="122"/>
-      <c r="M35" s="122"/>
-      <c r="N35" s="122"/>
-      <c r="O35" s="123"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="124"/>
+      <c r="M35" s="124"/>
+      <c r="N35" s="124"/>
+      <c r="O35" s="125"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -6944,21 +7258,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="121">
+      <c r="C42" s="123">
         <v>20160906</v>
       </c>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="122"/>
-      <c r="G42" s="122"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="122"/>
-      <c r="L42" s="122"/>
-      <c r="M42" s="122"/>
-      <c r="N42" s="122"/>
-      <c r="O42" s="123"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="124"/>
+      <c r="L42" s="124"/>
+      <c r="M42" s="124"/>
+      <c r="N42" s="124"/>
+      <c r="O42" s="125"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -7178,21 +7492,21 @@
     <row r="49" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="72"/>
-      <c r="C50" s="121">
+      <c r="C50" s="123">
         <v>20160921</v>
       </c>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="122"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="122"/>
-      <c r="M50" s="122"/>
-      <c r="N50" s="122"/>
-      <c r="O50" s="123"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="124"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="124"/>
+      <c r="L50" s="124"/>
+      <c r="M50" s="124"/>
+      <c r="N50" s="124"/>
+      <c r="O50" s="125"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
@@ -7426,10 +7740,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I22"/>
+  <dimension ref="A4:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7465,16 +7779,16 @@
         <v>42</v>
       </c>
       <c r="F5" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="116" t="s">
+      <c r="H5" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="I5" s="116" t="s">
         <v>168</v>
-      </c>
-      <c r="I5" s="116" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="23" x14ac:dyDescent="0.3">
@@ -7590,16 +7904,16 @@
         <v>42</v>
       </c>
       <c r="F12" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="116" t="s">
+      <c r="H12" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="116" t="s">
+      <c r="I12" s="116" t="s">
         <v>168</v>
-      </c>
-      <c r="I12" s="116" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="23" x14ac:dyDescent="0.3">
@@ -7715,16 +8029,16 @@
         <v>42</v>
       </c>
       <c r="F19" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="116" t="s">
+      <c r="H19" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="H19" s="116" t="s">
+      <c r="I19" s="116" t="s">
         <v>168</v>
-      </c>
-      <c r="I19" s="116" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="23" x14ac:dyDescent="0.3">
@@ -7815,6 +8129,260 @@
       </c>
       <c r="I22">
         <f>D22/62000-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>201611018</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24">
+        <f>净值!E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B25" s="40"/>
+      <c r="C25" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="116" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B26" s="40">
+        <v>216</v>
+      </c>
+      <c r="C26" s="114">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="D26" s="66">
+        <f>C24*C26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="100">
+        <f>C26/C28</f>
+        <v>0.63379133426590895</v>
+      </c>
+      <c r="F26">
+        <v>560.38</v>
+      </c>
+      <c r="G26">
+        <v>40000</v>
+      </c>
+      <c r="H26">
+        <f>F26/G26</f>
+        <v>1.4009499999999999E-2</v>
+      </c>
+      <c r="I26">
+        <f>D26/40000-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B27" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="64">
+        <v>24408.383808517923</v>
+      </c>
+      <c r="D27" s="66">
+        <f>C27*C24</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="100">
+        <f>C27/C28</f>
+        <v>0.36620866573409105</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>22000</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>D27/22000-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="115">
+        <f>C26+C27</f>
+        <v>66651.573521859726</v>
+      </c>
+      <c r="D28" s="68">
+        <f>D26+D27</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="70">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f>F26+F27</f>
+        <v>560.38</v>
+      </c>
+      <c r="G28">
+        <f>G26+G27</f>
+        <v>62000</v>
+      </c>
+      <c r="H28">
+        <f>F28/G28</f>
+        <v>9.038387096774193E-3</v>
+      </c>
+      <c r="I28">
+        <f>D28/62000-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>201611019</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29">
+        <f>净值!E23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B30" s="40"/>
+      <c r="C30" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" s="116" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B31" s="40">
+        <v>216</v>
+      </c>
+      <c r="C31" s="114">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="D31" s="66">
+        <f>C29*C31</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="100">
+        <f>C31/C33</f>
+        <v>0.58956013132867613</v>
+      </c>
+      <c r="F31">
+        <v>560.38</v>
+      </c>
+      <c r="G31">
+        <v>40000</v>
+      </c>
+      <c r="H31">
+        <f>F31/G31</f>
+        <v>1.4009499999999999E-2</v>
+      </c>
+      <c r="I31">
+        <f>D31/40000-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B32" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="64">
+        <v>29408.856394558064</v>
+      </c>
+      <c r="D32" s="66">
+        <f>C32*C29</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="100">
+        <f>C32/C33</f>
+        <v>0.41043986867132387</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>22000</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>D32/22000-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="115">
+        <f>C31+C32</f>
+        <v>71652.046107899863</v>
+      </c>
+      <c r="D33" s="68">
+        <f>D31+D32</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="70">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f>F31+F32</f>
+        <v>560.38</v>
+      </c>
+      <c r="G33">
+        <f>G31+G32</f>
+        <v>62000</v>
+      </c>
+      <c r="H33">
+        <f>F33/G33</f>
+        <v>9.038387096774193E-3</v>
+      </c>
+      <c r="I33">
+        <f>D33/62000-1</f>
         <v>-1</v>
       </c>
     </row>
@@ -7826,10 +8394,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P7"/>
+  <dimension ref="B2:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7868,19 +8436,19 @@
         <v>140</v>
       </c>
       <c r="K2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" t="s">
         <v>173</v>
       </c>
-      <c r="L2" t="s">
-        <v>166</v>
-      </c>
-      <c r="M2" t="s">
-        <v>174</v>
-      </c>
       <c r="N2" t="s">
+        <v>170</v>
+      </c>
+      <c r="O2" t="s">
         <v>171</v>
-      </c>
-      <c r="O2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
@@ -8001,7 +8569,7 @@
         <v>4.9547227399911603E-2</v>
       </c>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
@@ -8076,6 +8644,80 @@
       <c r="K7">
         <f>(E7-E6)*D7</f>
         <v>266.43267680096386</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>20161019</v>
+      </c>
+      <c r="C8">
+        <v>71387.021902600318</v>
+      </c>
+      <c r="D8">
+        <v>71652.046107899863</v>
+      </c>
+      <c r="E8">
+        <f>C8/D8</f>
+        <v>0.99630123325577546</v>
+      </c>
+      <c r="F8">
+        <f>E8-E7</f>
+        <v>-3.6042584688545931E-3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>E8-G8</f>
+        <v>0.99630123325577546</v>
+      </c>
+      <c r="J8">
+        <f>I8*D8</f>
+        <v>71387.021902600318</v>
+      </c>
+      <c r="K8">
+        <f>(E8-E7)*D8</f>
+        <v>-258.25249399515786</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>20161020</v>
+      </c>
+      <c r="C9">
+        <v>71629.138475080254</v>
+      </c>
+      <c r="D9">
+        <v>71652.046107899863</v>
+      </c>
+      <c r="E9">
+        <f>C9/D9</f>
+        <v>0.99968029338917808</v>
+      </c>
+      <c r="F9">
+        <f>E9-E8</f>
+        <v>3.3790601334026116E-3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>E9-G9</f>
+        <v>0.99968029338917808</v>
+      </c>
+      <c r="J9">
+        <f>I9*D9</f>
+        <v>71629.138475080254</v>
+      </c>
+      <c r="K9">
+        <f>(E9-E8)*D9</f>
+        <v>242.1165724799302</v>
       </c>
     </row>
   </sheetData>
@@ -8241,7 +8883,7 @@
   <dimension ref="B3:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8259,17 +8901,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="J3" s="129" t="s">
-        <v>158</v>
-      </c>
-      <c r="K3" s="129"/>
+      <c r="J3" s="131" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="113" t="s">
         <v>154</v>
-      </c>
-      <c r="C4" s="113" t="s">
-        <v>155</v>
       </c>
       <c r="D4" s="113" t="s">
         <v>23</v>
@@ -8281,7 +8923,7 @@
         <v>151</v>
       </c>
       <c r="G4" s="113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H4" s="113" t="s">
         <v>152</v>
@@ -8290,11 +8932,11 @@
         <v>23</v>
       </c>
       <c r="K4" s="113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B5" s="127">
+      <c r="B5" s="129">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -8323,7 +8965,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B6" s="128"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="64" t="s">
         <v>147</v>
       </c>
@@ -8353,7 +8995,7 @@
         <v>20160923</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" s="64">
         <f>F7/E7</f>
@@ -8431,6 +9073,85 @@
       <c r="H9" s="64">
         <f>E9*D9</f>
         <v>23406.077014259612</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B10" s="48">
+        <v>20161018</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="64">
+        <f>1000/E9</f>
+        <v>1000.0945172080283</v>
+      </c>
+      <c r="E10" s="41">
+        <v>0.99990549172463006</v>
+      </c>
+      <c r="F10" s="64">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="64">
+        <f>G9+D10</f>
+        <v>24408.383808517923</v>
+      </c>
+      <c r="H10" s="64">
+        <f>E10*G10</f>
+        <v>24406.077014259612</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B11" s="48">
+        <v>20161019</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="64">
+        <f>5000/E10</f>
+        <v>5000.4725860401413</v>
+      </c>
+      <c r="E11" s="41">
+        <v>0.99990549172463006</v>
+      </c>
+      <c r="F11" s="64">
+        <v>5000</v>
+      </c>
+      <c r="G11" s="64">
+        <f>G10+D11</f>
+        <v>29408.856394558064</v>
+      </c>
+      <c r="H11" s="64">
+        <f>E11*G11</f>
+        <v>29406.077014259612</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B12" s="48">
+        <v>20161020</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="64">
+        <f>5000/E11</f>
+        <v>5000.4725860401413</v>
+      </c>
+      <c r="E12" s="41">
+        <f>净值!E9</f>
+        <v>0.99968029338917808</v>
+      </c>
+      <c r="F12" s="64">
+        <v>5000</v>
+      </c>
+      <c r="G12" s="64">
+        <f>G11+D12</f>
+        <v>34409.328980598206</v>
+      </c>
+      <c r="H12" s="64">
+        <f>E12*G12</f>
+        <v>34398.328090649164</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
@@ -8451,28 +9172,32 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:K9"/>
+  <dimension ref="B3:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="27.83203125" customWidth="1"/>
+    <col min="8" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:15" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="113" t="s">
         <v>154</v>
-      </c>
-      <c r="C4" s="113" t="s">
-        <v>155</v>
       </c>
       <c r="D4" s="113" t="s">
         <v>23</v>
@@ -8484,20 +9209,32 @@
         <v>151</v>
       </c>
       <c r="G4" s="113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H4" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="112" t="s">
+      <c r="I4" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" s="118" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" s="118" t="s">
+        <v>180</v>
+      </c>
+      <c r="N4" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="113" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" s="39" customFormat="1" ht="23" x14ac:dyDescent="0.3">
-      <c r="B5" s="127">
+      <c r="O4" s="113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" s="39" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="129">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -8520,15 +9257,19 @@
         <f>ROUND(42243.1897133418,2)</f>
         <v>42243.19</v>
       </c>
-      <c r="K5" s="39">
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="O5" s="39">
         <f>G5*E5</f>
         <v>42243.189713341802</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="9" customFormat="1" ht="23" x14ac:dyDescent="0.3">
-      <c r="B6" s="128"/>
+    <row r="6" spans="2:15" s="9" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="130"/>
       <c r="C6" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="16">
         <v>42243.189713341802</v>
@@ -8548,12 +9289,16 @@
         <f>ROUND(G6*E6,2)</f>
         <v>42241.77</v>
       </c>
-      <c r="K6" s="9">
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="O6" s="9">
         <f>H5-F6</f>
         <v>42244.61</v>
       </c>
     </row>
-    <row r="7" spans="2:11" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" s="110" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="48">
         <v>20161010</v>
       </c>
@@ -8579,12 +9324,16 @@
         <f>E7*D7</f>
         <v>42067.762309088866</v>
       </c>
-      <c r="K7" s="110">
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="O7" s="110">
         <f>ROUND(E7*D7,2)</f>
         <v>42067.76</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" s="110" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="48">
         <v>20161017</v>
       </c>
@@ -8598,7 +9347,8 @@
         <v>0.99990549172463006</v>
       </c>
       <c r="F8" s="64">
-        <v>0</v>
+        <f>E8*D8-H7</f>
+        <v>171.43507324700477</v>
       </c>
       <c r="G8" s="64">
         <f>D8</f>
@@ -8608,12 +9358,103 @@
         <f>E8*D8</f>
         <v>42239.197382335871</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F9" t="s">
-        <v>153</v>
-      </c>
-    </row>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+    </row>
+    <row r="9" spans="2:15" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B9" s="48">
+        <v>20161019</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E9" s="41">
+        <v>0.99630123325577546</v>
+      </c>
+      <c r="F9" s="64">
+        <f>E9*D9-H8</f>
+        <v>-152.25537427574454</v>
+      </c>
+      <c r="G9" s="64">
+        <f>D9</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H9" s="64">
+        <f>E9*D9</f>
+        <v>42086.942008060127</v>
+      </c>
+      <c r="I9" s="64">
+        <f>H9-40000+560.38</f>
+        <v>2647.3220080601268</v>
+      </c>
+      <c r="J9" s="64">
+        <f>I9/40000</f>
+        <v>6.6183050201503169E-2</v>
+      </c>
+      <c r="K9" s="64">
+        <v>560.38</v>
+      </c>
+      <c r="L9" s="64">
+        <f>560.38/40000</f>
+        <v>1.4009499999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B10" s="48">
+        <v>20161020</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E10" s="41">
+        <f>净值!E9</f>
+        <v>0.99968029338917808</v>
+      </c>
+      <c r="F10" s="64">
+        <f>E10*D10-H9</f>
+        <v>142.74227826811693</v>
+      </c>
+      <c r="G10" s="64">
+        <f>D10</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H10" s="64">
+        <f>E10*D10</f>
+        <v>42229.684286328244</v>
+      </c>
+      <c r="I10" s="64">
+        <f>H10-40000+560.38</f>
+        <v>2790.0642863282437</v>
+      </c>
+      <c r="J10" s="64">
+        <f>I10/40000</f>
+        <v>6.9751607158206094E-2</v>
+      </c>
+      <c r="K10" s="64">
+        <v>560.38</v>
+      </c>
+      <c r="L10" s="64">
+        <f>560.38/40000</f>
+        <v>1.4009499999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:B6"/>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="181">
   <si>
     <t>黄金基金</t>
   </si>
@@ -2006,7 +2006,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2316,6 +2316,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2380,6 +2383,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2396,24 +2417,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2877,174 +2880,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="120" t="s">
+      <c r="C17" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="120">
+      <c r="D17" s="121">
         <v>7000</v>
       </c>
-      <c r="E17" s="121">
+      <c r="E17" s="122">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="119">
+      <c r="G17" s="120">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="122"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="120" t="s">
+      <c r="B19" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="120">
+      <c r="D19" s="121">
         <v>10000</v>
       </c>
-      <c r="E19" s="121">
+      <c r="E19" s="122">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="120" t="s">
+      <c r="C21" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="120">
+      <c r="D21" s="121">
         <v>10000</v>
       </c>
-      <c r="E21" s="121">
+      <c r="E21" s="122">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="121"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="122"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="120">
+      <c r="D23" s="121">
         <v>10000</v>
       </c>
-      <c r="E23" s="121">
+      <c r="E23" s="122">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="122"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="120" t="s">
+      <c r="C25" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="120">
+      <c r="D25" s="121">
         <v>1000</v>
       </c>
-      <c r="E25" s="121">
+      <c r="E25" s="122">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="122"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="120">
+      <c r="D27" s="121">
         <v>22000</v>
       </c>
-      <c r="E27" s="121">
+      <c r="E27" s="122">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="121"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="122"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -3082,13 +3085,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -3103,27 +3120,13 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3154,27 +3157,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3207,12 +3210,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="140"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3247,12 +3250,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="140"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3287,12 +3290,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="137" t="s">
+      <c r="C16" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="140"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3334,13 +3337,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="135"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3423,20 +3426,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="126" t="s">
+      <c r="D4" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="126" t="s">
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3483,7 +3486,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="147">
+      <c r="E6" s="146">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3491,7 +3494,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="151">
+      <c r="G6" s="144">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3506,15 +3509,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="147">
+      <c r="K6" s="146">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="147">
+      <c r="L6" s="146">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="149">
+      <c r="M6" s="142">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3529,12 +3532,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="147"/>
+      <c r="E7" s="146"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="151"/>
+      <c r="G7" s="144"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3546,9 +3549,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="149"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="142"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3560,12 +3563,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="147"/>
+      <c r="E8" s="146"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="151"/>
+      <c r="G8" s="144"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3577,9 +3580,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="149"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="142"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3591,12 +3594,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="148"/>
+      <c r="E9" s="147"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="152"/>
+      <c r="G9" s="145"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3608,9 +3611,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="150"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="143"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3620,14 +3623,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="126" t="s">
+      <c r="D13" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="129"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -3664,15 +3667,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="141">
+      <c r="G15" s="148">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="141">
+      <c r="H15" s="148">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="144">
+      <c r="I15" s="151">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3692,9 +3695,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="145"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="152"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3711,9 +3714,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="145"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="152"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3730,23 +3733,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="146"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3755,10 +3758,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J82"/>
+  <dimension ref="C3:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -3778,10 +3781,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="153">
+      <c r="D4" s="154">
         <v>20160622</v>
       </c>
-      <c r="E4" s="154"/>
+      <c r="E4" s="155"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -3883,10 +3886,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="153">
+      <c r="D15" s="154">
         <v>20160713</v>
       </c>
-      <c r="E15" s="154"/>
+      <c r="E15" s="155"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -3991,10 +3994,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="153">
+      <c r="D25" s="154">
         <v>20160808</v>
       </c>
-      <c r="E25" s="154"/>
+      <c r="E25" s="155"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4124,10 +4127,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="153">
+      <c r="D35" s="154">
         <v>20160825</v>
       </c>
-      <c r="E35" s="154"/>
+      <c r="E35" s="155"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4339,10 +4342,10 @@
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="153">
+      <c r="D45" s="154">
         <v>20160906</v>
       </c>
-      <c r="E45" s="154"/>
+      <c r="E45" s="155"/>
     </row>
     <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="29" t="s">
@@ -4526,10 +4529,10 @@
     </row>
     <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="153">
+      <c r="D56" s="154">
         <v>20160921</v>
       </c>
-      <c r="E56" s="154"/>
+      <c r="E56" s="155"/>
     </row>
     <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="105" t="s">
@@ -4690,10 +4693,10 @@
     </row>
     <row r="65" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D66" s="153">
+      <c r="D66" s="154">
         <v>20161017</v>
       </c>
-      <c r="E66" s="154"/>
+      <c r="E66" s="155"/>
     </row>
     <row r="67" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="105" t="s">
@@ -4855,10 +4858,10 @@
     </row>
     <row r="74" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D75" s="153">
-        <v>20161117</v>
-      </c>
-      <c r="E75" s="154"/>
+      <c r="D75" s="154">
+        <v>20161020</v>
+      </c>
+      <c r="E75" s="155"/>
     </row>
     <row r="76" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D76" s="105" t="s">
@@ -5014,8 +5017,170 @@
         <v>1</v>
       </c>
     </row>
+    <row r="83" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D84" s="154">
+        <v>201610207</v>
+      </c>
+      <c r="E84" s="155"/>
+    </row>
+    <row r="85" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D85" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="119" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="106">
+        <f>F86*G86</f>
+        <v>9066.4380000000001</v>
+      </c>
+      <c r="E86" s="107">
+        <f>D86/D91</f>
+        <v>0.1264039394800372</v>
+      </c>
+      <c r="F86" s="11">
+        <v>8860</v>
+      </c>
+      <c r="G86" s="9">
+        <v>1.0233000000000001</v>
+      </c>
+      <c r="H86" s="11">
+        <f>F86*G86</f>
+        <v>9066.4380000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="78">
+        <f>H87</f>
+        <v>9742.2024139999994</v>
+      </c>
+      <c r="E87" s="53">
+        <f>D87/D91</f>
+        <v>0.13582542166411199</v>
+      </c>
+      <c r="F87" s="96">
+        <f>9921.98-162.21</f>
+        <v>9759.77</v>
+      </c>
+      <c r="G87" s="9">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="H87" s="11">
+        <f t="shared" ref="H87:H89" si="5">F87*G87</f>
+        <v>9742.2024139999994</v>
+      </c>
+      <c r="J87" s="88"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="56">
+        <f>H88</f>
+        <v>10368.434999999999</v>
+      </c>
+      <c r="E88" s="53">
+        <f>D88/D91</f>
+        <v>0.14455633295487152</v>
+      </c>
+      <c r="F88" s="11">
+        <v>11030.25</v>
+      </c>
+      <c r="G88" s="9">
+        <v>0.94</v>
+      </c>
+      <c r="H88" s="11">
+        <f t="shared" si="5"/>
+        <v>10368.434999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="56">
+        <f>H89</f>
+        <v>12999.077854959873</v>
+      </c>
+      <c r="E89" s="53">
+        <f>D89/D91</f>
+        <v>0.18123265724363191</v>
+      </c>
+      <c r="F89" s="11">
+        <v>20932.492520064206</v>
+      </c>
+      <c r="G89" s="9">
+        <v>0.621</v>
+      </c>
+      <c r="H89" s="11">
+        <f t="shared" si="5"/>
+        <v>12999.077854959873</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C90" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" s="11">
+        <v>29549.759999999998</v>
+      </c>
+      <c r="E90" s="53">
+        <f>D90/D91</f>
+        <v>0.41198164865734743</v>
+      </c>
+      <c r="F90" s="11">
+        <v>29549.759999999998</v>
+      </c>
+      <c r="G90" s="9">
+        <v>1</v>
+      </c>
+      <c r="H90" s="11">
+        <v>29549.759999999998</v>
+      </c>
+      <c r="J90" s="9">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C91" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" s="57">
+        <f>SUM(D86:D90)</f>
+        <v>71725.913268959863</v>
+      </c>
+      <c r="E91" s="54">
+        <f>D91/D91</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="D84:E84"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D56:E56"/>
@@ -6157,18 +6322,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="122">
+      <c r="F4" s="123">
         <v>20160708</v>
       </c>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122">
+      <c r="G4" s="123"/>
+      <c r="H4" s="123">
         <v>20160712</v>
       </c>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122">
+      <c r="I4" s="123"/>
+      <c r="J4" s="123">
         <v>20160808</v>
       </c>
-      <c r="K4" s="122"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -6226,10 +6391,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="122">
+      <c r="E8" s="123">
         <v>20160810</v>
       </c>
-      <c r="F8" s="122"/>
+      <c r="F8" s="123"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -6303,11 +6468,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="122">
+      <c r="C4" s="123">
         <v>201605</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -6379,19 +6544,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="126">
+      <c r="C11" s="127">
         <v>20160608</v>
       </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="129"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -6575,20 +6740,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="123">
+      <c r="C18" s="124">
         <v>20160708</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="126"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -6807,20 +6972,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="123">
+      <c r="C27" s="124">
         <v>20160808</v>
       </c>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="124"/>
-      <c r="N27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="126"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -7025,21 +7190,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="123">
+      <c r="C35" s="124">
         <v>20160825</v>
       </c>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="124"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="124"/>
-      <c r="M35" s="124"/>
-      <c r="N35" s="124"/>
-      <c r="O35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="125"/>
+      <c r="N35" s="125"/>
+      <c r="O35" s="126"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -7258,21 +7423,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="123">
+      <c r="C42" s="124">
         <v>20160906</v>
       </c>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="124"/>
-      <c r="O42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="125"/>
+      <c r="M42" s="125"/>
+      <c r="N42" s="125"/>
+      <c r="O42" s="126"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -7492,21 +7657,21 @@
     <row r="49" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="72"/>
-      <c r="C50" s="123">
+      <c r="C50" s="124">
         <v>20160921</v>
       </c>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="124"/>
-      <c r="L50" s="124"/>
-      <c r="M50" s="124"/>
-      <c r="N50" s="124"/>
-      <c r="O50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="125"/>
+      <c r="L50" s="125"/>
+      <c r="M50" s="125"/>
+      <c r="N50" s="125"/>
+      <c r="O50" s="126"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
@@ -8394,10 +8559,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P9"/>
+  <dimension ref="B2:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8506,11 +8671,11 @@
         <v>2.1368037482418138</v>
       </c>
       <c r="I4">
-        <f>E4-G4</f>
+        <f t="shared" ref="I4:I9" si="0">E4-G4</f>
         <v>0.99996642921479995</v>
       </c>
       <c r="J4">
-        <f>I4*D4</f>
+        <f t="shared" ref="J4:J9" si="1">I4*D4</f>
         <v>63648.556366251752</v>
       </c>
       <c r="L4">
@@ -8542,11 +8707,11 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f>E5-G5</f>
+        <f t="shared" si="0"/>
         <v>0.98263663023073078</v>
       </c>
       <c r="J5">
-        <f>I5*D5</f>
+        <f t="shared" si="1"/>
         <v>64511.548098794519</v>
       </c>
       <c r="K5">
@@ -8597,11 +8762,11 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <f>E6-G6</f>
+        <f t="shared" si="0"/>
         <v>0.99584720269839067</v>
       </c>
       <c r="J6">
-        <f>I6*D6</f>
+        <f t="shared" si="1"/>
         <v>65378.841719794524</v>
       </c>
       <c r="K6">
@@ -8634,11 +8799,11 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f>E7-G7</f>
+        <f t="shared" si="0"/>
         <v>0.99990549172463006</v>
       </c>
       <c r="J7">
-        <f>I7*D7</f>
+        <f t="shared" si="1"/>
         <v>65645.274396595487</v>
       </c>
       <c r="K7">
@@ -8671,11 +8836,11 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f>E8-G8</f>
+        <f t="shared" si="0"/>
         <v>0.99630123325577546</v>
       </c>
       <c r="J8">
-        <f>I8*D8</f>
+        <f t="shared" si="1"/>
         <v>71387.021902600318</v>
       </c>
       <c r="K8">
@@ -8708,16 +8873,53 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f>E9-G9</f>
+        <f t="shared" si="0"/>
         <v>0.99968029338917808</v>
       </c>
       <c r="J9">
-        <f>I9*D9</f>
+        <f t="shared" si="1"/>
         <v>71629.138475080254</v>
       </c>
       <c r="K9">
         <f>(E9-E8)*D9</f>
         <v>242.1165724799302</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>20161027</v>
+      </c>
+      <c r="C10">
+        <v>71725.913268959863</v>
+      </c>
+      <c r="D10">
+        <v>71652.046107899863</v>
+      </c>
+      <c r="E10">
+        <f>C10/D10</f>
+        <v>1.0010309148876051</v>
+      </c>
+      <c r="F10">
+        <f>E10-E9</f>
+        <v>1.3506214984270182E-3</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10" si="2">E10-G10</f>
+        <v>1.0010309148876051</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10" si="3">I10*D10</f>
+        <v>71725.913268959863</v>
+      </c>
+      <c r="K10">
+        <f>(E10-E9)*D10</f>
+        <v>96.774793879613512</v>
       </c>
     </row>
   </sheetData>
@@ -8901,10 +9103,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="J3" s="131" t="s">
+      <c r="J3" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="131"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
@@ -8936,7 +9138,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B5" s="129">
+      <c r="B5" s="130">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -8965,7 +9167,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B6" s="130"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="64" t="s">
         <v>147</v>
       </c>
@@ -9152,6 +9354,33 @@
       <c r="H12" s="64">
         <f>E12*G12</f>
         <v>34398.328090649164</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B13" s="48">
+        <v>20161027</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="64">
+        <f>5000/E12</f>
+        <v>5001.5990442791363</v>
+      </c>
+      <c r="E13" s="41">
+        <f>净值!E10</f>
+        <v>1.0010309148876051</v>
+      </c>
+      <c r="F13" s="64">
+        <v>5000</v>
+      </c>
+      <c r="G13" s="64">
+        <f>G12+D13</f>
+        <v>39410.928024877343</v>
+      </c>
+      <c r="H13" s="64">
+        <f>E13*G13</f>
+        <v>39451.557337312523</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
@@ -9175,7 +9404,7 @@
   <dimension ref="B3:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9192,7 +9421,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:15" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" s="111" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
         <v>153</v>
       </c>
@@ -9233,8 +9462,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="39" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="129">
+    <row r="5" spans="2:15" s="39" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="130">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -9250,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="64">
-        <f>D5</f>
+        <f t="shared" ref="G5:G10" si="0">D5</f>
         <v>42243.189713341802</v>
       </c>
       <c r="H5" s="64">
@@ -9266,8 +9495,8 @@
         <v>42243.189713341802</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="9" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="130"/>
+    <row r="6" spans="2:15" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="131"/>
       <c r="C6" s="16" t="s">
         <v>159</v>
       </c>
@@ -9282,7 +9511,7 @@
         <v>-1.42</v>
       </c>
       <c r="G6" s="64">
-        <f>D6</f>
+        <f t="shared" si="0"/>
         <v>42243.189713341802</v>
       </c>
       <c r="H6" s="16">
@@ -9298,7 +9527,7 @@
         <v>42244.61</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="110" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="48">
         <v>20161010</v>
       </c>
@@ -9317,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="64">
-        <f>D7</f>
+        <f t="shared" si="0"/>
         <v>42243.189713341802</v>
       </c>
       <c r="H7" s="64">
@@ -9333,7 +9562,7 @@
         <v>42067.76</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="110" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="B8" s="48">
         <v>20161017</v>
       </c>
@@ -9351,7 +9580,7 @@
         <v>171.43507324700477</v>
       </c>
       <c r="G8" s="64">
-        <f>D8</f>
+        <f t="shared" si="0"/>
         <v>42243.189713341802</v>
       </c>
       <c r="H8" s="64">
@@ -9381,7 +9610,7 @@
         <v>-152.25537427574454</v>
       </c>
       <c r="G9" s="64">
-        <f>D9</f>
+        <f t="shared" si="0"/>
         <v>42243.189713341802</v>
       </c>
       <c r="H9" s="64">
@@ -9423,7 +9652,7 @@
         <v>142.74227826811693</v>
       </c>
       <c r="G10" s="64">
-        <f>D10</f>
+        <f t="shared" si="0"/>
         <v>42243.189713341802</v>
       </c>
       <c r="H10" s="64">
@@ -9446,7 +9675,48 @@
         <v>1.4009499999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="2:15" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B11" s="48">
+        <v>20161020</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E11" s="41">
+        <f>净值!E10</f>
+        <v>1.0010309148876051</v>
+      </c>
+      <c r="F11" s="64">
+        <f>E11*D11-H10</f>
+        <v>57.054560188968026</v>
+      </c>
+      <c r="G11" s="64">
+        <f t="shared" ref="G11" si="1">D11</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H11" s="64">
+        <f>E11*D11</f>
+        <v>42286.738846517212</v>
+      </c>
+      <c r="I11" s="64">
+        <f>H11-40000+560.38</f>
+        <v>2847.1188465172118</v>
+      </c>
+      <c r="J11" s="64">
+        <f>I11/40000</f>
+        <v>7.1177971162930287E-2</v>
+      </c>
+      <c r="K11" s="64">
+        <v>560.38</v>
+      </c>
+      <c r="L11" s="64">
+        <f>560.38/40000</f>
+        <v>1.4009499999999999E-2</v>
+      </c>
+    </row>
     <row r="12" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="182">
   <si>
     <t>黄金基金</t>
   </si>
@@ -1430,6 +1430,16 @@
     <t>分红率</t>
     <rPh sb="0" eb="1">
       <t>fen'hong'lv</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产变化</t>
+    <rPh sb="0" eb="1">
+      <t>zong'zhi'chan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bian'hua</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2006,7 +2016,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2319,6 +2329,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2383,6 +2396,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2393,30 +2430,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2880,174 +2893,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="121">
+      <c r="D17" s="122">
         <v>7000</v>
       </c>
-      <c r="E17" s="122">
+      <c r="E17" s="123">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="120">
+      <c r="G17" s="121">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="121"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="122"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="123"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="121">
+      <c r="D19" s="122">
         <v>10000</v>
       </c>
-      <c r="E19" s="122">
+      <c r="E19" s="123">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="122"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="121">
+      <c r="D21" s="122">
         <v>10000</v>
       </c>
-      <c r="E21" s="122">
+      <c r="E21" s="123">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="122"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="123"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="121">
+      <c r="D23" s="122">
         <v>10000</v>
       </c>
-      <c r="E23" s="122">
+      <c r="E23" s="123">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="121">
+      <c r="D25" s="122">
         <v>1000</v>
       </c>
-      <c r="E25" s="122">
+      <c r="E25" s="123">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="123"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="121">
+      <c r="D27" s="122">
         <v>22000</v>
       </c>
-      <c r="E27" s="122">
+      <c r="E27" s="123">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="122"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -3085,13 +3098,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -3106,27 +3133,13 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3157,27 +3170,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3210,12 +3223,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="141"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3250,12 +3263,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="141"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3290,12 +3303,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="141"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3337,13 +3350,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="136"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3426,20 +3439,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="127" t="s">
+      <c r="D4" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="127" t="s">
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="130"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3486,7 +3499,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="146">
+      <c r="E6" s="149">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3494,7 +3507,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="144">
+      <c r="G6" s="153">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3509,15 +3522,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="146">
+      <c r="K6" s="149">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="146">
+      <c r="L6" s="149">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="142">
+      <c r="M6" s="151">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3532,12 +3545,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="146"/>
+      <c r="E7" s="149"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="144"/>
+      <c r="G7" s="153"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3549,9 +3562,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="142"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="151"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3563,12 +3576,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="146"/>
+      <c r="E8" s="149"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="144"/>
+      <c r="G8" s="153"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3580,9 +3593,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="142"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="151"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3594,12 +3607,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="147"/>
+      <c r="E9" s="150"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="145"/>
+      <c r="G9" s="154"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3611,9 +3624,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="143"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="152"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3623,14 +3636,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="127" t="s">
+      <c r="D13" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="130"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -3667,15 +3680,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="148">
+      <c r="G15" s="143">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="148">
+      <c r="H15" s="143">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="151">
+      <c r="I15" s="146">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3695,9 +3708,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="152"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="147"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3714,9 +3727,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="152"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="147"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3733,23 +3746,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="153"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3758,10 +3771,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J91"/>
+  <dimension ref="C3:J100"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -3781,10 +3794,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="154">
+      <c r="D4" s="155">
         <v>20160622</v>
       </c>
-      <c r="E4" s="155"/>
+      <c r="E4" s="156"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -3886,10 +3899,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="154">
+      <c r="D15" s="155">
         <v>20160713</v>
       </c>
-      <c r="E15" s="155"/>
+      <c r="E15" s="156"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -3994,10 +4007,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="154">
+      <c r="D25" s="155">
         <v>20160808</v>
       </c>
-      <c r="E25" s="155"/>
+      <c r="E25" s="156"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4127,10 +4140,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="154">
+      <c r="D35" s="155">
         <v>20160825</v>
       </c>
-      <c r="E35" s="155"/>
+      <c r="E35" s="156"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4342,10 +4355,10 @@
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="154">
+      <c r="D45" s="155">
         <v>20160906</v>
       </c>
-      <c r="E45" s="155"/>
+      <c r="E45" s="156"/>
     </row>
     <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="29" t="s">
@@ -4529,10 +4542,10 @@
     </row>
     <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="154">
+      <c r="D56" s="155">
         <v>20160921</v>
       </c>
-      <c r="E56" s="155"/>
+      <c r="E56" s="156"/>
     </row>
     <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="105" t="s">
@@ -4693,10 +4706,10 @@
     </row>
     <row r="65" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D66" s="154">
+      <c r="D66" s="155">
         <v>20161017</v>
       </c>
-      <c r="E66" s="155"/>
+      <c r="E66" s="156"/>
     </row>
     <row r="67" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="105" t="s">
@@ -4858,10 +4871,10 @@
     </row>
     <row r="74" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D75" s="154">
+      <c r="D75" s="155">
         <v>20161020</v>
       </c>
-      <c r="E75" s="155"/>
+      <c r="E75" s="156"/>
     </row>
     <row r="76" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D76" s="105" t="s">
@@ -5019,10 +5032,10 @@
     </row>
     <row r="83" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D84" s="154">
+      <c r="D84" s="155">
         <v>201610207</v>
       </c>
-      <c r="E84" s="155"/>
+      <c r="E84" s="156"/>
     </row>
     <row r="85" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D85" s="105" t="s">
@@ -5178,8 +5191,170 @@
         <v>1</v>
       </c>
     </row>
+    <row r="92" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D93" s="155">
+        <v>20161031</v>
+      </c>
+      <c r="E93" s="156"/>
+    </row>
+    <row r="94" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D94" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="120" t="s">
+        <v>42</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" s="106">
+        <f>F95*G95</f>
+        <v>8939.74</v>
+      </c>
+      <c r="E95" s="107">
+        <f>D95/D100</f>
+        <v>0.12489000794794518</v>
+      </c>
+      <c r="F95" s="11">
+        <v>8860</v>
+      </c>
+      <c r="G95" s="9">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="H95" s="11">
+        <f>F95*G95</f>
+        <v>8939.74</v>
+      </c>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="78">
+        <f>H96</f>
+        <v>9747.0822990000015</v>
+      </c>
+      <c r="E96" s="53">
+        <f>D96/D100</f>
+        <v>0.13616874604757923</v>
+      </c>
+      <c r="F96" s="96">
+        <f>9921.98-162.21</f>
+        <v>9759.77</v>
+      </c>
+      <c r="G96" s="9">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="H96" s="11">
+        <f t="shared" ref="H96:H98" si="6">F96*G96</f>
+        <v>9747.0822990000015</v>
+      </c>
+      <c r="J96" s="88"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="56">
+        <f>H97</f>
+        <v>10324.314</v>
+      </c>
+      <c r="E97" s="53">
+        <f>D97/D100</f>
+        <v>0.1442327917273972</v>
+      </c>
+      <c r="F97" s="11">
+        <v>11030.25</v>
+      </c>
+      <c r="G97" s="9">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H97" s="11">
+        <f t="shared" si="6"/>
+        <v>10324.314</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" s="56">
+        <f>H98</f>
+        <v>13020.010347479936</v>
+      </c>
+      <c r="E98" s="53">
+        <f>D98/D100</f>
+        <v>0.18189222458137461</v>
+      </c>
+      <c r="F98" s="11">
+        <v>20932.492520064206</v>
+      </c>
+      <c r="G98" s="9">
+        <v>0.622</v>
+      </c>
+      <c r="H98" s="11">
+        <f t="shared" si="6"/>
+        <v>13020.010347479936</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C99" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99" s="11">
+        <v>29549.759999999998</v>
+      </c>
+      <c r="E99" s="53">
+        <f>D99/D100</f>
+        <v>0.41281622969570397</v>
+      </c>
+      <c r="F99" s="11">
+        <v>29549.759999999998</v>
+      </c>
+      <c r="G99" s="9">
+        <v>1</v>
+      </c>
+      <c r="H99" s="11">
+        <v>29549.759999999998</v>
+      </c>
+      <c r="J99" s="9">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C100" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100" s="57">
+        <f>SUM(D95:D99)</f>
+        <v>71580.906646479925</v>
+      </c>
+      <c r="E100" s="54">
+        <f>D100/D100</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="D93:E93"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D66:E66"/>
@@ -6322,18 +6497,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="123">
+      <c r="F4" s="124">
         <v>20160708</v>
       </c>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123">
+      <c r="G4" s="124"/>
+      <c r="H4" s="124">
         <v>20160712</v>
       </c>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123">
+      <c r="I4" s="124"/>
+      <c r="J4" s="124">
         <v>20160808</v>
       </c>
-      <c r="K4" s="123"/>
+      <c r="K4" s="124"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -6391,10 +6566,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="123">
+      <c r="E8" s="124">
         <v>20160810</v>
       </c>
-      <c r="F8" s="123"/>
+      <c r="F8" s="124"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -6441,8 +6616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -6468,11 +6643,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="123">
+      <c r="C4" s="124">
         <v>201605</v>
       </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -6544,19 +6719,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="127">
+      <c r="C11" s="128">
         <v>20160608</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="130"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -6740,20 +6915,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="124">
+      <c r="C18" s="125">
         <v>20160708</v>
       </c>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="127"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -6972,20 +7147,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="124">
+      <c r="C27" s="125">
         <v>20160808</v>
       </c>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="127"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -7190,21 +7365,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="124">
+      <c r="C35" s="125">
         <v>20160825</v>
       </c>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="125"/>
-      <c r="O35" s="126"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="126"/>
+      <c r="N35" s="126"/>
+      <c r="O35" s="127"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -7423,21 +7598,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="124">
+      <c r="C42" s="125">
         <v>20160906</v>
       </c>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="125"/>
-      <c r="M42" s="125"/>
-      <c r="N42" s="125"/>
-      <c r="O42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="126"/>
+      <c r="M42" s="126"/>
+      <c r="N42" s="126"/>
+      <c r="O42" s="127"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -7657,21 +7832,21 @@
     <row r="49" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="72"/>
-      <c r="C50" s="124">
+      <c r="C50" s="125">
         <v>20160921</v>
       </c>
-      <c r="D50" s="125"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="125"/>
-      <c r="L50" s="125"/>
-      <c r="M50" s="125"/>
-      <c r="N50" s="125"/>
-      <c r="O50" s="126"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="126"/>
+      <c r="G50" s="126"/>
+      <c r="H50" s="126"/>
+      <c r="I50" s="126"/>
+      <c r="J50" s="126"/>
+      <c r="K50" s="126"/>
+      <c r="L50" s="126"/>
+      <c r="M50" s="126"/>
+      <c r="N50" s="126"/>
+      <c r="O50" s="127"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
@@ -7907,8 +8082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8053,7 +8228,7 @@
         <v>82</v>
       </c>
       <c r="C11">
-        <f>净值!E5</f>
+        <f>净值!F5</f>
         <v>0.98263663023073078</v>
       </c>
     </row>
@@ -8178,7 +8353,7 @@
         <v>82</v>
       </c>
       <c r="C18">
-        <f>净值!E12</f>
+        <f>净值!F12</f>
         <v>0</v>
       </c>
     </row>
@@ -8305,7 +8480,7 @@
         <v>82</v>
       </c>
       <c r="C24">
-        <f>净值!E18</f>
+        <f>净值!F18</f>
         <v>0</v>
       </c>
     </row>
@@ -8426,13 +8601,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>201611019</v>
+        <v>20161031</v>
       </c>
       <c r="B29" t="s">
         <v>82</v>
       </c>
       <c r="C29">
-        <f>净值!E23</f>
+        <f>净值!F23</f>
         <v>0</v>
       </c>
     </row>
@@ -8509,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -8540,11 +8715,11 @@
       </c>
       <c r="G33">
         <f>G31+G32</f>
-        <v>62000</v>
+        <v>68000</v>
       </c>
       <c r="H33">
         <f>F33/G33</f>
-        <v>9.038387096774193E-3</v>
+        <v>8.240882352941176E-3</v>
       </c>
       <c r="I33">
         <f>D33/62000-1</f>
@@ -8559,64 +8734,67 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P10"/>
+  <dimension ref="B2:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="15" width="13.5" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="11" width="21.5" customWidth="1"/>
+    <col min="12" max="16" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>141</v>
       </c>
       <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" t="s">
         <v>124</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>127</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>136</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>142</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>129</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>140</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>172</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>165</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>173</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>170</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>20160908</v>
       </c>
@@ -8624,27 +8802,30 @@
         <v>63640.00915127372</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>63650.693169999999</v>
       </c>
-      <c r="E3">
-        <f>ROUND(C3/D3,12)</f>
+      <c r="F3">
+        <f>ROUND(C3/E3,12)</f>
         <v>0.99983214607399995</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <f>E3</f>
+      <c r="J3">
+        <f>F3</f>
         <v>0.99983214607399995</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>63640.009151273698</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>20160921</v>
       </c>
@@ -8652,37 +8833,41 @@
         <v>63650.693169999999</v>
       </c>
       <c r="D4">
+        <f>C4-C3</f>
+        <v>10.684018726278737</v>
+      </c>
+      <c r="E4">
         <v>63650.693169999999</v>
       </c>
-      <c r="E4">
-        <f>ROUND(C4/D4,12)</f>
+      <c r="F4">
+        <f>ROUND(C4/E4,12)</f>
         <v>1</v>
       </c>
-      <c r="F4">
-        <f>E4-E3</f>
+      <c r="G4">
+        <f>F4-F3</f>
         <v>1.6785392600005E-4</v>
       </c>
-      <c r="G4">
-        <f>F4*0.2</f>
+      <c r="H4">
+        <f>G4*0.2</f>
         <v>3.3570785200010005E-5</v>
       </c>
-      <c r="H4">
-        <f>G4*D4</f>
+      <c r="I4">
+        <f>H4*E4</f>
         <v>2.1368037482418138</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I9" si="0">E4-G4</f>
+      <c r="J4">
+        <f t="shared" ref="J4:J9" si="0">F4-H4</f>
         <v>0.99996642921479995</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J9" si="1">I4*D4</f>
+      <c r="K4">
+        <f t="shared" ref="K4:K9" si="1">J4*E4</f>
         <v>63648.556366251752</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>580.38</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>20160926</v>
       </c>
@@ -8690,54 +8875,58 @@
         <v>64511.548098794519</v>
       </c>
       <c r="D5">
+        <f t="shared" ref="D5:D11" si="2">C5-C4</f>
+        <v>860.85492879452067</v>
+      </c>
+      <c r="E5">
         <v>65651.479004651701</v>
       </c>
-      <c r="E5">
-        <f>C5/D5</f>
+      <c r="F5">
+        <f t="shared" ref="F5:F10" si="3">C5/E5</f>
         <v>0.98263663023073078</v>
       </c>
-      <c r="F5">
-        <f>E5-E4</f>
+      <c r="G5">
+        <f>F5-F4</f>
         <v>-1.7363369769269221E-2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>0.98263663023073078</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>64511.548098794519</v>
       </c>
-      <c r="K5">
-        <f>J5-J4-2000</f>
+      <c r="L5">
+        <f>K5-K4-2000</f>
         <v>-1137.0082674572332</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>560.38</v>
       </c>
-      <c r="M5">
-        <f>L5/62000</f>
+      <c r="N5">
+        <f>M5/62000</f>
         <v>9.038387096774193E-3</v>
       </c>
-      <c r="N5">
-        <f>C5-62000+L5</f>
+      <c r="O5">
+        <f>C5-62000+M5</f>
         <v>3071.9280987945194</v>
       </c>
-      <c r="O5">
-        <f>N5/62000</f>
+      <c r="P5">
+        <f>O5/62000</f>
         <v>4.9547227399911603E-2</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>20161010</v>
       </c>
@@ -8745,36 +8934,40 @@
         <v>65378.841719794524</v>
       </c>
       <c r="D6">
+        <f t="shared" si="2"/>
+        <v>867.29362100000435</v>
+      </c>
+      <c r="E6">
         <v>65651.479004651701</v>
       </c>
-      <c r="E6">
-        <f>C6/D6</f>
+      <c r="F6">
+        <f t="shared" si="3"/>
         <v>0.99584720269839067</v>
       </c>
-      <c r="F6">
-        <f>E6-E5</f>
+      <c r="G6">
+        <f>F6-F5</f>
         <v>1.3210572467659887E-2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>0.99584720269839067</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>65378.841719794524</v>
       </c>
-      <c r="K6">
-        <f>(E6-E5)*D6</f>
+      <c r="L6">
+        <f>(F6-F5)*E6</f>
         <v>867.29362100000287</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>20161017</v>
       </c>
@@ -8782,36 +8975,40 @@
         <v>65645.274396595487</v>
       </c>
       <c r="D7">
+        <f t="shared" si="2"/>
+        <v>266.43267680096324</v>
+      </c>
+      <c r="E7">
         <v>65651.479004651701</v>
       </c>
-      <c r="E7">
-        <f>C7/D7</f>
+      <c r="F7">
+        <f t="shared" si="3"/>
         <v>0.99990549172463006</v>
       </c>
-      <c r="F7">
-        <f>E7-I4</f>
+      <c r="G7">
+        <f>F7-J4</f>
         <v>-6.0937490169887809E-5</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>0.99990549172463006</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>65645.274396595487</v>
       </c>
-      <c r="K7">
-        <f>(E7-E6)*D7</f>
+      <c r="L7">
+        <f>(F7-F6)*E7</f>
         <v>266.43267680096386</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>20161019</v>
       </c>
@@ -8819,36 +9016,40 @@
         <v>71387.021902600318</v>
       </c>
       <c r="D8">
+        <f t="shared" si="2"/>
+        <v>5741.7475060048309</v>
+      </c>
+      <c r="E8">
         <v>71652.046107899863</v>
       </c>
-      <c r="E8">
-        <f>C8/D8</f>
+      <c r="F8">
+        <f t="shared" si="3"/>
         <v>0.99630123325577546</v>
       </c>
-      <c r="F8">
-        <f>E8-E7</f>
+      <c r="G8">
+        <f>F8-F7</f>
         <v>-3.6042584688545931E-3</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>0.99630123325577546</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>71387.021902600318</v>
       </c>
-      <c r="K8">
-        <f>(E8-E7)*D8</f>
+      <c r="L8">
+        <f>(F8-F7)*E8</f>
         <v>-258.25249399515786</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>20161020</v>
       </c>
@@ -8856,36 +9057,40 @@
         <v>71629.138475080254</v>
       </c>
       <c r="D9">
+        <f t="shared" si="2"/>
+        <v>242.11657247993571</v>
+      </c>
+      <c r="E9">
         <v>71652.046107899863</v>
       </c>
-      <c r="E9">
-        <f>C9/D9</f>
+      <c r="F9">
+        <f t="shared" si="3"/>
         <v>0.99968029338917808</v>
       </c>
-      <c r="F9">
-        <f>E9-E8</f>
+      <c r="G9">
+        <f>F9-F8</f>
         <v>3.3790601334026116E-3</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>0.99968029338917808</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>71629.138475080254</v>
       </c>
-      <c r="K9">
-        <f>(E9-E8)*D9</f>
+      <c r="L9">
+        <f>(F9-F8)*E9</f>
         <v>242.1165724799302</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>20161027</v>
       </c>
@@ -8893,33 +9098,78 @@
         <v>71725.913268959863</v>
       </c>
       <c r="D10">
+        <f t="shared" si="2"/>
+        <v>96.774793879609206</v>
+      </c>
+      <c r="E10">
         <v>71652.046107899863</v>
       </c>
-      <c r="E10">
-        <f>C10/D10</f>
+      <c r="F10">
+        <f t="shared" si="3"/>
         <v>1.0010309148876051</v>
       </c>
-      <c r="F10">
-        <f>E10-E9</f>
+      <c r="G10">
+        <f>F10-F9</f>
         <v>1.3506214984270182E-3</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10" si="2">E10-G10</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10" si="4">F10-H10</f>
         <v>1.0010309148876051</v>
       </c>
-      <c r="J10">
-        <f t="shared" ref="J10" si="3">I10*D10</f>
+      <c r="K10">
+        <f t="shared" ref="K10" si="5">J10*E10</f>
         <v>71725.913268959863</v>
       </c>
-      <c r="K10">
-        <f>(E10-E9)*D10</f>
+      <c r="L10">
+        <f>(F10-F9)*E10</f>
         <v>96.774793879613512</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>20161031</v>
+      </c>
+      <c r="C11">
+        <v>71580.906646479925</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>-145.0066224799375</v>
+      </c>
+      <c r="E11">
+        <v>71652.046107899863</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11" si="6">C11/E11</f>
+        <v>0.99900715380391492</v>
+      </c>
+      <c r="G11">
+        <f>F11-F10</f>
+        <v>-2.0237610836901787E-3</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11" si="7">F11-H11</f>
+        <v>0.99900715380391492</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11" si="8">J11*E11</f>
+        <v>71580.906646479925</v>
+      </c>
+      <c r="L11">
+        <f>(F11-F10)*E11</f>
+        <v>-145.00662247994208</v>
       </c>
     </row>
   </sheetData>
@@ -8954,7 +9204,7 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <f>净值!I4</f>
+        <f>净值!J4</f>
         <v>0.99996642921479995</v>
       </c>
     </row>
@@ -8963,7 +9213,7 @@
         <v>136</v>
       </c>
       <c r="C4">
-        <f>净值!G4</f>
+        <f>净值!H4</f>
         <v>3.3570785200010005E-5</v>
       </c>
       <c r="H4" t="s">
@@ -9085,7 +9335,7 @@
   <dimension ref="B3:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9103,10 +9353,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="J3" s="132" t="s">
+      <c r="J3" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="132"/>
+      <c r="K3" s="133"/>
     </row>
     <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
@@ -9138,7 +9388,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B5" s="130">
+      <c r="B5" s="131">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -9148,7 +9398,7 @@
         <v>21407.503456658196</v>
       </c>
       <c r="E5" s="41">
-        <f>净值!I4</f>
+        <f>净值!J4</f>
         <v>0.99996642921479995</v>
       </c>
       <c r="F5" s="64">
@@ -9167,7 +9417,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B6" s="131"/>
+      <c r="B6" s="132"/>
       <c r="C6" s="64" t="s">
         <v>147</v>
       </c>
@@ -9176,11 +9426,11 @@
         <v>0.71869082722733013</v>
       </c>
       <c r="E6" s="41">
-        <f>净值!I4</f>
+        <f>净值!J4</f>
         <v>0.99996642921479995</v>
       </c>
       <c r="F6" s="64">
-        <f>D5*净值!G4</f>
+        <f>D5*净值!H4</f>
         <v>0.71866670021194401</v>
       </c>
       <c r="G6" s="64">
@@ -9233,7 +9483,7 @@
         <v>23408.289291309895</v>
       </c>
       <c r="E8" s="41">
-        <f>净值!E6</f>
+        <f>净值!F6</f>
         <v>0.99584720269839067</v>
       </c>
       <c r="F8" s="64">
@@ -9341,19 +9591,18 @@
         <v>5000.4725860401413</v>
       </c>
       <c r="E12" s="41">
-        <f>净值!E9</f>
+        <f>净值!F9</f>
         <v>0.99968029338917808</v>
       </c>
       <c r="F12" s="64">
         <v>5000</v>
       </c>
       <c r="G12" s="64">
-        <f>G11+D12</f>
-        <v>34409.328980598206</v>
+        <v>29408.856394558064</v>
       </c>
       <c r="H12" s="64">
         <f>E12*G12</f>
-        <v>34398.328090649164</v>
+        <v>29399.45418875201</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="23" x14ac:dyDescent="0.3">
@@ -9368,25 +9617,44 @@
         <v>5001.5990442791363</v>
       </c>
       <c r="E13" s="41">
-        <f>净值!E10</f>
+        <f>净值!F10</f>
         <v>1.0010309148876051</v>
       </c>
       <c r="F13" s="64">
         <v>5000</v>
       </c>
       <c r="G13" s="64">
-        <f>G12+D13</f>
-        <v>39410.928024877343</v>
+        <v>29408.856394558064</v>
       </c>
       <c r="H13" s="64">
         <f>E13*G13</f>
-        <v>39451.557337312523</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="H14" s="110">
-        <f>H8-22000</f>
-        <v>1311.0794107056536</v>
+        <v>29439.174422442655</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B14" s="48">
+        <v>20161027</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="64">
+        <f>5000/E13</f>
+        <v>4994.8507340169363</v>
+      </c>
+      <c r="E14" s="41">
+        <f>净值!F11</f>
+        <v>0.99900715380391492</v>
+      </c>
+      <c r="F14" s="64">
+        <v>5000</v>
+      </c>
+      <c r="G14" s="64">
+        <v>29408.856394558064</v>
+      </c>
+      <c r="H14" s="64">
+        <f>E14*G14</f>
+        <v>29379.657923355517</v>
       </c>
     </row>
   </sheetData>
@@ -9403,8 +9671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9463,7 +9731,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="39" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="130">
+      <c r="B5" s="131">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -9496,7 +9764,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="131"/>
+      <c r="B6" s="132"/>
       <c r="C6" s="16" t="s">
         <v>159</v>
       </c>
@@ -9539,7 +9807,7 @@
         <v>42243.189713341802</v>
       </c>
       <c r="E7" s="41">
-        <f>净值!E6</f>
+        <f>净值!F6</f>
         <v>0.99584720269839067</v>
       </c>
       <c r="F7" s="64">
@@ -9644,7 +9912,7 @@
         <v>42243.189713341802</v>
       </c>
       <c r="E10" s="41">
-        <f>净值!E9</f>
+        <f>净值!F9</f>
         <v>0.99968029338917808</v>
       </c>
       <c r="F10" s="64">
@@ -9686,7 +9954,7 @@
         <v>42243.189713341802</v>
       </c>
       <c r="E11" s="41">
-        <f>净值!E10</f>
+        <f>净值!F10</f>
         <v>1.0010309148876051</v>
       </c>
       <c r="F11" s="64">
@@ -9717,7 +9985,48 @@
         <v>1.4009499999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="2:15" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B12" s="48">
+        <v>20161031</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E12" s="41">
+        <f>净值!F11</f>
+        <v>0.99900715380391492</v>
+      </c>
+      <c r="F12" s="64">
+        <f>E12*D12-H11</f>
+        <v>-85.490123392803071</v>
+      </c>
+      <c r="G12" s="64">
+        <f t="shared" ref="G12" si="2">D12</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H12" s="64">
+        <f>E12*D12</f>
+        <v>42201.248723124409</v>
+      </c>
+      <c r="I12" s="64">
+        <f>H12-40000+560.38</f>
+        <v>2761.6287231244087</v>
+      </c>
+      <c r="J12" s="64">
+        <f>I12/40000</f>
+        <v>6.9040718078110214E-2</v>
+      </c>
+      <c r="K12" s="64">
+        <v>560.38</v>
+      </c>
+      <c r="L12" s="64">
+        <f>560.38/40000</f>
+        <v>1.4009499999999999E-2</v>
+      </c>
+    </row>
     <row r="13" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="余额宝" sheetId="7" state="hidden" r:id="rId2"/>
-    <sheet name="投资者权益表" sheetId="6" r:id="rId3"/>
+    <sheet name="投资者权益表" sheetId="6" state="hidden" r:id="rId3"/>
     <sheet name="投资者份数权益表" sheetId="18" r:id="rId4"/>
     <sheet name="净值" sheetId="12" r:id="rId5"/>
     <sheet name="216" sheetId="13" state="hidden" r:id="rId6"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="185">
   <si>
     <t>黄金基金</t>
   </si>
@@ -1440,6 +1440,33 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>bian'hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rand认购5000</t>
+    <rPh sb="4" eb="5">
+      <t>ren'gou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计</t>
+    <rPh sb="0" eb="1">
+      <t>tong'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入4000，等待成交</t>
+    <rPh sb="0" eb="1">
+      <t>mai'ru</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cheng'jiao</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2016,7 +2043,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2332,6 +2359,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2396,6 +2426,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2412,24 +2460,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2893,174 +2923,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="122">
+      <c r="D17" s="123">
         <v>7000</v>
       </c>
-      <c r="E17" s="123">
+      <c r="E17" s="124">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="121">
+      <c r="G17" s="122">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="122" t="s">
+      <c r="B19" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="122">
+      <c r="D19" s="123">
         <v>10000</v>
       </c>
-      <c r="E19" s="123">
+      <c r="E19" s="124">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="124"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="122">
+      <c r="D21" s="123">
         <v>10000</v>
       </c>
-      <c r="E21" s="123">
+      <c r="E21" s="124">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="123"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="122" t="s">
+      <c r="C23" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="122">
+      <c r="D23" s="123">
         <v>10000</v>
       </c>
-      <c r="E23" s="123">
+      <c r="E23" s="124">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="123"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="122" t="s">
+      <c r="B25" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="C25" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="122">
+      <c r="D25" s="123">
         <v>1000</v>
       </c>
-      <c r="E25" s="123">
+      <c r="E25" s="124">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="122"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="122" t="s">
+      <c r="B27" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="C27" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="122">
+      <c r="D27" s="123">
         <v>22000</v>
       </c>
-      <c r="E27" s="123">
+      <c r="E27" s="124">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="123"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -3098,13 +3128,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -3119,27 +3163,13 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3170,27 +3200,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3223,12 +3253,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="142"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3263,12 +3293,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="142"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3303,12 +3333,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="142"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3350,13 +3380,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="137"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3439,20 +3469,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="128" t="s">
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="131"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3499,7 +3529,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="149">
+      <c r="E6" s="148">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3507,7 +3537,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="153">
+      <c r="G6" s="146">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3522,15 +3552,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="149">
+      <c r="K6" s="148">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="149">
+      <c r="L6" s="148">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="151">
+      <c r="M6" s="144">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3545,12 +3575,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="149"/>
+      <c r="E7" s="148"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="153"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3562,9 +3592,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="149"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="151"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="144"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3576,12 +3606,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="149"/>
+      <c r="E8" s="148"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="153"/>
+      <c r="G8" s="146"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3593,9 +3623,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="151"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="144"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3607,12 +3637,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="150"/>
+      <c r="E9" s="149"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="154"/>
+      <c r="G9" s="147"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3624,9 +3654,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="152"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="145"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3636,14 +3666,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -3680,15 +3710,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="143">
+      <c r="G15" s="150">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="143">
+      <c r="H15" s="150">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="146">
+      <c r="I15" s="153">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3708,9 +3738,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="147"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="154"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3727,9 +3757,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="147"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="154"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3746,23 +3776,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="148"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3771,10 +3801,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J100"/>
+  <dimension ref="C3:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView topLeftCell="B103" workbookViewId="0">
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -3794,10 +3824,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="155">
+      <c r="D4" s="156">
         <v>20160622</v>
       </c>
-      <c r="E4" s="156"/>
+      <c r="E4" s="157"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -3899,10 +3929,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="155">
+      <c r="D15" s="156">
         <v>20160713</v>
       </c>
-      <c r="E15" s="156"/>
+      <c r="E15" s="157"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4007,10 +4037,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="155">
+      <c r="D25" s="156">
         <v>20160808</v>
       </c>
-      <c r="E25" s="156"/>
+      <c r="E25" s="157"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4140,10 +4170,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="155">
+      <c r="D35" s="156">
         <v>20160825</v>
       </c>
-      <c r="E35" s="156"/>
+      <c r="E35" s="157"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4355,10 +4385,10 @@
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="155">
+      <c r="D45" s="156">
         <v>20160906</v>
       </c>
-      <c r="E45" s="156"/>
+      <c r="E45" s="157"/>
     </row>
     <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="29" t="s">
@@ -4542,10 +4572,10 @@
     </row>
     <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="155">
+      <c r="D56" s="156">
         <v>20160921</v>
       </c>
-      <c r="E56" s="156"/>
+      <c r="E56" s="157"/>
     </row>
     <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="105" t="s">
@@ -4706,10 +4736,10 @@
     </row>
     <row r="65" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D66" s="155">
+      <c r="D66" s="156">
         <v>20161017</v>
       </c>
-      <c r="E66" s="156"/>
+      <c r="E66" s="157"/>
     </row>
     <row r="67" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="105" t="s">
@@ -4871,10 +4901,10 @@
     </row>
     <row r="74" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D75" s="155">
+      <c r="D75" s="156">
         <v>20161020</v>
       </c>
-      <c r="E75" s="156"/>
+      <c r="E75" s="157"/>
     </row>
     <row r="76" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D76" s="105" t="s">
@@ -5032,10 +5062,10 @@
     </row>
     <row r="83" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D84" s="155">
+      <c r="D84" s="156">
         <v>201610207</v>
       </c>
-      <c r="E84" s="156"/>
+      <c r="E84" s="157"/>
     </row>
     <row r="85" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D85" s="105" t="s">
@@ -5193,10 +5223,10 @@
     </row>
     <row r="92" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D93" s="155">
+      <c r="D93" s="156">
         <v>20161031</v>
       </c>
-      <c r="E93" s="156"/>
+      <c r="E93" s="157"/>
     </row>
     <row r="94" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D94" s="105" t="s">
@@ -5352,18 +5382,350 @@
         <v>1</v>
       </c>
     </row>
+    <row r="101" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="102" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D102" s="156">
+        <v>20161103</v>
+      </c>
+      <c r="E102" s="157"/>
+    </row>
+    <row r="103" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D103" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="121" t="s">
+        <v>42</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C104" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D104" s="106">
+        <f>F104*G104</f>
+        <v>8797.98</v>
+      </c>
+      <c r="E104" s="107">
+        <f>D104/D109</f>
+        <v>0.12402973139926786</v>
+      </c>
+      <c r="F104" s="11">
+        <v>8860</v>
+      </c>
+      <c r="G104" s="9">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H104" s="11">
+        <f>F104*G104</f>
+        <v>8797.98</v>
+      </c>
+    </row>
+    <row r="105" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C105" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" s="78">
+        <f>H105</f>
+        <v>9900.3106879999996</v>
+      </c>
+      <c r="E105" s="53">
+        <f>D105/D109</f>
+        <v>0.13956986437818009</v>
+      </c>
+      <c r="F105" s="96">
+        <f>9921.98-162.21</f>
+        <v>9759.77</v>
+      </c>
+      <c r="G105" s="9">
+        <v>1.0144</v>
+      </c>
+      <c r="H105" s="11">
+        <f t="shared" ref="H105:H107" si="7">F105*G105</f>
+        <v>9900.3106879999996</v>
+      </c>
+      <c r="J105" s="88"/>
+    </row>
+    <row r="106" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C106" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" s="56">
+        <f>H106</f>
+        <v>10147.83</v>
+      </c>
+      <c r="E106" s="53">
+        <f>D106/D109</f>
+        <v>0.14305927374072597</v>
+      </c>
+      <c r="F106" s="11">
+        <v>11030.25</v>
+      </c>
+      <c r="G106" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="H106" s="11">
+        <f t="shared" si="7"/>
+        <v>10147.83</v>
+      </c>
+    </row>
+    <row r="107" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C107" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" s="56">
+        <f>H107</f>
+        <v>12538.563019518459</v>
+      </c>
+      <c r="E107" s="53">
+        <f>D107/D109</f>
+        <v>0.17676268909950549</v>
+      </c>
+      <c r="F107" s="11">
+        <v>20932.492520064206</v>
+      </c>
+      <c r="G107" s="9">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H107" s="11">
+        <f t="shared" si="7"/>
+        <v>12538.563019518459</v>
+      </c>
+    </row>
+    <row r="108" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C108" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="11">
+        <v>29549.759999999998</v>
+      </c>
+      <c r="E108" s="53">
+        <f>D108/D109</f>
+        <v>0.41657844138232064</v>
+      </c>
+      <c r="F108" s="11">
+        <v>29549</v>
+      </c>
+      <c r="G108" s="9">
+        <v>1</v>
+      </c>
+      <c r="H108" s="11">
+        <v>29549.759999999998</v>
+      </c>
+      <c r="J108" s="9">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="109" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C109" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109" s="57">
+        <f>SUM(D104:D108)</f>
+        <v>70934.443707518454</v>
+      </c>
+      <c r="E109" s="54">
+        <f>D109/D109</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D111" s="156">
+        <v>20161103</v>
+      </c>
+      <c r="E111" s="157"/>
+    </row>
+    <row r="112" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D112" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="121" t="s">
+        <v>42</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C113" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" s="106">
+        <f>F113*G113</f>
+        <v>8797.98</v>
+      </c>
+      <c r="E113" s="107">
+        <f>D113/D118</f>
+        <v>0.11586283602587175</v>
+      </c>
+      <c r="F113" s="11">
+        <v>8860</v>
+      </c>
+      <c r="G113" s="9">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H113" s="11">
+        <f>F113*G113</f>
+        <v>8797.98</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C114" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="78">
+        <f>H114</f>
+        <v>9900.3106879999996</v>
+      </c>
+      <c r="E114" s="53">
+        <f>D114/D118</f>
+        <v>0.13037970918880579</v>
+      </c>
+      <c r="F114" s="96">
+        <f>9921.98-162.21</f>
+        <v>9759.77</v>
+      </c>
+      <c r="G114" s="9">
+        <v>1.0144</v>
+      </c>
+      <c r="H114" s="11">
+        <f t="shared" ref="H114:H116" si="8">F114*G114</f>
+        <v>9900.3106879999996</v>
+      </c>
+      <c r="J114" s="88"/>
+    </row>
+    <row r="115" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C115" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" s="56">
+        <f>H115</f>
+        <v>10147.83</v>
+      </c>
+      <c r="E115" s="53">
+        <f>D115/D118</f>
+        <v>0.13363935395493309</v>
+      </c>
+      <c r="F115" s="11">
+        <v>11030.25</v>
+      </c>
+      <c r="G115" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="H115" s="11">
+        <f t="shared" si="8"/>
+        <v>10147.83</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C116" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D116" s="56">
+        <f>H116</f>
+        <v>12538.563019518459</v>
+      </c>
+      <c r="E116" s="53">
+        <f>D116/D118</f>
+        <v>0.16512352507399727</v>
+      </c>
+      <c r="F116" s="11">
+        <v>20932.492520064206</v>
+      </c>
+      <c r="G116" s="9">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H116" s="11">
+        <f t="shared" si="8"/>
+        <v>12538.563019518459</v>
+      </c>
+    </row>
+    <row r="117" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C117" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" s="11">
+        <v>34549.760000000002</v>
+      </c>
+      <c r="E117" s="53">
+        <f>D117/D118</f>
+        <v>0.45499457575639218</v>
+      </c>
+      <c r="F117" s="11">
+        <v>34549.760000000002</v>
+      </c>
+      <c r="G117" s="9">
+        <v>1</v>
+      </c>
+      <c r="H117" s="11">
+        <v>34549.760000000002</v>
+      </c>
+      <c r="J117" s="9">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C118" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D118" s="57">
+        <f>SUM(D113:D117)</f>
+        <v>75934.443707518454</v>
+      </c>
+      <c r="E118" s="54">
+        <f>D118/D118</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="H121" s="11">
+        <v>34549.760000000002</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D45:E45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5505,8 +5867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5674,10 +6036,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J52"/>
+  <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6412,6 +6774,36 @@
       </c>
       <c r="J52" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B53" s="89">
+        <v>20161103</v>
+      </c>
+      <c r="C53" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="89">
+        <v>5000</v>
+      </c>
+      <c r="F53" s="89">
+        <v>1</v>
+      </c>
+      <c r="G53" s="93">
+        <v>0</v>
+      </c>
+      <c r="H53" s="89">
+        <f>E53</f>
+        <v>5000</v>
+      </c>
+      <c r="I53" s="89">
+        <v>34549.760000000002</v>
+      </c>
+      <c r="J53" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6497,18 +6889,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="124">
+      <c r="F4" s="125">
         <v>20160708</v>
       </c>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124">
+      <c r="G4" s="125"/>
+      <c r="H4" s="125">
         <v>20160712</v>
       </c>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124">
+      <c r="I4" s="125"/>
+      <c r="J4" s="125">
         <v>20160808</v>
       </c>
-      <c r="K4" s="124"/>
+      <c r="K4" s="125"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -6566,10 +6958,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="124">
+      <c r="E8" s="125">
         <v>20160810</v>
       </c>
-      <c r="F8" s="124"/>
+      <c r="F8" s="125"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -6616,7 +7008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
@@ -6643,11 +7035,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="124">
+      <c r="C4" s="125">
         <v>201605</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -6719,19 +7111,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="128">
+      <c r="C11" s="129">
         <v>20160608</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="131"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -6915,20 +7307,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="125">
+      <c r="C18" s="126">
         <v>20160708</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="128"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -7147,20 +7539,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="125">
+      <c r="C27" s="126">
         <v>20160808</v>
       </c>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="127"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="128"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -7365,21 +7757,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="125">
+      <c r="C35" s="126">
         <v>20160825</v>
       </c>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="127"/>
+      <c r="L35" s="127"/>
+      <c r="M35" s="127"/>
+      <c r="N35" s="127"/>
+      <c r="O35" s="128"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -7598,21 +7990,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="125">
+      <c r="C42" s="126">
         <v>20160906</v>
       </c>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="126"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="126"/>
-      <c r="M42" s="126"/>
-      <c r="N42" s="126"/>
-      <c r="O42" s="127"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="127"/>
+      <c r="M42" s="127"/>
+      <c r="N42" s="127"/>
+      <c r="O42" s="128"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -7832,21 +8224,21 @@
     <row r="49" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="72"/>
-      <c r="C50" s="125">
+      <c r="C50" s="126">
         <v>20160921</v>
       </c>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
-      <c r="G50" s="126"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="126"/>
-      <c r="K50" s="126"/>
-      <c r="L50" s="126"/>
-      <c r="M50" s="126"/>
-      <c r="N50" s="126"/>
-      <c r="O50" s="127"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="127"/>
+      <c r="M50" s="127"/>
+      <c r="N50" s="127"/>
+      <c r="O50" s="128"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
@@ -8080,10 +8472,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I33"/>
+  <dimension ref="A4:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8354,7 +8746,7 @@
       </c>
       <c r="C18">
         <f>净值!F12</f>
-        <v>0</v>
+        <v>0.98998490009202555</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="23" x14ac:dyDescent="0.3">
@@ -8390,7 +8782,7 @@
       </c>
       <c r="D20" s="66">
         <f>C18*C20</f>
-        <v>0</v>
+        <v>41820.119947931169</v>
       </c>
       <c r="E20" s="100">
         <f>C20/C22</f>
@@ -8408,7 +8800,7 @@
       </c>
       <c r="I20">
         <f>D20/40000-1</f>
-        <v>-1</v>
+        <v>4.5502998698279118E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="23" x14ac:dyDescent="0.3">
@@ -8420,7 +8812,7 @@
       </c>
       <c r="D21" s="66">
         <f>C21*C18</f>
-        <v>0</v>
+        <v>23173.85293538266</v>
       </c>
       <c r="E21" s="100">
         <f>C21/C22</f>
@@ -8437,7 +8829,7 @@
       </c>
       <c r="I21">
         <f>D21/22000-1</f>
-        <v>-1</v>
+        <v>5.3356951608302783E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
@@ -8450,7 +8842,7 @@
       </c>
       <c r="D22" s="68">
         <f>D20+D21</f>
-        <v>0</v>
+        <v>64993.972883313829</v>
       </c>
       <c r="E22" s="70">
         <v>1</v>
@@ -8469,7 +8861,7 @@
       </c>
       <c r="I22">
         <f>D22/62000-1</f>
-        <v>-1</v>
+        <v>4.8289885214739092E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -8694,7 +9086,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="73" t="s">
         <v>43</v>
       </c>
@@ -8724,6 +9116,132 @@
       <c r="I33">
         <f>D33/62000-1</f>
         <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>20161103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35">
+        <v>0.98998490009202555</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B36" s="40"/>
+      <c r="C36" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="116" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B37" s="40">
+        <v>216</v>
+      </c>
+      <c r="C37" s="114">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="D37" s="66">
+        <f>C35*C37</f>
+        <v>41820.119947931169</v>
+      </c>
+      <c r="E37" s="100">
+        <f>C37/C39</f>
+        <v>0.55286274844758898</v>
+      </c>
+      <c r="F37">
+        <v>560.38</v>
+      </c>
+      <c r="G37">
+        <v>40000</v>
+      </c>
+      <c r="H37">
+        <f>F37/G37</f>
+        <v>1.4009499999999999E-2</v>
+      </c>
+      <c r="I37">
+        <f>D37/40000-1</f>
+        <v>4.5502998698279118E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="B38" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="64">
+        <v>34164.905843753644</v>
+      </c>
+      <c r="D38" s="66">
+        <f>C38*C35</f>
+        <v>33822.740898381911</v>
+      </c>
+      <c r="E38" s="100">
+        <f>C38/C39</f>
+        <v>0.44713725155241096</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>33000</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>D38/22000-1</f>
+        <v>0.53739731356281406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="115">
+        <f>C37+C38</f>
+        <v>76408.095557095454</v>
+      </c>
+      <c r="D39" s="68">
+        <f>D37+D38</f>
+        <v>75642.86084631308</v>
+      </c>
+      <c r="E39" s="70">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <f>F37+F38</f>
+        <v>560.38</v>
+      </c>
+      <c r="G39">
+        <f>G37+G38</f>
+        <v>73000</v>
+      </c>
+      <c r="H39">
+        <f>F39/G39</f>
+        <v>7.6764383561643834E-3</v>
+      </c>
+      <c r="I39">
+        <f>D39/62000-1</f>
+        <v>0.22004614268246914</v>
       </c>
     </row>
   </sheetData>
@@ -8734,10 +9252,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q11"/>
+  <dimension ref="B2:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8963,7 +9481,7 @@
         <v>65378.841719794524</v>
       </c>
       <c r="L6">
-        <f>(F6-F5)*E6</f>
+        <f t="shared" ref="L6:L11" si="4">(F6-F5)*E6</f>
         <v>867.29362100000287</v>
       </c>
     </row>
@@ -9004,7 +9522,7 @@
         <v>65645.274396595487</v>
       </c>
       <c r="L7">
-        <f>(F7-F6)*E7</f>
+        <f t="shared" si="4"/>
         <v>266.43267680096386</v>
       </c>
     </row>
@@ -9045,7 +9563,7 @@
         <v>71387.021902600318</v>
       </c>
       <c r="L8">
-        <f>(F8-F7)*E8</f>
+        <f t="shared" si="4"/>
         <v>-258.25249399515786</v>
       </c>
     </row>
@@ -9086,7 +9604,7 @@
         <v>71629.138475080254</v>
       </c>
       <c r="L9">
-        <f>(F9-F8)*E9</f>
+        <f t="shared" si="4"/>
         <v>242.1165724799302</v>
       </c>
     </row>
@@ -9119,15 +9637,15 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10" si="4">F10-H10</f>
+        <f t="shared" ref="J10" si="5">F10-H10</f>
         <v>1.0010309148876051</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10" si="5">J10*E10</f>
+        <f t="shared" ref="K10" si="6">J10*E10</f>
         <v>71725.913268959863</v>
       </c>
       <c r="L10">
-        <f>(F10-F9)*E10</f>
+        <f t="shared" si="4"/>
         <v>96.774793879613512</v>
       </c>
     </row>
@@ -9146,7 +9664,7 @@
         <v>71652.046107899863</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11" si="6">C11/E11</f>
+        <f t="shared" ref="F11" si="7">C11/E11</f>
         <v>0.99900715380391492</v>
       </c>
       <c r="G11">
@@ -9160,16 +9678,57 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11" si="7">F11-H11</f>
+        <f t="shared" ref="J11" si="8">F11-H11</f>
         <v>0.99900715380391492</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11" si="8">J11*E11</f>
+        <f t="shared" ref="K11" si="9">J11*E11</f>
         <v>71580.906646479925</v>
       </c>
       <c r="L11">
-        <f>(F11-F10)*E11</f>
+        <f t="shared" si="4"/>
         <v>-145.00662247994208</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>20161103</v>
+      </c>
+      <c r="C12">
+        <v>70934.443707518454</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12" si="10">C12-C11</f>
+        <v>-646.46293896147108</v>
+      </c>
+      <c r="E12">
+        <v>71652.046107899863</v>
+      </c>
+      <c r="F12">
+        <f>C12/E12</f>
+        <v>0.98998490009202555</v>
+      </c>
+      <c r="G12">
+        <f>F12-F11</f>
+        <v>-9.0222537118893609E-3</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12" si="11">F12-H12</f>
+        <v>0.98998490009202555</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12" si="12">J12*E12</f>
+        <v>70934.443707518454</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12" si="13">(F12-F11)*E12</f>
+        <v>-646.46293896146722</v>
       </c>
     </row>
   </sheetData>
@@ -9332,10 +9891,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K14"/>
+  <dimension ref="B3:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9353,10 +9912,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="J3" s="133" t="s">
+      <c r="J3" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="133"/>
+      <c r="K3" s="134"/>
     </row>
     <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
@@ -9388,7 +9947,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B5" s="131">
+      <c r="B5" s="132">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -9417,7 +9976,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B6" s="132"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="64" t="s">
         <v>147</v>
       </c>
@@ -9613,48 +10172,110 @@
         <v>150</v>
       </c>
       <c r="D13" s="64">
-        <f>5000/E12</f>
-        <v>5001.5990442791363</v>
+        <v>29408.856394558064</v>
       </c>
       <c r="E13" s="41">
         <f>净值!F10</f>
         <v>1.0010309148876051</v>
       </c>
       <c r="F13" s="64">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G13" s="64">
-        <v>29408.856394558064</v>
+        <f>D13*E13</f>
+        <v>29439.174422442655</v>
       </c>
       <c r="H13" s="64">
         <f>E13*G13</f>
-        <v>29439.174422442655</v>
+        <v>29469.523705633554</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="23" x14ac:dyDescent="0.3">
       <c r="B14" s="48">
-        <v>20161027</v>
+        <v>20161103</v>
       </c>
       <c r="C14" s="64" t="s">
         <v>150</v>
       </c>
       <c r="D14" s="64">
-        <f>5000/E13</f>
-        <v>4994.8507340169363</v>
+        <v>29408.856394558064</v>
       </c>
       <c r="E14" s="41">
-        <f>净值!F11</f>
-        <v>0.99900715380391492</v>
+        <v>0.98998490009202555</v>
       </c>
       <c r="F14" s="64">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G14" s="64">
-        <v>29408.856394558064</v>
+        <f>D14*E14</f>
+        <v>29114.323759587292</v>
       </c>
       <c r="H14" s="64">
         <f>E14*G14</f>
-        <v>29379.657923355517</v>
+        <v>28822.740898381911</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B15" s="48">
+        <v>20161103</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="64">
+        <v>5050.5820841663517</v>
+      </c>
+      <c r="E15" s="64">
+        <v>0.98998490009202555</v>
+      </c>
+      <c r="F15" s="64">
+        <v>0</v>
+      </c>
+      <c r="G15" s="64">
+        <f>G14+J15</f>
+        <v>34164.905843753644</v>
+      </c>
+      <c r="H15" s="64">
+        <f>E15*G15</f>
+        <v>33822.740898381911</v>
+      </c>
+      <c r="J15" s="110">
+        <f>K15/E15</f>
+        <v>5050.5820841663517</v>
+      </c>
+      <c r="K15" s="110">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B16" s="48">
+        <v>20161103</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="64">
+        <v>34164.905843753644</v>
+      </c>
+      <c r="E16" s="64">
+        <v>0.98998490009202555</v>
+      </c>
+      <c r="F16" s="64">
+        <v>0</v>
+      </c>
+      <c r="G16" s="64">
+        <v>34164.905843753644</v>
+      </c>
+      <c r="H16" s="64">
+        <f>E16*G16</f>
+        <v>33822.740898381911</v>
+      </c>
+      <c r="J16" s="110">
+        <f>K16/E16</f>
+        <v>5050.5820841663517</v>
+      </c>
+      <c r="K16" s="110">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -9669,10 +10290,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O19"/>
+  <dimension ref="B3:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9731,7 +10352,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="39" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="131">
+      <c r="B5" s="132">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -9764,7 +10385,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="132"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="16" t="s">
         <v>159</v>
       </c>
@@ -9818,7 +10439,7 @@
         <v>42243.189713341802</v>
       </c>
       <c r="H7" s="64">
-        <f>E7*D7</f>
+        <f t="shared" ref="H7:H12" si="1">E7*D7</f>
         <v>42067.762309088866</v>
       </c>
       <c r="I7" s="64"/>
@@ -9852,7 +10473,7 @@
         <v>42243.189713341802</v>
       </c>
       <c r="H8" s="64">
-        <f>E8*D8</f>
+        <f t="shared" si="1"/>
         <v>42239.197382335871</v>
       </c>
       <c r="I8" s="64"/>
@@ -9882,7 +10503,7 @@
         <v>42243.189713341802</v>
       </c>
       <c r="H9" s="64">
-        <f>E9*D9</f>
+        <f t="shared" si="1"/>
         <v>42086.942008060127</v>
       </c>
       <c r="I9" s="64">
@@ -9924,7 +10545,7 @@
         <v>42243.189713341802</v>
       </c>
       <c r="H10" s="64">
-        <f>E10*D10</f>
+        <f t="shared" si="1"/>
         <v>42229.684286328244</v>
       </c>
       <c r="I10" s="64">
@@ -9962,11 +10583,11 @@
         <v>57.054560188968026</v>
       </c>
       <c r="G11" s="64">
-        <f t="shared" ref="G11" si="1">D11</f>
+        <f t="shared" ref="G11" si="2">D11</f>
         <v>42243.189713341802</v>
       </c>
       <c r="H11" s="64">
-        <f>E11*D11</f>
+        <f t="shared" si="1"/>
         <v>42286.738846517212</v>
       </c>
       <c r="I11" s="64">
@@ -10004,11 +10625,11 @@
         <v>-85.490123392803071</v>
       </c>
       <c r="G12" s="64">
-        <f t="shared" ref="G12" si="2">D12</f>
+        <f t="shared" ref="G12" si="3">D12</f>
         <v>42243.189713341802</v>
       </c>
       <c r="H12" s="64">
-        <f>E12*D12</f>
+        <f t="shared" si="1"/>
         <v>42201.248723124409</v>
       </c>
       <c r="I12" s="64">
@@ -10027,13 +10648,53 @@
         <v>1.4009499999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:15" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B13" s="48">
+        <v>20161103</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E13" s="41">
+        <f>净值!F12</f>
+        <v>0.98998490009202555</v>
+      </c>
+      <c r="F13" s="64">
+        <f>E13*D13-H12</f>
+        <v>-381.12877519323956</v>
+      </c>
+      <c r="G13" s="64">
+        <f t="shared" ref="G13" si="4">D13</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H13" s="64">
+        <f t="shared" ref="H13" si="5">E13*D13</f>
+        <v>41820.119947931169</v>
+      </c>
+      <c r="I13" s="64">
+        <f>H13-40000+560.38</f>
+        <v>2380.4999479311691</v>
+      </c>
+      <c r="J13" s="64">
+        <f>I13/40000</f>
+        <v>5.951249869827923E-2</v>
+      </c>
+      <c r="K13" s="64">
+        <v>560.38</v>
+      </c>
+      <c r="L13" s="64">
+        <f>560.38/40000</f>
+        <v>1.4009499999999999E-2</v>
+      </c>
+    </row>
     <row r="14" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="17" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="18" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:B6"/>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="185">
   <si>
     <t>黄金基金</t>
   </si>
@@ -2426,6 +2426,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2436,30 +2460,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3128,13 +3128,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -3149,27 +3163,13 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3529,7 +3529,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="148">
+      <c r="E6" s="150">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3537,7 +3537,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="146">
+      <c r="G6" s="154">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3552,15 +3552,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="148">
+      <c r="K6" s="150">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="148">
+      <c r="L6" s="150">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="144">
+      <c r="M6" s="152">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3575,12 +3575,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="148"/>
+      <c r="E7" s="150"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="146"/>
+      <c r="G7" s="154"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3592,9 +3592,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="144"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="152"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3606,12 +3606,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="148"/>
+      <c r="E8" s="150"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="146"/>
+      <c r="G8" s="154"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3623,9 +3623,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="144"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="152"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3637,12 +3637,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="149"/>
+      <c r="E9" s="151"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="147"/>
+      <c r="G9" s="155"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3654,9 +3654,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="149"/>
-      <c r="L9" s="149"/>
-      <c r="M9" s="145"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="153"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3710,15 +3710,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="150">
+      <c r="G15" s="144">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="150">
+      <c r="H15" s="144">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="153">
+      <c r="I15" s="147">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3738,9 +3738,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="154"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="148"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3757,9 +3757,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="154"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="148"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3776,23 +3776,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="155"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5865,10 +5865,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6001,7 +6001,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>20160930</v>
       </c>
@@ -6026,6 +6026,34 @@
       </c>
       <c r="I8" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>161103</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>161105</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10">
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -10108,7 +10136,7 @@
         <v>24408.383808517923</v>
       </c>
       <c r="H10" s="64">
-        <f>E10*G10</f>
+        <f t="shared" ref="H10:H16" si="0">E10*G10</f>
         <v>24406.077014259612</v>
       </c>
     </row>
@@ -10134,7 +10162,7 @@
         <v>29408.856394558064</v>
       </c>
       <c r="H11" s="64">
-        <f>E11*G11</f>
+        <f t="shared" si="0"/>
         <v>29406.077014259612</v>
       </c>
     </row>
@@ -10160,7 +10188,7 @@
         <v>29408.856394558064</v>
       </c>
       <c r="H12" s="64">
-        <f>E12*G12</f>
+        <f t="shared" si="0"/>
         <v>29399.45418875201</v>
       </c>
     </row>
@@ -10186,7 +10214,7 @@
         <v>29439.174422442655</v>
       </c>
       <c r="H13" s="64">
-        <f>E13*G13</f>
+        <f t="shared" si="0"/>
         <v>29469.523705633554</v>
       </c>
     </row>
@@ -10211,7 +10239,7 @@
         <v>29114.323759587292</v>
       </c>
       <c r="H14" s="64">
-        <f>E14*G14</f>
+        <f t="shared" si="0"/>
         <v>28822.740898381911</v>
       </c>
     </row>
@@ -10236,7 +10264,7 @@
         <v>34164.905843753644</v>
       </c>
       <c r="H15" s="64">
-        <f>E15*G15</f>
+        <f t="shared" si="0"/>
         <v>33822.740898381911</v>
       </c>
       <c r="J15" s="110">
@@ -10267,7 +10295,7 @@
         <v>34164.905843753644</v>
       </c>
       <c r="H16" s="64">
-        <f>E16*G16</f>
+        <f t="shared" si="0"/>
         <v>33822.740898381911</v>
       </c>
       <c r="J16" s="110">
@@ -10465,7 +10493,7 @@
         <v>0.99990549172463006</v>
       </c>
       <c r="F8" s="64">
-        <f>E8*D8-H7</f>
+        <f t="shared" ref="F8:F13" si="2">E8*D8-H7</f>
         <v>171.43507324700477</v>
       </c>
       <c r="G8" s="64">
@@ -10495,7 +10523,7 @@
         <v>0.99630123325577546</v>
       </c>
       <c r="F9" s="64">
-        <f>E9*D9-H8</f>
+        <f t="shared" si="2"/>
         <v>-152.25537427574454</v>
       </c>
       <c r="G9" s="64">
@@ -10537,7 +10565,7 @@
         <v>0.99968029338917808</v>
       </c>
       <c r="F10" s="64">
-        <f>E10*D10-H9</f>
+        <f t="shared" si="2"/>
         <v>142.74227826811693</v>
       </c>
       <c r="G10" s="64">
@@ -10579,11 +10607,11 @@
         <v>1.0010309148876051</v>
       </c>
       <c r="F11" s="64">
-        <f>E11*D11-H10</f>
+        <f t="shared" si="2"/>
         <v>57.054560188968026</v>
       </c>
       <c r="G11" s="64">
-        <f t="shared" ref="G11" si="2">D11</f>
+        <f t="shared" ref="G11" si="3">D11</f>
         <v>42243.189713341802</v>
       </c>
       <c r="H11" s="64">
@@ -10621,11 +10649,11 @@
         <v>0.99900715380391492</v>
       </c>
       <c r="F12" s="64">
-        <f>E12*D12-H11</f>
+        <f t="shared" si="2"/>
         <v>-85.490123392803071</v>
       </c>
       <c r="G12" s="64">
-        <f t="shared" ref="G12" si="3">D12</f>
+        <f t="shared" ref="G12" si="4">D12</f>
         <v>42243.189713341802</v>
       </c>
       <c r="H12" s="64">
@@ -10663,15 +10691,15 @@
         <v>0.98998490009202555</v>
       </c>
       <c r="F13" s="64">
-        <f>E13*D13-H12</f>
+        <f t="shared" si="2"/>
         <v>-381.12877519323956</v>
       </c>
       <c r="G13" s="64">
-        <f t="shared" ref="G13" si="4">D13</f>
+        <f t="shared" ref="G13" si="5">D13</f>
         <v>42243.189713341802</v>
       </c>
       <c r="H13" s="64">
-        <f t="shared" ref="H13" si="5">E13*D13</f>
+        <f t="shared" ref="H13" si="6">E13*D13</f>
         <v>41820.119947931169</v>
       </c>
       <c r="I13" s="64">

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -27,7 +27,8 @@
     <sheet name="用户资产" sheetId="14" state="hidden" r:id="rId13"/>
     <sheet name="Operation" sheetId="9" r:id="rId14"/>
     <sheet name="余额宝损益表" sheetId="11" r:id="rId15"/>
-    <sheet name="策略" sheetId="10" state="hidden" r:id="rId16"/>
+    <sheet name="待确认" sheetId="19" r:id="rId16"/>
+    <sheet name="策略" sheetId="10" state="hidden" r:id="rId17"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="203">
   <si>
     <t>黄金基金</t>
   </si>
@@ -1467,6 +1468,153 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>cheng'jiao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买港股基金4000</t>
+    <rPh sb="0" eb="1">
+      <t>gou'mai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gang'gu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝油气，全部赎回</t>
+    <rPh sb="0" eb="1">
+      <t>hua'bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>quan'bu'shu'hui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买ETF黄金</t>
+    <rPh sb="0" eb="1">
+      <t>gou'mai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huang'jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安石油，赎回 一半</t>
+    <rPh sb="0" eb="1">
+      <t>hua'an'shi'you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi'ban</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标：12月16日</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申购港股基金</t>
+    <rPh sb="0" eb="1">
+      <t>shen'gou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gang'gu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起时间</t>
+    <rPh sb="0" eb="1">
+      <t>fa'qi'shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认时间</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值：</t>
+    <rPh sb="0" eb="1">
+      <t>jing'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>认购前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>认购后</t>
+    <rPh sb="0" eb="1">
+      <t>ren'gou'hou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红后统计</t>
+    <rPh sb="0" eb="1">
+      <t>fen'hong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tong'ji</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2043,7 +2191,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2359,6 +2507,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2923,174 +3084,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="123" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="123" t="s">
+      <c r="B17" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="123">
+      <c r="D17" s="128">
         <v>7000</v>
       </c>
-      <c r="E17" s="124">
+      <c r="E17" s="129">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="122">
+      <c r="G17" s="127">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="129"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="123" t="s">
+      <c r="B19" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="123">
+      <c r="D19" s="128">
         <v>10000</v>
       </c>
-      <c r="E19" s="124">
+      <c r="E19" s="129">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="124"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="129"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="123">
+      <c r="D21" s="128">
         <v>10000</v>
       </c>
-      <c r="E21" s="124">
+      <c r="E21" s="129">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="124"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="129"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="123">
+      <c r="D23" s="128">
         <v>10000</v>
       </c>
-      <c r="E23" s="124">
+      <c r="E23" s="129">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="124"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="129"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="127"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="123">
+      <c r="D25" s="128">
         <v>1000</v>
       </c>
-      <c r="E25" s="124">
+      <c r="E25" s="129">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="127"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="124"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="129"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="123" t="s">
+      <c r="C27" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="123">
+      <c r="D27" s="128">
         <v>22000</v>
       </c>
-      <c r="E27" s="124">
+      <c r="E27" s="129">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="124"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="129"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -3200,27 +3361,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3253,12 +3414,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="142"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="147"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3293,12 +3454,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="142"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="147"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3333,12 +3494,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="140" t="s">
+      <c r="C16" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="147"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3380,13 +3541,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="137"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="142"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3469,20 +3630,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="129" t="s">
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="131"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="136"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3529,7 +3690,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="150">
+      <c r="E6" s="155">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3537,7 +3698,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="154">
+      <c r="G6" s="159">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3552,15 +3713,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="150">
+      <c r="K6" s="155">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="150">
+      <c r="L6" s="155">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="152">
+      <c r="M6" s="157">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3575,12 +3736,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="150"/>
+      <c r="E7" s="155"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="154"/>
+      <c r="G7" s="159"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3592,9 +3753,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="152"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="157"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3606,12 +3767,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="150"/>
+      <c r="E8" s="155"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="154"/>
+      <c r="G8" s="159"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3623,9 +3784,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="152"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="157"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3637,12 +3798,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="151"/>
+      <c r="E9" s="156"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="155"/>
+      <c r="G9" s="160"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3654,9 +3815,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="153"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="158"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3666,14 +3827,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="136"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -3710,15 +3871,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="144">
+      <c r="G15" s="149">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="144">
+      <c r="H15" s="149">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="147">
+      <c r="I15" s="152">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3738,9 +3899,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="148"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="153"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3757,9 +3918,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="148"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="153"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3776,9 +3937,9 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="149"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3801,10 +3962,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J121"/>
+  <dimension ref="C3:J160"/>
   <sheetViews>
-    <sheetView topLeftCell="B103" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView topLeftCell="B138" workbookViewId="0">
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -3824,10 +3985,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="156">
+      <c r="D4" s="161">
         <v>20160622</v>
       </c>
-      <c r="E4" s="157"/>
+      <c r="E4" s="162"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -3929,10 +4090,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="156">
+      <c r="D15" s="161">
         <v>20160713</v>
       </c>
-      <c r="E15" s="157"/>
+      <c r="E15" s="162"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4037,10 +4198,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="156">
+      <c r="D25" s="161">
         <v>20160808</v>
       </c>
-      <c r="E25" s="157"/>
+      <c r="E25" s="162"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4170,10 +4331,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="156">
+      <c r="D35" s="161">
         <v>20160825</v>
       </c>
-      <c r="E35" s="157"/>
+      <c r="E35" s="162"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4385,10 +4546,10 @@
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="156">
+      <c r="D45" s="161">
         <v>20160906</v>
       </c>
-      <c r="E45" s="157"/>
+      <c r="E45" s="162"/>
     </row>
     <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="29" t="s">
@@ -4572,10 +4733,10 @@
     </row>
     <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="156">
+      <c r="D56" s="161">
         <v>20160921</v>
       </c>
-      <c r="E56" s="157"/>
+      <c r="E56" s="162"/>
     </row>
     <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="105" t="s">
@@ -4736,10 +4897,10 @@
     </row>
     <row r="65" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D66" s="156">
+      <c r="D66" s="161">
         <v>20161017</v>
       </c>
-      <c r="E66" s="157"/>
+      <c r="E66" s="162"/>
     </row>
     <row r="67" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="105" t="s">
@@ -4901,10 +5062,10 @@
     </row>
     <row r="74" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D75" s="156">
+      <c r="D75" s="161">
         <v>20161020</v>
       </c>
-      <c r="E75" s="157"/>
+      <c r="E75" s="162"/>
     </row>
     <row r="76" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D76" s="105" t="s">
@@ -5062,10 +5223,10 @@
     </row>
     <row r="83" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D84" s="156">
+      <c r="D84" s="161">
         <v>201610207</v>
       </c>
-      <c r="E84" s="157"/>
+      <c r="E84" s="162"/>
     </row>
     <row r="85" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D85" s="105" t="s">
@@ -5223,10 +5384,10 @@
     </row>
     <row r="92" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D93" s="156">
+      <c r="D93" s="161">
         <v>20161031</v>
       </c>
-      <c r="E93" s="157"/>
+      <c r="E93" s="162"/>
     </row>
     <row r="94" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D94" s="105" t="s">
@@ -5384,10 +5545,10 @@
     </row>
     <row r="101" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="102" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D102" s="156">
+      <c r="D102" s="161">
         <v>20161103</v>
       </c>
-      <c r="E102" s="157"/>
+      <c r="E102" s="162"/>
     </row>
     <row r="103" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D103" s="105" t="s">
@@ -5545,10 +5706,10 @@
     </row>
     <row r="110" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="111" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D111" s="156">
+      <c r="D111" s="161">
         <v>20161103</v>
       </c>
-      <c r="E111" s="157"/>
+      <c r="E111" s="162"/>
     </row>
     <row r="112" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D112" s="105" t="s">
@@ -5707,25 +5868,776 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="H121" s="11">
-        <v>34549.760000000002</v>
+    <row r="119" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="120" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D120" s="161">
+        <v>20161108</v>
+      </c>
+      <c r="E120" s="162"/>
+    </row>
+    <row r="121" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D121" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C122" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122" s="106">
+        <f>F122*G122</f>
+        <v>8865.3159999999989</v>
+      </c>
+      <c r="E122" s="107">
+        <f>D122/D127</f>
+        <v>0.1172047636836698</v>
+      </c>
+      <c r="F122" s="11">
+        <v>8860</v>
+      </c>
+      <c r="G122" s="9">
+        <v>1.0005999999999999</v>
+      </c>
+      <c r="H122" s="11">
+        <f>F122*G122</f>
+        <v>8865.3159999999989</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C123" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="78">
+        <f>H123</f>
+        <v>13919.706966000002</v>
+      </c>
+      <c r="E123" s="53">
+        <f>D123/D127</f>
+        <v>0.18402682605966475</v>
+      </c>
+      <c r="F123" s="96">
+        <f>9921.98-162.21+3997.6</f>
+        <v>13757.37</v>
+      </c>
+      <c r="G123" s="9">
+        <v>1.0118</v>
+      </c>
+      <c r="H123" s="11">
+        <f t="shared" ref="H123:H125" si="9">F123*G123</f>
+        <v>13919.706966000002</v>
+      </c>
+      <c r="J123" s="88"/>
+    </row>
+    <row r="124" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C124" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124" s="56">
+        <f>H124</f>
+        <v>9971.3459999999995</v>
+      </c>
+      <c r="E124" s="53">
+        <f>D124/D127</f>
+        <v>0.13182713978138019</v>
+      </c>
+      <c r="F124" s="11">
+        <v>11030.25</v>
+      </c>
+      <c r="G124" s="9">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="H124" s="11">
+        <f t="shared" si="9"/>
+        <v>9971.3459999999995</v>
+      </c>
+    </row>
+    <row r="125" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C125" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D125" s="56">
+        <f>H125</f>
+        <v>12333.42459282183</v>
+      </c>
+      <c r="E125" s="53">
+        <f>D125/D127</f>
+        <v>0.1630552272261975</v>
+      </c>
+      <c r="F125" s="11">
+        <v>20932.492520064206</v>
+      </c>
+      <c r="G125" s="9">
+        <v>0.58919999999999995</v>
+      </c>
+      <c r="H125" s="11">
+        <f t="shared" si="9"/>
+        <v>12333.42459282183</v>
+      </c>
+    </row>
+    <row r="126" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C126" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D126" s="11">
+        <v>30549.759999999998</v>
+      </c>
+      <c r="E126" s="53">
+        <f>D126/D127</f>
+        <v>0.40388604324908767</v>
+      </c>
+      <c r="F126" s="11">
+        <v>30549.759999999998</v>
+      </c>
+      <c r="G126" s="9">
+        <v>1</v>
+      </c>
+      <c r="H126" s="11">
+        <v>30549.759999999998</v>
+      </c>
+      <c r="J126" s="9">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="127" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C127" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="57">
+        <f>SUM(D122:D126)</f>
+        <v>75639.553558821834</v>
+      </c>
+      <c r="E127" s="54">
+        <f>D127/D127</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D129" s="161">
+        <v>20161108</v>
+      </c>
+      <c r="E129" s="162"/>
+    </row>
+    <row r="130" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D130" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E130" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C131" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D131" s="106">
+        <f>F131*G131</f>
+        <v>12850.596955999999</v>
+      </c>
+      <c r="E131" s="107">
+        <f>D131/D136</f>
+        <v>0.1692065440679402</v>
+      </c>
+      <c r="F131" s="11">
+        <f>4017.64+8860</f>
+        <v>12877.64</v>
+      </c>
+      <c r="G131" s="9">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="H131" s="11">
+        <f>F131*G131</f>
+        <v>12850.596955999999</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C132" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" s="78">
+        <f>H132</f>
+        <v>13579.7914</v>
+      </c>
+      <c r="E132" s="53">
+        <f>D132/D136</f>
+        <v>0.17880800244728609</v>
+      </c>
+      <c r="F132" s="96">
+        <f>9921.98-162.21+3997.6+99.56</f>
+        <v>13856.93</v>
+      </c>
+      <c r="G132" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="H132" s="11">
+        <f t="shared" ref="H132:H133" si="10">F132*G132</f>
+        <v>13579.7914</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C133" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" s="56">
+        <f>H133</f>
+        <v>6090.110889999999</v>
+      </c>
+      <c r="E133" s="53">
+        <f>D133/D136</f>
+        <v>8.0189785752037668E-2</v>
+      </c>
+      <c r="F133" s="11">
+        <f>11030.25-4572.02</f>
+        <v>6458.23</v>
+      </c>
+      <c r="G133" s="9">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="H133" s="11">
+        <f t="shared" si="10"/>
+        <v>6090.110889999999</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C134" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D134" s="56">
+        <v>0</v>
+      </c>
+      <c r="E134" s="53">
+        <v>0</v>
+      </c>
+      <c r="F134" s="11">
+        <v>0</v>
+      </c>
+      <c r="G134" s="9">
+        <v>0</v>
+      </c>
+      <c r="H134" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C135" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D135" s="53">
+        <v>43425.718004558585</v>
+      </c>
+      <c r="E135" s="53">
+        <f>D135/D136</f>
+        <v>0.57179566773273616</v>
+      </c>
+      <c r="F135" s="53">
+        <v>43425.718004558585</v>
+      </c>
+      <c r="G135" s="9">
+        <v>1</v>
+      </c>
+      <c r="H135" s="53">
+        <v>43425.718004558585</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C136" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D136" s="57">
+        <f>SUM(D131:D135)</f>
+        <v>75946.217250558577</v>
+      </c>
+      <c r="E136" s="54">
+        <f>D136/D136</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D138" s="161">
+        <v>20161122</v>
+      </c>
+      <c r="E138" s="162"/>
+      <c r="F138" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D139" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="124" t="s">
+        <v>42</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C140" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D140" s="106">
+        <f>F140*G140</f>
+        <v>13050.200376000001</v>
+      </c>
+      <c r="E140" s="107">
+        <f>D140/D145</f>
+        <v>0.17146439758432711</v>
+      </c>
+      <c r="F140" s="11">
+        <f>4017.64+8860</f>
+        <v>12877.64</v>
+      </c>
+      <c r="G140" s="9">
+        <v>1.0134000000000001</v>
+      </c>
+      <c r="H140" s="11">
+        <f>F140*G140</f>
+        <v>13050.200376000001</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C141" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" s="78">
+        <f>H141</f>
+        <v>13550.691847</v>
+      </c>
+      <c r="E141" s="53">
+        <f>D141/D145</f>
+        <v>0.17804027121833885</v>
+      </c>
+      <c r="F141" s="96">
+        <f>9921.98-162.21+3997.6+99.56</f>
+        <v>13856.93</v>
+      </c>
+      <c r="G141" s="9">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="H141" s="11">
+        <f t="shared" ref="H141:H142" si="11">F141*G141</f>
+        <v>13550.691847</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C142" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D142" s="56">
+        <f>H142</f>
+        <v>6083.6526599999988</v>
+      </c>
+      <c r="E142" s="53">
+        <f>D142/D145</f>
+        <v>7.9932093638773488E-2</v>
+      </c>
+      <c r="F142" s="11">
+        <f>11030.25-4572.02</f>
+        <v>6458.23</v>
+      </c>
+      <c r="G142" s="9">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="H142" s="11">
+        <f t="shared" si="11"/>
+        <v>6083.6526599999988</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C143" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D143" s="56">
+        <v>0</v>
+      </c>
+      <c r="E143" s="53">
+        <v>0</v>
+      </c>
+      <c r="F143" s="11">
+        <v>0</v>
+      </c>
+      <c r="G143" s="9">
+        <v>0</v>
+      </c>
+      <c r="H143" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C144" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D144" s="53">
+        <v>43425.718004558585</v>
+      </c>
+      <c r="E144" s="53">
+        <f>D144/D145</f>
+        <v>0.57056323755856064</v>
+      </c>
+      <c r="F144" s="53">
+        <v>43425.718004558585</v>
+      </c>
+      <c r="G144" s="9">
+        <v>1</v>
+      </c>
+      <c r="H144" s="53">
+        <v>43425.718004558585</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C145" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D145" s="57">
+        <f>SUM(D140:D144)</f>
+        <v>76110.26288755858</v>
+      </c>
+      <c r="E145" s="54">
+        <f>D145/D145</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D146" s="161">
+        <v>20161122</v>
+      </c>
+      <c r="E146" s="162"/>
+      <c r="F146" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D147" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" s="124" t="s">
+        <v>42</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C148" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D148" s="106">
+        <f>F148*G148</f>
+        <v>13050.200376000001</v>
+      </c>
+      <c r="E148" s="107">
+        <f>D148/D153</f>
+        <v>0.16073895441199609</v>
+      </c>
+      <c r="F148" s="11">
+        <f>4017.64+8860</f>
+        <v>12877.64</v>
+      </c>
+      <c r="G148" s="9">
+        <v>1.0134000000000001</v>
+      </c>
+      <c r="H148" s="11">
+        <f>F148*G148</f>
+        <v>13050.200376000001</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C149" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" s="78">
+        <f>H149</f>
+        <v>13550.691847</v>
+      </c>
+      <c r="E149" s="53">
+        <f>D149/D153</f>
+        <v>0.16690349391505313</v>
+      </c>
+      <c r="F149" s="96">
+        <f>9921.98-162.21+3997.6+99.56</f>
+        <v>13856.93</v>
+      </c>
+      <c r="G149" s="9">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="H149" s="11">
+        <f t="shared" ref="H149:H150" si="12">F149*G149</f>
+        <v>13550.691847</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C150" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150" s="56">
+        <f>H150</f>
+        <v>6083.6526599999988</v>
+      </c>
+      <c r="E150" s="53">
+        <f>D150/D153</f>
+        <v>7.4932180303723978E-2</v>
+      </c>
+      <c r="F150" s="11">
+        <f>11030.25-4572.02</f>
+        <v>6458.23</v>
+      </c>
+      <c r="G150" s="9">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="H150" s="11">
+        <f t="shared" si="12"/>
+        <v>6083.6526599999988</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C151" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D151" s="56">
+        <v>0</v>
+      </c>
+      <c r="E151" s="53">
+        <v>0</v>
+      </c>
+      <c r="F151" s="11">
+        <v>0</v>
+      </c>
+      <c r="G151" s="9">
+        <v>0</v>
+      </c>
+      <c r="H151" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C152" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D152" s="53">
+        <v>48504.2399</v>
+      </c>
+      <c r="E152" s="53">
+        <f>D152/D153</f>
+        <v>0.59742537136922669</v>
+      </c>
+      <c r="F152" s="53">
+        <v>48504.2399</v>
+      </c>
+      <c r="G152" s="9">
+        <v>1</v>
+      </c>
+      <c r="H152" s="53">
+        <v>48504.2399</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C153" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D153" s="57">
+        <f>SUM(D148:D152)</f>
+        <v>81188.78478300001</v>
+      </c>
+      <c r="E153" s="54">
+        <f>D153/D153</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D154" s="161">
+        <v>20161209</v>
+      </c>
+      <c r="E154" s="162"/>
+      <c r="F154" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D155" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E155" s="126" t="s">
+        <v>42</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C156" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156" s="106">
+        <f>F156*G156</f>
+        <v>13542.126224000001</v>
+      </c>
+      <c r="E156" s="107">
+        <f>D156/D160</f>
+        <v>0.1653364075124574</v>
+      </c>
+      <c r="F156" s="11">
+        <f>4017.64+8860</f>
+        <v>12877.64</v>
+      </c>
+      <c r="G156" s="9">
+        <v>1.0516000000000001</v>
+      </c>
+      <c r="H156" s="11">
+        <f>F156*G156</f>
+        <v>13542.126224000001</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C157" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" s="78">
+        <f>H157</f>
+        <v>13356.694826999999</v>
+      </c>
+      <c r="E157" s="53">
+        <f>D157/D160</f>
+        <v>0.16307246752896631</v>
+      </c>
+      <c r="F157" s="96">
+        <f>9921.98-162.21+3997.6+99.56</f>
+        <v>13856.93</v>
+      </c>
+      <c r="G157" s="9">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="H157" s="11">
+        <f t="shared" ref="H157:H158" si="13">F157*G157</f>
+        <v>13356.694826999999</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C158" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D158" s="56">
+        <f>H158</f>
+        <v>6503.437609999999</v>
+      </c>
+      <c r="E158" s="53">
+        <f>D158/D160</f>
+        <v>7.9400752373226566E-2</v>
+      </c>
+      <c r="F158" s="11">
+        <f>11030.25-4572.02</f>
+        <v>6458.23</v>
+      </c>
+      <c r="G158" s="9">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="H158" s="11">
+        <f t="shared" si="13"/>
+        <v>6503.437609999999</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C159" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D159" s="53">
+        <v>48504.2399</v>
+      </c>
+      <c r="E159" s="53">
+        <f>D159/D160</f>
+        <v>0.59219037258534968</v>
+      </c>
+      <c r="F159" s="53">
+        <v>48504.2399</v>
+      </c>
+      <c r="G159" s="9">
+        <v>1</v>
+      </c>
+      <c r="H159" s="53">
+        <v>48504.2399</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C160" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D160" s="57">
+        <f>SUM(D156:D159)</f>
+        <v>81906.498561</v>
+      </c>
+      <c r="E160" s="54">
+        <f>D160/D160</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D111:E111"/>
+  <mergeCells count="17">
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D111:E111"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5865,10 +6777,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I10"/>
+  <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6056,6 +6968,100 @@
         <v>900</v>
       </c>
     </row>
+    <row r="11" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20161108</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>1.0044</v>
+      </c>
+      <c r="H11">
+        <v>99.56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>161108</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12">
+        <v>4100</v>
+      </c>
+      <c r="E12">
+        <v>1.0205</v>
+      </c>
+      <c r="H12" s="125">
+        <v>4017.64</v>
+      </c>
+      <c r="I12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>20161109</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <f>E13*H13-F13</f>
+        <v>12503.938004558588</v>
+      </c>
+      <c r="E13">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="F13">
+        <v>76.489999999999995</v>
+      </c>
+      <c r="H13" s="11">
+        <v>20932.492520064206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="23" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>20161109</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <f>E14*H14-F14</f>
+        <v>4572.0200000000004</v>
+      </c>
+      <c r="E14">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="F14">
+        <v>22.98</v>
+      </c>
+      <c r="H14">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6064,16 +7070,17 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J53"/>
+  <dimension ref="B2:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="46.5" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="7"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="92" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
@@ -6686,7 +7693,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" s="89" t="s">
         <v>73</v>
       </c>
@@ -6712,7 +7719,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" s="89">
         <v>20161010</v>
       </c>
@@ -6744,7 +7751,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" s="89">
         <v>20160930</v>
       </c>
@@ -6774,7 +7781,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B52" s="89">
         <v>20161019</v>
       </c>
@@ -6801,10 +7808,10 @@
         <v>29549.759999999998</v>
       </c>
       <c r="J52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B53" s="89">
         <v>20161103</v>
       </c>
@@ -6832,6 +7839,255 @@
       </c>
       <c r="J53" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B54" s="89">
+        <v>20161105</v>
+      </c>
+      <c r="C54" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="89">
+        <v>4000</v>
+      </c>
+      <c r="F54" s="89">
+        <v>1</v>
+      </c>
+      <c r="G54" s="93">
+        <v>0</v>
+      </c>
+      <c r="H54" s="89">
+        <f>E54</f>
+        <v>4000</v>
+      </c>
+      <c r="I54" s="89">
+        <v>30549.759999999998</v>
+      </c>
+      <c r="J54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B55" s="89">
+        <v>20161109</v>
+      </c>
+      <c r="C55" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="94" t="s">
+        <v>186</v>
+      </c>
+      <c r="E55">
+        <v>12503.938004558588</v>
+      </c>
+      <c r="F55" s="89">
+        <v>1</v>
+      </c>
+      <c r="G55" s="93">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>12503.938004558588</v>
+      </c>
+      <c r="I55" s="89">
+        <f>H55+I54</f>
+        <v>43053.698004558588</v>
+      </c>
+      <c r="J55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B56" s="89">
+        <v>20161109</v>
+      </c>
+      <c r="C56" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="94" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56">
+        <v>4572.0200000000004</v>
+      </c>
+      <c r="F56" s="89">
+        <v>1</v>
+      </c>
+      <c r="G56" s="93">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>4572.0200000000004</v>
+      </c>
+      <c r="I56" s="89">
+        <f>H56+I55</f>
+        <v>47625.718004558585</v>
+      </c>
+      <c r="J56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B57" s="89">
+        <v>20161109</v>
+      </c>
+      <c r="C57" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57">
+        <v>100</v>
+      </c>
+      <c r="F57" s="89">
+        <v>1</v>
+      </c>
+      <c r="G57" s="93">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>100</v>
+      </c>
+      <c r="I57" s="89">
+        <f>I56-H57</f>
+        <v>47525.718004558585</v>
+      </c>
+      <c r="J57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B58" s="89">
+        <v>20161108</v>
+      </c>
+      <c r="C58" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58">
+        <v>4100</v>
+      </c>
+      <c r="F58" s="89">
+        <v>1</v>
+      </c>
+      <c r="G58" s="93">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>4100</v>
+      </c>
+      <c r="I58" s="89">
+        <f>I57-H58</f>
+        <v>43425.718004558585</v>
+      </c>
+      <c r="J58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B59" s="89">
+        <v>20161108</v>
+      </c>
+      <c r="C59" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59">
+        <f>43425*0.022/365*30</f>
+        <v>78.521917808219172</v>
+      </c>
+      <c r="F59" s="89">
+        <v>1</v>
+      </c>
+      <c r="G59" s="93">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>78.521917808219172</v>
+      </c>
+      <c r="I59" s="89">
+        <f>I58+H59</f>
+        <v>43504.239922366804</v>
+      </c>
+      <c r="J59" t="s">
+        <v>176</v>
+      </c>
+      <c r="K59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B60" s="89">
+        <v>20161122</v>
+      </c>
+      <c r="C60" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60">
+        <v>5000</v>
+      </c>
+      <c r="F60" s="89">
+        <v>1</v>
+      </c>
+      <c r="G60" s="93">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>5000</v>
+      </c>
+      <c r="I60" s="89">
+        <v>48504.2399</v>
+      </c>
+      <c r="J60" t="s">
+        <v>182</v>
+      </c>
+      <c r="K60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B61" s="89">
+        <v>20161209</v>
+      </c>
+      <c r="C61" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61">
+        <v>164.41</v>
+      </c>
+      <c r="F61" s="89">
+        <v>1</v>
+      </c>
+      <c r="G61" s="93">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>164.41</v>
+      </c>
+      <c r="I61" s="89">
+        <f>I60-E61</f>
+        <v>48339.829899999997</v>
+      </c>
+      <c r="J61" t="s">
+        <v>159</v>
+      </c>
+      <c r="K61" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -6841,6 +8097,60 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="10" max="10" width="24.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B2" s="89">
+        <v>20161122</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="89">
+        <v>1</v>
+      </c>
+      <c r="G2" s="93">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3000</v>
+      </c>
+      <c r="I2" s="89"/>
+      <c r="J2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -6917,18 +8227,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="125">
+      <c r="F4" s="130">
         <v>20160708</v>
       </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125">
+      <c r="G4" s="130"/>
+      <c r="H4" s="130">
         <v>20160712</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125">
+      <c r="I4" s="130"/>
+      <c r="J4" s="130">
         <v>20160808</v>
       </c>
-      <c r="K4" s="125"/>
+      <c r="K4" s="130"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -6986,10 +8296,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="125">
+      <c r="E8" s="130">
         <v>20160810</v>
       </c>
-      <c r="F8" s="125"/>
+      <c r="F8" s="130"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -7063,11 +8373,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="125">
+      <c r="C4" s="130">
         <v>201605</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -7139,19 +8449,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="129">
+      <c r="C11" s="134">
         <v>20160608</v>
       </c>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="131"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="136"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -7335,20 +8645,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="126">
+      <c r="C18" s="131">
         <v>20160708</v>
       </c>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="128"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="133"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -7567,20 +8877,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="126">
+      <c r="C27" s="131">
         <v>20160808</v>
       </c>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="127"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="128"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="133"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -7785,21 +9095,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="126">
+      <c r="C35" s="131">
         <v>20160825</v>
       </c>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="127"/>
-      <c r="L35" s="127"/>
-      <c r="M35" s="127"/>
-      <c r="N35" s="127"/>
-      <c r="O35" s="128"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="133"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -8018,21 +9328,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="126">
+      <c r="C42" s="131">
         <v>20160906</v>
       </c>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="127"/>
-      <c r="L42" s="127"/>
-      <c r="M42" s="127"/>
-      <c r="N42" s="127"/>
-      <c r="O42" s="128"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="132"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="132"/>
+      <c r="N42" s="132"/>
+      <c r="O42" s="133"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -8252,21 +9562,21 @@
     <row r="49" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="72"/>
-      <c r="C50" s="126">
+      <c r="C50" s="131">
         <v>20160921</v>
       </c>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="127"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="127"/>
-      <c r="K50" s="127"/>
-      <c r="L50" s="127"/>
-      <c r="M50" s="127"/>
-      <c r="N50" s="127"/>
-      <c r="O50" s="128"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="132"/>
+      <c r="J50" s="132"/>
+      <c r="K50" s="132"/>
+      <c r="L50" s="132"/>
+      <c r="M50" s="132"/>
+      <c r="N50" s="132"/>
+      <c r="O50" s="133"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
@@ -8900,8 +10210,8 @@
         <v>82</v>
       </c>
       <c r="C24">
-        <f>净值!F18</f>
-        <v>0</v>
+        <f>净值!F17</f>
+        <v>0.99323108274574878</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="23" x14ac:dyDescent="0.3">
@@ -8937,7 +10247,7 @@
       </c>
       <c r="D26" s="66">
         <f>C24*C26</f>
-        <v>0</v>
+        <v>41957.249057616558</v>
       </c>
       <c r="E26" s="100">
         <f>C26/C28</f>
@@ -8955,7 +10265,7 @@
       </c>
       <c r="I26">
         <f>D26/40000-1</f>
-        <v>-1</v>
+        <v>4.8931226440414033E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="23" x14ac:dyDescent="0.3">
@@ -8967,7 +10277,7 @@
       </c>
       <c r="D27" s="66">
         <f>C27*C24</f>
-        <v>0</v>
+        <v>24243.165478208059</v>
       </c>
       <c r="E27" s="100">
         <f>C27/C28</f>
@@ -8984,7 +10294,7 @@
       </c>
       <c r="I27">
         <f>D27/22000-1</f>
-        <v>-1</v>
+        <v>0.10196206719127532</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
@@ -8997,7 +10307,7 @@
       </c>
       <c r="D28" s="68">
         <f>D26+D27</f>
-        <v>0</v>
+        <v>66200.414535824617</v>
       </c>
       <c r="E28" s="70">
         <v>1</v>
@@ -9016,7 +10326,7 @@
       </c>
       <c r="I28">
         <f>D28/62000-1</f>
-        <v>-1</v>
+        <v>6.7748621545558274E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -9027,7 +10337,7 @@
         <v>82</v>
       </c>
       <c r="C29">
-        <f>净值!F23</f>
+        <f>净值!F22</f>
         <v>0</v>
       </c>
     </row>
@@ -9280,10 +10590,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q12"/>
+  <dimension ref="A2:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9410,7 +10720,7 @@
         <v>63648.556366251752</v>
       </c>
       <c r="M4">
-        <v>580.38</v>
+        <v>560.38</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
@@ -9573,7 +10883,7 @@
         <v>0.99630123325577546</v>
       </c>
       <c r="G8">
-        <f>F8-F7</f>
+        <f t="shared" ref="G8:G15" si="5">F8-F7</f>
         <v>-3.6042584688545931E-3</v>
       </c>
       <c r="H8">
@@ -9614,7 +10924,7 @@
         <v>0.99968029338917808</v>
       </c>
       <c r="G9">
-        <f>F9-F8</f>
+        <f t="shared" si="5"/>
         <v>3.3790601334026116E-3</v>
       </c>
       <c r="H9">
@@ -9655,7 +10965,7 @@
         <v>1.0010309148876051</v>
       </c>
       <c r="G10">
-        <f>F10-F9</f>
+        <f t="shared" si="5"/>
         <v>1.3506214984270182E-3</v>
       </c>
       <c r="H10">
@@ -9665,11 +10975,11 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10" si="5">F10-H10</f>
+        <f t="shared" ref="J10" si="6">F10-H10</f>
         <v>1.0010309148876051</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10" si="6">J10*E10</f>
+        <f t="shared" ref="K10" si="7">J10*E10</f>
         <v>71725.913268959863</v>
       </c>
       <c r="L10">
@@ -9692,11 +11002,11 @@
         <v>71652.046107899863</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11" si="7">C11/E11</f>
+        <f t="shared" ref="F11" si="8">C11/E11</f>
         <v>0.99900715380391492</v>
       </c>
       <c r="G11">
-        <f>F11-F10</f>
+        <f t="shared" si="5"/>
         <v>-2.0237610836901787E-3</v>
       </c>
       <c r="H11">
@@ -9706,11 +11016,11 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11" si="8">F11-H11</f>
+        <f t="shared" ref="J11" si="9">F11-H11</f>
         <v>0.99900715380391492</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11" si="9">J11*E11</f>
+        <f t="shared" ref="K11" si="10">J11*E11</f>
         <v>71580.906646479925</v>
       </c>
       <c r="L11">
@@ -9726,18 +11036,18 @@
         <v>70934.443707518454</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12" si="10">C12-C11</f>
+        <f t="shared" ref="D12" si="11">C12-C11</f>
         <v>-646.46293896147108</v>
       </c>
       <c r="E12">
         <v>71652.046107899863</v>
       </c>
       <c r="F12">
-        <f>C12/E12</f>
+        <f t="shared" ref="F12:F17" si="12">C12/E12</f>
         <v>0.98998490009202555</v>
       </c>
       <c r="G12">
-        <f>F12-F11</f>
+        <f t="shared" si="5"/>
         <v>-9.0222537118893609E-3</v>
       </c>
       <c r="H12">
@@ -9747,16 +11057,318 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12" si="11">F12-H12</f>
+        <f t="shared" ref="J12" si="13">F12-H12</f>
         <v>0.98998490009202555</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12" si="12">J12*E12</f>
+        <f t="shared" ref="K12" si="14">J12*E12</f>
         <v>70934.443707518454</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12" si="13">(F12-F11)*E12</f>
+        <f t="shared" ref="L12" si="15">(F12-F11)*E12</f>
         <v>-646.46293896146722</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>20161105</v>
+      </c>
+      <c r="C13">
+        <f>70934.4437075185+5000</f>
+        <v>75934.443707518498</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13" si="16">C13-C12</f>
+        <v>5000.0000000000437</v>
+      </c>
+      <c r="E13">
+        <f>71652.0461078999+5000/F12</f>
+        <v>76702.628192066259</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="12"/>
+        <v>0.98998490009202555</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13" si="17">F13-H13</f>
+        <v>0.98998490009202555</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13" si="18">J13*E13</f>
+        <v>75934.443707518498</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13" si="19">(F13-F12)*E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>20161108</v>
+      </c>
+      <c r="C14">
+        <v>75639.553558821834</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14" si="20">C14-C13</f>
+        <v>-294.89014869666426</v>
+      </c>
+      <c r="E14">
+        <f>71652.0461078999+5000/F13</f>
+        <v>76702.628192066259</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="12"/>
+        <v>0.98614031020446336</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>-3.8445898875621998E-3</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14" si="21">F14-H14</f>
+        <v>0.98614031020446336</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14" si="22">J14*E14</f>
+        <v>75639.553558821834</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14" si="23">(F14-F13)*E14</f>
+        <v>-294.89014869666124</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>20161117</v>
+      </c>
+      <c r="C15">
+        <v>75946.217250558577</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15" si="24">C15-C14</f>
+        <v>306.6636917367432</v>
+      </c>
+      <c r="E15">
+        <f>71652.0461078999+5000/F14</f>
+        <v>76722.31851057992</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="12"/>
+        <v>0.98988428302105702</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>3.7439728165936659E-3</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15" si="25">F15-H15</f>
+        <v>0.98988428302105702</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15" si="26">J15*E15</f>
+        <v>75946.217250558577</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15" si="27">(F15-F14)*E15</f>
+        <v>287.24627492965226</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>20161122</v>
+      </c>
+      <c r="C16">
+        <v>76110.26288755858</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16" si="28">C16-C15</f>
+        <v>164.0456370000029</v>
+      </c>
+      <c r="E16">
+        <f>71652.0461078999+5000/F15</f>
+        <v>76703.141559926225</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="12"/>
+        <v>0.99227047731930973</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16" si="29">F16-F15</f>
+        <v>2.3861942982527085E-3</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16" si="30">F16-H16</f>
+        <v>0.99227047731930973</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16" si="31">J16*E16</f>
+        <v>76110.26288755858</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16" si="32">(F16-F15)*E16</f>
+        <v>183.02859904836632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17">
+        <v>20161122</v>
+      </c>
+      <c r="C17">
+        <v>81188.78478300001</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17" si="33">C17-C16</f>
+        <v>5078.5218954414304</v>
+      </c>
+      <c r="E17">
+        <f>E16+5000/F16</f>
+        <v>81742.090227942492</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="12"/>
+        <v>0.99323108274574878</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17" si="34">F17-F16</f>
+        <v>9.60605426439054E-4</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17" si="35">F17-H17</f>
+        <v>0.99323108274574878</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17" si="36">J17*E17</f>
+        <v>81188.78478300001</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17" si="37">(F17-F16)*E17</f>
+        <v>78.521895441432321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>20161209</v>
+      </c>
+      <c r="C18">
+        <v>81906.498561</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18" si="38">C18-C17</f>
+        <v>717.71377799999027</v>
+      </c>
+      <c r="E18">
+        <v>81742.090227942492</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18" si="39">C18/E18</f>
+        <v>1.0020113057128714</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18" si="40">F18-F17</f>
+        <v>8.7802229671226639E-3</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18" si="41">F18-H18</f>
+        <v>1.0020113057128714</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18" si="42">J18*E18</f>
+        <v>81906.498561</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18" si="43">(F18-F17)*E18</f>
+        <v>717.71377799999368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19">
+        <v>20161210</v>
+      </c>
+      <c r="C19">
+        <v>81906.498561</v>
+      </c>
+      <c r="D19">
+        <f>-C19*(F18-F19)</f>
+        <v>-164.73900847703629</v>
+      </c>
+      <c r="E19">
+        <v>81742.090227942492</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19" si="44">F19-F18</f>
+        <v>-2.0113057128714473E-3</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19" si="45">F19-H19</f>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19" si="46">J19*E19</f>
+        <v>81742.090227942492</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19" si="47">(F19-F18)*E19</f>
+        <v>-164.40833305751403</v>
+      </c>
+      <c r="M19">
+        <f>M5-L19</f>
+        <v>724.78833305751402</v>
       </c>
     </row>
   </sheetData>
@@ -9919,10 +11531,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K16"/>
+  <dimension ref="B3:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9940,10 +11552,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="J3" s="134" t="s">
+      <c r="J3" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="134"/>
+      <c r="K3" s="139"/>
     </row>
     <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
@@ -9975,7 +11587,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B5" s="132">
+      <c r="B5" s="137">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -10004,7 +11616,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B6" s="133"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="64" t="s">
         <v>147</v>
       </c>
@@ -10210,12 +11822,11 @@
         <v>0</v>
       </c>
       <c r="G13" s="64">
-        <f>D13*E13</f>
-        <v>29439.174422442655</v>
+        <v>29408.856394558064</v>
       </c>
       <c r="H13" s="64">
         <f t="shared" si="0"/>
-        <v>29469.523705633554</v>
+        <v>29439.174422442655</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="23" x14ac:dyDescent="0.3">
@@ -10235,12 +11846,11 @@
         <v>0</v>
       </c>
       <c r="G14" s="64">
-        <f>D14*E14</f>
-        <v>29114.323759587292</v>
+        <v>29408.856394558064</v>
       </c>
       <c r="H14" s="64">
         <f t="shared" si="0"/>
-        <v>28822.740898381911</v>
+        <v>29114.323759587292</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="23" x14ac:dyDescent="0.3">
@@ -10257,15 +11867,16 @@
         <v>0.98998490009202555</v>
       </c>
       <c r="F15" s="64">
-        <v>0</v>
+        <f>D15*E15</f>
+        <v>5000</v>
       </c>
       <c r="G15" s="64">
         <f>G14+J15</f>
-        <v>34164.905843753644</v>
+        <v>34459.43847872442</v>
       </c>
       <c r="H15" s="64">
         <f t="shared" si="0"/>
-        <v>33822.740898381911</v>
+        <v>34114.323759587292</v>
       </c>
       <c r="J15" s="110">
         <f>K15/E15</f>
@@ -10292,11 +11903,11 @@
         <v>0</v>
       </c>
       <c r="G16" s="64">
-        <v>34164.905843753644</v>
+        <v>34459.43847872442</v>
       </c>
       <c r="H16" s="64">
         <f t="shared" si="0"/>
-        <v>33822.740898381911</v>
+        <v>34114.323759587292</v>
       </c>
       <c r="J16" s="110">
         <f>K16/E16</f>
@@ -10304,6 +11915,170 @@
       </c>
       <c r="K16" s="110">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B17" s="48">
+        <v>20161103</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="64">
+        <v>34164.905843753644</v>
+      </c>
+      <c r="E17" s="64">
+        <v>0.98614031020446336</v>
+      </c>
+      <c r="F17" s="64">
+        <v>0</v>
+      </c>
+      <c r="G17" s="64">
+        <v>34459.43847872442</v>
+      </c>
+      <c r="H17" s="64">
+        <f t="shared" ref="H17" si="1">E17*G17</f>
+        <v>33981.841350880917</v>
+      </c>
+      <c r="J17" s="110">
+        <f>K17/E17</f>
+        <v>5070.2724026800151</v>
+      </c>
+      <c r="K17" s="110">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B18" s="48">
+        <v>20161117</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="64">
+        <v>34164.905843753644</v>
+      </c>
+      <c r="E18" s="64">
+        <v>0.98988428302105702</v>
+      </c>
+      <c r="F18" s="64">
+        <f>H18-H17</f>
+        <v>129.01520093942963</v>
+      </c>
+      <c r="G18" s="64">
+        <v>34459.43847872442</v>
+      </c>
+      <c r="H18" s="64">
+        <f t="shared" ref="H18" si="2">E18*G18</f>
+        <v>34110.856551820347</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B19" s="48">
+        <v>20161122</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="64">
+        <v>34164.905843753644</v>
+      </c>
+      <c r="E19" s="64">
+        <v>0.99227047731930973</v>
+      </c>
+      <c r="F19" s="64">
+        <f>H19-H18</f>
+        <v>82.226915618921339</v>
+      </c>
+      <c r="G19" s="64">
+        <v>34459.43847872442</v>
+      </c>
+      <c r="H19" s="64">
+        <f t="shared" ref="H19" si="3">E19*G19</f>
+        <v>34193.083467439268</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B20" s="48">
+        <v>20161122</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="64">
+        <v>5038.9486680162654</v>
+      </c>
+      <c r="E20" s="64">
+        <v>0.99227047731930973</v>
+      </c>
+      <c r="F20" s="64">
+        <f>H20-H19</f>
+        <v>4999.9999999999782</v>
+      </c>
+      <c r="G20" s="64">
+        <f>34459.4384787244+D20</f>
+        <v>39498.387146740664</v>
+      </c>
+      <c r="H20" s="64">
+        <f t="shared" ref="H20" si="4">E20*G20</f>
+        <v>39193.083467439246</v>
+      </c>
+      <c r="J20" s="110">
+        <f>K20/E20</f>
+        <v>5038.9486680162654</v>
+      </c>
+      <c r="K20" s="110">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B21" s="48">
+        <v>20161209</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="64">
+        <v>39498.387146740664</v>
+      </c>
+      <c r="E21" s="64">
+        <v>1.0020113057128714</v>
+      </c>
+      <c r="F21" s="64">
+        <f>H21-H20</f>
+        <v>384.74701101886603</v>
+      </c>
+      <c r="G21" s="64">
+        <v>39498.387146740664</v>
+      </c>
+      <c r="H21" s="64">
+        <f>E21*G21</f>
+        <v>39577.830478458112</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B22" s="48">
+        <v>20161209</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="64">
+        <v>39498.387146740664</v>
+      </c>
+      <c r="E22" s="64">
+        <v>1</v>
+      </c>
+      <c r="F22" s="64">
+        <f>H22-H21</f>
+        <v>-79.443331717448018</v>
+      </c>
+      <c r="G22" s="64">
+        <v>39498.387146740664</v>
+      </c>
+      <c r="H22" s="64">
+        <f>E22*G22</f>
+        <v>39498.387146740664</v>
       </c>
     </row>
   </sheetData>
@@ -10318,10 +12093,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O18"/>
+  <dimension ref="B3:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -10329,7 +12106,7 @@
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
@@ -10380,7 +12157,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="39" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="132">
+      <c r="B5" s="137">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -10413,7 +12190,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="133"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="16" t="s">
         <v>159</v>
       </c>
@@ -10535,18 +12312,18 @@
         <v>42086.942008060127</v>
       </c>
       <c r="I9" s="64">
-        <f>H9-40000+560.38</f>
+        <f t="shared" ref="I9:I15" si="3">H9-40000+560.38</f>
         <v>2647.3220080601268</v>
       </c>
       <c r="J9" s="64">
-        <f>I9/40000</f>
+        <f t="shared" ref="J9:J15" si="4">I9/40000</f>
         <v>6.6183050201503169E-2</v>
       </c>
       <c r="K9" s="64">
         <v>560.38</v>
       </c>
       <c r="L9" s="64">
-        <f>560.38/40000</f>
+        <f t="shared" ref="L9:L19" si="5">560.38/40000</f>
         <v>1.4009499999999999E-2</v>
       </c>
     </row>
@@ -10577,18 +12354,18 @@
         <v>42229.684286328244</v>
       </c>
       <c r="I10" s="64">
-        <f>H10-40000+560.38</f>
+        <f t="shared" si="3"/>
         <v>2790.0642863282437</v>
       </c>
       <c r="J10" s="64">
-        <f>I10/40000</f>
+        <f t="shared" si="4"/>
         <v>6.9751607158206094E-2</v>
       </c>
       <c r="K10" s="64">
         <v>560.38</v>
       </c>
       <c r="L10" s="64">
-        <f>560.38/40000</f>
+        <f t="shared" si="5"/>
         <v>1.4009499999999999E-2</v>
       </c>
     </row>
@@ -10611,7 +12388,7 @@
         <v>57.054560188968026</v>
       </c>
       <c r="G11" s="64">
-        <f t="shared" ref="G11" si="3">D11</f>
+        <f t="shared" ref="G11" si="6">D11</f>
         <v>42243.189713341802</v>
       </c>
       <c r="H11" s="64">
@@ -10619,18 +12396,18 @@
         <v>42286.738846517212</v>
       </c>
       <c r="I11" s="64">
-        <f>H11-40000+560.38</f>
+        <f t="shared" si="3"/>
         <v>2847.1188465172118</v>
       </c>
       <c r="J11" s="64">
-        <f>I11/40000</f>
+        <f t="shared" si="4"/>
         <v>7.1177971162930287E-2</v>
       </c>
       <c r="K11" s="64">
         <v>560.38</v>
       </c>
       <c r="L11" s="64">
-        <f>560.38/40000</f>
+        <f t="shared" si="5"/>
         <v>1.4009499999999999E-2</v>
       </c>
     </row>
@@ -10653,7 +12430,7 @@
         <v>-85.490123392803071</v>
       </c>
       <c r="G12" s="64">
-        <f t="shared" ref="G12" si="4">D12</f>
+        <f t="shared" ref="G12" si="7">D12</f>
         <v>42243.189713341802</v>
       </c>
       <c r="H12" s="64">
@@ -10661,18 +12438,18 @@
         <v>42201.248723124409</v>
       </c>
       <c r="I12" s="64">
-        <f>H12-40000+560.38</f>
+        <f t="shared" si="3"/>
         <v>2761.6287231244087</v>
       </c>
       <c r="J12" s="64">
-        <f>I12/40000</f>
+        <f t="shared" si="4"/>
         <v>6.9040718078110214E-2</v>
       </c>
       <c r="K12" s="64">
         <v>560.38</v>
       </c>
       <c r="L12" s="64">
-        <f>560.38/40000</f>
+        <f t="shared" si="5"/>
         <v>1.4009499999999999E-2</v>
       </c>
     </row>
@@ -10695,34 +12472,275 @@
         <v>-381.12877519323956</v>
       </c>
       <c r="G13" s="64">
-        <f t="shared" ref="G13" si="5">D13</f>
+        <f t="shared" ref="G13" si="8">D13</f>
         <v>42243.189713341802</v>
       </c>
       <c r="H13" s="64">
-        <f t="shared" ref="H13" si="6">E13*D13</f>
+        <f t="shared" ref="H13" si="9">E13*D13</f>
         <v>41820.119947931169</v>
       </c>
       <c r="I13" s="64">
-        <f>H13-40000+560.38</f>
+        <f t="shared" si="3"/>
         <v>2380.4999479311691</v>
       </c>
       <c r="J13" s="64">
-        <f>I13/40000</f>
+        <f t="shared" si="4"/>
         <v>5.951249869827923E-2</v>
       </c>
       <c r="K13" s="64">
         <v>560.38</v>
       </c>
       <c r="L13" s="64">
-        <f>560.38/40000</f>
+        <f t="shared" si="5"/>
         <v>1.4009499999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="2:15" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B14" s="48">
+        <v>20161108</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E14" s="41">
+        <v>0.98614031020446336</v>
+      </c>
+      <c r="F14" s="64">
+        <f t="shared" ref="F14" si="10">E14*D14-H13</f>
+        <v>-162.40773999028897</v>
+      </c>
+      <c r="G14" s="64">
+        <f t="shared" ref="G14" si="11">D14</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H14" s="64">
+        <f t="shared" ref="H14" si="12">E14*D14</f>
+        <v>41657.71220794088</v>
+      </c>
+      <c r="I14" s="64">
+        <f t="shared" si="3"/>
+        <v>2218.0922079408801</v>
+      </c>
+      <c r="J14" s="64">
+        <f t="shared" si="4"/>
+        <v>5.5452305198522005E-2</v>
+      </c>
+      <c r="K14" s="64">
+        <v>560.38</v>
+      </c>
+      <c r="L14" s="64">
+        <f t="shared" si="5"/>
+        <v>1.4009499999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B15" s="48">
+        <v>20161117</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E15" s="41">
+        <v>0.98988428302105702</v>
+      </c>
+      <c r="F15" s="64">
+        <f t="shared" ref="F15" si="13">E15*D15-H14</f>
+        <v>158.15735397295794</v>
+      </c>
+      <c r="G15" s="64">
+        <f t="shared" ref="G15" si="14">D15</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H15" s="64">
+        <f t="shared" ref="H15" si="15">E15*D15</f>
+        <v>41815.869561913838</v>
+      </c>
+      <c r="I15" s="64">
+        <f t="shared" si="3"/>
+        <v>2376.2495619138381</v>
+      </c>
+      <c r="J15" s="64">
+        <f t="shared" si="4"/>
+        <v>5.9406239047845949E-2</v>
+      </c>
+      <c r="K15" s="64">
+        <v>560.38</v>
+      </c>
+      <c r="L15" s="64">
+        <f t="shared" si="5"/>
+        <v>1.4009499999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B16" s="48">
+        <v>20161122</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E16" s="41">
+        <v>0.99227047731930973</v>
+      </c>
+      <c r="F16" s="64">
+        <f t="shared" ref="F16" si="16">E16*D16-H15</f>
+        <v>100.80045843398693</v>
+      </c>
+      <c r="G16" s="64">
+        <f t="shared" ref="G16" si="17">D16</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H16" s="64">
+        <f t="shared" ref="H16" si="18">E16*D16</f>
+        <v>41916.670020347825</v>
+      </c>
+      <c r="I16" s="64">
+        <f t="shared" ref="I16" si="19">H16-40000+560.38</f>
+        <v>2477.050020347825</v>
+      </c>
+      <c r="J16" s="64">
+        <f t="shared" ref="J16" si="20">I16/40000</f>
+        <v>6.1926250508695622E-2</v>
+      </c>
+      <c r="K16" s="64">
+        <v>560.38</v>
+      </c>
+      <c r="L16" s="64">
+        <f t="shared" si="5"/>
+        <v>1.4009499999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B17" s="48">
+        <v>20161209</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E17" s="41">
+        <v>1.0020113057128714</v>
+      </c>
+      <c r="F17" s="64">
+        <f t="shared" ref="F17" si="21">E17*D17-H16</f>
+        <v>411.48366179433651</v>
+      </c>
+      <c r="G17" s="64">
+        <f t="shared" ref="G17" si="22">D17</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H17" s="64">
+        <f t="shared" ref="H17" si="23">E17*D17</f>
+        <v>42328.153682142161</v>
+      </c>
+      <c r="I17" s="64">
+        <f t="shared" ref="I17" si="24">H17-40000+560.38</f>
+        <v>2888.5336821421615</v>
+      </c>
+      <c r="J17" s="64">
+        <f t="shared" ref="J17" si="25">I17/40000</f>
+        <v>7.2213342053554036E-2</v>
+      </c>
+      <c r="K17" s="64">
+        <v>560.38</v>
+      </c>
+      <c r="L17" s="64">
+        <f t="shared" si="5"/>
+        <v>1.4009499999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B18" s="48">
+        <v>20161209</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E18" s="41">
+        <v>2.0113057128700001E-3</v>
+      </c>
+      <c r="F18" s="64">
+        <f t="shared" ref="F18:F19" si="26">E18*D18-H17</f>
+        <v>-42243.189713341868</v>
+      </c>
+      <c r="G18" s="64">
+        <f t="shared" ref="G18:G19" si="27">D18</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H18" s="64">
+        <f t="shared" ref="H18:H19" si="28">E18*D18</f>
+        <v>84.963968800295589</v>
+      </c>
+      <c r="I18" s="64">
+        <f t="shared" ref="I18:I19" si="29">H18-40000+560.38</f>
+        <v>-39354.656031199709</v>
+      </c>
+      <c r="J18" s="64">
+        <f t="shared" ref="J18:J19" si="30">I18/40000</f>
+        <v>-0.98386640077999277</v>
+      </c>
+      <c r="K18" s="64">
+        <f>K17+H18</f>
+        <v>645.34396880029556</v>
+      </c>
+      <c r="L18" s="64">
+        <f>K18/40000</f>
+        <v>1.6133599220007389E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B19" s="48">
+        <v>20161209</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E19" s="41">
+        <v>1</v>
+      </c>
+      <c r="F19" s="64">
+        <f t="shared" si="26"/>
+        <v>42158.225744541509</v>
+      </c>
+      <c r="G19" s="64">
+        <f t="shared" si="27"/>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H19" s="64">
+        <f t="shared" si="28"/>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="I19" s="64">
+        <f>H19-40000+645.34</f>
+        <v>2888.5297133418026</v>
+      </c>
+      <c r="J19" s="64">
+        <f t="shared" si="30"/>
+        <v>7.2213242833545063E-2</v>
+      </c>
+      <c r="K19" s="64">
+        <v>645.34396880029556</v>
+      </c>
+      <c r="L19" s="64">
+        <v>1.6133599220007389E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:B6"/>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="206">
   <si>
     <t>黄金基金</t>
   </si>
@@ -1616,6 +1616,27 @@
     <rPh sb="3" eb="4">
       <t>tong'ji</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红后</t>
+    <rPh sb="0" eb="1">
+      <t>fen'hong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠错。黄金未买入</t>
+    <rPh sb="0" eb="1">
+      <t>jiu'cuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1623,13 +1644,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="179" formatCode="#,##0.000_ ;[Red]\-#,##0.000\ "/>
     <numFmt numFmtId="180" formatCode="#,##0.000000_ ;[Red]\-#,##0.000000\ "/>
     <numFmt numFmtId="181" formatCode="#,##0.00000_ ;[Red]\-#,##0.00000\ "/>
+    <numFmt numFmtId="183" formatCode="#,##0.0_ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -2191,7 +2213,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2523,6 +2545,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2587,6 +2612,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2605,30 +2648,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3084,174 +3110,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="128" t="s">
+      <c r="B17" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="128">
+      <c r="D17" s="129">
         <v>7000</v>
       </c>
-      <c r="E17" s="129">
+      <c r="E17" s="130">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="127">
+      <c r="G17" s="128">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="129"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="130"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="128" t="s">
+      <c r="B19" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="128">
+      <c r="D19" s="129">
         <v>10000</v>
       </c>
-      <c r="E19" s="129">
+      <c r="E19" s="130">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="128"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="130"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="128">
+      <c r="D21" s="129">
         <v>10000</v>
       </c>
-      <c r="E21" s="129">
+      <c r="E21" s="130">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="129"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="130"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="128">
+      <c r="D23" s="129">
         <v>10000</v>
       </c>
-      <c r="E23" s="129">
+      <c r="E23" s="130">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="129"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="128" t="s">
+      <c r="B25" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="128">
+      <c r="D25" s="129">
         <v>1000</v>
       </c>
-      <c r="E25" s="129">
+      <c r="E25" s="130">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="129"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="130"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="128" t="s">
+      <c r="B27" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="128" t="s">
+      <c r="C27" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="128">
+      <c r="D27" s="129">
         <v>22000</v>
       </c>
-      <c r="E27" s="129">
+      <c r="E27" s="130">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="129"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="130"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -3289,13 +3315,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -3310,27 +3350,13 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3361,27 +3387,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3414,12 +3440,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="145" t="s">
+      <c r="C8" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="148"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3454,12 +3480,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="148"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3494,12 +3520,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="148"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3541,13 +3567,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="143"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3606,7 +3632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B20" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3630,20 +3656,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="134" t="s">
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="137"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3690,7 +3716,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="155">
+      <c r="E6" s="154">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3698,7 +3724,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="159">
+      <c r="G6" s="152">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3713,15 +3739,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="155">
+      <c r="K6" s="154">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="155">
+      <c r="L6" s="154">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="157">
+      <c r="M6" s="150">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3736,12 +3762,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="155"/>
+      <c r="E7" s="154"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="159"/>
+      <c r="G7" s="152"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3753,9 +3779,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="155"/>
-      <c r="L7" s="155"/>
-      <c r="M7" s="157"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="150"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3767,12 +3793,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="155"/>
+      <c r="E8" s="154"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="159"/>
+      <c r="G8" s="152"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3784,9 +3810,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="157"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="150"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3798,12 +3824,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="156"/>
+      <c r="E9" s="155"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="160"/>
+      <c r="G9" s="153"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3815,9 +3841,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="158"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="151"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3827,14 +3853,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="134" t="s">
+      <c r="D13" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="137"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -3871,15 +3897,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="149">
+      <c r="G15" s="156">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="149">
+      <c r="H15" s="156">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="152">
+      <c r="I15" s="159">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3899,9 +3925,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="153"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="160"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3918,9 +3944,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="153"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="160"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3937,23 +3963,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="154"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3962,10 +3988,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J160"/>
+  <dimension ref="C3:K181"/>
   <sheetViews>
-    <sheetView topLeftCell="B138" workbookViewId="0">
-      <selection activeCell="F160" sqref="F160"/>
+    <sheetView topLeftCell="B161" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -3985,10 +4011,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="161">
+      <c r="D4" s="162">
         <v>20160622</v>
       </c>
-      <c r="E4" s="162"/>
+      <c r="E4" s="163"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -4090,10 +4116,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="161">
+      <c r="D15" s="162">
         <v>20160713</v>
       </c>
-      <c r="E15" s="162"/>
+      <c r="E15" s="163"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4198,10 +4224,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="161">
+      <c r="D25" s="162">
         <v>20160808</v>
       </c>
-      <c r="E25" s="162"/>
+      <c r="E25" s="163"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4331,10 +4357,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="161">
+      <c r="D35" s="162">
         <v>20160825</v>
       </c>
-      <c r="E35" s="162"/>
+      <c r="E35" s="163"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4546,10 +4572,10 @@
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="161">
+      <c r="D45" s="162">
         <v>20160906</v>
       </c>
-      <c r="E45" s="162"/>
+      <c r="E45" s="163"/>
     </row>
     <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="29" t="s">
@@ -4733,10 +4759,10 @@
     </row>
     <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="161">
+      <c r="D56" s="162">
         <v>20160921</v>
       </c>
-      <c r="E56" s="162"/>
+      <c r="E56" s="163"/>
     </row>
     <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="105" t="s">
@@ -4897,10 +4923,10 @@
     </row>
     <row r="65" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D66" s="161">
+      <c r="D66" s="162">
         <v>20161017</v>
       </c>
-      <c r="E66" s="162"/>
+      <c r="E66" s="163"/>
     </row>
     <row r="67" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="105" t="s">
@@ -5062,10 +5088,10 @@
     </row>
     <row r="74" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D75" s="161">
+      <c r="D75" s="162">
         <v>20161020</v>
       </c>
-      <c r="E75" s="162"/>
+      <c r="E75" s="163"/>
     </row>
     <row r="76" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D76" s="105" t="s">
@@ -5223,10 +5249,10 @@
     </row>
     <row r="83" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D84" s="161">
+      <c r="D84" s="162">
         <v>201610207</v>
       </c>
-      <c r="E84" s="162"/>
+      <c r="E84" s="163"/>
     </row>
     <row r="85" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D85" s="105" t="s">
@@ -5384,10 +5410,10 @@
     </row>
     <row r="92" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D93" s="161">
+      <c r="D93" s="162">
         <v>20161031</v>
       </c>
-      <c r="E93" s="162"/>
+      <c r="E93" s="163"/>
     </row>
     <row r="94" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D94" s="105" t="s">
@@ -5545,10 +5571,10 @@
     </row>
     <row r="101" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="102" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D102" s="161">
+      <c r="D102" s="162">
         <v>20161103</v>
       </c>
-      <c r="E102" s="162"/>
+      <c r="E102" s="163"/>
     </row>
     <row r="103" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D103" s="105" t="s">
@@ -5706,10 +5732,10 @@
     </row>
     <row r="110" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="111" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D111" s="161">
+      <c r="D111" s="162">
         <v>20161103</v>
       </c>
-      <c r="E111" s="162"/>
+      <c r="E111" s="163"/>
     </row>
     <row r="112" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D112" s="105" t="s">
@@ -5870,10 +5896,10 @@
     </row>
     <row r="119" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="120" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D120" s="161">
+      <c r="D120" s="162">
         <v>20161108</v>
       </c>
-      <c r="E120" s="162"/>
+      <c r="E120" s="163"/>
     </row>
     <row r="121" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D121" s="105" t="s">
@@ -6033,13 +6059,13 @@
       </c>
     </row>
     <row r="128" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D129" s="161">
+    <row r="129" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D129" s="162">
         <v>20161108</v>
       </c>
-      <c r="E129" s="162"/>
-    </row>
-    <row r="130" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E129" s="163"/>
+    </row>
+    <row r="130" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D130" s="105" t="s">
         <v>24</v>
       </c>
@@ -6055,8 +6081,12 @@
       <c r="H130" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="J130" s="9">
+        <f>F124-F133</f>
+        <v>4572.0200000000004</v>
+      </c>
+    </row>
+    <row r="131" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C131" s="58" t="s">
         <v>41</v>
       </c>
@@ -6080,7 +6110,7 @@
         <v>12850.596955999999</v>
       </c>
     </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C132" s="59" t="s">
         <v>28</v>
       </c>
@@ -6104,7 +6134,7 @@
         <v>13579.7914</v>
       </c>
     </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C133" s="60" t="s">
         <v>30</v>
       </c>
@@ -6128,7 +6158,7 @@
         <v>6090.110889999999</v>
       </c>
     </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C134" s="60" t="s">
         <v>31</v>
       </c>
@@ -6148,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C135" s="60" t="s">
         <v>59</v>
       </c>
@@ -6169,7 +6199,7 @@
         <v>43425.718004558585</v>
       </c>
     </row>
-    <row r="136" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C136" s="61" t="s">
         <v>60</v>
       </c>
@@ -6182,17 +6212,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D138" s="161">
+    <row r="137" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D138" s="162">
         <v>20161122</v>
       </c>
-      <c r="E138" s="162"/>
+      <c r="E138" s="163"/>
       <c r="F138" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="139" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D139" s="105" t="s">
         <v>24</v>
       </c>
@@ -6209,7 +6239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C140" s="58" t="s">
         <v>41</v>
       </c>
@@ -6233,7 +6263,7 @@
         <v>13050.200376000001</v>
       </c>
     </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C141" s="59" t="s">
         <v>28</v>
       </c>
@@ -6257,7 +6287,7 @@
         <v>13550.691847</v>
       </c>
     </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C142" s="60" t="s">
         <v>30</v>
       </c>
@@ -6281,7 +6311,7 @@
         <v>6083.6526599999988</v>
       </c>
     </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C143" s="60" t="s">
         <v>31</v>
       </c>
@@ -6301,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C144" s="60" t="s">
         <v>59</v>
       </c>
@@ -6336,10 +6366,10 @@
       </c>
     </row>
     <row r="146" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D146" s="161">
+      <c r="D146" s="162">
         <v>20161122</v>
       </c>
-      <c r="E146" s="162"/>
+      <c r="E146" s="163"/>
       <c r="F146" s="11" t="s">
         <v>200</v>
       </c>
@@ -6488,10 +6518,10 @@
       </c>
     </row>
     <row r="154" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D154" s="161">
+      <c r="D154" s="162">
         <v>20161209</v>
       </c>
-      <c r="E154" s="162"/>
+      <c r="E154" s="163"/>
       <c r="F154" s="11" t="s">
         <v>200</v>
       </c>
@@ -6619,19 +6649,316 @@
         <v>1</v>
       </c>
     </row>
+    <row r="161" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D161" s="162">
+        <v>20161209</v>
+      </c>
+      <c r="E161" s="163"/>
+      <c r="F161" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="162" spans="3:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D162" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="127" t="s">
+        <v>42</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C163" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D163" s="106">
+        <f>F163*G163</f>
+        <v>13542.126224000001</v>
+      </c>
+      <c r="E163" s="107">
+        <f>D163/D167</f>
+        <v>0.16566895295187126</v>
+      </c>
+      <c r="F163" s="11">
+        <f>4017.64+8860</f>
+        <v>12877.64</v>
+      </c>
+      <c r="G163" s="9">
+        <v>1.0516000000000001</v>
+      </c>
+      <c r="H163" s="11">
+        <f>F163*G163</f>
+        <v>13542.126224000001</v>
+      </c>
+    </row>
+    <row r="164" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C164" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" s="78">
+        <f>H164</f>
+        <v>13356.694826999999</v>
+      </c>
+      <c r="E164" s="53">
+        <f>D164/D167</f>
+        <v>0.16340045944669707</v>
+      </c>
+      <c r="F164" s="96">
+        <f>9921.98-162.21+3997.6+99.56</f>
+        <v>13856.93</v>
+      </c>
+      <c r="G164" s="9">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="H164" s="11">
+        <f t="shared" ref="H164:H165" si="14">F164*G164</f>
+        <v>13356.694826999999</v>
+      </c>
+      <c r="I164" s="164">
+        <f>F164-9859.33</f>
+        <v>3997.6000000000004</v>
+      </c>
+    </row>
+    <row r="165" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C165" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D165" s="56">
+        <f>H165</f>
+        <v>6503.437609999999</v>
+      </c>
+      <c r="E165" s="53">
+        <f>D165/D167</f>
+        <v>7.956045318253413E-2</v>
+      </c>
+      <c r="F165" s="11">
+        <f>11030.25-4572.02</f>
+        <v>6458.23</v>
+      </c>
+      <c r="G165" s="9">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="H165" s="11">
+        <f t="shared" si="14"/>
+        <v>6503.437609999999</v>
+      </c>
+    </row>
+    <row r="166" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C166" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D166" s="53">
+        <v>48339.829899999997</v>
+      </c>
+      <c r="E166" s="53">
+        <f>D166/D167</f>
+        <v>0.59137013441889752</v>
+      </c>
+      <c r="F166" s="53">
+        <v>48339.829899999997</v>
+      </c>
+      <c r="G166" s="9">
+        <v>1</v>
+      </c>
+      <c r="H166" s="53">
+        <v>48339.829899999997</v>
+      </c>
+    </row>
+    <row r="167" spans="3:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C167" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D167" s="57">
+        <f>SUM(D163:D166)</f>
+        <v>81742.088560999997</v>
+      </c>
+      <c r="E167" s="54">
+        <f>D167/D167</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D168" s="162">
+        <v>20161210</v>
+      </c>
+      <c r="E168" s="163"/>
+      <c r="F168" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="169" spans="3:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D169" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E169" s="127" t="s">
+        <v>42</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="170" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C170" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D170" s="106">
+        <f>F170*G170</f>
+        <v>13542.126224000001</v>
+      </c>
+      <c r="E170" s="107">
+        <f>D170/D174</f>
+        <v>0.16505493777538569</v>
+      </c>
+      <c r="F170" s="11">
+        <f>4017.64+8860</f>
+        <v>12877.64</v>
+      </c>
+      <c r="G170" s="9">
+        <v>1.0516000000000001</v>
+      </c>
+      <c r="H170" s="11">
+        <f>F170*G170</f>
+        <v>13542.126224000001</v>
+      </c>
+    </row>
+    <row r="171" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C171" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" s="78">
+        <f>H171</f>
+        <v>9438.336609</v>
+      </c>
+      <c r="E171" s="53">
+        <f>D171/D174</f>
+        <v>0.11503688829459841</v>
+      </c>
+      <c r="F171" s="96">
+        <v>9859.33</v>
+      </c>
+      <c r="G171" s="9">
+        <v>0.95730000000000004</v>
+      </c>
+      <c r="H171" s="11">
+        <f t="shared" ref="H171:H172" si="15">F171*G171</f>
+        <v>9438.336609</v>
+      </c>
+      <c r="I171" s="164">
+        <f>F171-9859.33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C172" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D172" s="56">
+        <f>H172</f>
+        <v>6072.4617499999995</v>
+      </c>
+      <c r="E172" s="53">
+        <f>D172/D174</f>
+        <v>7.4012734758988868E-2</v>
+      </c>
+      <c r="F172" s="11">
+        <v>6030.25</v>
+      </c>
+      <c r="G172" s="9">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="H172" s="11">
+        <f t="shared" si="15"/>
+        <v>6072.4617499999995</v>
+      </c>
+    </row>
+    <row r="173" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C173" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D173" s="53">
+        <v>52993.249899999995</v>
+      </c>
+      <c r="E173" s="53">
+        <f>D173/D174</f>
+        <v>0.6458954391710271</v>
+      </c>
+      <c r="F173" s="53">
+        <v>52993.249899999995</v>
+      </c>
+      <c r="G173" s="53">
+        <v>1</v>
+      </c>
+      <c r="H173" s="53">
+        <v>52993.249899999995</v>
+      </c>
+    </row>
+    <row r="174" spans="3:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C174" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D174" s="57">
+        <f>SUM(D170:D173)</f>
+        <v>82046.174482999995</v>
+      </c>
+      <c r="E174" s="54">
+        <f>D174/D174</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J177" s="9">
+        <v>4572.0200000000004</v>
+      </c>
+    </row>
+    <row r="179" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J179" s="9">
+        <v>6030.25</v>
+      </c>
+      <c r="K179" s="9">
+        <f>J177+J179</f>
+        <v>10602.27</v>
+      </c>
+    </row>
+    <row r="180" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J180" s="9">
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J181" s="9">
+        <f>J179*J180</f>
+        <v>6072.4617499999995</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D66:E66"/>
+  <mergeCells count="19">
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D168:E168"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D66:E66"/>
     <mergeCell ref="D138:E138"/>
     <mergeCell ref="D146:E146"/>
     <mergeCell ref="D129:E129"/>
@@ -7070,10 +7397,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K61"/>
+  <dimension ref="B2:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8087,6 +8414,72 @@
         <v>159</v>
       </c>
       <c r="K61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B62" s="89">
+        <v>20161209</v>
+      </c>
+      <c r="C62" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62">
+        <v>4200</v>
+      </c>
+      <c r="F62" s="89">
+        <v>1</v>
+      </c>
+      <c r="G62" s="93">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>4200</v>
+      </c>
+      <c r="I62" s="89">
+        <v>52539.829899999997</v>
+      </c>
+      <c r="J62" t="s">
+        <v>159</v>
+      </c>
+      <c r="K62" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B63" s="89">
+        <v>20161209</v>
+      </c>
+      <c r="C63" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="E63">
+        <f>455.71-2.29</f>
+        <v>453.41999999999996</v>
+      </c>
+      <c r="F63" s="89">
+        <v>1</v>
+      </c>
+      <c r="G63" s="93">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>453.41999999999996</v>
+      </c>
+      <c r="I63" s="89">
+        <f>I62+H63</f>
+        <v>52993.249899999995</v>
+      </c>
+      <c r="J63" t="s">
+        <v>159</v>
+      </c>
+      <c r="K63" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8227,18 +8620,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="130">
+      <c r="F4" s="131">
         <v>20160708</v>
       </c>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130">
+      <c r="G4" s="131"/>
+      <c r="H4" s="131">
         <v>20160712</v>
       </c>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130">
+      <c r="I4" s="131"/>
+      <c r="J4" s="131">
         <v>20160808</v>
       </c>
-      <c r="K4" s="130"/>
+      <c r="K4" s="131"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -8296,10 +8689,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="130">
+      <c r="E8" s="131">
         <v>20160810</v>
       </c>
-      <c r="F8" s="130"/>
+      <c r="F8" s="131"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -8373,11 +8766,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="130">
+      <c r="C4" s="131">
         <v>201605</v>
       </c>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -8449,19 +8842,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="134">
+      <c r="C11" s="135">
         <v>20160608</v>
       </c>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="137"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -8645,20 +9038,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="131">
+      <c r="C18" s="132">
         <v>20160708</v>
       </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="134"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -8877,20 +9270,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="131">
+      <c r="C27" s="132">
         <v>20160808</v>
       </c>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="134"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -9095,21 +9488,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="131">
+      <c r="C35" s="132">
         <v>20160825</v>
       </c>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="132"/>
-      <c r="L35" s="132"/>
-      <c r="M35" s="132"/>
-      <c r="N35" s="132"/>
-      <c r="O35" s="133"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="133"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="133"/>
+      <c r="K35" s="133"/>
+      <c r="L35" s="133"/>
+      <c r="M35" s="133"/>
+      <c r="N35" s="133"/>
+      <c r="O35" s="134"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -9328,21 +9721,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="131">
+      <c r="C42" s="132">
         <v>20160906</v>
       </c>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="132"/>
-      <c r="O42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="133"/>
+      <c r="N42" s="133"/>
+      <c r="O42" s="134"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -9562,21 +9955,21 @@
     <row r="49" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="72"/>
-      <c r="C50" s="131">
+      <c r="C50" s="132">
         <v>20160921</v>
       </c>
-      <c r="D50" s="132"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="132"/>
-      <c r="K50" s="132"/>
-      <c r="L50" s="132"/>
-      <c r="M50" s="132"/>
-      <c r="N50" s="132"/>
-      <c r="O50" s="133"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="133"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
+      <c r="N50" s="133"/>
+      <c r="O50" s="134"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
@@ -10590,10 +10983,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q19"/>
+  <dimension ref="A2:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -11369,6 +11762,56 @@
       <c r="M19">
         <f>M5-L19</f>
         <v>724.78833305751402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>20161210</v>
+      </c>
+      <c r="C20">
+        <v>82046.174482999995</v>
+      </c>
+      <c r="D20">
+        <f>C20-C19</f>
+        <v>139.6759219999949</v>
+      </c>
+      <c r="E20">
+        <v>81742.090227942492</v>
+      </c>
+      <c r="F20">
+        <f>C20/E20</f>
+        <v>1.0037200450124233</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20" si="48">F20-F19</f>
+        <v>3.7200450124232898E-3</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20" si="49">F20-H20</f>
+        <v>1.0037200450124233</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20" si="50">J20*E20</f>
+        <v>82046.17448300001</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20" si="51">(F20-F19)*E20</f>
+        <v>304.084255057512</v>
+      </c>
+      <c r="M20">
+        <v>724.78833305751402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H28">
+        <f>H14-G28</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11533,7 +11976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -11552,10 +11995,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="J3" s="139" t="s">
+      <c r="J3" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="139"/>
+      <c r="K3" s="140"/>
     </row>
     <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
@@ -11587,7 +12030,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B5" s="137">
+      <c r="B5" s="138">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -11616,7 +12059,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B6" s="138"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="64" t="s">
         <v>147</v>
       </c>
@@ -12157,7 +12600,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="39" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="137">
+      <c r="B5" s="138">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -12190,7 +12633,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="138"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="16" t="s">
         <v>159</v>
       </c>
@@ -12323,7 +12766,7 @@
         <v>560.38</v>
       </c>
       <c r="L9" s="64">
-        <f t="shared" ref="L9:L19" si="5">560.38/40000</f>
+        <f t="shared" ref="L9:L17" si="5">560.38/40000</f>
         <v>1.4009499999999999E-2</v>
       </c>
     </row>
@@ -12685,7 +13128,7 @@
         <v>84.963968800295589</v>
       </c>
       <c r="I18" s="64">
-        <f t="shared" ref="I18:I19" si="29">H18-40000+560.38</f>
+        <f t="shared" ref="I18" si="29">H18-40000+560.38</f>
         <v>-39354.656031199709</v>
       </c>
       <c r="J18" s="64">

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="210">
   <si>
     <t>黄金基金</t>
   </si>
@@ -1637,6 +1637,52 @@
   </si>
   <si>
     <t>IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计息</t>
+    <rPh sb="0" eb="1">
+      <t>ji'xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标：1月15日</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亏8%时斩半仓</t>
+    <rPh sb="0" eb="1">
+      <t>kui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ban'cang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞节出6000</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'dan'jie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1651,7 +1697,7 @@
     <numFmt numFmtId="179" formatCode="#,##0.000_ ;[Red]\-#,##0.000\ "/>
     <numFmt numFmtId="180" formatCode="#,##0.000000_ ;[Red]\-#,##0.000000\ "/>
     <numFmt numFmtId="181" formatCode="#,##0.00000_ ;[Red]\-#,##0.00000\ "/>
-    <numFmt numFmtId="183" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="182" formatCode="#,##0.0_ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -2213,7 +2259,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2548,6 +2594,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2612,6 +2662,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2624,37 +2698,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3110,174 +3159,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="129" t="s">
+      <c r="B17" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="129">
+      <c r="D17" s="131">
         <v>7000</v>
       </c>
-      <c r="E17" s="130">
+      <c r="E17" s="132">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="128">
+      <c r="G17" s="130">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="130"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="129">
+      <c r="D19" s="131">
         <v>10000</v>
       </c>
-      <c r="E19" s="130">
+      <c r="E19" s="132">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="130"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="129">
+      <c r="D21" s="131">
         <v>10000</v>
       </c>
-      <c r="E21" s="130">
+      <c r="E21" s="132">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="130"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="129" t="s">
+      <c r="B23" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="129" t="s">
+      <c r="C23" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="129">
+      <c r="D23" s="131">
         <v>10000</v>
       </c>
-      <c r="E23" s="130">
+      <c r="E23" s="132">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="129"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="130"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="132"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="129" t="s">
+      <c r="C25" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="129">
+      <c r="D25" s="131">
         <v>1000</v>
       </c>
-      <c r="E25" s="130">
+      <c r="E25" s="132">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="130"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="132"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="129" t="s">
+      <c r="C27" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="129">
+      <c r="D27" s="131">
         <v>22000</v>
       </c>
-      <c r="E27" s="130">
+      <c r="E27" s="132">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="130"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="132"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -3315,13 +3364,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -3336,27 +3399,13 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3387,27 +3436,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="144" t="s">
+      <c r="C1" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="149" t="s">
+      <c r="C4" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3440,12 +3489,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="150"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3480,12 +3529,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="148"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="150"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3520,12 +3569,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="146" t="s">
+      <c r="C16" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="148"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="150"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3567,13 +3616,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="141" t="s">
+      <c r="C20" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="143"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="145"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3656,20 +3705,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="135" t="s">
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="137"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="139"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3716,7 +3765,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="154">
+      <c r="E6" s="158">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3724,7 +3773,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="152">
+      <c r="G6" s="162">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3739,15 +3788,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="154">
+      <c r="K6" s="158">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="154">
+      <c r="L6" s="158">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="150">
+      <c r="M6" s="160">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3762,12 +3811,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="154"/>
+      <c r="E7" s="158"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="152"/>
+      <c r="G7" s="162"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3779,9 +3828,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="154"/>
-      <c r="L7" s="154"/>
-      <c r="M7" s="150"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="160"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3793,12 +3842,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="154"/>
+      <c r="E8" s="158"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="152"/>
+      <c r="G8" s="162"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3810,9 +3859,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="150"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="160"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3824,12 +3873,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="155"/>
+      <c r="E9" s="159"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="153"/>
+      <c r="G9" s="163"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3841,9 +3890,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="155"/>
-      <c r="L9" s="155"/>
-      <c r="M9" s="151"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="161"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3853,14 +3902,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="135" t="s">
+      <c r="D13" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="137"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="139"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -3897,15 +3946,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="156">
+      <c r="G15" s="152">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="156">
+      <c r="H15" s="152">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="159">
+      <c r="I15" s="155">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3925,9 +3974,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="160"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="156"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3944,9 +3993,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="160"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="156"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -3963,23 +4012,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="161"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3990,8 +4039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:K181"/>
   <sheetViews>
-    <sheetView topLeftCell="B161" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView topLeftCell="B162" workbookViewId="0">
+      <selection activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4011,10 +4060,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="162">
+      <c r="D4" s="164">
         <v>20160622</v>
       </c>
-      <c r="E4" s="163"/>
+      <c r="E4" s="165"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -4116,10 +4165,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="162">
+      <c r="D15" s="164">
         <v>20160713</v>
       </c>
-      <c r="E15" s="163"/>
+      <c r="E15" s="165"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4224,10 +4273,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="162">
+      <c r="D25" s="164">
         <v>20160808</v>
       </c>
-      <c r="E25" s="163"/>
+      <c r="E25" s="165"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4357,10 +4406,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="162">
+      <c r="D35" s="164">
         <v>20160825</v>
       </c>
-      <c r="E35" s="163"/>
+      <c r="E35" s="165"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4572,10 +4621,10 @@
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="162">
+      <c r="D45" s="164">
         <v>20160906</v>
       </c>
-      <c r="E45" s="163"/>
+      <c r="E45" s="165"/>
     </row>
     <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="29" t="s">
@@ -4759,10 +4808,10 @@
     </row>
     <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="162">
+      <c r="D56" s="164">
         <v>20160921</v>
       </c>
-      <c r="E56" s="163"/>
+      <c r="E56" s="165"/>
     </row>
     <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="105" t="s">
@@ -4923,10 +4972,10 @@
     </row>
     <row r="65" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D66" s="162">
+      <c r="D66" s="164">
         <v>20161017</v>
       </c>
-      <c r="E66" s="163"/>
+      <c r="E66" s="165"/>
     </row>
     <row r="67" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="105" t="s">
@@ -5088,10 +5137,10 @@
     </row>
     <row r="74" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D75" s="162">
+      <c r="D75" s="164">
         <v>20161020</v>
       </c>
-      <c r="E75" s="163"/>
+      <c r="E75" s="165"/>
     </row>
     <row r="76" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D76" s="105" t="s">
@@ -5249,10 +5298,10 @@
     </row>
     <row r="83" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D84" s="162">
+      <c r="D84" s="164">
         <v>201610207</v>
       </c>
-      <c r="E84" s="163"/>
+      <c r="E84" s="165"/>
     </row>
     <row r="85" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D85" s="105" t="s">
@@ -5410,10 +5459,10 @@
     </row>
     <row r="92" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D93" s="162">
+      <c r="D93" s="164">
         <v>20161031</v>
       </c>
-      <c r="E93" s="163"/>
+      <c r="E93" s="165"/>
     </row>
     <row r="94" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D94" s="105" t="s">
@@ -5571,10 +5620,10 @@
     </row>
     <row r="101" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="102" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D102" s="162">
+      <c r="D102" s="164">
         <v>20161103</v>
       </c>
-      <c r="E102" s="163"/>
+      <c r="E102" s="165"/>
     </row>
     <row r="103" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D103" s="105" t="s">
@@ -5732,10 +5781,10 @@
     </row>
     <row r="110" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="111" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D111" s="162">
+      <c r="D111" s="164">
         <v>20161103</v>
       </c>
-      <c r="E111" s="163"/>
+      <c r="E111" s="165"/>
     </row>
     <row r="112" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D112" s="105" t="s">
@@ -5896,10 +5945,10 @@
     </row>
     <row r="119" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="120" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D120" s="162">
+      <c r="D120" s="164">
         <v>20161108</v>
       </c>
-      <c r="E120" s="163"/>
+      <c r="E120" s="165"/>
     </row>
     <row r="121" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D121" s="105" t="s">
@@ -6060,10 +6109,10 @@
     </row>
     <row r="128" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="129" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D129" s="162">
+      <c r="D129" s="164">
         <v>20161108</v>
       </c>
-      <c r="E129" s="163"/>
+      <c r="E129" s="165"/>
     </row>
     <row r="130" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D130" s="105" t="s">
@@ -6214,10 +6263,10 @@
     </row>
     <row r="137" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D138" s="162">
+      <c r="D138" s="164">
         <v>20161122</v>
       </c>
-      <c r="E138" s="163"/>
+      <c r="E138" s="165"/>
       <c r="F138" s="11" t="s">
         <v>199</v>
       </c>
@@ -6366,10 +6415,10 @@
       </c>
     </row>
     <row r="146" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D146" s="162">
+      <c r="D146" s="164">
         <v>20161122</v>
       </c>
-      <c r="E146" s="163"/>
+      <c r="E146" s="165"/>
       <c r="F146" s="11" t="s">
         <v>200</v>
       </c>
@@ -6518,10 +6567,10 @@
       </c>
     </row>
     <row r="154" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D154" s="162">
+      <c r="D154" s="164">
         <v>20161209</v>
       </c>
-      <c r="E154" s="163"/>
+      <c r="E154" s="165"/>
       <c r="F154" s="11" t="s">
         <v>200</v>
       </c>
@@ -6650,10 +6699,10 @@
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D161" s="162">
+      <c r="D161" s="164">
         <v>20161209</v>
       </c>
-      <c r="E161" s="163"/>
+      <c r="E161" s="165"/>
       <c r="F161" s="11" t="s">
         <v>203</v>
       </c>
@@ -6722,7 +6771,7 @@
         <f t="shared" ref="H164:H165" si="14">F164*G164</f>
         <v>13356.694826999999</v>
       </c>
-      <c r="I164" s="164">
+      <c r="I164" s="129">
         <f>F164-9859.33</f>
         <v>3997.6000000000004</v>
       </c>
@@ -6786,10 +6835,10 @@
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D168" s="162">
+      <c r="D168" s="164">
         <v>20161210</v>
       </c>
-      <c r="E168" s="163"/>
+      <c r="E168" s="165"/>
       <c r="F168" s="11" t="s">
         <v>204</v>
       </c>
@@ -6857,7 +6906,7 @@
         <f t="shared" ref="H171:H172" si="15">F171*G171</f>
         <v>9438.336609</v>
       </c>
-      <c r="I171" s="164">
+      <c r="I171" s="129">
         <f>F171-9859.33</f>
         <v>0</v>
       </c>
@@ -6919,12 +6968,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D175" s="164">
+        <v>20161215</v>
+      </c>
+      <c r="E175" s="165"/>
+      <c r="F175" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="176" spans="3:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D176" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E176" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G176" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H176" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="177" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C177" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D177" s="106">
+        <f>F177*G177</f>
+        <v>13117.164103999999</v>
+      </c>
+      <c r="E177" s="107">
+        <f>D177/D181</f>
+        <v>0.16122479010104282</v>
+      </c>
+      <c r="F177" s="11">
+        <f>4017.64+8860</f>
+        <v>12877.64</v>
+      </c>
+      <c r="G177" s="9">
+        <v>1.0185999999999999</v>
+      </c>
+      <c r="H177" s="11">
+        <f>F177*G177</f>
+        <v>13117.164103999999</v>
+      </c>
       <c r="J177" s="9">
         <v>4572.0200000000004</v>
       </c>
     </row>
-    <row r="179" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C178" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" s="78">
+        <f>H178</f>
+        <v>9325.9402470000005</v>
+      </c>
+      <c r="E178" s="53">
+        <f>D178/D181</f>
+        <v>0.11462635878428455</v>
+      </c>
+      <c r="F178" s="96">
+        <v>9859.33</v>
+      </c>
+      <c r="G178" s="9">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="H178" s="11">
+        <f t="shared" ref="H178:H179" si="16">F178*G178</f>
+        <v>9325.9402470000005</v>
+      </c>
+      <c r="I178" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="179" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C179" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D179" s="56">
+        <f>H179</f>
+        <v>6271.46</v>
+      </c>
+      <c r="E179" s="53">
+        <f>D179/D181</f>
+        <v>7.7083340126754427E-2</v>
+      </c>
+      <c r="F179" s="11">
+        <v>6030.25</v>
+      </c>
+      <c r="G179" s="9">
+        <v>1.04</v>
+      </c>
+      <c r="H179" s="11">
+        <f t="shared" si="16"/>
+        <v>6271.46</v>
+      </c>
+      <c r="I179" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="J179" s="9">
         <v>6030.25</v>
       </c>
@@ -6933,19 +7080,53 @@
         <v>10602.27</v>
       </c>
     </row>
-    <row r="180" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C180" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D180" s="53">
+        <v>52644.909559799999</v>
+      </c>
+      <c r="E180" s="53">
+        <f>D180/D181</f>
+        <v>0.64706551098791809</v>
+      </c>
+      <c r="F180" s="53">
+        <v>52644.909559799999</v>
+      </c>
+      <c r="G180" s="53">
+        <v>1</v>
+      </c>
+      <c r="H180" s="53">
+        <v>52644.909559799999</v>
+      </c>
       <c r="J180" s="9">
         <v>1.0069999999999999</v>
       </c>
     </row>
-    <row r="181" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C181" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D181" s="57">
+        <f>SUM(D177:D180)</f>
+        <v>81359.473910800007</v>
+      </c>
+      <c r="E181" s="54">
+        <f>D181/D181</f>
+        <v>1</v>
+      </c>
       <c r="J181" s="9">
         <f>J179*J180</f>
         <v>6072.4617499999995</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D175:E175"/>
     <mergeCell ref="D161:E161"/>
     <mergeCell ref="D168:E168"/>
     <mergeCell ref="D56:E56"/>
@@ -6962,9 +7143,6 @@
     <mergeCell ref="D138:E138"/>
     <mergeCell ref="D146:E146"/>
     <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D111:E111"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7397,10 +7575,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K63"/>
+  <dimension ref="B2:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8473,14 +8651,47 @@
         <v>453.41999999999996</v>
       </c>
       <c r="I63" s="89">
-        <f>I62+H63</f>
-        <v>52993.249899999995</v>
+        <v>52539.829899999997</v>
       </c>
       <c r="J63" t="s">
         <v>159</v>
       </c>
       <c r="K63" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B64" s="89">
+        <v>20161215</v>
+      </c>
+      <c r="C64" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="E64">
+        <f>I63*2.4/12/100</f>
+        <v>105.07965979999999</v>
+      </c>
+      <c r="F64" s="89">
+        <v>1</v>
+      </c>
+      <c r="G64" s="93">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>105.07965979999999</v>
+      </c>
+      <c r="I64" s="89">
+        <f>I63+H64</f>
+        <v>52644.909559799999</v>
+      </c>
+      <c r="J64" t="s">
+        <v>206</v>
+      </c>
+      <c r="K64" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -8620,18 +8831,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="133">
         <v>20160708</v>
       </c>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131">
+      <c r="G4" s="133"/>
+      <c r="H4" s="133">
         <v>20160712</v>
       </c>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131">
+      <c r="I4" s="133"/>
+      <c r="J4" s="133">
         <v>20160808</v>
       </c>
-      <c r="K4" s="131"/>
+      <c r="K4" s="133"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -8689,10 +8900,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="131">
+      <c r="E8" s="133">
         <v>20160810</v>
       </c>
-      <c r="F8" s="131"/>
+      <c r="F8" s="133"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -8766,11 +8977,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="131">
+      <c r="C4" s="133">
         <v>201605</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -8842,19 +9053,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="135">
+      <c r="C11" s="137">
         <v>20160608</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="137"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="139"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -9038,20 +9249,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="132">
+      <c r="C18" s="134">
         <v>20160708</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="134"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="136"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -9270,20 +9481,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="132">
+      <c r="C27" s="134">
         <v>20160808</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="134"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="136"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -9488,21 +9699,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="132">
+      <c r="C35" s="134">
         <v>20160825</v>
       </c>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="133"/>
-      <c r="K35" s="133"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="133"/>
-      <c r="N35" s="133"/>
-      <c r="O35" s="134"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="135"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="135"/>
+      <c r="N35" s="135"/>
+      <c r="O35" s="136"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -9721,21 +9932,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="132">
+      <c r="C42" s="134">
         <v>20160906</v>
       </c>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="133"/>
-      <c r="M42" s="133"/>
-      <c r="N42" s="133"/>
-      <c r="O42" s="134"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="135"/>
+      <c r="G42" s="135"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="135"/>
+      <c r="J42" s="135"/>
+      <c r="K42" s="135"/>
+      <c r="L42" s="135"/>
+      <c r="M42" s="135"/>
+      <c r="N42" s="135"/>
+      <c r="O42" s="136"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -9955,21 +10166,21 @@
     <row r="49" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="72"/>
-      <c r="C50" s="132">
+      <c r="C50" s="134">
         <v>20160921</v>
       </c>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
-      <c r="J50" s="133"/>
-      <c r="K50" s="133"/>
-      <c r="L50" s="133"/>
-      <c r="M50" s="133"/>
-      <c r="N50" s="133"/>
-      <c r="O50" s="134"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="135"/>
+      <c r="G50" s="135"/>
+      <c r="H50" s="135"/>
+      <c r="I50" s="135"/>
+      <c r="J50" s="135"/>
+      <c r="K50" s="135"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="135"/>
+      <c r="N50" s="135"/>
+      <c r="O50" s="136"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
@@ -10985,8 +11196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -11805,6 +12016,50 @@
         <v>304.084255057512</v>
       </c>
       <c r="M20">
+        <v>724.78833305751402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>20161215</v>
+      </c>
+      <c r="C21">
+        <v>81359.473910800007</v>
+      </c>
+      <c r="D21">
+        <f>C21-C20</f>
+        <v>-686.70057219998853</v>
+      </c>
+      <c r="E21">
+        <v>81742.090227942492</v>
+      </c>
+      <c r="F21">
+        <f>C21/E21</f>
+        <v>0.99531922518649163</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21" si="52">F21-F20</f>
+        <v>-8.4008198259316602E-3</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21" si="53">F21-H21</f>
+        <v>0.99531922518649163</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21" si="54">J21*E21</f>
+        <v>81359.473910800007</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21" si="55">(F21-F20)*E21</f>
+        <v>-686.70057219999387</v>
+      </c>
+      <c r="M21">
         <v>724.78833305751402</v>
       </c>
     </row>
@@ -11974,10 +12229,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K22"/>
+  <dimension ref="B3:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -11995,10 +12250,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="J3" s="140" t="s">
+      <c r="J3" s="142" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="140"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
@@ -12030,7 +12285,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B5" s="138">
+      <c r="B5" s="140">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -12059,7 +12314,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B6" s="139"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="64" t="s">
         <v>147</v>
       </c>
@@ -12522,6 +12777,31 @@
       <c r="H22" s="64">
         <f>E22*G22</f>
         <v>39498.387146740664</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B23" s="48">
+        <v>20161215</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="64">
+        <v>39498.387146740664</v>
+      </c>
+      <c r="E23" s="64">
+        <v>0.99531922518649163</v>
+      </c>
+      <c r="F23" s="64">
+        <f>H23-H22</f>
+        <v>-184.88305573066464</v>
+      </c>
+      <c r="G23" s="64">
+        <v>39498.387146740664</v>
+      </c>
+      <c r="H23" s="64">
+        <f>E23*G23</f>
+        <v>39313.50409101</v>
       </c>
     </row>
   </sheetData>
@@ -12536,12 +12816,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O19"/>
+  <dimension ref="B3:O20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -12600,7 +12880,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="39" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="138">
+      <c r="B5" s="140">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -12633,7 +12913,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="139"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="16" t="s">
         <v>159</v>
       </c>
@@ -13181,6 +13461,46 @@
         <v>645.34396880029556</v>
       </c>
       <c r="L19" s="64">
+        <v>1.6133599220007389E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B20" s="48">
+        <v>20161215</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E20" s="41">
+        <v>0.99531922518649163</v>
+      </c>
+      <c r="F20" s="64">
+        <f t="shared" ref="F20" si="31">E20*D20-H19</f>
+        <v>-197.73085845246533</v>
+      </c>
+      <c r="G20" s="64">
+        <f t="shared" ref="G20" si="32">D20</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H20" s="64">
+        <f t="shared" ref="H20" si="33">E20*D20</f>
+        <v>42045.458854889337</v>
+      </c>
+      <c r="I20" s="64">
+        <f>H20-40000+645.34</f>
+        <v>2690.7988548893372</v>
+      </c>
+      <c r="J20" s="64">
+        <f t="shared" ref="J20" si="34">I20/40000</f>
+        <v>6.7269971372233436E-2</v>
+      </c>
+      <c r="K20" s="64">
+        <v>645.34396880029556</v>
+      </c>
+      <c r="L20" s="64">
         <v>1.6133599220007389E-2</v>
       </c>
     </row>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500" firstSheet="3" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="211">
   <si>
     <t>黄金基金</t>
   </si>
@@ -1682,6 +1682,16 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出华宝石油</t>
+    <rPh sb="0" eb="1">
+      <t>mai'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hua'bao'shi'you</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1769,7 +1779,7 @@
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1785,6 +1795,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2259,7 +2275,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2598,6 +2614,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2662,6 +2681,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2680,30 +2717,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3159,174 +3179,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="131" t="s">
+      <c r="B17" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="131">
+      <c r="D17" s="132">
         <v>7000</v>
       </c>
-      <c r="E17" s="132">
+      <c r="E17" s="133">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="130">
+      <c r="G17" s="131">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="131">
+      <c r="D19" s="132">
         <v>10000</v>
       </c>
-      <c r="E19" s="132">
+      <c r="E19" s="133">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="133"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="131" t="s">
+      <c r="B21" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="131" t="s">
+      <c r="C21" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="131">
+      <c r="D21" s="132">
         <v>10000</v>
       </c>
-      <c r="E21" s="132">
+      <c r="E21" s="133">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="130"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="131"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="132"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="131">
+      <c r="D23" s="132">
         <v>10000</v>
       </c>
-      <c r="E23" s="132">
+      <c r="E23" s="133">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="132"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="131" t="s">
+      <c r="C25" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="131">
+      <c r="D25" s="132">
         <v>1000</v>
       </c>
-      <c r="E25" s="132">
+      <c r="E25" s="133">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="131"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="132"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="133"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="131" t="s">
+      <c r="B27" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="131" t="s">
+      <c r="C27" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="131">
+      <c r="D27" s="132">
         <v>22000</v>
       </c>
-      <c r="E27" s="132">
+      <c r="E27" s="133">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="131"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="132"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="133"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -3364,13 +3384,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -3385,27 +3419,13 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3436,27 +3456,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3489,12 +3509,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="148" t="s">
+      <c r="C8" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="151"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3529,12 +3549,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="148" t="s">
+      <c r="C12" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="151"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3569,12 +3589,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="150"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="151"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3616,13 +3636,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="146"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3705,20 +3725,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="137" t="s">
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3765,7 +3785,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="158">
+      <c r="E6" s="157">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3773,7 +3793,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="162">
+      <c r="G6" s="155">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3788,15 +3808,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="158">
+      <c r="K6" s="157">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="158">
+      <c r="L6" s="157">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="160">
+      <c r="M6" s="153">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3811,12 +3831,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="158"/>
+      <c r="E7" s="157"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="162"/>
+      <c r="G7" s="155"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3828,9 +3848,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="160"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="153"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3842,12 +3862,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="158"/>
+      <c r="E8" s="157"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="162"/>
+      <c r="G8" s="155"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3859,9 +3879,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="158"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="160"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="153"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3873,12 +3893,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="159"/>
+      <c r="E9" s="158"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="163"/>
+      <c r="G9" s="156"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3890,9 +3910,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="159"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="161"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="154"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3902,14 +3922,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="137" t="s">
+      <c r="D13" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="140"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -3946,15 +3966,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="152">
+      <c r="G15" s="159">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="152">
+      <c r="H15" s="159">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="155">
+      <c r="I15" s="162">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3974,9 +3994,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="156"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="163"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -3993,9 +4013,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="156"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="163"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -4012,23 +4032,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="157"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4037,10 +4057,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K181"/>
+  <dimension ref="C3:K188"/>
   <sheetViews>
-    <sheetView topLeftCell="B162" workbookViewId="0">
-      <selection activeCell="D181" sqref="D181"/>
+    <sheetView topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4060,10 +4080,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="164">
+      <c r="D4" s="165">
         <v>20160622</v>
       </c>
-      <c r="E4" s="165"/>
+      <c r="E4" s="166"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -4165,10 +4185,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="164">
+      <c r="D15" s="165">
         <v>20160713</v>
       </c>
-      <c r="E15" s="165"/>
+      <c r="E15" s="166"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4273,10 +4293,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="164">
+      <c r="D25" s="165">
         <v>20160808</v>
       </c>
-      <c r="E25" s="165"/>
+      <c r="E25" s="166"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4406,10 +4426,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="164">
+      <c r="D35" s="165">
         <v>20160825</v>
       </c>
-      <c r="E35" s="165"/>
+      <c r="E35" s="166"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4621,10 +4641,10 @@
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="164">
+      <c r="D45" s="165">
         <v>20160906</v>
       </c>
-      <c r="E45" s="165"/>
+      <c r="E45" s="166"/>
     </row>
     <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="29" t="s">
@@ -4808,10 +4828,10 @@
     </row>
     <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="164">
+      <c r="D56" s="165">
         <v>20160921</v>
       </c>
-      <c r="E56" s="165"/>
+      <c r="E56" s="166"/>
     </row>
     <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="105" t="s">
@@ -4972,10 +4992,10 @@
     </row>
     <row r="65" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D66" s="164">
+      <c r="D66" s="165">
         <v>20161017</v>
       </c>
-      <c r="E66" s="165"/>
+      <c r="E66" s="166"/>
     </row>
     <row r="67" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="105" t="s">
@@ -5137,10 +5157,10 @@
     </row>
     <row r="74" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D75" s="164">
+      <c r="D75" s="165">
         <v>20161020</v>
       </c>
-      <c r="E75" s="165"/>
+      <c r="E75" s="166"/>
     </row>
     <row r="76" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D76" s="105" t="s">
@@ -5298,10 +5318,10 @@
     </row>
     <row r="83" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D84" s="164">
+      <c r="D84" s="165">
         <v>201610207</v>
       </c>
-      <c r="E84" s="165"/>
+      <c r="E84" s="166"/>
     </row>
     <row r="85" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D85" s="105" t="s">
@@ -5459,10 +5479,10 @@
     </row>
     <row r="92" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D93" s="164">
+      <c r="D93" s="165">
         <v>20161031</v>
       </c>
-      <c r="E93" s="165"/>
+      <c r="E93" s="166"/>
     </row>
     <row r="94" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D94" s="105" t="s">
@@ -5620,10 +5640,10 @@
     </row>
     <row r="101" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="102" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D102" s="164">
+      <c r="D102" s="165">
         <v>20161103</v>
       </c>
-      <c r="E102" s="165"/>
+      <c r="E102" s="166"/>
     </row>
     <row r="103" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D103" s="105" t="s">
@@ -5781,10 +5801,10 @@
     </row>
     <row r="110" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="111" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D111" s="164">
+      <c r="D111" s="165">
         <v>20161103</v>
       </c>
-      <c r="E111" s="165"/>
+      <c r="E111" s="166"/>
     </row>
     <row r="112" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D112" s="105" t="s">
@@ -5945,10 +5965,10 @@
     </row>
     <row r="119" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="120" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D120" s="164">
+      <c r="D120" s="165">
         <v>20161108</v>
       </c>
-      <c r="E120" s="165"/>
+      <c r="E120" s="166"/>
     </row>
     <row r="121" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D121" s="105" t="s">
@@ -6109,10 +6129,10 @@
     </row>
     <row r="128" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="129" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D129" s="164">
+      <c r="D129" s="165">
         <v>20161108</v>
       </c>
-      <c r="E129" s="165"/>
+      <c r="E129" s="166"/>
     </row>
     <row r="130" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D130" s="105" t="s">
@@ -6263,10 +6283,10 @@
     </row>
     <row r="137" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D138" s="164">
+      <c r="D138" s="165">
         <v>20161122</v>
       </c>
-      <c r="E138" s="165"/>
+      <c r="E138" s="166"/>
       <c r="F138" s="11" t="s">
         <v>199</v>
       </c>
@@ -6415,10 +6435,10 @@
       </c>
     </row>
     <row r="146" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D146" s="164">
+      <c r="D146" s="165">
         <v>20161122</v>
       </c>
-      <c r="E146" s="165"/>
+      <c r="E146" s="166"/>
       <c r="F146" s="11" t="s">
         <v>200</v>
       </c>
@@ -6567,10 +6587,10 @@
       </c>
     </row>
     <row r="154" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D154" s="164">
+      <c r="D154" s="165">
         <v>20161209</v>
       </c>
-      <c r="E154" s="165"/>
+      <c r="E154" s="166"/>
       <c r="F154" s="11" t="s">
         <v>200</v>
       </c>
@@ -6699,10 +6719,10 @@
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D161" s="164">
+      <c r="D161" s="165">
         <v>20161209</v>
       </c>
-      <c r="E161" s="165"/>
+      <c r="E161" s="166"/>
       <c r="F161" s="11" t="s">
         <v>203</v>
       </c>
@@ -6835,10 +6855,10 @@
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D168" s="164">
+      <c r="D168" s="165">
         <v>20161210</v>
       </c>
-      <c r="E168" s="165"/>
+      <c r="E168" s="166"/>
       <c r="F168" s="11" t="s">
         <v>204</v>
       </c>
@@ -6969,10 +6989,10 @@
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D175" s="164">
+      <c r="D175" s="165">
         <v>20161215</v>
       </c>
-      <c r="E175" s="165"/>
+      <c r="E175" s="166"/>
       <c r="F175" s="11" t="s">
         <v>204</v>
       </c>
@@ -7121,28 +7141,172 @@
         <v>6072.4617499999995</v>
       </c>
     </row>
+    <row r="182" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D182" s="165">
+        <v>20170105</v>
+      </c>
+      <c r="E182" s="166"/>
+      <c r="F182" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="183" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D183" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H183" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="184" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C184" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D184" s="106">
+        <f>F184*G184</f>
+        <v>13096.559879999999</v>
+      </c>
+      <c r="E184" s="107">
+        <f>D184/D188</f>
+        <v>0.16105298739933607</v>
+      </c>
+      <c r="F184" s="11">
+        <f>4017.64+8860</f>
+        <v>12877.64</v>
+      </c>
+      <c r="G184" s="9">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="H184" s="11">
+        <f>F184*G184</f>
+        <v>13096.559879999999</v>
+      </c>
+      <c r="J184" s="9">
+        <v>4572.0200000000004</v>
+      </c>
+    </row>
+    <row r="185" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C185" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" s="78">
+        <f>H185</f>
+        <v>9389.0399589999997</v>
+      </c>
+      <c r="E185" s="53">
+        <f>D185/D188</f>
+        <v>0.11546031538540868</v>
+      </c>
+      <c r="F185" s="96">
+        <v>9859.33</v>
+      </c>
+      <c r="G185" s="9">
+        <v>0.95230000000000004</v>
+      </c>
+      <c r="H185" s="11">
+        <f t="shared" ref="H185:H186" si="17">F185*G185</f>
+        <v>9389.0399589999997</v>
+      </c>
+      <c r="I185" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="186" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C186" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D186" s="56">
+        <f>H186</f>
+        <v>832.8</v>
+      </c>
+      <c r="E186" s="53">
+        <f>D186/D188</f>
+        <v>1.0241233509800675E-2</v>
+      </c>
+      <c r="F186" s="11">
+        <v>800</v>
+      </c>
+      <c r="G186" s="9">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="H186" s="11">
+        <f t="shared" si="17"/>
+        <v>832.8</v>
+      </c>
+    </row>
+    <row r="187" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C187" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D187" s="53">
+        <v>57999.929559800003</v>
+      </c>
+      <c r="E187" s="53">
+        <f>D187/D188</f>
+        <v>0.7132454637054545</v>
+      </c>
+      <c r="F187" s="53">
+        <v>57999.929559800003</v>
+      </c>
+      <c r="G187" s="53">
+        <v>1</v>
+      </c>
+      <c r="H187" s="53">
+        <v>57999.929559800003</v>
+      </c>
+      <c r="J187" s="9">
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C188" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D188" s="57">
+        <f>SUM(D184:D187)</f>
+        <v>81318.329398800008</v>
+      </c>
+      <c r="E188" s="54">
+        <f>D188/D188</f>
+        <v>1</v>
+      </c>
+      <c r="J188" s="9">
+        <f>J186*J187</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="D120:E120"/>
     <mergeCell ref="D102:E102"/>
     <mergeCell ref="D111:E111"/>
     <mergeCell ref="D175:E175"/>
     <mergeCell ref="D161:E161"/>
     <mergeCell ref="D168:E168"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D45:E45"/>
     <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D138:E138"/>
     <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D129:E129"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7575,10 +7739,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K64"/>
+  <dimension ref="B2:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7589,6 +7753,7 @@
     <col min="7" max="7" width="7.5" style="92" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
@@ -8690,8 +8855,38 @@
       <c r="J64" t="s">
         <v>206</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="167" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B65" s="89">
+        <v>20170105</v>
+      </c>
+      <c r="C65" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65">
+        <v>5355.02</v>
+      </c>
+      <c r="F65" s="89">
+        <v>1</v>
+      </c>
+      <c r="G65" s="93">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>5355.02</v>
+      </c>
+      <c r="I65" s="89">
+        <f>52644.9095598+H65</f>
+        <v>57999.929559800003</v>
+      </c>
+      <c r="J65" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -8831,18 +9026,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="133">
+      <c r="F4" s="134">
         <v>20160708</v>
       </c>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133">
+      <c r="G4" s="134"/>
+      <c r="H4" s="134">
         <v>20160712</v>
       </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133">
+      <c r="I4" s="134"/>
+      <c r="J4" s="134">
         <v>20160808</v>
       </c>
-      <c r="K4" s="133"/>
+      <c r="K4" s="134"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -8900,10 +9095,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="133">
+      <c r="E8" s="134">
         <v>20160810</v>
       </c>
-      <c r="F8" s="133"/>
+      <c r="F8" s="134"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -8977,11 +9172,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="133">
+      <c r="C4" s="134">
         <v>201605</v>
       </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -9053,19 +9248,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="137">
+      <c r="C11" s="138">
         <v>20160608</v>
       </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="140"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -9249,20 +9444,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="134">
+      <c r="C18" s="135">
         <v>20160708</v>
       </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="137"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -9481,20 +9676,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="134">
+      <c r="C27" s="135">
         <v>20160808</v>
       </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="136"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="137"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -9699,21 +9894,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="134">
+      <c r="C35" s="135">
         <v>20160825</v>
       </c>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="135"/>
-      <c r="J35" s="135"/>
-      <c r="K35" s="135"/>
-      <c r="L35" s="135"/>
-      <c r="M35" s="135"/>
-      <c r="N35" s="135"/>
-      <c r="O35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="136"/>
+      <c r="M35" s="136"/>
+      <c r="N35" s="136"/>
+      <c r="O35" s="137"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -9932,21 +10127,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="134">
+      <c r="C42" s="135">
         <v>20160906</v>
       </c>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="135"/>
-      <c r="J42" s="135"/>
-      <c r="K42" s="135"/>
-      <c r="L42" s="135"/>
-      <c r="M42" s="135"/>
-      <c r="N42" s="135"/>
-      <c r="O42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
+      <c r="K42" s="136"/>
+      <c r="L42" s="136"/>
+      <c r="M42" s="136"/>
+      <c r="N42" s="136"/>
+      <c r="O42" s="137"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -10166,21 +10361,21 @@
     <row r="49" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="72"/>
-      <c r="C50" s="134">
+      <c r="C50" s="135">
         <v>20160921</v>
       </c>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
-      <c r="F50" s="135"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="135"/>
-      <c r="I50" s="135"/>
-      <c r="J50" s="135"/>
-      <c r="K50" s="135"/>
-      <c r="L50" s="135"/>
-      <c r="M50" s="135"/>
-      <c r="N50" s="135"/>
-      <c r="O50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="136"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="136"/>
+      <c r="K50" s="136"/>
+      <c r="L50" s="136"/>
+      <c r="M50" s="136"/>
+      <c r="N50" s="136"/>
+      <c r="O50" s="137"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
@@ -10942,7 +11137,7 @@
       </c>
       <c r="C29">
         <f>净值!F22</f>
-        <v>0</v>
+        <v>0.99481587970211183</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="23" x14ac:dyDescent="0.3">
@@ -10978,7 +11173,7 @@
       </c>
       <c r="D31" s="66">
         <f>C29*C31</f>
-        <v>0</v>
+        <v>42024.195936101329</v>
       </c>
       <c r="E31" s="100">
         <f>C31/C33</f>
@@ -10996,7 +11191,7 @@
       </c>
       <c r="I31">
         <f>D31/40000-1</f>
-        <v>-1</v>
+        <v>5.0604898402533127E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="23" x14ac:dyDescent="0.3">
@@ -11008,7 +11203,7 @@
       </c>
       <c r="D32" s="66">
         <f>C32*C29</f>
-        <v>0</v>
+        <v>29256.397345185356</v>
       </c>
       <c r="E32" s="100">
         <f>C32/C33</f>
@@ -11025,7 +11220,7 @@
       </c>
       <c r="I32">
         <f>D32/22000-1</f>
-        <v>-1</v>
+        <v>0.32983624296297065</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
@@ -11038,7 +11233,7 @@
       </c>
       <c r="D33" s="68">
         <f>D31+D32</f>
-        <v>0</v>
+        <v>71280.593281286681</v>
       </c>
       <c r="E33" s="70">
         <v>1</v>
@@ -11057,7 +11252,7 @@
       </c>
       <c r="I33">
         <f>D33/62000-1</f>
-        <v>-1</v>
+        <v>0.14968698840784977</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -11197,7 +11392,7 @@
   <dimension ref="A2:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -12060,6 +12255,50 @@
         <v>-686.70057219999387</v>
       </c>
       <c r="M21">
+        <v>724.78833305751402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>20170105</v>
+      </c>
+      <c r="C22">
+        <v>81318.329398800008</v>
+      </c>
+      <c r="D22">
+        <f>C22-C21</f>
+        <v>-41.14451199999894</v>
+      </c>
+      <c r="E22">
+        <v>81742.090227942492</v>
+      </c>
+      <c r="F22">
+        <f>C22/E22</f>
+        <v>0.99481587970211183</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22" si="56">F22-F21</f>
+        <v>-5.0334548437980242E-4</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22" si="57">F22-H22</f>
+        <v>0.99481587970211183</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22" si="58">J22*E22</f>
+        <v>81318.329398800008</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22" si="59">(F22-F21)*E22</f>
+        <v>-41.144512000001228</v>
+      </c>
+      <c r="M22">
         <v>724.78833305751402</v>
       </c>
     </row>
@@ -12229,10 +12468,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K23"/>
+  <dimension ref="B3:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -12250,10 +12489,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="J3" s="142" t="s">
+      <c r="J3" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="142"/>
+      <c r="K3" s="143"/>
     </row>
     <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
@@ -12285,7 +12524,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B5" s="140">
+      <c r="B5" s="141">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -12314,7 +12553,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B6" s="141"/>
+      <c r="B6" s="142"/>
       <c r="C6" s="64" t="s">
         <v>147</v>
       </c>
@@ -12660,14 +12899,14 @@
         <v>0.98988428302105702</v>
       </c>
       <c r="F18" s="64">
-        <f>H18-H17</f>
+        <f t="shared" ref="F18:F23" si="2">H18-H17</f>
         <v>129.01520093942963</v>
       </c>
       <c r="G18" s="64">
         <v>34459.43847872442</v>
       </c>
       <c r="H18" s="64">
-        <f t="shared" ref="H18" si="2">E18*G18</f>
+        <f t="shared" ref="H18" si="3">E18*G18</f>
         <v>34110.856551820347</v>
       </c>
     </row>
@@ -12685,14 +12924,14 @@
         <v>0.99227047731930973</v>
       </c>
       <c r="F19" s="64">
-        <f>H19-H18</f>
+        <f t="shared" si="2"/>
         <v>82.226915618921339</v>
       </c>
       <c r="G19" s="64">
         <v>34459.43847872442</v>
       </c>
       <c r="H19" s="64">
-        <f t="shared" ref="H19" si="3">E19*G19</f>
+        <f t="shared" ref="H19" si="4">E19*G19</f>
         <v>34193.083467439268</v>
       </c>
     </row>
@@ -12710,7 +12949,7 @@
         <v>0.99227047731930973</v>
       </c>
       <c r="F20" s="64">
-        <f>H20-H19</f>
+        <f t="shared" si="2"/>
         <v>4999.9999999999782</v>
       </c>
       <c r="G20" s="64">
@@ -12718,7 +12957,7 @@
         <v>39498.387146740664</v>
       </c>
       <c r="H20" s="64">
-        <f t="shared" ref="H20" si="4">E20*G20</f>
+        <f t="shared" ref="H20" si="5">E20*G20</f>
         <v>39193.083467439246</v>
       </c>
       <c r="J20" s="110">
@@ -12743,7 +12982,7 @@
         <v>1.0020113057128714</v>
       </c>
       <c r="F21" s="64">
-        <f>H21-H20</f>
+        <f t="shared" si="2"/>
         <v>384.74701101886603</v>
       </c>
       <c r="G21" s="64">
@@ -12768,7 +13007,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="64">
-        <f>H22-H21</f>
+        <f t="shared" si="2"/>
         <v>-79.443331717448018</v>
       </c>
       <c r="G22" s="64">
@@ -12793,7 +13032,7 @@
         <v>0.99531922518649163</v>
       </c>
       <c r="F23" s="64">
-        <f>H23-H22</f>
+        <f t="shared" si="2"/>
         <v>-184.88305573066464</v>
       </c>
       <c r="G23" s="64">
@@ -12801,6 +13040,31 @@
       </c>
       <c r="H23" s="64">
         <f>E23*G23</f>
+        <v>39313.50409101</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B24" s="48">
+        <v>20161215</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="64">
+        <v>39498.387146740664</v>
+      </c>
+      <c r="E24" s="64">
+        <v>0.99531922518649163</v>
+      </c>
+      <c r="F24" s="64">
+        <f t="shared" ref="F24" si="6">H24-H23</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="64">
+        <v>39498.387146740664</v>
+      </c>
+      <c r="H24" s="64">
+        <f>E24*G24</f>
         <v>39313.50409101</v>
       </c>
     </row>
@@ -12816,12 +13080,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O20"/>
+  <dimension ref="B3:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -12880,7 +13144,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="39" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="140">
+      <c r="B5" s="141">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -12913,7 +13177,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="141"/>
+      <c r="B6" s="142"/>
       <c r="C6" s="16" t="s">
         <v>159</v>
       </c>
@@ -13501,6 +13765,46 @@
         <v>645.34396880029556</v>
       </c>
       <c r="L20" s="64">
+        <v>1.6133599220007389E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B21" s="48">
+        <v>20170105</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E21" s="41">
+        <v>0.99481587970211183</v>
+      </c>
+      <c r="F21" s="64">
+        <f t="shared" ref="F21" si="35">E21*D21-H20</f>
+        <v>-21.262918788008392</v>
+      </c>
+      <c r="G21" s="64">
+        <f t="shared" ref="G21" si="36">D21</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H21" s="64">
+        <f t="shared" ref="H21" si="37">E21*D21</f>
+        <v>42024.195936101329</v>
+      </c>
+      <c r="I21" s="64">
+        <f>H21-40000+645.34</f>
+        <v>2669.5359361013288</v>
+      </c>
+      <c r="J21" s="64">
+        <f t="shared" ref="J21" si="38">I21/40000</f>
+        <v>6.6738398402533219E-2</v>
+      </c>
+      <c r="K21" s="64">
+        <v>645.34396880029556</v>
+      </c>
+      <c r="L21" s="64">
         <v>1.6133599220007389E-2</v>
       </c>
     </row>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="212">
   <si>
     <t>黄金基金</t>
   </si>
@@ -1692,6 +1692,19 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>hua'bao'shi'you</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标：2月16日</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ri</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2617,6 +2630,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2681,24 +2695,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2717,13 +2713,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3179,174 +3192,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="132" t="s">
+      <c r="B17" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="132">
+      <c r="D17" s="133">
         <v>7000</v>
       </c>
-      <c r="E17" s="133">
+      <c r="E17" s="134">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="131">
+      <c r="G17" s="132">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="132">
+      <c r="D19" s="133">
         <v>10000</v>
       </c>
-      <c r="E19" s="133">
+      <c r="E19" s="134">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="134"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="132" t="s">
+      <c r="C21" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="132">
+      <c r="D21" s="133">
         <v>10000</v>
       </c>
-      <c r="E21" s="133">
+      <c r="E21" s="134">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="132" t="s">
+      <c r="C23" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="132">
+      <c r="D23" s="133">
         <v>10000</v>
       </c>
-      <c r="E23" s="133">
+      <c r="E23" s="134">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="133"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="134"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="132" t="s">
+      <c r="C25" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="132">
+      <c r="D25" s="133">
         <v>1000</v>
       </c>
-      <c r="E25" s="133">
+      <c r="E25" s="134">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="133"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="134"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="132" t="s">
+      <c r="B27" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="132" t="s">
+      <c r="C27" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="132">
+      <c r="D27" s="133">
         <v>22000</v>
       </c>
-      <c r="E27" s="133">
+      <c r="E27" s="134">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="133"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="134"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -3384,13 +3397,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -3405,27 +3432,13 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3456,27 +3469,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3509,12 +3522,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="149" t="s">
+      <c r="C8" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="152"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3549,12 +3562,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="149" t="s">
+      <c r="C12" s="150" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="152"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3589,12 +3602,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="149" t="s">
+      <c r="C16" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="152"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3636,13 +3649,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="144" t="s">
+      <c r="C20" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="147"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3725,20 +3738,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="138" t="s">
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="141"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3785,7 +3798,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="157">
+      <c r="E6" s="160">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3793,7 +3806,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="155">
+      <c r="G6" s="164">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3808,15 +3821,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="157">
+      <c r="K6" s="160">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="157">
+      <c r="L6" s="160">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="153">
+      <c r="M6" s="162">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3831,12 +3844,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="157"/>
+      <c r="E7" s="160"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="155"/>
+      <c r="G7" s="164"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3848,9 +3861,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="153"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="162"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3862,12 +3875,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="157"/>
+      <c r="E8" s="160"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="155"/>
+      <c r="G8" s="164"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3879,9 +3892,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="157"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="153"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="162"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3893,12 +3906,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="158"/>
+      <c r="E9" s="161"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="156"/>
+      <c r="G9" s="165"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3910,9 +3923,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="154"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="163"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3922,14 +3935,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="138" t="s">
+      <c r="D13" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="141"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -3966,15 +3979,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="159">
+      <c r="G15" s="154">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="159">
+      <c r="H15" s="154">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="162">
+      <c r="I15" s="157">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -3994,9 +4007,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="163"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="158"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -4013,9 +4026,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="163"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="158"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -4032,23 +4045,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="164"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4060,7 +4073,7 @@
   <dimension ref="C3:K188"/>
   <sheetViews>
     <sheetView topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="F190" sqref="F190"/>
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4080,10 +4093,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="165">
+      <c r="D4" s="166">
         <v>20160622</v>
       </c>
-      <c r="E4" s="166"/>
+      <c r="E4" s="167"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -4185,10 +4198,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="165">
+      <c r="D15" s="166">
         <v>20160713</v>
       </c>
-      <c r="E15" s="166"/>
+      <c r="E15" s="167"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4293,10 +4306,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="165">
+      <c r="D25" s="166">
         <v>20160808</v>
       </c>
-      <c r="E25" s="166"/>
+      <c r="E25" s="167"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4426,10 +4439,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="165">
+      <c r="D35" s="166">
         <v>20160825</v>
       </c>
-      <c r="E35" s="166"/>
+      <c r="E35" s="167"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4641,10 +4654,10 @@
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="165">
+      <c r="D45" s="166">
         <v>20160906</v>
       </c>
-      <c r="E45" s="166"/>
+      <c r="E45" s="167"/>
     </row>
     <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="29" t="s">
@@ -4828,10 +4841,10 @@
     </row>
     <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="165">
+      <c r="D56" s="166">
         <v>20160921</v>
       </c>
-      <c r="E56" s="166"/>
+      <c r="E56" s="167"/>
     </row>
     <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="105" t="s">
@@ -4992,10 +5005,10 @@
     </row>
     <row r="65" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D66" s="165">
+      <c r="D66" s="166">
         <v>20161017</v>
       </c>
-      <c r="E66" s="166"/>
+      <c r="E66" s="167"/>
     </row>
     <row r="67" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="105" t="s">
@@ -5157,10 +5170,10 @@
     </row>
     <row r="74" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D75" s="165">
+      <c r="D75" s="166">
         <v>20161020</v>
       </c>
-      <c r="E75" s="166"/>
+      <c r="E75" s="167"/>
     </row>
     <row r="76" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D76" s="105" t="s">
@@ -5318,10 +5331,10 @@
     </row>
     <row r="83" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D84" s="165">
+      <c r="D84" s="166">
         <v>201610207</v>
       </c>
-      <c r="E84" s="166"/>
+      <c r="E84" s="167"/>
     </row>
     <row r="85" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D85" s="105" t="s">
@@ -5479,10 +5492,10 @@
     </row>
     <row r="92" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D93" s="165">
+      <c r="D93" s="166">
         <v>20161031</v>
       </c>
-      <c r="E93" s="166"/>
+      <c r="E93" s="167"/>
     </row>
     <row r="94" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D94" s="105" t="s">
@@ -5640,10 +5653,10 @@
     </row>
     <row r="101" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="102" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D102" s="165">
+      <c r="D102" s="166">
         <v>20161103</v>
       </c>
-      <c r="E102" s="166"/>
+      <c r="E102" s="167"/>
     </row>
     <row r="103" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D103" s="105" t="s">
@@ -5801,10 +5814,10 @@
     </row>
     <row r="110" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="111" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D111" s="165">
+      <c r="D111" s="166">
         <v>20161103</v>
       </c>
-      <c r="E111" s="166"/>
+      <c r="E111" s="167"/>
     </row>
     <row r="112" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D112" s="105" t="s">
@@ -5965,10 +5978,10 @@
     </row>
     <row r="119" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="120" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D120" s="165">
+      <c r="D120" s="166">
         <v>20161108</v>
       </c>
-      <c r="E120" s="166"/>
+      <c r="E120" s="167"/>
     </row>
     <row r="121" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D121" s="105" t="s">
@@ -6129,10 +6142,10 @@
     </row>
     <row r="128" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="129" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D129" s="165">
+      <c r="D129" s="166">
         <v>20161108</v>
       </c>
-      <c r="E129" s="166"/>
+      <c r="E129" s="167"/>
     </row>
     <row r="130" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D130" s="105" t="s">
@@ -6283,10 +6296,10 @@
     </row>
     <row r="137" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D138" s="165">
+      <c r="D138" s="166">
         <v>20161122</v>
       </c>
-      <c r="E138" s="166"/>
+      <c r="E138" s="167"/>
       <c r="F138" s="11" t="s">
         <v>199</v>
       </c>
@@ -6435,10 +6448,10 @@
       </c>
     </row>
     <row r="146" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D146" s="165">
+      <c r="D146" s="166">
         <v>20161122</v>
       </c>
-      <c r="E146" s="166"/>
+      <c r="E146" s="167"/>
       <c r="F146" s="11" t="s">
         <v>200</v>
       </c>
@@ -6587,10 +6600,10 @@
       </c>
     </row>
     <row r="154" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D154" s="165">
+      <c r="D154" s="166">
         <v>20161209</v>
       </c>
-      <c r="E154" s="166"/>
+      <c r="E154" s="167"/>
       <c r="F154" s="11" t="s">
         <v>200</v>
       </c>
@@ -6719,10 +6732,10 @@
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D161" s="165">
+      <c r="D161" s="166">
         <v>20161209</v>
       </c>
-      <c r="E161" s="166"/>
+      <c r="E161" s="167"/>
       <c r="F161" s="11" t="s">
         <v>203</v>
       </c>
@@ -6855,10 +6868,10 @@
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D168" s="165">
+      <c r="D168" s="166">
         <v>20161210</v>
       </c>
-      <c r="E168" s="166"/>
+      <c r="E168" s="167"/>
       <c r="F168" s="11" t="s">
         <v>204</v>
       </c>
@@ -6989,10 +7002,10 @@
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D175" s="165">
+      <c r="D175" s="166">
         <v>20161215</v>
       </c>
-      <c r="E175" s="166"/>
+      <c r="E175" s="167"/>
       <c r="F175" s="11" t="s">
         <v>204</v>
       </c>
@@ -7142,10 +7155,10 @@
       </c>
     </row>
     <row r="182" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D182" s="165">
-        <v>20170105</v>
-      </c>
-      <c r="E182" s="166"/>
+      <c r="D182" s="166">
+        <v>20170117</v>
+      </c>
+      <c r="E182" s="167"/>
       <c r="F182" s="11" t="s">
         <v>204</v>
       </c>
@@ -7173,22 +7186,22 @@
       </c>
       <c r="D184" s="106">
         <f>F184*G184</f>
-        <v>13096.559879999999</v>
+        <v>13260.105908</v>
       </c>
       <c r="E184" s="107">
         <f>D184/D188</f>
-        <v>0.16105298739933607</v>
+        <v>0.16219753470100831</v>
       </c>
       <c r="F184" s="11">
         <f>4017.64+8860</f>
         <v>12877.64</v>
       </c>
       <c r="G184" s="9">
-        <v>1.0169999999999999</v>
+        <v>1.0297000000000001</v>
       </c>
       <c r="H184" s="11">
         <f>F184*G184</f>
-        <v>13096.559879999999</v>
+        <v>13260.105908</v>
       </c>
       <c r="J184" s="9">
         <v>4572.0200000000004</v>
@@ -7200,21 +7213,21 @@
       </c>
       <c r="D185" s="78">
         <f>H185</f>
-        <v>9389.0399589999997</v>
+        <v>9570.4516309999999</v>
       </c>
       <c r="E185" s="53">
         <f>D185/D188</f>
-        <v>0.11546031538540868</v>
+        <v>0.11706570605796734</v>
       </c>
       <c r="F185" s="96">
         <v>9859.33</v>
       </c>
       <c r="G185" s="9">
-        <v>0.95230000000000004</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="H185" s="11">
         <f t="shared" ref="H185:H186" si="17">F185*G185</f>
-        <v>9389.0399589999997</v>
+        <v>9570.4516309999999</v>
       </c>
       <c r="I185" s="9" t="s">
         <v>208</v>
@@ -7226,21 +7239,21 @@
       </c>
       <c r="D186" s="56">
         <f>H186</f>
-        <v>832.8</v>
+        <v>816</v>
       </c>
       <c r="E186" s="53">
         <f>D186/D188</f>
-        <v>1.0241233509800675E-2</v>
+        <v>9.9813070298459938E-3</v>
       </c>
       <c r="F186" s="11">
         <v>800</v>
       </c>
       <c r="G186" s="9">
-        <v>1.0409999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="H186" s="11">
         <f t="shared" si="17"/>
-        <v>832.8</v>
+        <v>816</v>
       </c>
     </row>
     <row r="187" spans="3:11" x14ac:dyDescent="0.3">
@@ -7248,20 +7261,20 @@
         <v>59</v>
       </c>
       <c r="D187" s="53">
-        <v>57999.929559800003</v>
+        <v>58106.262763992971</v>
       </c>
       <c r="E187" s="53">
         <f>D187/D188</f>
-        <v>0.7132454637054545</v>
+        <v>0.71075545221117831</v>
       </c>
       <c r="F187" s="53">
-        <v>57999.929559800003</v>
-      </c>
-      <c r="G187" s="53">
+        <v>58106.262763992971</v>
+      </c>
+      <c r="G187" s="9">
         <v>1</v>
       </c>
       <c r="H187" s="53">
-        <v>57999.929559800003</v>
+        <v>58106.262763992971</v>
       </c>
       <c r="J187" s="9">
         <v>1.0069999999999999</v>
@@ -7273,7 +7286,7 @@
       </c>
       <c r="D188" s="57">
         <f>SUM(D184:D187)</f>
-        <v>81318.329398800008</v>
+        <v>81752.820302992972</v>
       </c>
       <c r="E188" s="54">
         <f>D188/D188</f>
@@ -7286,6 +7299,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="D182:E182"/>
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="D84:E84"/>
@@ -7293,12 +7312,6 @@
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D138:E138"/>
     <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D45:E45"/>
     <mergeCell ref="D120:E120"/>
     <mergeCell ref="D102:E102"/>
     <mergeCell ref="D111:E111"/>
@@ -7739,10 +7752,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K65"/>
+  <dimension ref="B2:K66"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8855,11 +8868,11 @@
       <c r="J64" t="s">
         <v>206</v>
       </c>
-      <c r="K64" s="167" t="s">
+      <c r="K64" s="131" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B65" s="89">
         <v>20170105</v>
       </c>
@@ -8887,6 +8900,39 @@
       </c>
       <c r="J65" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B66" s="89">
+        <v>20170117</v>
+      </c>
+      <c r="C66" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66">
+        <v>58106.262763992971</v>
+      </c>
+      <c r="F66" s="89">
+        <v>1</v>
+      </c>
+      <c r="G66" s="93">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>58106.262763992971</v>
+      </c>
+      <c r="I66" s="89">
+        <f>57999.9295598*(1+0.022/12)</f>
+        <v>58106.262763992971</v>
+      </c>
+      <c r="J66" t="s">
+        <v>206</v>
+      </c>
+      <c r="K66" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -9026,18 +9072,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="134">
+      <c r="F4" s="135">
         <v>20160708</v>
       </c>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134">
+      <c r="G4" s="135"/>
+      <c r="H4" s="135">
         <v>20160712</v>
       </c>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134">
+      <c r="I4" s="135"/>
+      <c r="J4" s="135">
         <v>20160808</v>
       </c>
-      <c r="K4" s="134"/>
+      <c r="K4" s="135"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -9095,10 +9141,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="134">
+      <c r="E8" s="135">
         <v>20160810</v>
       </c>
-      <c r="F8" s="134"/>
+      <c r="F8" s="135"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -9172,11 +9218,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="134">
+      <c r="C4" s="135">
         <v>201605</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -9248,19 +9294,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="138">
+      <c r="C11" s="139">
         <v>20160608</v>
       </c>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="141"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -9444,20 +9490,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="135">
+      <c r="C18" s="136">
         <v>20160708</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="138"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -9676,20 +9722,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="135">
+      <c r="C27" s="136">
         <v>20160808</v>
       </c>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="136"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="138"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -9894,21 +9940,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="135">
+      <c r="C35" s="136">
         <v>20160825</v>
       </c>
-      <c r="D35" s="136"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="136"/>
-      <c r="M35" s="136"/>
-      <c r="N35" s="136"/>
-      <c r="O35" s="137"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="137"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="137"/>
+      <c r="M35" s="137"/>
+      <c r="N35" s="137"/>
+      <c r="O35" s="138"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -10127,21 +10173,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="135">
+      <c r="C42" s="136">
         <v>20160906</v>
       </c>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="136"/>
-      <c r="K42" s="136"/>
-      <c r="L42" s="136"/>
-      <c r="M42" s="136"/>
-      <c r="N42" s="136"/>
-      <c r="O42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="137"/>
+      <c r="K42" s="137"/>
+      <c r="L42" s="137"/>
+      <c r="M42" s="137"/>
+      <c r="N42" s="137"/>
+      <c r="O42" s="138"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -10361,21 +10407,21 @@
     <row r="49" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="72"/>
-      <c r="C50" s="135">
+      <c r="C50" s="136">
         <v>20160921</v>
       </c>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="136"/>
-      <c r="J50" s="136"/>
-      <c r="K50" s="136"/>
-      <c r="L50" s="136"/>
-      <c r="M50" s="136"/>
-      <c r="N50" s="136"/>
-      <c r="O50" s="137"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="137"/>
+      <c r="K50" s="137"/>
+      <c r="L50" s="137"/>
+      <c r="M50" s="137"/>
+      <c r="N50" s="137"/>
+      <c r="O50" s="138"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
@@ -11392,7 +11438,7 @@
   <dimension ref="A2:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -12299,6 +12345,50 @@
         <v>-41.144512000001228</v>
       </c>
       <c r="M22">
+        <v>724.78833305751402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>20170117</v>
+      </c>
+      <c r="C23">
+        <v>81752.820302992972</v>
+      </c>
+      <c r="D23">
+        <f>C23-C22</f>
+        <v>434.49090419296408</v>
+      </c>
+      <c r="E23">
+        <v>81742.090227942492</v>
+      </c>
+      <c r="F23">
+        <f>C23/E23</f>
+        <v>1.0001312674415415</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23" si="60">F23-F22</f>
+        <v>5.3153877394296334E-3</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23" si="61">F23-H23</f>
+        <v>1.0001312674415415</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23" si="62">J23*E23</f>
+        <v>81752.820302992972</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23" si="63">(F23-F22)*E23</f>
+        <v>434.49090419295635</v>
+      </c>
+      <c r="M23">
         <v>724.78833305751402</v>
       </c>
     </row>
@@ -12468,10 +12558,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K24"/>
+  <dimension ref="B3:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -12489,10 +12579,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="J3" s="143" t="s">
+      <c r="J3" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="143"/>
+      <c r="K3" s="144"/>
     </row>
     <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
@@ -12524,7 +12614,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B5" s="141">
+      <c r="B5" s="142">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -12553,7 +12643,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B6" s="142"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="64" t="s">
         <v>147</v>
       </c>
@@ -13066,6 +13156,31 @@
       <c r="H24" s="64">
         <f>E24*G24</f>
         <v>39313.50409101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B25" s="48">
+        <v>20170117</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="64">
+        <v>39498.387146740664</v>
+      </c>
+      <c r="E25" s="64">
+        <v>1.0001312674415415</v>
+      </c>
+      <c r="F25" s="64">
+        <f t="shared" ref="F25" si="7">H25-H24</f>
+        <v>190.06790795642883</v>
+      </c>
+      <c r="G25" s="64">
+        <v>39498.387146740664</v>
+      </c>
+      <c r="H25" s="64">
+        <f>E25*G25</f>
+        <v>39503.571998966429</v>
       </c>
     </row>
   </sheetData>
@@ -13080,12 +13195,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O21"/>
+  <dimension ref="B3:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -13144,7 +13259,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="39" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="141">
+      <c r="B5" s="142">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -13177,7 +13292,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="142"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="16" t="s">
         <v>159</v>
       </c>
@@ -13660,23 +13775,23 @@
         <v>2.0113057128700001E-3</v>
       </c>
       <c r="F18" s="64">
-        <f t="shared" ref="F18:F19" si="26">E18*D18-H17</f>
-        <v>-42243.189713341868</v>
+        <f>E18*D18</f>
+        <v>84.963968800295589</v>
       </c>
       <c r="G18" s="64">
-        <f t="shared" ref="G18:G19" si="27">D18</f>
+        <f t="shared" ref="G18:G19" si="26">D18</f>
         <v>42243.189713341802</v>
       </c>
       <c r="H18" s="64">
-        <f t="shared" ref="H18:H19" si="28">E18*D18</f>
+        <f t="shared" ref="H18:H19" si="27">E18*D18</f>
         <v>84.963968800295589</v>
       </c>
       <c r="I18" s="64">
-        <f t="shared" ref="I18" si="29">H18-40000+560.38</f>
+        <f t="shared" ref="I18" si="28">H18-40000+560.38</f>
         <v>-39354.656031199709</v>
       </c>
       <c r="J18" s="64">
-        <f t="shared" ref="J18:J19" si="30">I18/40000</f>
+        <f t="shared" ref="J18:J19" si="29">I18/40000</f>
         <v>-0.98386640077999277</v>
       </c>
       <c r="K18" s="64">
@@ -13702,15 +13817,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="64">
+        <f t="shared" ref="F18:F19" si="30">E19*D19-H18</f>
+        <v>42158.225744541509</v>
+      </c>
+      <c r="G19" s="64">
         <f t="shared" si="26"/>
-        <v>42158.225744541509</v>
-      </c>
-      <c r="G19" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H19" s="64">
         <f t="shared" si="27"/>
-        <v>42243.189713341802</v>
-      </c>
-      <c r="H19" s="64">
-        <f t="shared" si="28"/>
         <v>42243.189713341802</v>
       </c>
       <c r="I19" s="64">
@@ -13718,7 +13833,7 @@
         <v>2888.5297133418026</v>
       </c>
       <c r="J19" s="64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>7.2213242833545063E-2</v>
       </c>
       <c r="K19" s="64">
@@ -13805,6 +13920,46 @@
         <v>645.34396880029556</v>
       </c>
       <c r="L21" s="64">
+        <v>1.6133599220007389E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B22" s="48">
+        <v>20170117</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E22" s="41">
+        <v>1.0001312674415415</v>
+      </c>
+      <c r="F22" s="64">
+        <f t="shared" ref="F22" si="39">E22*D22-H21</f>
+        <v>224.53893267669628</v>
+      </c>
+      <c r="G22" s="64">
+        <f t="shared" ref="G22" si="40">D22</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H22" s="64">
+        <f t="shared" ref="H22" si="41">E22*D22</f>
+        <v>42248.734868778025</v>
+      </c>
+      <c r="I22" s="64">
+        <f>H22-40000+645.34</f>
+        <v>2894.0748687780251</v>
+      </c>
+      <c r="J22" s="64">
+        <f t="shared" ref="J22" si="42">I22/40000</f>
+        <v>7.2351871719450622E-2</v>
+      </c>
+      <c r="K22" s="64">
+        <v>645.34396880029556</v>
+      </c>
+      <c r="L22" s="64">
         <v>1.6133599220007389E-2</v>
       </c>
     </row>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -20,16 +20,21 @@
     <sheet name="216" sheetId="13" state="hidden" r:id="rId6"/>
     <sheet name="rand资产报告" sheetId="16" r:id="rId7"/>
     <sheet name="216资产报告" sheetId="17" r:id="rId8"/>
-    <sheet name="分红选择" sheetId="15" state="hidden" r:id="rId9"/>
-    <sheet name="易H股ETF联接（110031）" sheetId="2" state="hidden" r:id="rId10"/>
-    <sheet name="打包资产统计" sheetId="3" state="hidden" r:id="rId11"/>
-    <sheet name="资产结构" sheetId="8" r:id="rId12"/>
-    <sheet name="用户资产" sheetId="14" state="hidden" r:id="rId13"/>
-    <sheet name="Operation" sheetId="9" r:id="rId14"/>
-    <sheet name="余额宝损益表" sheetId="11" r:id="rId15"/>
-    <sheet name="待确认" sheetId="19" r:id="rId16"/>
-    <sheet name="策略" sheetId="10" state="hidden" r:id="rId17"/>
+    <sheet name="分红记录" sheetId="20" r:id="rId9"/>
+    <sheet name="分红选择" sheetId="15" state="hidden" r:id="rId10"/>
+    <sheet name="易H股ETF联接（110031）" sheetId="2" state="hidden" r:id="rId11"/>
+    <sheet name="打包资产统计" sheetId="3" state="hidden" r:id="rId12"/>
+    <sheet name="资产结构" sheetId="8" r:id="rId13"/>
+    <sheet name="用户资产" sheetId="14" state="hidden" r:id="rId14"/>
+    <sheet name="Operation" sheetId="9" r:id="rId15"/>
+    <sheet name="余额宝损益表" sheetId="11" r:id="rId16"/>
+    <sheet name="待确认" sheetId="19" r:id="rId17"/>
+    <sheet name="策略" sheetId="10" state="hidden" r:id="rId18"/>
+    <sheet name="投资记录" sheetId="21" r:id="rId19"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">rand资产报告!$C$3:$C$25</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="218">
   <si>
     <t>黄金基金</t>
   </si>
@@ -1705,6 +1710,45 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红净值</t>
+    <rPh sb="0" eb="1">
+      <t>fen'hong'jing'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红份数</t>
+    <rPh sb="0" eb="1">
+      <t>fen'hong'fen'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红后+rand投资</t>
+    <rPh sb="0" eb="1">
+      <t>fen'hong'hou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tou'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rand投资</t>
+    <rPh sb="4" eb="5">
+      <t>tou'zi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1792,7 +1836,7 @@
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1814,6 +1858,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2288,7 +2338,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2631,6 +2681,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3192,174 +3249,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="133" t="s">
+      <c r="B17" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="133">
+      <c r="D17" s="136">
         <v>7000</v>
       </c>
-      <c r="E17" s="134">
+      <c r="E17" s="137">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="132">
+      <c r="G17" s="135">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="133">
+      <c r="D19" s="136">
         <v>10000</v>
       </c>
-      <c r="E19" s="134">
+      <c r="E19" s="137">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="134"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="133">
+      <c r="D21" s="136">
         <v>10000</v>
       </c>
-      <c r="E21" s="134">
+      <c r="E21" s="137">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="137"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="133" t="s">
+      <c r="C23" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="133">
+      <c r="D23" s="136">
         <v>10000</v>
       </c>
-      <c r="E23" s="134">
+      <c r="E23" s="137">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="133"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="134"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="137"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="133" t="s">
+      <c r="B25" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="133" t="s">
+      <c r="C25" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="133">
+      <c r="D25" s="136">
         <v>1000</v>
       </c>
-      <c r="E25" s="134">
+      <c r="E25" s="137">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="134"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="137"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="133" t="s">
+      <c r="B27" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="133" t="s">
+      <c r="C27" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="133">
+      <c r="D27" s="136">
         <v>22000</v>
       </c>
-      <c r="E27" s="134">
+      <c r="E27" s="137">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="133"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="134"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="137"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -3447,6 +3504,43 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C4">
+        <v>20160921</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="7">
+        <v>216</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -3469,27 +3563,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3522,12 +3616,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="150" t="s">
+      <c r="C8" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="152"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="155"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3562,12 +3656,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="152"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="155"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3602,12 +3696,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="152"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="155"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3649,13 +3743,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="145" t="s">
+      <c r="C20" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="147"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="150"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3710,7 +3804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M18"/>
   <sheetViews>
@@ -3738,20 +3832,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="139" t="s">
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="141"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="144"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3798,7 +3892,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="160">
+      <c r="E6" s="163">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3806,7 +3900,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="164">
+      <c r="G6" s="167">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3821,15 +3915,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="160">
+      <c r="K6" s="163">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="160">
+      <c r="L6" s="163">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="162">
+      <c r="M6" s="165">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3844,12 +3938,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="160"/>
+      <c r="E7" s="163"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="164"/>
+      <c r="G7" s="167"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3861,9 +3955,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="162"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="165"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3875,12 +3969,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="160"/>
+      <c r="E8" s="163"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="164"/>
+      <c r="G8" s="167"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3892,9 +3986,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="162"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="165"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -3906,12 +4000,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="161"/>
+      <c r="E9" s="164"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="165"/>
+      <c r="G9" s="168"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -3923,9 +4017,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="163"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="166"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -3935,14 +4029,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="139" t="s">
+      <c r="D13" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="141"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="144"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -3979,15 +4073,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="154">
+      <c r="G15" s="157">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="154">
+      <c r="H15" s="157">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="157">
+      <c r="I15" s="160">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -4007,9 +4101,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="161"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -4026,9 +4120,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="161"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -4045,9 +4139,9 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4068,12 +4162,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K188"/>
+  <dimension ref="C3:K211"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="D188" sqref="D188"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4093,10 +4187,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="166">
+      <c r="D4" s="169">
         <v>20160622</v>
       </c>
-      <c r="E4" s="167"/>
+      <c r="E4" s="170"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -4198,10 +4292,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="166">
+      <c r="D15" s="169">
         <v>20160713</v>
       </c>
-      <c r="E15" s="167"/>
+      <c r="E15" s="170"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4306,10 +4400,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="166">
+      <c r="D25" s="169">
         <v>20160808</v>
       </c>
-      <c r="E25" s="167"/>
+      <c r="E25" s="170"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4439,10 +4533,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="166">
+      <c r="D35" s="169">
         <v>20160825</v>
       </c>
-      <c r="E35" s="167"/>
+      <c r="E35" s="170"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4654,10 +4748,10 @@
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="166">
+      <c r="D45" s="169">
         <v>20160906</v>
       </c>
-      <c r="E45" s="167"/>
+      <c r="E45" s="170"/>
     </row>
     <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="29" t="s">
@@ -4841,10 +4935,10 @@
     </row>
     <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="166">
+      <c r="D56" s="169">
         <v>20160921</v>
       </c>
-      <c r="E56" s="167"/>
+      <c r="E56" s="170"/>
     </row>
     <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="105" t="s">
@@ -5005,10 +5099,10 @@
     </row>
     <row r="65" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D66" s="166">
+      <c r="D66" s="169">
         <v>20161017</v>
       </c>
-      <c r="E66" s="167"/>
+      <c r="E66" s="170"/>
     </row>
     <row r="67" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="105" t="s">
@@ -5170,10 +5264,10 @@
     </row>
     <row r="74" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D75" s="166">
+      <c r="D75" s="169">
         <v>20161020</v>
       </c>
-      <c r="E75" s="167"/>
+      <c r="E75" s="170"/>
     </row>
     <row r="76" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D76" s="105" t="s">
@@ -5331,10 +5425,10 @@
     </row>
     <row r="83" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D84" s="166">
+      <c r="D84" s="169">
         <v>201610207</v>
       </c>
-      <c r="E84" s="167"/>
+      <c r="E84" s="170"/>
     </row>
     <row r="85" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D85" s="105" t="s">
@@ -5492,10 +5586,10 @@
     </row>
     <row r="92" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D93" s="166">
+      <c r="D93" s="169">
         <v>20161031</v>
       </c>
-      <c r="E93" s="167"/>
+      <c r="E93" s="170"/>
     </row>
     <row r="94" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D94" s="105" t="s">
@@ -5653,10 +5747,10 @@
     </row>
     <row r="101" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="102" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D102" s="166">
+      <c r="D102" s="169">
         <v>20161103</v>
       </c>
-      <c r="E102" s="167"/>
+      <c r="E102" s="170"/>
     </row>
     <row r="103" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D103" s="105" t="s">
@@ -5814,10 +5908,10 @@
     </row>
     <row r="110" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="111" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D111" s="166">
+      <c r="D111" s="169">
         <v>20161103</v>
       </c>
-      <c r="E111" s="167"/>
+      <c r="E111" s="170"/>
     </row>
     <row r="112" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D112" s="105" t="s">
@@ -5978,10 +6072,10 @@
     </row>
     <row r="119" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="120" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D120" s="166">
+      <c r="D120" s="169">
         <v>20161108</v>
       </c>
-      <c r="E120" s="167"/>
+      <c r="E120" s="170"/>
     </row>
     <row r="121" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D121" s="105" t="s">
@@ -6142,10 +6236,10 @@
     </row>
     <row r="128" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="129" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D129" s="166">
+      <c r="D129" s="169">
         <v>20161108</v>
       </c>
-      <c r="E129" s="167"/>
+      <c r="E129" s="170"/>
     </row>
     <row r="130" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D130" s="105" t="s">
@@ -6296,10 +6390,10 @@
     </row>
     <row r="137" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D138" s="166">
+      <c r="D138" s="169">
         <v>20161122</v>
       </c>
-      <c r="E138" s="167"/>
+      <c r="E138" s="170"/>
       <c r="F138" s="11" t="s">
         <v>199</v>
       </c>
@@ -6448,10 +6542,10 @@
       </c>
     </row>
     <row r="146" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D146" s="166">
+      <c r="D146" s="169">
         <v>20161122</v>
       </c>
-      <c r="E146" s="167"/>
+      <c r="E146" s="170"/>
       <c r="F146" s="11" t="s">
         <v>200</v>
       </c>
@@ -6600,10 +6694,10 @@
       </c>
     </row>
     <row r="154" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D154" s="166">
+      <c r="D154" s="169">
         <v>20161209</v>
       </c>
-      <c r="E154" s="167"/>
+      <c r="E154" s="170"/>
       <c r="F154" s="11" t="s">
         <v>200</v>
       </c>
@@ -6732,10 +6826,10 @@
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D161" s="166">
+      <c r="D161" s="169">
         <v>20161209</v>
       </c>
-      <c r="E161" s="167"/>
+      <c r="E161" s="170"/>
       <c r="F161" s="11" t="s">
         <v>203</v>
       </c>
@@ -6868,10 +6962,10 @@
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D168" s="166">
+      <c r="D168" s="169">
         <v>20161210</v>
       </c>
-      <c r="E168" s="167"/>
+      <c r="E168" s="170"/>
       <c r="F168" s="11" t="s">
         <v>204</v>
       </c>
@@ -7002,10 +7096,10 @@
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D175" s="166">
+      <c r="D175" s="169">
         <v>20161215</v>
       </c>
-      <c r="E175" s="167"/>
+      <c r="E175" s="170"/>
       <c r="F175" s="11" t="s">
         <v>204</v>
       </c>
@@ -7155,10 +7249,10 @@
       </c>
     </row>
     <row r="182" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D182" s="166">
+      <c r="D182" s="169">
         <v>20170117</v>
       </c>
-      <c r="E182" s="167"/>
+      <c r="E182" s="170"/>
       <c r="F182" s="11" t="s">
         <v>204</v>
       </c>
@@ -7190,7 +7284,7 @@
       </c>
       <c r="E184" s="107">
         <f>D184/D188</f>
-        <v>0.16219753470100831</v>
+        <v>0.16206818214775304</v>
       </c>
       <c r="F184" s="11">
         <f>4017.64+8860</f>
@@ -7217,7 +7311,7 @@
       </c>
       <c r="E185" s="53">
         <f>D185/D188</f>
-        <v>0.11706570605796734</v>
+        <v>0.11697234614343384</v>
       </c>
       <c r="F185" s="96">
         <v>9859.33</v>
@@ -7243,7 +7337,7 @@
       </c>
       <c r="E186" s="53">
         <f>D186/D188</f>
-        <v>9.9813070298459938E-3</v>
+        <v>9.9733469363000871E-3</v>
       </c>
       <c r="F186" s="11">
         <v>800</v>
@@ -7261,20 +7355,23 @@
         <v>59</v>
       </c>
       <c r="D187" s="53">
-        <v>58106.262763992971</v>
+        <f>57999.9295598*(1+0.0355/12)</f>
+        <v>58171.512684747751</v>
       </c>
       <c r="E187" s="53">
         <f>D187/D188</f>
-        <v>0.71075545221117831</v>
+        <v>0.710986124772513</v>
       </c>
       <c r="F187" s="53">
-        <v>58106.262763992971</v>
+        <f>57999.9295598*(1+0.0355/12)</f>
+        <v>58171.512684747751</v>
       </c>
       <c r="G187" s="9">
         <v>1</v>
       </c>
       <c r="H187" s="53">
-        <v>58106.262763992971</v>
+        <f>57999.9295598*(1+0.0355/12)</f>
+        <v>58171.512684747751</v>
       </c>
       <c r="J187" s="9">
         <v>1.0069999999999999</v>
@@ -7286,7 +7383,7 @@
       </c>
       <c r="D188" s="57">
         <f>SUM(D184:D187)</f>
-        <v>81752.820302992972</v>
+        <v>81818.070223747753</v>
       </c>
       <c r="E188" s="54">
         <f>D188/D188</f>
@@ -7297,16 +7394,403 @@
         <v>0</v>
       </c>
     </row>
+    <row r="189" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="190" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D190" s="169">
+        <v>20170122</v>
+      </c>
+      <c r="E190" s="170"/>
+    </row>
+    <row r="191" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D191" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E191" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="F191" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H191" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="192" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C192" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D192" s="106">
+        <f>F192*G192</f>
+        <v>13281.997896000001</v>
+      </c>
+      <c r="E192" s="107">
+        <f>D192/D196</f>
+        <v>0.16158617385332466</v>
+      </c>
+      <c r="F192" s="11">
+        <f>4017.64+8860</f>
+        <v>12877.64</v>
+      </c>
+      <c r="G192" s="9">
+        <v>1.0314000000000001</v>
+      </c>
+      <c r="H192" s="11">
+        <f>F192*G192</f>
+        <v>13281.997896000001</v>
+      </c>
+    </row>
+    <row r="193" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C193" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" s="78">
+        <f>H193</f>
+        <v>9931.3031090000004</v>
+      </c>
+      <c r="E193" s="53">
+        <f>D193/D196</f>
+        <v>0.12082228015140907</v>
+      </c>
+      <c r="F193" s="96">
+        <v>9859.33</v>
+      </c>
+      <c r="G193" s="9">
+        <v>1.0073000000000001</v>
+      </c>
+      <c r="H193" s="11">
+        <f t="shared" ref="H193:H194" si="18">F193*G193</f>
+        <v>9931.3031090000004</v>
+      </c>
+    </row>
+    <row r="194" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C194" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D194" s="56">
+        <f>H194</f>
+        <v>812.8</v>
+      </c>
+      <c r="E194" s="53">
+        <f>D194/D196</f>
+        <v>9.8883649234378923E-3</v>
+      </c>
+      <c r="F194" s="11">
+        <v>800</v>
+      </c>
+      <c r="G194" s="9">
+        <v>1.016</v>
+      </c>
+      <c r="H194" s="11">
+        <f t="shared" si="18"/>
+        <v>812.8</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C195" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D195" s="53">
+        <f>57999.9295598*(1+0.0355/12)</f>
+        <v>58171.512684747751</v>
+      </c>
+      <c r="E195" s="53">
+        <f>D195/D196</f>
+        <v>0.70770318107182828</v>
+      </c>
+      <c r="F195" s="53">
+        <f>57999.9295598*(1+0.0355/12)</f>
+        <v>58171.512684747751</v>
+      </c>
+      <c r="G195" s="9">
+        <v>1</v>
+      </c>
+      <c r="H195" s="53">
+        <f>57999.9295598*(1+0.0355/12)</f>
+        <v>58171.512684747751</v>
+      </c>
+    </row>
+    <row r="196" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C196" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D196" s="57">
+        <f>SUM(D192:D195)</f>
+        <v>82197.613689747755</v>
+      </c>
+      <c r="E196" s="54">
+        <f>D196/D196</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="198" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D198" s="169">
+        <v>20170123</v>
+      </c>
+      <c r="E198" s="170"/>
+    </row>
+    <row r="199" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D199" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E199" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="F199" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G199" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H199" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="200" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C200" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D200" s="106">
+        <f>F200*G200</f>
+        <v>13281.997896000001</v>
+      </c>
+      <c r="E200" s="107">
+        <f>D200/D204</f>
+        <v>0.16248663689006848</v>
+      </c>
+      <c r="F200" s="11">
+        <f>4017.64+8860</f>
+        <v>12877.64</v>
+      </c>
+      <c r="G200" s="9">
+        <v>1.0314000000000001</v>
+      </c>
+      <c r="H200" s="11">
+        <f>F200*G200</f>
+        <v>13281.997896000001</v>
+      </c>
+    </row>
+    <row r="201" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C201" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" s="78">
+        <f>H201</f>
+        <v>9931.3031090000004</v>
+      </c>
+      <c r="E201" s="53">
+        <f>D201/D204</f>
+        <v>0.1214955803150122</v>
+      </c>
+      <c r="F201" s="96">
+        <v>9859.33</v>
+      </c>
+      <c r="G201" s="9">
+        <v>1.0073000000000001</v>
+      </c>
+      <c r="H201" s="11">
+        <f t="shared" ref="H201:H202" si="19">F201*G201</f>
+        <v>9931.3031090000004</v>
+      </c>
+    </row>
+    <row r="202" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C202" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D202" s="56">
+        <f>H202</f>
+        <v>812.8</v>
+      </c>
+      <c r="E202" s="53">
+        <f>D202/D204</f>
+        <v>9.9434693107443971E-3</v>
+      </c>
+      <c r="F202" s="11">
+        <v>800</v>
+      </c>
+      <c r="G202" s="9">
+        <v>1.016</v>
+      </c>
+      <c r="H202" s="11">
+        <f t="shared" si="19"/>
+        <v>812.8</v>
+      </c>
+    </row>
+    <row r="203" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C203" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D203" s="53">
+        <v>57715.992684747755</v>
+      </c>
+      <c r="E203" s="53">
+        <f>D203/D204</f>
+        <v>0.70607431348417493</v>
+      </c>
+      <c r="F203" s="53">
+        <v>57715.992684747755</v>
+      </c>
+      <c r="G203" s="9">
+        <v>1</v>
+      </c>
+      <c r="H203" s="53">
+        <v>57715.992684747755</v>
+      </c>
+    </row>
+    <row r="204" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C204" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D204" s="57">
+        <f>SUM(D200:D203)</f>
+        <v>81742.093689747751</v>
+      </c>
+      <c r="E204" s="54">
+        <f>D204/D204</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D205" s="169">
+        <v>20170123</v>
+      </c>
+      <c r="E205" s="170"/>
+      <c r="F205" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="206" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D206" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E206" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="F206" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G206" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H206" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="207" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C207" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D207" s="106">
+        <f>F207*G207</f>
+        <v>13281.997896000001</v>
+      </c>
+      <c r="E207" s="107">
+        <f>D207/D211</f>
+        <v>0.15720779065181475</v>
+      </c>
+      <c r="F207" s="11">
+        <f>4017.64+8860</f>
+        <v>12877.64</v>
+      </c>
+      <c r="G207" s="9">
+        <v>1.0314000000000001</v>
+      </c>
+      <c r="H207" s="11">
+        <f>F207*G207</f>
+        <v>13281.997896000001</v>
+      </c>
+    </row>
+    <row r="208" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C208" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" s="78">
+        <f>H208</f>
+        <v>9931.3031090000004</v>
+      </c>
+      <c r="E208" s="53">
+        <f>D208/D211</f>
+        <v>0.11754844657290472</v>
+      </c>
+      <c r="F208" s="96">
+        <v>9859.33</v>
+      </c>
+      <c r="G208" s="9">
+        <v>1.0073000000000001</v>
+      </c>
+      <c r="H208" s="11">
+        <f t="shared" ref="H208:H209" si="20">F208*G208</f>
+        <v>9931.3031090000004</v>
+      </c>
+    </row>
+    <row r="209" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C209" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D209" s="56">
+        <f>H209</f>
+        <v>812.8</v>
+      </c>
+      <c r="E209" s="53">
+        <f>D209/D211</f>
+        <v>9.6204270804979373E-3</v>
+      </c>
+      <c r="F209" s="11">
+        <v>800</v>
+      </c>
+      <c r="G209" s="9">
+        <v>1.016</v>
+      </c>
+      <c r="H209" s="11">
+        <f t="shared" si="20"/>
+        <v>812.8</v>
+      </c>
+    </row>
+    <row r="210" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C210" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D210" s="53">
+        <v>60460.792684747801</v>
+      </c>
+      <c r="E210" s="53">
+        <f>D210/D211</f>
+        <v>0.71562333569478265</v>
+      </c>
+      <c r="F210" s="53">
+        <v>60460.792684747801</v>
+      </c>
+      <c r="G210" s="9">
+        <v>1</v>
+      </c>
+      <c r="H210" s="53">
+        <v>60460.792684747801</v>
+      </c>
+    </row>
+    <row r="211" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C211" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D211" s="57">
+        <f>SUM(D207:D210)</f>
+        <v>84486.893689747798</v>
+      </c>
+      <c r="E211" s="54">
+        <f>D211/D211</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="24">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="D93:E93"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D66:E66"/>
@@ -7315,6 +7799,11 @@
     <mergeCell ref="D120:E120"/>
     <mergeCell ref="D102:E102"/>
     <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="D93:E93"/>
     <mergeCell ref="D175:E175"/>
     <mergeCell ref="D161:E161"/>
     <mergeCell ref="D168:E168"/>
@@ -7326,7 +7815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I7"/>
   <sheetViews>
@@ -7457,7 +7946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I14"/>
   <sheetViews>
@@ -7750,12 +8239,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K66"/>
+  <dimension ref="B2:K68"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8925,14 +9414,74 @@
         <v>58106.262763992971</v>
       </c>
       <c r="I66" s="89">
-        <f>57999.9295598*(1+0.022/12)</f>
-        <v>58106.262763992971</v>
+        <f>57999.9295598*(1+0.0355/12)</f>
+        <v>58171.512684747751</v>
       </c>
       <c r="J66" t="s">
         <v>206</v>
       </c>
       <c r="K66" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B67" s="89">
+        <v>20170123</v>
+      </c>
+      <c r="C67" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67">
+        <v>58106.262763992971</v>
+      </c>
+      <c r="F67" s="89">
+        <v>1</v>
+      </c>
+      <c r="G67" s="93">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>58106.262763992971</v>
+      </c>
+      <c r="I67" s="89">
+        <f>I66-455.52</f>
+        <v>57715.992684747755</v>
+      </c>
+      <c r="J67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B68" s="89">
+        <v>20170123</v>
+      </c>
+      <c r="C68" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" s="89">
+        <f>57715.9926847478+2744.8</f>
+        <v>60460.792684747801</v>
+      </c>
+      <c r="F68" s="89">
+        <v>1</v>
+      </c>
+      <c r="G68" s="93">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>60460.792684747801</v>
+      </c>
+      <c r="I68">
+        <v>60460.792684747801</v>
+      </c>
+      <c r="J68" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -8941,7 +9490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K2"/>
   <sheetViews>
@@ -8995,7 +9544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -9041,6 +9590,19 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9072,18 +9634,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="135">
+      <c r="F4" s="138">
         <v>20160708</v>
       </c>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135">
+      <c r="G4" s="138"/>
+      <c r="H4" s="138">
         <v>20160712</v>
       </c>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135">
+      <c r="I4" s="138"/>
+      <c r="J4" s="138">
         <v>20160808</v>
       </c>
-      <c r="K4" s="135"/>
+      <c r="K4" s="138"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -9141,10 +9703,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="135">
+      <c r="E8" s="138">
         <v>20160810</v>
       </c>
-      <c r="F8" s="135"/>
+      <c r="F8" s="138"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -9218,11 +9780,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="135">
+      <c r="C4" s="138">
         <v>201605</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -9294,19 +9856,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="139">
+      <c r="C11" s="142">
         <v>20160608</v>
       </c>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="141"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="144"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -9490,20 +10052,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="136">
+      <c r="C18" s="139">
         <v>20160708</v>
       </c>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="138"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="141"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -9722,20 +10284,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="136">
+      <c r="C27" s="139">
         <v>20160808</v>
       </c>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="137"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="138"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="141"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -9940,21 +10502,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="136">
+      <c r="C35" s="139">
         <v>20160825</v>
       </c>
-      <c r="D35" s="137"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="137"/>
-      <c r="L35" s="137"/>
-      <c r="M35" s="137"/>
-      <c r="N35" s="137"/>
-      <c r="O35" s="138"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="140"/>
+      <c r="G35" s="140"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="140"/>
+      <c r="L35" s="140"/>
+      <c r="M35" s="140"/>
+      <c r="N35" s="140"/>
+      <c r="O35" s="141"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -10173,21 +10735,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="136">
+      <c r="C42" s="139">
         <v>20160906</v>
       </c>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="137"/>
-      <c r="L42" s="137"/>
-      <c r="M42" s="137"/>
-      <c r="N42" s="137"/>
-      <c r="O42" s="138"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="140"/>
+      <c r="K42" s="140"/>
+      <c r="L42" s="140"/>
+      <c r="M42" s="140"/>
+      <c r="N42" s="140"/>
+      <c r="O42" s="141"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -10407,21 +10969,21 @@
     <row r="49" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="72"/>
-      <c r="C50" s="136">
+      <c r="C50" s="139">
         <v>20160921</v>
       </c>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="137"/>
-      <c r="K50" s="137"/>
-      <c r="L50" s="137"/>
-      <c r="M50" s="137"/>
-      <c r="N50" s="137"/>
-      <c r="O50" s="138"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="140"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="140"/>
+      <c r="K50" s="140"/>
+      <c r="L50" s="140"/>
+      <c r="M50" s="140"/>
+      <c r="N50" s="140"/>
+      <c r="O50" s="141"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
@@ -11438,7 +12000,7 @@
   <dimension ref="A2:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -12231,11 +12793,11 @@
         <v>81742.090227942492</v>
       </c>
       <c r="F20">
-        <f>C20/E20</f>
+        <f t="shared" ref="F20:F26" si="48">C20/E20</f>
         <v>1.0037200450124233</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20" si="48">F20-F19</f>
+        <f t="shared" ref="G20" si="49">F20-F19</f>
         <v>3.7200450124232898E-3</v>
       </c>
       <c r="H20">
@@ -12245,15 +12807,15 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20" si="49">F20-H20</f>
+        <f t="shared" ref="J20" si="50">F20-H20</f>
         <v>1.0037200450124233</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20" si="50">J20*E20</f>
+        <f t="shared" ref="K20" si="51">J20*E20</f>
         <v>82046.17448300001</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20" si="51">(F20-F19)*E20</f>
+        <f t="shared" ref="L20" si="52">(F20-F19)*E20</f>
         <v>304.084255057512</v>
       </c>
       <c r="M20">
@@ -12275,11 +12837,11 @@
         <v>81742.090227942492</v>
       </c>
       <c r="F21">
-        <f>C21/E21</f>
+        <f t="shared" si="48"/>
         <v>0.99531922518649163</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21" si="52">F21-F20</f>
+        <f t="shared" ref="G21" si="53">F21-F20</f>
         <v>-8.4008198259316602E-3</v>
       </c>
       <c r="H21">
@@ -12289,15 +12851,15 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21" si="53">F21-H21</f>
+        <f t="shared" ref="J21" si="54">F21-H21</f>
         <v>0.99531922518649163</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21" si="54">J21*E21</f>
+        <f t="shared" ref="K21" si="55">J21*E21</f>
         <v>81359.473910800007</v>
       </c>
       <c r="L21">
-        <f t="shared" ref="L21" si="55">(F21-F20)*E21</f>
+        <f t="shared" ref="L21" si="56">(F21-F20)*E21</f>
         <v>-686.70057219999387</v>
       </c>
       <c r="M21">
@@ -12319,11 +12881,11 @@
         <v>81742.090227942492</v>
       </c>
       <c r="F22">
-        <f>C22/E22</f>
+        <f t="shared" si="48"/>
         <v>0.99481587970211183</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22" si="56">F22-F21</f>
+        <f t="shared" ref="G22" si="57">F22-F21</f>
         <v>-5.0334548437980242E-4</v>
       </c>
       <c r="H22">
@@ -12333,15 +12895,15 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22" si="57">F22-H22</f>
+        <f t="shared" ref="J22" si="58">F22-H22</f>
         <v>0.99481587970211183</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22" si="58">J22*E22</f>
+        <f t="shared" ref="K22" si="59">J22*E22</f>
         <v>81318.329398800008</v>
       </c>
       <c r="L22">
-        <f t="shared" ref="L22" si="59">(F22-F21)*E22</f>
+        <f t="shared" ref="L22" si="60">(F22-F21)*E22</f>
         <v>-41.144512000001228</v>
       </c>
       <c r="M22">
@@ -12353,22 +12915,22 @@
         <v>20170117</v>
       </c>
       <c r="C23">
-        <v>81752.820302992972</v>
+        <v>81818.070223747753</v>
       </c>
       <c r="D23">
         <f>C23-C22</f>
-        <v>434.49090419296408</v>
+        <v>499.74082494774484</v>
       </c>
       <c r="E23">
         <v>81742.090227942492</v>
       </c>
       <c r="F23">
-        <f>C23/E23</f>
-        <v>1.0001312674415415</v>
+        <f t="shared" si="48"/>
+        <v>1.0009295088441388</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23" si="60">F23-F22</f>
-        <v>5.3153877394296334E-3</v>
+        <f t="shared" ref="G23" si="61">F23-F22</f>
+        <v>6.1136291420269551E-3</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -12377,19 +12939,155 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23" si="61">F23-H23</f>
-        <v>1.0001312674415415</v>
+        <f t="shared" ref="J23" si="62">F23-H23</f>
+        <v>1.0009295088441388</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="K23" si="62">J23*E23</f>
-        <v>81752.820302992972</v>
+        <f t="shared" ref="K23" si="63">J23*E23</f>
+        <v>81818.070223747753</v>
       </c>
       <c r="L23">
-        <f t="shared" ref="L23" si="63">(F23-F22)*E23</f>
-        <v>434.49090419295635</v>
+        <f t="shared" ref="L23" si="64">(F23-F22)*E23</f>
+        <v>499.74082494774598</v>
       </c>
       <c r="M23">
         <v>724.78833305751402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>20170122</v>
+      </c>
+      <c r="C24">
+        <v>82197.613689747755</v>
+      </c>
+      <c r="D24">
+        <f>C24-C23</f>
+        <v>379.54346600000281</v>
+      </c>
+      <c r="E24">
+        <v>81742.090227942492</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="48"/>
+        <v>1.0055726916272267</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24" si="65">F24-F23</f>
+        <v>4.6431827830879513E-3</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24" si="66">F24-H24</f>
+        <v>1.0055726916272267</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24" si="67">J24*E24</f>
+        <v>82197.613689747755</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24" si="68">(F24-F23)*E24</f>
+        <v>379.54346600000446</v>
+      </c>
+      <c r="M24">
+        <v>724.78833305751402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25">
+        <v>20170123</v>
+      </c>
+      <c r="C25">
+        <v>82197.613689747755</v>
+      </c>
+      <c r="D25">
+        <f>(F25-1)*E25</f>
+        <v>455.52346180526729</v>
+      </c>
+      <c r="E25">
+        <v>81742.090227942492</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="48"/>
+        <v>1.0055726916272267</v>
+      </c>
+      <c r="G25">
+        <f>F25-1</f>
+        <v>5.5726916272267335E-3</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25" si="69">J25*E25</f>
+        <v>81742.090227942492</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25" si="70">(F25-F24)*E25</f>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f>M24+D25</f>
+        <v>1180.3117948627814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26">
+        <v>20170123</v>
+      </c>
+      <c r="C26">
+        <v>84486.893689747798</v>
+      </c>
+      <c r="D26">
+        <f>C26-K25</f>
+        <v>2744.8034618053061</v>
+      </c>
+      <c r="E26">
+        <v>84486.893689747798</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f>F26-1</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>84486.893689747798</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26" si="71">(F26-F25)*E26</f>
+        <v>-470.81940507525269</v>
+      </c>
+      <c r="M26">
+        <v>1180.3117948627814</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
@@ -12558,10 +13256,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K25"/>
+  <dimension ref="B3:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -12579,10 +13277,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="J3" s="144" t="s">
+      <c r="J3" s="147" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="144"/>
+      <c r="K3" s="147"/>
     </row>
     <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
@@ -12614,7 +13312,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B5" s="142">
+      <c r="B5" s="145">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -12643,7 +13341,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B6" s="143"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="64" t="s">
         <v>147</v>
       </c>
@@ -13079,7 +13777,7 @@
         <v>39498.387146740664</v>
       </c>
       <c r="H21" s="64">
-        <f>E21*G21</f>
+        <f t="shared" ref="H21:H26" si="6">E21*G21</f>
         <v>39577.830478458112</v>
       </c>
     </row>
@@ -13104,7 +13802,7 @@
         <v>39498.387146740664</v>
       </c>
       <c r="H22" s="64">
-        <f>E22*G22</f>
+        <f t="shared" si="6"/>
         <v>39498.387146740664</v>
       </c>
     </row>
@@ -13129,7 +13827,7 @@
         <v>39498.387146740664</v>
       </c>
       <c r="H23" s="64">
-        <f>E23*G23</f>
+        <f t="shared" si="6"/>
         <v>39313.50409101</v>
       </c>
     </row>
@@ -13147,14 +13845,14 @@
         <v>0.99531922518649163</v>
       </c>
       <c r="F24" s="64">
-        <f t="shared" ref="F24" si="6">H24-H23</f>
+        <f t="shared" ref="F24" si="7">H24-H23</f>
         <v>0</v>
       </c>
       <c r="G24" s="64">
         <v>39498.387146740664</v>
       </c>
       <c r="H24" s="64">
-        <f>E24*G24</f>
+        <f t="shared" si="6"/>
         <v>39313.50409101</v>
       </c>
     </row>
@@ -13172,15 +13870,40 @@
         <v>1.0001312674415415</v>
       </c>
       <c r="F25" s="64">
-        <f t="shared" ref="F25" si="7">H25-H24</f>
+        <f t="shared" ref="F25" si="8">H25-H24</f>
         <v>190.06790795642883</v>
       </c>
       <c r="G25" s="64">
         <v>39498.387146740664</v>
       </c>
       <c r="H25" s="64">
-        <f>E25*G25</f>
+        <f t="shared" si="6"/>
         <v>39503.571998966429</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B26" s="48">
+        <v>20170123</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="64">
+        <v>39498.387146740664</v>
+      </c>
+      <c r="E26" s="64">
+        <v>1</v>
+      </c>
+      <c r="F26" s="64">
+        <f t="shared" ref="F26" si="9">H26-H25</f>
+        <v>-5.1848522257641889</v>
+      </c>
+      <c r="G26" s="64">
+        <v>39498.387146740664</v>
+      </c>
+      <c r="H26" s="64">
+        <f t="shared" si="6"/>
+        <v>39498.387146740664</v>
       </c>
     </row>
   </sheetData>
@@ -13195,12 +13918,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O22"/>
+  <dimension ref="B3:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -13213,7 +13936,7 @@
     <col min="8" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -13259,7 +13982,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="39" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="142">
+      <c r="B5" s="145">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -13292,7 +14015,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="143"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="16" t="s">
         <v>159</v>
       </c>
@@ -13817,7 +14540,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="64">
-        <f t="shared" ref="F18:F19" si="30">E19*D19-H18</f>
+        <f t="shared" ref="F19" si="30">E19*D19-H18</f>
         <v>42158.225744541509</v>
       </c>
       <c r="G19" s="64">
@@ -13934,11 +14657,11 @@
         <v>42243.189713341802</v>
       </c>
       <c r="E22" s="41">
-        <v>1.0001312674415415</v>
+        <v>1.0009295088441388</v>
       </c>
       <c r="F22" s="64">
         <f t="shared" ref="F22" si="39">E22*D22-H21</f>
-        <v>224.53893267669628</v>
+        <v>258.25919568365498</v>
       </c>
       <c r="G22" s="64">
         <f t="shared" ref="G22" si="40">D22</f>
@@ -13946,21 +14669,103 @@
       </c>
       <c r="H22" s="64">
         <f t="shared" ref="H22" si="41">E22*D22</f>
-        <v>42248.734868778025</v>
+        <v>42282.455131784984</v>
       </c>
       <c r="I22" s="64">
         <f>H22-40000+645.34</f>
-        <v>2894.0748687780251</v>
+        <v>2927.7951317849838</v>
       </c>
       <c r="J22" s="64">
         <f t="shared" ref="J22" si="42">I22/40000</f>
-        <v>7.2351871719450622E-2</v>
+        <v>7.3194878294624593E-2</v>
       </c>
       <c r="K22" s="64">
         <v>645.34396880029556</v>
       </c>
       <c r="L22" s="64">
         <v>1.6133599220007389E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B23" s="48">
+        <v>20170122</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E23" s="41">
+        <v>1.0055726916272267</v>
+      </c>
+      <c r="F23" s="64">
+        <f t="shared" ref="F23" si="43">E23*D23-H22</f>
+        <v>196.14285117970576</v>
+      </c>
+      <c r="G23" s="64">
+        <f t="shared" ref="G23" si="44">D23</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H23" s="64">
+        <f t="shared" ref="H23" si="45">E23*D23</f>
+        <v>42478.597982964689</v>
+      </c>
+      <c r="I23" s="64">
+        <f>H23-40000+645.34</f>
+        <v>3123.9379829646896</v>
+      </c>
+      <c r="J23" s="64">
+        <f t="shared" ref="J23" si="46">I23/40000</f>
+        <v>7.809844957411724E-2</v>
+      </c>
+      <c r="K23" s="64">
+        <v>645.34396880029556</v>
+      </c>
+      <c r="L23" s="64">
+        <v>1.6133599220007389E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B24" s="48">
+        <v>20170123</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E24" s="41">
+        <v>1</v>
+      </c>
+      <c r="F24" s="64">
+        <f t="shared" ref="F24" si="47">E24*D24-H23</f>
+        <v>-235.40826962288702</v>
+      </c>
+      <c r="G24" s="64">
+        <f t="shared" ref="G24" si="48">D24</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H24" s="64">
+        <f t="shared" ref="H24" si="49">E24*D24</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="I24" s="64">
+        <f>H24-40000+645.34-F24</f>
+        <v>3123.9379829646896</v>
+      </c>
+      <c r="J24" s="64">
+        <f>I24/40000</f>
+        <v>7.809844957411724E-2</v>
+      </c>
+      <c r="K24" s="64">
+        <f>K23-F24</f>
+        <v>880.75223842318258</v>
+      </c>
+      <c r="L24" s="64">
+        <f>K24/40000</f>
+        <v>2.2018805960579563E-2</v>
       </c>
     </row>
   </sheetData>
@@ -13974,33 +14779,95 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C6"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="133"/>
+    <col min="3" max="4" width="13.83203125" style="133" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="133"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C4">
-        <v>20160921</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="7">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="134">
         <v>216</v>
       </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
+      <c r="E2" s="133" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="134" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="134">
+        <v>20170123</v>
+      </c>
+      <c r="D3" s="134">
+        <v>20170123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="134" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="134">
+        <v>5.5726916272267335E-3</v>
+      </c>
+      <c r="D4" s="134">
+        <v>5.5726916272267335E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="134">
+        <v>39498.387146740664</v>
+      </c>
+      <c r="D5" s="134">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E5" s="133">
+        <f>C5+D5</f>
+        <v>81741.576860082467</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="134" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="134">
+        <f>C4*C5</f>
+        <v>220.11233134160173</v>
+      </c>
+      <c r="D6" s="134">
+        <f>D4*D5</f>
+        <v>235.40826962289034</v>
+      </c>
+      <c r="E6" s="133">
+        <f>C6+D6</f>
+        <v>455.52060096449208</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="133">
+        <f>D5-C5</f>
+        <v>2744.8025666011381</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="133">
+        <f>D5*2</f>
+        <v>84486.379426683605</v>
       </c>
     </row>
   </sheetData>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="218">
   <si>
     <t>黄金基金</t>
   </si>
@@ -2338,7 +2338,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2688,6 +2688,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2752,6 +2755,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2768,24 +2789,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3249,174 +3252,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="136" t="s">
+      <c r="B17" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="136">
+      <c r="D17" s="137">
         <v>7000</v>
       </c>
-      <c r="E17" s="137">
+      <c r="E17" s="138">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="135">
+      <c r="G17" s="136">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="136"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="137"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="138"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="136">
+      <c r="D19" s="137">
         <v>10000</v>
       </c>
-      <c r="E19" s="137">
+      <c r="E19" s="138">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="137"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="138"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="136">
+      <c r="D21" s="137">
         <v>10000</v>
       </c>
-      <c r="E21" s="137">
+      <c r="E21" s="138">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="136"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="137"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="138"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="136" t="s">
+      <c r="B23" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="136" t="s">
+      <c r="C23" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="136">
+      <c r="D23" s="137">
         <v>10000</v>
       </c>
-      <c r="E23" s="137">
+      <c r="E23" s="138">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="136"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="137"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="138"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="136" t="s">
+      <c r="C25" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="136">
+      <c r="D25" s="137">
         <v>1000</v>
       </c>
-      <c r="E25" s="137">
+      <c r="E25" s="138">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="136"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="137"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="138"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="136" t="s">
+      <c r="B27" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="136" t="s">
+      <c r="C27" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="136">
+      <c r="D27" s="137">
         <v>22000</v>
       </c>
-      <c r="E27" s="137">
+      <c r="E27" s="138">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="136"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="137"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -3454,13 +3457,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -3475,27 +3492,13 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3563,27 +3566,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="151" t="s">
+      <c r="C1" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3616,12 +3619,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="153" t="s">
+      <c r="C8" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="156"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3656,12 +3659,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="156"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3696,12 +3699,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="153" t="s">
+      <c r="C16" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="156"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3743,13 +3746,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="151"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3832,20 +3835,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="142" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="145"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3892,7 +3895,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="163">
+      <c r="E6" s="162">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3900,7 +3903,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="167">
+      <c r="G6" s="160">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3915,15 +3918,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="163">
+      <c r="K6" s="162">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="163">
+      <c r="L6" s="162">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="165">
+      <c r="M6" s="158">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3938,12 +3941,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="163"/>
+      <c r="E7" s="162"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="167"/>
+      <c r="G7" s="160"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3955,9 +3958,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="165"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="158"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3969,12 +3972,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="163"/>
+      <c r="E8" s="162"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="167"/>
+      <c r="G8" s="160"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3986,9 +3989,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="165"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="158"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -4000,12 +4003,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="164"/>
+      <c r="E9" s="163"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="168"/>
+      <c r="G9" s="161"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -4017,9 +4020,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="166"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="159"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -4029,14 +4032,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="142" t="s">
+      <c r="D13" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="145"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -4073,15 +4076,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="157">
+      <c r="G15" s="164">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="157">
+      <c r="H15" s="164">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="160">
+      <c r="I15" s="167">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -4101,9 +4104,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="161"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="168"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -4120,9 +4123,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="161"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="168"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -4139,23 +4142,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="162"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4164,10 +4167,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K211"/>
+  <dimension ref="C3:K218"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="D211" sqref="D211"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="H221" sqref="H221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4187,10 +4190,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="169">
+      <c r="D4" s="170">
         <v>20160622</v>
       </c>
-      <c r="E4" s="170"/>
+      <c r="E4" s="171"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -4292,10 +4295,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="169">
+      <c r="D15" s="170">
         <v>20160713</v>
       </c>
-      <c r="E15" s="170"/>
+      <c r="E15" s="171"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4400,10 +4403,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="169">
+      <c r="D25" s="170">
         <v>20160808</v>
       </c>
-      <c r="E25" s="170"/>
+      <c r="E25" s="171"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4533,10 +4536,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="169">
+      <c r="D35" s="170">
         <v>20160825</v>
       </c>
-      <c r="E35" s="170"/>
+      <c r="E35" s="171"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4748,10 +4751,10 @@
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="169">
+      <c r="D45" s="170">
         <v>20160906</v>
       </c>
-      <c r="E45" s="170"/>
+      <c r="E45" s="171"/>
     </row>
     <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="29" t="s">
@@ -4935,10 +4938,10 @@
     </row>
     <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="169">
+      <c r="D56" s="170">
         <v>20160921</v>
       </c>
-      <c r="E56" s="170"/>
+      <c r="E56" s="171"/>
     </row>
     <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="105" t="s">
@@ -5099,10 +5102,10 @@
     </row>
     <row r="65" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D66" s="169">
+      <c r="D66" s="170">
         <v>20161017</v>
       </c>
-      <c r="E66" s="170"/>
+      <c r="E66" s="171"/>
     </row>
     <row r="67" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="105" t="s">
@@ -5264,10 +5267,10 @@
     </row>
     <row r="74" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D75" s="169">
+      <c r="D75" s="170">
         <v>20161020</v>
       </c>
-      <c r="E75" s="170"/>
+      <c r="E75" s="171"/>
     </row>
     <row r="76" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D76" s="105" t="s">
@@ -5425,10 +5428,10 @@
     </row>
     <row r="83" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D84" s="169">
+      <c r="D84" s="170">
         <v>201610207</v>
       </c>
-      <c r="E84" s="170"/>
+      <c r="E84" s="171"/>
     </row>
     <row r="85" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D85" s="105" t="s">
@@ -5586,10 +5589,10 @@
     </row>
     <row r="92" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D93" s="169">
+      <c r="D93" s="170">
         <v>20161031</v>
       </c>
-      <c r="E93" s="170"/>
+      <c r="E93" s="171"/>
     </row>
     <row r="94" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D94" s="105" t="s">
@@ -5747,10 +5750,10 @@
     </row>
     <row r="101" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="102" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D102" s="169">
+      <c r="D102" s="170">
         <v>20161103</v>
       </c>
-      <c r="E102" s="170"/>
+      <c r="E102" s="171"/>
     </row>
     <row r="103" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D103" s="105" t="s">
@@ -5908,10 +5911,10 @@
     </row>
     <row r="110" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="111" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D111" s="169">
+      <c r="D111" s="170">
         <v>20161103</v>
       </c>
-      <c r="E111" s="170"/>
+      <c r="E111" s="171"/>
     </row>
     <row r="112" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D112" s="105" t="s">
@@ -6072,10 +6075,10 @@
     </row>
     <row r="119" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="120" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D120" s="169">
+      <c r="D120" s="170">
         <v>20161108</v>
       </c>
-      <c r="E120" s="170"/>
+      <c r="E120" s="171"/>
     </row>
     <row r="121" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D121" s="105" t="s">
@@ -6236,10 +6239,10 @@
     </row>
     <row r="128" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="129" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D129" s="169">
+      <c r="D129" s="170">
         <v>20161108</v>
       </c>
-      <c r="E129" s="170"/>
+      <c r="E129" s="171"/>
     </row>
     <row r="130" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D130" s="105" t="s">
@@ -6390,10 +6393,10 @@
     </row>
     <row r="137" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D138" s="169">
+      <c r="D138" s="170">
         <v>20161122</v>
       </c>
-      <c r="E138" s="170"/>
+      <c r="E138" s="171"/>
       <c r="F138" s="11" t="s">
         <v>199</v>
       </c>
@@ -6542,10 +6545,10 @@
       </c>
     </row>
     <row r="146" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D146" s="169">
+      <c r="D146" s="170">
         <v>20161122</v>
       </c>
-      <c r="E146" s="170"/>
+      <c r="E146" s="171"/>
       <c r="F146" s="11" t="s">
         <v>200</v>
       </c>
@@ -6694,10 +6697,10 @@
       </c>
     </row>
     <row r="154" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D154" s="169">
+      <c r="D154" s="170">
         <v>20161209</v>
       </c>
-      <c r="E154" s="170"/>
+      <c r="E154" s="171"/>
       <c r="F154" s="11" t="s">
         <v>200</v>
       </c>
@@ -6826,10 +6829,10 @@
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D161" s="169">
+      <c r="D161" s="170">
         <v>20161209</v>
       </c>
-      <c r="E161" s="170"/>
+      <c r="E161" s="171"/>
       <c r="F161" s="11" t="s">
         <v>203</v>
       </c>
@@ -6962,10 +6965,10 @@
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D168" s="169">
+      <c r="D168" s="170">
         <v>20161210</v>
       </c>
-      <c r="E168" s="170"/>
+      <c r="E168" s="171"/>
       <c r="F168" s="11" t="s">
         <v>204</v>
       </c>
@@ -7096,10 +7099,10 @@
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D175" s="169">
+      <c r="D175" s="170">
         <v>20161215</v>
       </c>
-      <c r="E175" s="170"/>
+      <c r="E175" s="171"/>
       <c r="F175" s="11" t="s">
         <v>204</v>
       </c>
@@ -7249,10 +7252,10 @@
       </c>
     </row>
     <row r="182" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D182" s="169">
+      <c r="D182" s="170">
         <v>20170117</v>
       </c>
-      <c r="E182" s="170"/>
+      <c r="E182" s="171"/>
       <c r="F182" s="11" t="s">
         <v>204</v>
       </c>
@@ -7396,10 +7399,10 @@
     </row>
     <row r="189" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="190" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D190" s="169">
+      <c r="D190" s="170">
         <v>20170122</v>
       </c>
-      <c r="E190" s="170"/>
+      <c r="E190" s="171"/>
     </row>
     <row r="191" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D191" s="105" t="s">
@@ -7527,10 +7530,10 @@
     </row>
     <row r="197" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="198" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D198" s="169">
+      <c r="D198" s="170">
         <v>20170123</v>
       </c>
-      <c r="E198" s="170"/>
+      <c r="E198" s="171"/>
     </row>
     <row r="199" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D199" s="105" t="s">
@@ -7654,10 +7657,10 @@
       </c>
     </row>
     <row r="205" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D205" s="169">
+      <c r="D205" s="170">
         <v>20170123</v>
       </c>
-      <c r="E205" s="170"/>
+      <c r="E205" s="171"/>
       <c r="F205" s="11" t="s">
         <v>216</v>
       </c>
@@ -7783,22 +7786,139 @@
         <v>1</v>
       </c>
     </row>
+    <row r="212" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D212" s="170">
+        <v>20170308</v>
+      </c>
+      <c r="E212" s="171"/>
+      <c r="F212" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D213" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E213" s="135" t="s">
+        <v>42</v>
+      </c>
+      <c r="F213" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G213" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H213" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="214" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C214" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D214" s="106">
+        <f>F214*G214</f>
+        <v>13942.620827999999</v>
+      </c>
+      <c r="E214" s="107">
+        <f>D214/D218</f>
+        <v>0.16388762002078133</v>
+      </c>
+      <c r="F214" s="11">
+        <f>4017.64+8860</f>
+        <v>12877.64</v>
+      </c>
+      <c r="G214" s="9">
+        <v>1.0827</v>
+      </c>
+      <c r="H214" s="11">
+        <f>F214*G214</f>
+        <v>13942.620827999999</v>
+      </c>
+    </row>
+    <row r="215" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C215" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" s="78">
+        <f>H215</f>
+        <v>9718.3415810000006</v>
+      </c>
+      <c r="E215" s="53">
+        <f>D215/D218</f>
+        <v>0.11423360728999719</v>
+      </c>
+      <c r="F215" s="96">
+        <v>9859.33</v>
+      </c>
+      <c r="G215" s="9">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="H215" s="11">
+        <f t="shared" ref="H215:H216" si="21">F215*G215</f>
+        <v>9718.3415810000006</v>
+      </c>
+    </row>
+    <row r="216" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C216" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D216" s="56">
+        <f>H216</f>
+        <v>777.6</v>
+      </c>
+      <c r="E216" s="53">
+        <f>D216/D218</f>
+        <v>9.1402480853694755E-3</v>
+      </c>
+      <c r="F216" s="11">
+        <v>800</v>
+      </c>
+      <c r="G216" s="9">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H216" s="11">
+        <f t="shared" si="21"/>
+        <v>777.6</v>
+      </c>
+    </row>
+    <row r="217" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C217" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D217" s="53">
+        <v>60635.714868515177</v>
+      </c>
+      <c r="E217" s="53">
+        <f>D217/D218</f>
+        <v>0.7127385246038519</v>
+      </c>
+      <c r="F217" s="53">
+        <v>60635.714868515177</v>
+      </c>
+      <c r="G217" s="9">
+        <v>1</v>
+      </c>
+      <c r="H217" s="53">
+        <v>60635.714868515177</v>
+      </c>
+    </row>
+    <row r="218" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C218" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D218" s="57">
+        <f>SUM(D214:D217)</f>
+        <v>85074.277277515183</v>
+      </c>
+      <c r="E218" s="54">
+        <f>D218/D218</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D111:E111"/>
+  <mergeCells count="25">
+    <mergeCell ref="D212:E212"/>
     <mergeCell ref="D190:E190"/>
     <mergeCell ref="D198:E198"/>
     <mergeCell ref="D205:E205"/>
@@ -7809,6 +7929,20 @@
     <mergeCell ref="D168:E168"/>
     <mergeCell ref="D154:E154"/>
     <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D45:E45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8241,10 +8375,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K68"/>
+  <dimension ref="B2:K69"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9480,8 +9614,34 @@
       <c r="I68">
         <v>60460.792684747801</v>
       </c>
-      <c r="J68" t="s">
-        <v>159</v>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B69" s="89">
+        <v>20170123</v>
+      </c>
+      <c r="C69" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="94" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" s="89">
+        <f>60460.7926847478*(1+0.024/365*44)</f>
+        <v>60635.714868515177</v>
+      </c>
+      <c r="F69" s="89">
+        <v>1</v>
+      </c>
+      <c r="G69" s="93">
+        <v>0</v>
+      </c>
+      <c r="H69" s="89">
+        <f>60460.7926847478*(1+0.024/365*44)</f>
+        <v>60635.714868515177</v>
+      </c>
+      <c r="I69" s="89">
+        <f>60460.7926847478*(1+0.024/365*44)</f>
+        <v>60635.714868515177</v>
       </c>
     </row>
   </sheetData>
@@ -9634,18 +9794,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="138">
+      <c r="F4" s="139">
         <v>20160708</v>
       </c>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138">
+      <c r="G4" s="139"/>
+      <c r="H4" s="139">
         <v>20160712</v>
       </c>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138">
+      <c r="I4" s="139"/>
+      <c r="J4" s="139">
         <v>20160808</v>
       </c>
-      <c r="K4" s="138"/>
+      <c r="K4" s="139"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -9703,10 +9863,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="138">
+      <c r="E8" s="139">
         <v>20160810</v>
       </c>
-      <c r="F8" s="138"/>
+      <c r="F8" s="139"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -9780,11 +9940,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="138">
+      <c r="C4" s="139">
         <v>201605</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -9856,19 +10016,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="142">
+      <c r="C11" s="143">
         <v>20160608</v>
       </c>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="145"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -10052,20 +10212,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="139">
+      <c r="C18" s="140">
         <v>20160708</v>
       </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="142"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -10284,20 +10444,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="139">
+      <c r="C27" s="140">
         <v>20160808</v>
       </c>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="140"/>
-      <c r="L27" s="140"/>
-      <c r="M27" s="140"/>
-      <c r="N27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="142"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -10502,21 +10662,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="139">
+      <c r="C35" s="140">
         <v>20160825</v>
       </c>
-      <c r="D35" s="140"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="140"/>
-      <c r="L35" s="140"/>
-      <c r="M35" s="140"/>
-      <c r="N35" s="140"/>
-      <c r="O35" s="141"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="141"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="141"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="141"/>
+      <c r="O35" s="142"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -10735,21 +10895,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="139">
+      <c r="C42" s="140">
         <v>20160906</v>
       </c>
-      <c r="D42" s="140"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="140"/>
-      <c r="L42" s="140"/>
-      <c r="M42" s="140"/>
-      <c r="N42" s="140"/>
-      <c r="O42" s="141"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="141"/>
+      <c r="L42" s="141"/>
+      <c r="M42" s="141"/>
+      <c r="N42" s="141"/>
+      <c r="O42" s="142"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -10969,21 +11129,21 @@
     <row r="49" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="72"/>
-      <c r="C50" s="139">
+      <c r="C50" s="140">
         <v>20160921</v>
       </c>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="140"/>
-      <c r="J50" s="140"/>
-      <c r="K50" s="140"/>
-      <c r="L50" s="140"/>
-      <c r="M50" s="140"/>
-      <c r="N50" s="140"/>
-      <c r="O50" s="141"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="141"/>
+      <c r="J50" s="141"/>
+      <c r="K50" s="141"/>
+      <c r="L50" s="141"/>
+      <c r="M50" s="141"/>
+      <c r="N50" s="141"/>
+      <c r="O50" s="142"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
@@ -12000,7 +12160,7 @@
   <dimension ref="A2:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -13087,6 +13247,51 @@
         <v>-470.81940507525269</v>
       </c>
       <c r="M26">
+        <v>1180.3117948627814</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27">
+        <v>20170308</v>
+      </c>
+      <c r="C27">
+        <v>85074.277277515183</v>
+      </c>
+      <c r="D27">
+        <f>C27-K26</f>
+        <v>587.3835877673846</v>
+      </c>
+      <c r="E27">
+        <v>84486.893689747798</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27" si="72">C27/E27</f>
+        <v>1.00695236340354</v>
+      </c>
+      <c r="G27">
+        <f>F27-1</f>
+        <v>6.9523634035399962E-3</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>84486.893689747798</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ref="L27" si="73">(F27-F26)*E27</f>
+        <v>587.38358776737687</v>
+      </c>
+      <c r="M27">
         <v>1180.3117948627814</v>
       </c>
     </row>
@@ -13277,10 +13482,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="J3" s="147" t="s">
+      <c r="J3" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="147"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
@@ -13312,7 +13517,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B5" s="145">
+      <c r="B5" s="146">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -13341,7 +13546,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B6" s="146"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="64" t="s">
         <v>147</v>
       </c>
@@ -13918,12 +14123,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O24"/>
+  <dimension ref="B3:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -13982,7 +14187,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="39" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="145">
+      <c r="B5" s="146">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -14015,7 +14220,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="146"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="16" t="s">
         <v>159</v>
       </c>
@@ -14765,6 +14970,47 @@
       </c>
       <c r="L24" s="64">
         <f>K24/40000</f>
+        <v>2.2018805960579563E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B25" s="48">
+        <v>20170308</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E25" s="41">
+        <v>1.00695236340354</v>
+      </c>
+      <c r="F25" s="64">
+        <f t="shared" ref="F25" si="50">E25*D25-H24</f>
+        <v>293.69000621183659</v>
+      </c>
+      <c r="G25" s="64">
+        <f t="shared" ref="G25" si="51">D25</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H25" s="64">
+        <f t="shared" ref="H25" si="52">E25*D25</f>
+        <v>42536.879719553639</v>
+      </c>
+      <c r="I25" s="64">
+        <f>H25-40000+880.75</f>
+        <v>3417.629719553639</v>
+      </c>
+      <c r="J25" s="64">
+        <f>I25/40000</f>
+        <v>8.5440742988840981E-2</v>
+      </c>
+      <c r="K25" s="64">
+        <v>880.75223842318258</v>
+      </c>
+      <c r="L25" s="64">
+        <f>K25/40000</f>
         <v>2.2018805960579563E-2</v>
       </c>
     </row>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="219">
   <si>
     <t>黄金基金</t>
   </si>
@@ -1749,6 +1749,16 @@
     <t>rand投资</t>
     <rPh sb="4" eb="5">
       <t>tou'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手续费16，赎回港股</t>
+    <rPh sb="0" eb="1">
+      <t>shou'xu'fei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu'hui'gang'gu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2338,7 +2348,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2687,6 +2697,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3252,174 +3268,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="137" t="s">
+      <c r="B17" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="137">
+      <c r="D17" s="139">
         <v>7000</v>
       </c>
-      <c r="E17" s="138">
+      <c r="E17" s="140">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="136">
+      <c r="G17" s="138">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="138"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="140"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="137">
+      <c r="D19" s="139">
         <v>10000</v>
       </c>
-      <c r="E19" s="138">
+      <c r="E19" s="140">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="138"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="140"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="137" t="s">
+      <c r="C21" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="137">
+      <c r="D21" s="139">
         <v>10000</v>
       </c>
-      <c r="E21" s="138">
+      <c r="E21" s="140">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="138"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="137" t="s">
+      <c r="C23" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="137">
+      <c r="D23" s="139">
         <v>10000</v>
       </c>
-      <c r="E23" s="138">
+      <c r="E23" s="140">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="138"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="140"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="137" t="s">
+      <c r="C25" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="137">
+      <c r="D25" s="139">
         <v>1000</v>
       </c>
-      <c r="E25" s="138">
+      <c r="E25" s="140">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="138"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="140"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="137" t="s">
+      <c r="B27" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="137" t="s">
+      <c r="C27" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="137">
+      <c r="D27" s="139">
         <v>22000</v>
       </c>
-      <c r="E27" s="138">
+      <c r="E27" s="140">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="137"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="138"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="140"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -3566,27 +3582,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3619,12 +3635,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="154" t="s">
+      <c r="C8" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="156"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="158"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3659,12 +3675,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="156"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="158"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3699,12 +3715,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="156"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="158"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3746,13 +3762,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="149" t="s">
+      <c r="C20" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="151"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="153"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3835,20 +3851,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="143" t="s">
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="145"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="147"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3895,7 +3911,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="162">
+      <c r="E6" s="164">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3903,7 +3919,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="160">
+      <c r="G6" s="162">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3918,15 +3934,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="162">
+      <c r="K6" s="164">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="162">
+      <c r="L6" s="164">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="158">
+      <c r="M6" s="160">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3941,12 +3957,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="162"/>
+      <c r="E7" s="164"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="160"/>
+      <c r="G7" s="162"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3958,9 +3974,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="158"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="160"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3972,12 +3988,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="162"/>
+      <c r="E8" s="164"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="160"/>
+      <c r="G8" s="162"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -3989,9 +4005,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="158"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="160"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -4003,12 +4019,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="163"/>
+      <c r="E9" s="165"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="161"/>
+      <c r="G9" s="163"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -4020,9 +4036,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="159"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="161"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -4032,14 +4048,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="143" t="s">
+      <c r="D13" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="145"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="147"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -4076,15 +4092,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="164">
+      <c r="G15" s="166">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="164">
+      <c r="H15" s="166">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="167">
+      <c r="I15" s="169">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -4104,9 +4120,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="168"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="170"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -4123,9 +4139,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="168"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="170"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -4142,9 +4158,9 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="169"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4167,10 +4183,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K218"/>
+  <dimension ref="C3:K233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="H221" sqref="H221"/>
+    <sheetView topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4190,10 +4206,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="170">
+      <c r="D4" s="172">
         <v>20160622</v>
       </c>
-      <c r="E4" s="171"/>
+      <c r="E4" s="173"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -4295,10 +4311,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="170">
+      <c r="D15" s="172">
         <v>20160713</v>
       </c>
-      <c r="E15" s="171"/>
+      <c r="E15" s="173"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4403,10 +4419,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="170">
+      <c r="D25" s="172">
         <v>20160808</v>
       </c>
-      <c r="E25" s="171"/>
+      <c r="E25" s="173"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4536,10 +4552,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="170">
+      <c r="D35" s="172">
         <v>20160825</v>
       </c>
-      <c r="E35" s="171"/>
+      <c r="E35" s="173"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4751,10 +4767,10 @@
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="170">
+      <c r="D45" s="172">
         <v>20160906</v>
       </c>
-      <c r="E45" s="171"/>
+      <c r="E45" s="173"/>
     </row>
     <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="29" t="s">
@@ -4938,10 +4954,10 @@
     </row>
     <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="170">
+      <c r="D56" s="172">
         <v>20160921</v>
       </c>
-      <c r="E56" s="171"/>
+      <c r="E56" s="173"/>
     </row>
     <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="105" t="s">
@@ -5102,10 +5118,10 @@
     </row>
     <row r="65" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D66" s="170">
+      <c r="D66" s="172">
         <v>20161017</v>
       </c>
-      <c r="E66" s="171"/>
+      <c r="E66" s="173"/>
     </row>
     <row r="67" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="105" t="s">
@@ -5267,10 +5283,10 @@
     </row>
     <row r="74" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D75" s="170">
+      <c r="D75" s="172">
         <v>20161020</v>
       </c>
-      <c r="E75" s="171"/>
+      <c r="E75" s="173"/>
     </row>
     <row r="76" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D76" s="105" t="s">
@@ -5428,10 +5444,10 @@
     </row>
     <row r="83" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D84" s="170">
+      <c r="D84" s="172">
         <v>201610207</v>
       </c>
-      <c r="E84" s="171"/>
+      <c r="E84" s="173"/>
     </row>
     <row r="85" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D85" s="105" t="s">
@@ -5589,10 +5605,10 @@
     </row>
     <row r="92" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D93" s="170">
+      <c r="D93" s="172">
         <v>20161031</v>
       </c>
-      <c r="E93" s="171"/>
+      <c r="E93" s="173"/>
     </row>
     <row r="94" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D94" s="105" t="s">
@@ -5750,10 +5766,10 @@
     </row>
     <row r="101" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="102" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D102" s="170">
+      <c r="D102" s="172">
         <v>20161103</v>
       </c>
-      <c r="E102" s="171"/>
+      <c r="E102" s="173"/>
     </row>
     <row r="103" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D103" s="105" t="s">
@@ -5911,10 +5927,10 @@
     </row>
     <row r="110" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="111" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D111" s="170">
+      <c r="D111" s="172">
         <v>20161103</v>
       </c>
-      <c r="E111" s="171"/>
+      <c r="E111" s="173"/>
     </row>
     <row r="112" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D112" s="105" t="s">
@@ -6075,10 +6091,10 @@
     </row>
     <row r="119" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="120" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D120" s="170">
+      <c r="D120" s="172">
         <v>20161108</v>
       </c>
-      <c r="E120" s="171"/>
+      <c r="E120" s="173"/>
     </row>
     <row r="121" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D121" s="105" t="s">
@@ -6239,10 +6255,10 @@
     </row>
     <row r="128" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="129" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D129" s="170">
+      <c r="D129" s="172">
         <v>20161108</v>
       </c>
-      <c r="E129" s="171"/>
+      <c r="E129" s="173"/>
     </row>
     <row r="130" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D130" s="105" t="s">
@@ -6393,10 +6409,10 @@
     </row>
     <row r="137" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D138" s="170">
+      <c r="D138" s="172">
         <v>20161122</v>
       </c>
-      <c r="E138" s="171"/>
+      <c r="E138" s="173"/>
       <c r="F138" s="11" t="s">
         <v>199</v>
       </c>
@@ -6545,10 +6561,10 @@
       </c>
     </row>
     <row r="146" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D146" s="170">
+      <c r="D146" s="172">
         <v>20161122</v>
       </c>
-      <c r="E146" s="171"/>
+      <c r="E146" s="173"/>
       <c r="F146" s="11" t="s">
         <v>200</v>
       </c>
@@ -6697,10 +6713,10 @@
       </c>
     </row>
     <row r="154" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D154" s="170">
+      <c r="D154" s="172">
         <v>20161209</v>
       </c>
-      <c r="E154" s="171"/>
+      <c r="E154" s="173"/>
       <c r="F154" s="11" t="s">
         <v>200</v>
       </c>
@@ -6829,10 +6845,10 @@
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D161" s="170">
+      <c r="D161" s="172">
         <v>20161209</v>
       </c>
-      <c r="E161" s="171"/>
+      <c r="E161" s="173"/>
       <c r="F161" s="11" t="s">
         <v>203</v>
       </c>
@@ -6965,10 +6981,10 @@
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D168" s="170">
+      <c r="D168" s="172">
         <v>20161210</v>
       </c>
-      <c r="E168" s="171"/>
+      <c r="E168" s="173"/>
       <c r="F168" s="11" t="s">
         <v>204</v>
       </c>
@@ -7099,10 +7115,10 @@
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D175" s="170">
+      <c r="D175" s="172">
         <v>20161215</v>
       </c>
-      <c r="E175" s="171"/>
+      <c r="E175" s="173"/>
       <c r="F175" s="11" t="s">
         <v>204</v>
       </c>
@@ -7252,10 +7268,10 @@
       </c>
     </row>
     <row r="182" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D182" s="170">
+      <c r="D182" s="172">
         <v>20170117</v>
       </c>
-      <c r="E182" s="171"/>
+      <c r="E182" s="173"/>
       <c r="F182" s="11" t="s">
         <v>204</v>
       </c>
@@ -7399,10 +7415,10 @@
     </row>
     <row r="189" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="190" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D190" s="170">
+      <c r="D190" s="172">
         <v>20170122</v>
       </c>
-      <c r="E190" s="171"/>
+      <c r="E190" s="173"/>
     </row>
     <row r="191" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D191" s="105" t="s">
@@ -7530,10 +7546,10 @@
     </row>
     <row r="197" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="198" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D198" s="170">
+      <c r="D198" s="172">
         <v>20170123</v>
       </c>
-      <c r="E198" s="171"/>
+      <c r="E198" s="173"/>
     </row>
     <row r="199" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D199" s="105" t="s">
@@ -7657,10 +7673,10 @@
       </c>
     </row>
     <row r="205" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D205" s="170">
+      <c r="D205" s="172">
         <v>20170123</v>
       </c>
-      <c r="E205" s="171"/>
+      <c r="E205" s="173"/>
       <c r="F205" s="11" t="s">
         <v>216</v>
       </c>
@@ -7787,10 +7803,10 @@
       </c>
     </row>
     <row r="212" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D212" s="170">
+      <c r="D212" s="172">
         <v>20170308</v>
       </c>
-      <c r="E212" s="171"/>
+      <c r="E212" s="173"/>
       <c r="F212" s="11" t="s">
         <v>216</v>
       </c>
@@ -7916,19 +7932,288 @@
         <v>1</v>
       </c>
     </row>
+    <row r="219" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D219" s="172">
+        <v>20170316</v>
+      </c>
+      <c r="E219" s="173"/>
+      <c r="F219" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="220" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D220" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E220" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="F220" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G220" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H220" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="221" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C221" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D221" s="106">
+        <f>F221*G221</f>
+        <v>14286.453815999999</v>
+      </c>
+      <c r="E221" s="107">
+        <f>D221/D225</f>
+        <v>0.16718705650711418</v>
+      </c>
+      <c r="F221" s="11">
+        <f>4017.64+8860</f>
+        <v>12877.64</v>
+      </c>
+      <c r="G221" s="9">
+        <v>1.1093999999999999</v>
+      </c>
+      <c r="H221" s="11">
+        <f>F221*G221</f>
+        <v>14286.453815999999</v>
+      </c>
+    </row>
+    <row r="222" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C222" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" s="78">
+        <f>H222</f>
+        <v>9737.0743080000011</v>
+      </c>
+      <c r="E222" s="53">
+        <f>D222/D225</f>
+        <v>0.11394799671856974</v>
+      </c>
+      <c r="F222" s="96">
+        <v>9859.33</v>
+      </c>
+      <c r="G222" s="9">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="H222" s="11">
+        <f t="shared" ref="H222:H223" si="22">F222*G222</f>
+        <v>9737.0743080000011</v>
+      </c>
+    </row>
+    <row r="223" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C223" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D223" s="56">
+        <f>H223</f>
+        <v>752.8</v>
+      </c>
+      <c r="E223" s="53">
+        <f>D223/D225</f>
+        <v>8.8096330803660618E-3</v>
+      </c>
+      <c r="F223" s="11">
+        <v>800</v>
+      </c>
+      <c r="G223" s="9">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="H223" s="11">
+        <f t="shared" si="22"/>
+        <v>752.8</v>
+      </c>
+    </row>
+    <row r="224" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C224" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D224" s="56">
+        <v>60675.584927606826</v>
+      </c>
+      <c r="E224" s="53">
+        <f>D224/D225</f>
+        <v>0.71005531369395003</v>
+      </c>
+      <c r="F224" s="11">
+        <v>60675.584927606826</v>
+      </c>
+      <c r="G224" s="9">
+        <v>1</v>
+      </c>
+      <c r="H224" s="11">
+        <v>60675.584927606826</v>
+      </c>
+    </row>
+    <row r="225" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C225" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D225" s="57">
+        <f>SUM(D221:D224)</f>
+        <v>85451.913051606825</v>
+      </c>
+      <c r="E225" s="54">
+        <f>D225/D225</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="227" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D227" s="172">
+        <v>20170417</v>
+      </c>
+      <c r="E227" s="173"/>
+      <c r="F227" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="228" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D228" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E228" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="F228" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G228" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H228" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="229" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C229" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D229" s="106">
+        <f>F229*G229</f>
+        <v>3122.2393999999995</v>
+      </c>
+      <c r="E229" s="107">
+        <f>D229/D233</f>
+        <v>3.645128874974516E-2</v>
+      </c>
+      <c r="F229" s="11">
+        <f>4017.64+8860-10000</f>
+        <v>2877.6399999999994</v>
+      </c>
+      <c r="G229" s="9">
+        <v>1.085</v>
+      </c>
+      <c r="H229" s="11">
+        <f>F229*G229</f>
+        <v>3122.2393999999995</v>
+      </c>
+    </row>
+    <row r="230" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C230" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" s="78">
+        <f>H230</f>
+        <v>20922.066456000004</v>
+      </c>
+      <c r="E230" s="53">
+        <f>D230/D233</f>
+        <v>0.24425938819073695</v>
+      </c>
+      <c r="F230" s="96">
+        <f>9859.33+(10000*1.085-16)/1.0232</f>
+        <v>20447.680273651291</v>
+      </c>
+      <c r="G230" s="9">
+        <v>1.0232000000000001</v>
+      </c>
+      <c r="H230" s="11">
+        <f t="shared" ref="H230:H231" si="23">F230*G230</f>
+        <v>20922.066456000004</v>
+      </c>
+    </row>
+    <row r="231" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C231" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D231" s="56">
+        <f>H231</f>
+        <v>766.4</v>
+      </c>
+      <c r="E231" s="53">
+        <f>D231/D233</f>
+        <v>8.9475098218940851E-3</v>
+      </c>
+      <c r="F231" s="11">
+        <v>800</v>
+      </c>
+      <c r="G231" s="9">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="H231" s="11">
+        <f t="shared" si="23"/>
+        <v>766.4</v>
+      </c>
+    </row>
+    <row r="232" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C232" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D232" s="11">
+        <v>60844.411071020244</v>
+      </c>
+      <c r="E232" s="53">
+        <f>D232/D233</f>
+        <v>0.7103418132376238</v>
+      </c>
+      <c r="F232" s="11">
+        <v>60844.411071020244</v>
+      </c>
+      <c r="G232" s="9">
+        <v>1</v>
+      </c>
+      <c r="H232" s="11">
+        <v>60844.411071020244</v>
+      </c>
+    </row>
+    <row r="233" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C233" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D233" s="57">
+        <f>SUM(D229:D232)</f>
+        <v>85655.116927020252</v>
+      </c>
+      <c r="E233" s="54">
+        <f>D233/D233</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="27">
+    <mergeCell ref="D227:E227"/>
     <mergeCell ref="D212:E212"/>
     <mergeCell ref="D190:E190"/>
     <mergeCell ref="D198:E198"/>
     <mergeCell ref="D205:E205"/>
     <mergeCell ref="D182:E182"/>
-    <mergeCell ref="D93:E93"/>
     <mergeCell ref="D175:E175"/>
     <mergeCell ref="D161:E161"/>
     <mergeCell ref="D168:E168"/>
     <mergeCell ref="D154:E154"/>
     <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D66:E66"/>
@@ -7937,12 +8222,7 @@
     <mergeCell ref="D120:E120"/>
     <mergeCell ref="D102:E102"/>
     <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D93:E93"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8375,17 +8655,17 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K69"/>
+  <dimension ref="B2:K72"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="46.5" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="7"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="92" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
@@ -9617,7 +9897,7 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B69" s="89">
-        <v>20170123</v>
+        <v>20170308</v>
       </c>
       <c r="C69" s="89" t="s">
         <v>38</v>
@@ -9626,8 +9906,8 @@
         <v>175</v>
       </c>
       <c r="E69" s="89">
-        <f>60460.7926847478*(1+0.024/365*44)</f>
-        <v>60635.714868515177</v>
+        <f>60460.7926847478*(1+0.03/365*8)</f>
+        <v>60500.547726513112</v>
       </c>
       <c r="F69" s="89">
         <v>1</v>
@@ -9642,6 +9922,90 @@
       <c r="I69" s="89">
         <f>60460.7926847478*(1+0.024/365*44)</f>
         <v>60635.714868515177</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B70" s="89">
+        <v>20170316</v>
+      </c>
+      <c r="C70" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" s="89">
+        <f>60635.7148685152*(1+0.03/365*8)</f>
+        <v>60675.584927606826</v>
+      </c>
+      <c r="F70" s="89">
+        <v>1</v>
+      </c>
+      <c r="G70" s="93">
+        <v>0</v>
+      </c>
+      <c r="H70" s="89">
+        <v>60675.584927606826</v>
+      </c>
+      <c r="I70" s="89">
+        <v>60675.584927606826</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B71" s="89">
+        <v>20170317</v>
+      </c>
+      <c r="C71" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="89">
+        <f>60675.5849276068*(1+(3+3.949)/365/2/100*32)</f>
+        <v>60860.411071020244</v>
+      </c>
+      <c r="F71" s="89">
+        <v>1</v>
+      </c>
+      <c r="G71" s="93">
+        <v>0</v>
+      </c>
+      <c r="H71" s="89">
+        <v>60860.411071020244</v>
+      </c>
+      <c r="I71" s="89">
+        <v>60860.411071020244</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B72" s="89">
+        <v>20170317</v>
+      </c>
+      <c r="C72" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="89">
+        <f>60675.5849276068*(1+(3+3.949)/365/2/100*32)-16</f>
+        <v>60844.411071020244</v>
+      </c>
+      <c r="F72" s="89">
+        <v>1</v>
+      </c>
+      <c r="G72" s="93">
+        <v>0</v>
+      </c>
+      <c r="H72" s="89">
+        <v>60844.411071020244</v>
+      </c>
+      <c r="I72" s="89">
+        <v>60844.411071020244</v>
+      </c>
+      <c r="J72" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -9794,18 +10158,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="139">
+      <c r="F4" s="141">
         <v>20160708</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139">
+      <c r="G4" s="141"/>
+      <c r="H4" s="141">
         <v>20160712</v>
       </c>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139">
+      <c r="I4" s="141"/>
+      <c r="J4" s="141">
         <v>20160808</v>
       </c>
-      <c r="K4" s="139"/>
+      <c r="K4" s="141"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -9863,10 +10227,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="139">
+      <c r="E8" s="141">
         <v>20160810</v>
       </c>
-      <c r="F8" s="139"/>
+      <c r="F8" s="141"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -9940,11 +10304,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="139">
+      <c r="C4" s="141">
         <v>201605</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -10016,19 +10380,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="143">
+      <c r="C11" s="145">
         <v>20160608</v>
       </c>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="145"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="147"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -10212,20 +10576,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="140">
+      <c r="C18" s="142">
         <v>20160708</v>
       </c>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="142"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="144"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -10444,20 +10808,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="140">
+      <c r="C27" s="142">
         <v>20160808</v>
       </c>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="142"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="144"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -10662,21 +11026,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="140">
+      <c r="C35" s="142">
         <v>20160825</v>
       </c>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="141"/>
-      <c r="N35" s="141"/>
-      <c r="O35" s="142"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="143"/>
+      <c r="L35" s="143"/>
+      <c r="M35" s="143"/>
+      <c r="N35" s="143"/>
+      <c r="O35" s="144"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -10895,21 +11259,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="140">
+      <c r="C42" s="142">
         <v>20160906</v>
       </c>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="141"/>
-      <c r="H42" s="141"/>
-      <c r="I42" s="141"/>
-      <c r="J42" s="141"/>
-      <c r="K42" s="141"/>
-      <c r="L42" s="141"/>
-      <c r="M42" s="141"/>
-      <c r="N42" s="141"/>
-      <c r="O42" s="142"/>
+      <c r="D42" s="143"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="143"/>
+      <c r="K42" s="143"/>
+      <c r="L42" s="143"/>
+      <c r="M42" s="143"/>
+      <c r="N42" s="143"/>
+      <c r="O42" s="144"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -11129,21 +11493,21 @@
     <row r="49" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="72"/>
-      <c r="C50" s="140">
+      <c r="C50" s="142">
         <v>20160921</v>
       </c>
-      <c r="D50" s="141"/>
-      <c r="E50" s="141"/>
-      <c r="F50" s="141"/>
-      <c r="G50" s="141"/>
-      <c r="H50" s="141"/>
-      <c r="I50" s="141"/>
-      <c r="J50" s="141"/>
-      <c r="K50" s="141"/>
-      <c r="L50" s="141"/>
-      <c r="M50" s="141"/>
-      <c r="N50" s="141"/>
-      <c r="O50" s="142"/>
+      <c r="D50" s="143"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="143"/>
+      <c r="G50" s="143"/>
+      <c r="H50" s="143"/>
+      <c r="I50" s="143"/>
+      <c r="J50" s="143"/>
+      <c r="K50" s="143"/>
+      <c r="L50" s="143"/>
+      <c r="M50" s="143"/>
+      <c r="N50" s="143"/>
+      <c r="O50" s="144"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
@@ -11380,7 +11744,7 @@
   <dimension ref="A4:I39"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -12157,10 +12521,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q28"/>
+  <dimension ref="A2:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -13251,9 +13615,6 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>217</v>
-      </c>
       <c r="B27">
         <v>20170308</v>
       </c>
@@ -13285,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="K27">
-        <v>84486.893689747798</v>
+        <v>85074.277277515183</v>
       </c>
       <c r="L27">
         <f t="shared" ref="L27" si="73">(F27-F26)*E27</f>
@@ -13296,9 +13657,102 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>20170316</v>
+      </c>
+      <c r="C28">
+        <v>85451.913051606825</v>
+      </c>
+      <c r="D28">
+        <f>C28-K27</f>
+        <v>377.63577409164282</v>
+      </c>
+      <c r="E28">
+        <v>84486.893689747798</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28" si="74">C28/E28</f>
+        <v>1.0114221190969899</v>
+      </c>
+      <c r="G28">
+        <f>F28-1</f>
+        <v>1.1422119096989869E-2</v>
+      </c>
       <c r="H28">
-        <f>H14-G28</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>85451.913051606825</v>
+      </c>
+      <c r="L28">
+        <f>(F28-F27)*E28</f>
+        <v>377.63577409164435</v>
+      </c>
+      <c r="M28">
+        <v>1180.3117948627814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>20170417</v>
+      </c>
+      <c r="C29">
+        <v>85655.116927020252</v>
+      </c>
+      <c r="D29">
+        <f>C29-K28</f>
+        <v>203.20387541342643</v>
+      </c>
+      <c r="E29">
+        <v>84486.893689747798</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29" si="75">C29/E29</f>
+        <v>1.0138272717371097</v>
+      </c>
+      <c r="G29">
+        <f>F29-1</f>
+        <v>1.3827271737109736E-2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>85655.116927020252</v>
+      </c>
+      <c r="L29">
+        <f>(F29-F28)*E29</f>
+        <v>203.2038754134235</v>
+      </c>
+      <c r="M29">
+        <v>1180.3117948627814</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E31">
+        <f>E26-E25</f>
+        <v>2744.8034618053061</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="23" x14ac:dyDescent="0.3">
+      <c r="D32" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E32">
+        <f>E28-D32</f>
+        <v>42243.703976405995</v>
       </c>
     </row>
   </sheetData>
@@ -13461,10 +13915,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K26"/>
+  <dimension ref="B3:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -13482,10 +13936,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="J3" s="148" t="s">
+      <c r="J3" s="150" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="148"/>
+      <c r="K3" s="150"/>
     </row>
     <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
@@ -13517,7 +13971,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B5" s="146">
+      <c r="B5" s="148">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -13546,7 +14000,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B6" s="147"/>
+      <c r="B6" s="149"/>
       <c r="C6" s="64" t="s">
         <v>147</v>
       </c>
@@ -14109,6 +14563,37 @@
       <c r="H26" s="64">
         <f t="shared" si="6"/>
         <v>39498.387146740664</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+      <c r="B27" s="48">
+        <v>20170316</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="64">
+        <v>42243.703976405995</v>
+      </c>
+      <c r="E27" s="64">
+        <v>1.0114221190969899</v>
+      </c>
+      <c r="F27" s="64">
+        <f t="shared" ref="F27" si="10">H27-H26</f>
+        <v>3227.8294475818257</v>
+      </c>
+      <c r="G27" s="64">
+        <v>42243.703976405995</v>
+      </c>
+      <c r="H27" s="64">
+        <f t="shared" ref="H27" si="11">E27*G27</f>
+        <v>42726.21659432249</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C33" s="110">
+        <f>D27+'216资产报告'!D26</f>
+        <v>84486.893689747798</v>
       </c>
     </row>
   </sheetData>
@@ -14123,12 +14608,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O25"/>
+  <dimension ref="B3:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -14187,7 +14672,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="39" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="146">
+      <c r="B5" s="148">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -14220,7 +14705,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="147"/>
+      <c r="B6" s="149"/>
       <c r="C6" s="16" t="s">
         <v>159</v>
       </c>
@@ -15014,6 +15499,99 @@
         <v>2.2018805960579563E-2</v>
       </c>
     </row>
+    <row r="26" spans="2:12" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B26" s="48">
+        <v>20170316</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E26" s="41">
+        <v>1.0114221190969899</v>
+      </c>
+      <c r="F26" s="64">
+        <f t="shared" ref="F26" si="53">E26*D26-H25</f>
+        <v>188.81673773068906</v>
+      </c>
+      <c r="G26" s="64">
+        <f t="shared" ref="G26" si="54">D26</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H26" s="64">
+        <f t="shared" ref="H26" si="55">E26*D26</f>
+        <v>42725.696457284328</v>
+      </c>
+      <c r="I26" s="64">
+        <f>H26-40000+880.75</f>
+        <v>3606.4464572843281</v>
+      </c>
+      <c r="J26" s="64">
+        <f>I26/40000</f>
+        <v>9.01611614321082E-2</v>
+      </c>
+      <c r="K26" s="64">
+        <v>880.75223842318258</v>
+      </c>
+      <c r="L26" s="64">
+        <f>K26/40000</f>
+        <v>2.2018805960579563E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B27" s="48">
+        <v>20170417</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E27" s="41">
+        <v>1.0138272717371097</v>
+      </c>
+      <c r="F27" s="64">
+        <f t="shared" ref="F27" si="56">E27*D27-H26</f>
+        <v>101.60131926612667</v>
+      </c>
+      <c r="G27" s="64">
+        <f t="shared" ref="G27" si="57">D27</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H27" s="64">
+        <f t="shared" ref="H27" si="58">E27*D27</f>
+        <v>42827.297776550455</v>
+      </c>
+      <c r="I27" s="64">
+        <f>H27-40000+880.75</f>
+        <v>3708.0477765504547</v>
+      </c>
+      <c r="J27" s="64">
+        <f>I27/40000</f>
+        <v>9.2701194413761373E-2</v>
+      </c>
+      <c r="K27" s="64">
+        <v>880.75223842318258</v>
+      </c>
+      <c r="L27" s="64">
+        <f>K27/40000</f>
+        <v>2.2018805960579563E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:B6"/>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="219">
   <si>
     <t>黄金基金</t>
   </si>
@@ -1801,7 +1801,7 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Microsoft YaHei"/>
-      <charset val="136"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2348,7 +2348,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2697,6 +2697,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3268,174 +3274,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="139" t="s">
+      <c r="B17" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="139">
+      <c r="D17" s="141">
         <v>7000</v>
       </c>
-      <c r="E17" s="140">
+      <c r="E17" s="142">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="138">
+      <c r="G17" s="140">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="140"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="142"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="139" t="s">
+      <c r="B19" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="139" t="s">
+      <c r="C19" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="139">
+      <c r="D19" s="141">
         <v>10000</v>
       </c>
-      <c r="E19" s="140">
+      <c r="E19" s="142">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="140"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="142"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="139" t="s">
+      <c r="C21" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="139">
+      <c r="D21" s="141">
         <v>10000</v>
       </c>
-      <c r="E21" s="140">
+      <c r="E21" s="142">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="140"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="142"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="139" t="s">
+      <c r="C23" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="139">
+      <c r="D23" s="141">
         <v>10000</v>
       </c>
-      <c r="E23" s="140">
+      <c r="E23" s="142">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="139"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="140"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="142"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="139" t="s">
+      <c r="C25" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="139">
+      <c r="D25" s="141">
         <v>1000</v>
       </c>
-      <c r="E25" s="140">
+      <c r="E25" s="142">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="140"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="142"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="139" t="s">
+      <c r="B27" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="139" t="s">
+      <c r="C27" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="139">
+      <c r="D27" s="141">
         <v>22000</v>
       </c>
-      <c r="E27" s="140">
+      <c r="E27" s="142">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="140"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="142"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -3582,27 +3588,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3635,12 +3641,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="156" t="s">
+      <c r="C8" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="158"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="160"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3675,12 +3681,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="158" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="158"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="160"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3715,12 +3721,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="156" t="s">
+      <c r="C16" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="158"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="160"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3762,13 +3768,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="151" t="s">
+      <c r="C20" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="153"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="155"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3851,20 +3857,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="145" t="s">
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="147"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="149"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3911,7 +3917,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="164">
+      <c r="E6" s="166">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3919,7 +3925,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="162">
+      <c r="G6" s="164">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3934,15 +3940,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="164">
+      <c r="K6" s="166">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="164">
+      <c r="L6" s="166">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="160">
+      <c r="M6" s="162">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3957,12 +3963,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="164"/>
+      <c r="E7" s="166"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="162"/>
+      <c r="G7" s="164"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3974,9 +3980,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="164"/>
-      <c r="L7" s="164"/>
-      <c r="M7" s="160"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="162"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3988,12 +3994,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="164"/>
+      <c r="E8" s="166"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="162"/>
+      <c r="G8" s="164"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -4005,9 +4011,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="164"/>
-      <c r="L8" s="164"/>
-      <c r="M8" s="160"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="162"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -4019,12 +4025,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="165"/>
+      <c r="E9" s="167"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="163"/>
+      <c r="G9" s="165"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -4036,9 +4042,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="161"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="163"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -4048,14 +4054,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="145" t="s">
+      <c r="D13" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="147"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="149"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -4092,15 +4098,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="166">
+      <c r="G15" s="168">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="166">
+      <c r="H15" s="168">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="169">
+      <c r="I15" s="171">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -4120,9 +4126,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="170"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="172"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -4139,9 +4145,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="170"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="172"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -4158,9 +4164,9 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="171"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4183,10 +4189,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K233"/>
+  <dimension ref="C3:K249"/>
   <sheetViews>
-    <sheetView topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="D233" sqref="D233"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="H251" sqref="H251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4206,10 +4212,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="172">
+      <c r="D4" s="174">
         <v>20160622</v>
       </c>
-      <c r="E4" s="173"/>
+      <c r="E4" s="175"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -4311,10 +4317,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="172">
+      <c r="D15" s="174">
         <v>20160713</v>
       </c>
-      <c r="E15" s="173"/>
+      <c r="E15" s="175"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4419,10 +4425,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="172">
+      <c r="D25" s="174">
         <v>20160808</v>
       </c>
-      <c r="E25" s="173"/>
+      <c r="E25" s="175"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4552,10 +4558,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="172">
+      <c r="D35" s="174">
         <v>20160825</v>
       </c>
-      <c r="E35" s="173"/>
+      <c r="E35" s="175"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4767,10 +4773,10 @@
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="172">
+      <c r="D45" s="174">
         <v>20160906</v>
       </c>
-      <c r="E45" s="173"/>
+      <c r="E45" s="175"/>
     </row>
     <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="29" t="s">
@@ -4954,10 +4960,10 @@
     </row>
     <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="172">
+      <c r="D56" s="174">
         <v>20160921</v>
       </c>
-      <c r="E56" s="173"/>
+      <c r="E56" s="175"/>
     </row>
     <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="105" t="s">
@@ -5118,10 +5124,10 @@
     </row>
     <row r="65" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D66" s="172">
+      <c r="D66" s="174">
         <v>20161017</v>
       </c>
-      <c r="E66" s="173"/>
+      <c r="E66" s="175"/>
     </row>
     <row r="67" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="105" t="s">
@@ -5283,10 +5289,10 @@
     </row>
     <row r="74" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D75" s="172">
+      <c r="D75" s="174">
         <v>20161020</v>
       </c>
-      <c r="E75" s="173"/>
+      <c r="E75" s="175"/>
     </row>
     <row r="76" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D76" s="105" t="s">
@@ -5444,10 +5450,10 @@
     </row>
     <row r="83" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D84" s="172">
+      <c r="D84" s="174">
         <v>201610207</v>
       </c>
-      <c r="E84" s="173"/>
+      <c r="E84" s="175"/>
     </row>
     <row r="85" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D85" s="105" t="s">
@@ -5605,10 +5611,10 @@
     </row>
     <row r="92" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D93" s="172">
+      <c r="D93" s="174">
         <v>20161031</v>
       </c>
-      <c r="E93" s="173"/>
+      <c r="E93" s="175"/>
     </row>
     <row r="94" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D94" s="105" t="s">
@@ -5766,10 +5772,10 @@
     </row>
     <row r="101" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="102" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D102" s="172">
+      <c r="D102" s="174">
         <v>20161103</v>
       </c>
-      <c r="E102" s="173"/>
+      <c r="E102" s="175"/>
     </row>
     <row r="103" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D103" s="105" t="s">
@@ -5927,10 +5933,10 @@
     </row>
     <row r="110" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="111" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D111" s="172">
+      <c r="D111" s="174">
         <v>20161103</v>
       </c>
-      <c r="E111" s="173"/>
+      <c r="E111" s="175"/>
     </row>
     <row r="112" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D112" s="105" t="s">
@@ -6091,10 +6097,10 @@
     </row>
     <row r="119" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="120" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D120" s="172">
+      <c r="D120" s="174">
         <v>20161108</v>
       </c>
-      <c r="E120" s="173"/>
+      <c r="E120" s="175"/>
     </row>
     <row r="121" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D121" s="105" t="s">
@@ -6255,10 +6261,10 @@
     </row>
     <row r="128" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="129" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D129" s="172">
+      <c r="D129" s="174">
         <v>20161108</v>
       </c>
-      <c r="E129" s="173"/>
+      <c r="E129" s="175"/>
     </row>
     <row r="130" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D130" s="105" t="s">
@@ -6409,10 +6415,10 @@
     </row>
     <row r="137" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D138" s="172">
+      <c r="D138" s="174">
         <v>20161122</v>
       </c>
-      <c r="E138" s="173"/>
+      <c r="E138" s="175"/>
       <c r="F138" s="11" t="s">
         <v>199</v>
       </c>
@@ -6561,10 +6567,10 @@
       </c>
     </row>
     <row r="146" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D146" s="172">
+      <c r="D146" s="174">
         <v>20161122</v>
       </c>
-      <c r="E146" s="173"/>
+      <c r="E146" s="175"/>
       <c r="F146" s="11" t="s">
         <v>200</v>
       </c>
@@ -6713,10 +6719,10 @@
       </c>
     </row>
     <row r="154" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D154" s="172">
+      <c r="D154" s="174">
         <v>20161209</v>
       </c>
-      <c r="E154" s="173"/>
+      <c r="E154" s="175"/>
       <c r="F154" s="11" t="s">
         <v>200</v>
       </c>
@@ -6845,10 +6851,10 @@
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D161" s="172">
+      <c r="D161" s="174">
         <v>20161209</v>
       </c>
-      <c r="E161" s="173"/>
+      <c r="E161" s="175"/>
       <c r="F161" s="11" t="s">
         <v>203</v>
       </c>
@@ -6981,10 +6987,10 @@
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D168" s="172">
+      <c r="D168" s="174">
         <v>20161210</v>
       </c>
-      <c r="E168" s="173"/>
+      <c r="E168" s="175"/>
       <c r="F168" s="11" t="s">
         <v>204</v>
       </c>
@@ -7115,10 +7121,10 @@
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D175" s="172">
+      <c r="D175" s="174">
         <v>20161215</v>
       </c>
-      <c r="E175" s="173"/>
+      <c r="E175" s="175"/>
       <c r="F175" s="11" t="s">
         <v>204</v>
       </c>
@@ -7268,10 +7274,10 @@
       </c>
     </row>
     <row r="182" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D182" s="172">
+      <c r="D182" s="174">
         <v>20170117</v>
       </c>
-      <c r="E182" s="173"/>
+      <c r="E182" s="175"/>
       <c r="F182" s="11" t="s">
         <v>204</v>
       </c>
@@ -7415,10 +7421,10 @@
     </row>
     <row r="189" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="190" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D190" s="172">
+      <c r="D190" s="174">
         <v>20170122</v>
       </c>
-      <c r="E190" s="173"/>
+      <c r="E190" s="175"/>
     </row>
     <row r="191" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D191" s="105" t="s">
@@ -7546,10 +7552,10 @@
     </row>
     <row r="197" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="198" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D198" s="172">
+      <c r="D198" s="174">
         <v>20170123</v>
       </c>
-      <c r="E198" s="173"/>
+      <c r="E198" s="175"/>
     </row>
     <row r="199" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D199" s="105" t="s">
@@ -7673,10 +7679,10 @@
       </c>
     </row>
     <row r="205" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D205" s="172">
+      <c r="D205" s="174">
         <v>20170123</v>
       </c>
-      <c r="E205" s="173"/>
+      <c r="E205" s="175"/>
       <c r="F205" s="11" t="s">
         <v>216</v>
       </c>
@@ -7803,10 +7809,10 @@
       </c>
     </row>
     <row r="212" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D212" s="172">
+      <c r="D212" s="174">
         <v>20170308</v>
       </c>
-      <c r="E212" s="173"/>
+      <c r="E212" s="175"/>
       <c r="F212" s="11" t="s">
         <v>216</v>
       </c>
@@ -7933,10 +7939,10 @@
       </c>
     </row>
     <row r="219" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D219" s="172">
+      <c r="D219" s="174">
         <v>20170316</v>
       </c>
-      <c r="E219" s="173"/>
+      <c r="E219" s="175"/>
       <c r="F219" s="11" t="s">
         <v>216</v>
       </c>
@@ -8064,10 +8070,10 @@
     </row>
     <row r="226" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="227" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D227" s="172">
+      <c r="D227" s="174">
         <v>20170417</v>
       </c>
-      <c r="E227" s="173"/>
+      <c r="E227" s="175"/>
       <c r="F227" s="11" t="s">
         <v>216</v>
       </c>
@@ -8194,26 +8200,290 @@
         <v>1</v>
       </c>
     </row>
+    <row r="234" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="235" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D235" s="174">
+        <v>20170604</v>
+      </c>
+      <c r="E235" s="175"/>
+      <c r="F235" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="236" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D236" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E236" s="138" t="s">
+        <v>42</v>
+      </c>
+      <c r="F236" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G236" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H236" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="237" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C237" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D237" s="106">
+        <f>F237*G237</f>
+        <v>3184.6841879999993</v>
+      </c>
+      <c r="E237" s="107">
+        <f>D237/D241</f>
+        <v>3.7300523104126321E-2</v>
+      </c>
+      <c r="F237" s="11">
+        <f>4017.64+8860-10000</f>
+        <v>2877.6399999999994</v>
+      </c>
+      <c r="G237" s="9">
+        <v>1.1067</v>
+      </c>
+      <c r="H237" s="11">
+        <f>F237*G237</f>
+        <v>3184.6841879999993</v>
+      </c>
+    </row>
+    <row r="238" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C238" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" s="78">
+        <f>H238</f>
+        <v>20324.994192009384</v>
+      </c>
+      <c r="E238" s="53">
+        <f>D238/D241</f>
+        <v>0.23805591722625136</v>
+      </c>
+      <c r="F238" s="96">
+        <f>9859.33+(10000*1.085-16)/1.0232</f>
+        <v>20447.680273651291</v>
+      </c>
+      <c r="G238" s="9">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="H238" s="11">
+        <f t="shared" ref="H238:H239" si="24">F238*G238</f>
+        <v>20324.994192009384</v>
+      </c>
+    </row>
+    <row r="239" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C239" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D239" s="56">
+        <f>H239</f>
+        <v>729.6</v>
+      </c>
+      <c r="E239" s="53">
+        <f>D239/D241</f>
+        <v>8.5454192787201948E-3</v>
+      </c>
+      <c r="F239" s="11">
+        <v>800</v>
+      </c>
+      <c r="G239" s="9">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="H239" s="11">
+        <f t="shared" si="24"/>
+        <v>729.6</v>
+      </c>
+    </row>
+    <row r="240" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C240" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D240" s="56">
+        <f>60844.4111*(1+(3+3.949)/365/2/100*51)</f>
+        <v>61139.797380129152</v>
+      </c>
+      <c r="E240" s="56">
+        <f>D240/D241</f>
+        <v>0.71609814039090203</v>
+      </c>
+      <c r="F240" s="56">
+        <f>60844.4111*(1+(3+3.949)/365/2/100*51)</f>
+        <v>61139.797380129152</v>
+      </c>
+      <c r="G240" s="56">
+        <v>1</v>
+      </c>
+      <c r="H240" s="56">
+        <f>60844.4111*(1+(3+3.949)/365/2/100*51)</f>
+        <v>61139.797380129152</v>
+      </c>
+    </row>
+    <row r="241" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C241" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D241" s="57">
+        <f>SUM(D237:D240)</f>
+        <v>85379.075760138541</v>
+      </c>
+      <c r="E241" s="54">
+        <f>D241/D241</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="243" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D243" s="174">
+        <v>20170611</v>
+      </c>
+      <c r="E243" s="175"/>
+    </row>
+    <row r="244" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D244" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E244" s="139" t="s">
+        <v>42</v>
+      </c>
+      <c r="F244" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G244" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H244" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="245" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C245" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D245" s="106">
+        <f>F245*G245</f>
+        <v>2906.1286359999995</v>
+      </c>
+      <c r="E245" s="107">
+        <f>D245/D249</f>
+        <v>3.4097845476896427E-2</v>
+      </c>
+      <c r="F245" s="11">
+        <f>4017.64+8860-10000</f>
+        <v>2877.6399999999994</v>
+      </c>
+      <c r="G245" s="9">
+        <v>1.0099</v>
+      </c>
+      <c r="H245" s="11">
+        <f>F245*G245</f>
+        <v>2906.1286359999995</v>
+      </c>
+    </row>
+    <row r="246" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C246" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" s="78">
+        <f>H246</f>
+        <v>20427.232593377641</v>
+      </c>
+      <c r="E246" s="53">
+        <f>D246/D249</f>
+        <v>0.23967439426504905</v>
+      </c>
+      <c r="F246" s="96">
+        <f>9859.33+(10000*1.085-16)/1.0232</f>
+        <v>20447.680273651291</v>
+      </c>
+      <c r="G246" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="H246" s="11">
+        <f t="shared" ref="H246:H247" si="25">F246*G246</f>
+        <v>20427.232593377641</v>
+      </c>
+    </row>
+    <row r="247" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C247" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D247" s="56">
+        <f>H247</f>
+        <v>715.2</v>
+      </c>
+      <c r="E247" s="53">
+        <f>D247/D249</f>
+        <v>8.391500218876179E-3</v>
+      </c>
+      <c r="F247" s="11">
+        <v>800</v>
+      </c>
+      <c r="G247" s="9">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="H247" s="11">
+        <f t="shared" si="25"/>
+        <v>715.2</v>
+      </c>
+    </row>
+    <row r="248" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C248" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D248" s="56">
+        <v>61180.537423471142</v>
+      </c>
+      <c r="E248" s="56">
+        <f>D248/D249</f>
+        <v>0.71783626003917833</v>
+      </c>
+      <c r="F248" s="56">
+        <v>61180.537423471142</v>
+      </c>
+      <c r="G248" s="56">
+        <v>1</v>
+      </c>
+      <c r="H248" s="56">
+        <v>61180.537423471142</v>
+      </c>
+    </row>
+    <row r="249" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C249" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D249" s="57">
+        <f>SUM(D245:D248)</f>
+        <v>85229.098652848785</v>
+      </c>
+      <c r="E249" s="54">
+        <f>D249/D249</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="D154:E154"/>
     <mergeCell ref="D227:E227"/>
     <mergeCell ref="D212:E212"/>
     <mergeCell ref="D190:E190"/>
     <mergeCell ref="D198:E198"/>
     <mergeCell ref="D205:E205"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="D56:E56"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D66:E66"/>
@@ -8222,7 +8492,9 @@
     <mergeCell ref="D120:E120"/>
     <mergeCell ref="D102:E102"/>
     <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="D161:E161"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8655,10 +8927,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K72"/>
+  <dimension ref="B2:K77"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -10006,6 +10278,69 @@
       </c>
       <c r="J72" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B73" s="89">
+        <v>20170604</v>
+      </c>
+      <c r="C73" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="89">
+        <f>60844.4111*(1+(3+3.949)/365/2/100*51)</f>
+        <v>61139.797380129152</v>
+      </c>
+      <c r="F73" s="89">
+        <v>1</v>
+      </c>
+      <c r="G73" s="93">
+        <v>0</v>
+      </c>
+      <c r="H73" s="89">
+        <f>60844.4111*(1+(3+3.949)/365/2/100*51)</f>
+        <v>61139.797380129152</v>
+      </c>
+      <c r="I73" s="89">
+        <f>60844.4111*(1+(3+3.949)/365/2/100*51)</f>
+        <v>61139.797380129152</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B74" s="89">
+        <v>20170604</v>
+      </c>
+      <c r="C74" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" s="89">
+        <f>61139.7973801292*(1+(3+3.949)/365/2/100*7)</f>
+        <v>61180.537423471142</v>
+      </c>
+      <c r="F74" s="89">
+        <v>1</v>
+      </c>
+      <c r="G74" s="93">
+        <v>0</v>
+      </c>
+      <c r="H74" s="89">
+        <f>E74</f>
+        <v>61180.537423471142</v>
+      </c>
+      <c r="I74" s="89">
+        <f>H74</f>
+        <v>61180.537423471142</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E77">
+        <v>61139.797380129203</v>
       </c>
     </row>
   </sheetData>
@@ -10158,18 +10493,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="141">
+      <c r="F4" s="143">
         <v>20160708</v>
       </c>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141">
+      <c r="G4" s="143"/>
+      <c r="H4" s="143">
         <v>20160712</v>
       </c>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141">
+      <c r="I4" s="143"/>
+      <c r="J4" s="143">
         <v>20160808</v>
       </c>
-      <c r="K4" s="141"/>
+      <c r="K4" s="143"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -10227,10 +10562,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="141">
+      <c r="E8" s="143">
         <v>20160810</v>
       </c>
-      <c r="F8" s="141"/>
+      <c r="F8" s="143"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -10304,11 +10639,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="141">
+      <c r="C4" s="143">
         <v>201605</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -10380,19 +10715,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="145">
+      <c r="C11" s="147">
         <v>20160608</v>
       </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="147"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="149"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -10576,20 +10911,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="142">
+      <c r="C18" s="144">
         <v>20160708</v>
       </c>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="144"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="146"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -10808,20 +11143,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="142">
+      <c r="C27" s="144">
         <v>20160808</v>
       </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="144"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="145"/>
+      <c r="M27" s="145"/>
+      <c r="N27" s="146"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -11026,21 +11361,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="142">
+      <c r="C35" s="144">
         <v>20160825</v>
       </c>
-      <c r="D35" s="143"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="143"/>
-      <c r="M35" s="143"/>
-      <c r="N35" s="143"/>
-      <c r="O35" s="144"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="146"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -11259,21 +11594,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="142">
+      <c r="C42" s="144">
         <v>20160906</v>
       </c>
-      <c r="D42" s="143"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="143"/>
-      <c r="K42" s="143"/>
-      <c r="L42" s="143"/>
-      <c r="M42" s="143"/>
-      <c r="N42" s="143"/>
-      <c r="O42" s="144"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="145"/>
+      <c r="L42" s="145"/>
+      <c r="M42" s="145"/>
+      <c r="N42" s="145"/>
+      <c r="O42" s="146"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -11493,21 +11828,21 @@
     <row r="49" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="72"/>
-      <c r="C50" s="142">
+      <c r="C50" s="144">
         <v>20160921</v>
       </c>
-      <c r="D50" s="143"/>
-      <c r="E50" s="143"/>
-      <c r="F50" s="143"/>
-      <c r="G50" s="143"/>
-      <c r="H50" s="143"/>
-      <c r="I50" s="143"/>
-      <c r="J50" s="143"/>
-      <c r="K50" s="143"/>
-      <c r="L50" s="143"/>
-      <c r="M50" s="143"/>
-      <c r="N50" s="143"/>
-      <c r="O50" s="144"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="145"/>
+      <c r="L50" s="145"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="145"/>
+      <c r="O50" s="146"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
@@ -11744,7 +12079,7 @@
   <dimension ref="A4:I39"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -12523,8 +12858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -13544,7 +13879,7 @@
         <v>1.0055726916272267</v>
       </c>
       <c r="G25">
-        <f>F25-1</f>
+        <f t="shared" ref="G25:G31" si="69">F25-1</f>
         <v>5.5726916272267335E-3</v>
       </c>
       <c r="H25">
@@ -13557,11 +13892,11 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25" si="69">J25*E25</f>
+        <f t="shared" ref="K25" si="70">J25*E25</f>
         <v>81742.090227942492</v>
       </c>
       <c r="L25">
-        <f t="shared" ref="L25" si="70">(F25-F24)*E25</f>
+        <f t="shared" ref="L25" si="71">(F25-F24)*E25</f>
         <v>0</v>
       </c>
       <c r="M25">
@@ -13591,7 +13926,7 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <f>F26-1</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="H26">
@@ -13607,7 +13942,7 @@
         <v>84486.893689747798</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L26" si="71">(F26-F25)*E26</f>
+        <f t="shared" ref="L26" si="72">(F26-F25)*E26</f>
         <v>-470.81940507525269</v>
       </c>
       <c r="M26">
@@ -13629,11 +13964,11 @@
         <v>84486.893689747798</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27" si="72">C27/E27</f>
+        <f t="shared" ref="F27" si="73">C27/E27</f>
         <v>1.00695236340354</v>
       </c>
       <c r="G27">
-        <f>F27-1</f>
+        <f t="shared" si="69"/>
         <v>6.9523634035399962E-3</v>
       </c>
       <c r="H27">
@@ -13649,7 +13984,7 @@
         <v>85074.277277515183</v>
       </c>
       <c r="L27">
-        <f t="shared" ref="L27" si="73">(F27-F26)*E27</f>
+        <f t="shared" ref="L27" si="74">(F27-F26)*E27</f>
         <v>587.38358776737687</v>
       </c>
       <c r="M27">
@@ -13671,11 +14006,11 @@
         <v>84486.893689747798</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28" si="74">C28/E28</f>
+        <f t="shared" ref="F28" si="75">C28/E28</f>
         <v>1.0114221190969899</v>
       </c>
       <c r="G28">
-        <f>F28-1</f>
+        <f t="shared" si="69"/>
         <v>1.1422119096989869E-2</v>
       </c>
       <c r="H28">
@@ -13713,11 +14048,11 @@
         <v>84486.893689747798</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29" si="75">C29/E29</f>
+        <f t="shared" ref="F29" si="76">C29/E29</f>
         <v>1.0138272717371097</v>
       </c>
       <c r="G29">
-        <f>F29-1</f>
+        <f t="shared" si="69"/>
         <v>1.3827271737109736E-2</v>
       </c>
       <c r="H29">
@@ -13740,10 +14075,88 @@
         <v>1180.3117948627814</v>
       </c>
     </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>20170604</v>
+      </c>
+      <c r="C30">
+        <v>85379.075760138541</v>
+      </c>
+      <c r="D30">
+        <f>C30-K29</f>
+        <v>-276.04116688171052</v>
+      </c>
+      <c r="E30">
+        <v>84486.893689747798</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30" si="77">C30/E30</f>
+        <v>1.0105600055988211</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="69"/>
+        <v>1.0560005598821087E-2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>85379.075760138541</v>
+      </c>
+      <c r="L30">
+        <f>(F30-F29)*E30</f>
+        <v>-276.04116688170592</v>
+      </c>
+      <c r="M30">
+        <v>1180.3117948627814</v>
+      </c>
+    </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>20170611</v>
+      </c>
+      <c r="C31">
+        <v>85229.098652848785</v>
+      </c>
+      <c r="D31">
+        <f>C31-K30</f>
+        <v>-149.97710728975653</v>
+      </c>
       <c r="E31">
-        <f>E26-E25</f>
-        <v>2744.8034618053061</v>
+        <v>84486.893689747798</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31" si="78">C31/E31</f>
+        <v>1.0087848532557784</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="69"/>
+        <v>8.7848532557783798E-3</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>85229.098652848785</v>
+      </c>
+      <c r="L31">
+        <f>(F31-F30)*E31</f>
+        <v>-149.97710728975593</v>
+      </c>
+      <c r="M31">
+        <v>1180.3117948627814</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="23" x14ac:dyDescent="0.3">
@@ -13936,10 +14349,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="J3" s="150" t="s">
+      <c r="J3" s="152" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="150"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
@@ -13971,7 +14384,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B5" s="148">
+      <c r="B5" s="150">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -14000,7 +14413,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B6" s="149"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="64" t="s">
         <v>147</v>
       </c>
@@ -14610,10 +15023,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -14672,7 +15085,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="39" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="148">
+      <c r="B5" s="150">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -14705,7 +15118,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="149"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="16" t="s">
         <v>159</v>
       </c>
@@ -15581,8 +15994,88 @@
         <v>2.2018805960579563E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="2:12" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B28" s="48">
+        <v>20170604</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E28" s="41">
+        <v>1.0105600055988211</v>
+      </c>
+      <c r="F28" s="64">
+        <f t="shared" ref="F28" si="59">E28*D28-H27</f>
+        <v>-138.01974332370446</v>
+      </c>
+      <c r="G28" s="64">
+        <f t="shared" ref="G28" si="60">D28</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H28" s="64">
+        <f t="shared" ref="H28" si="61">E28*D28</f>
+        <v>42689.27803322675</v>
+      </c>
+      <c r="I28" s="64">
+        <f>H28-40000+880.75</f>
+        <v>3570.0280332267503</v>
+      </c>
+      <c r="J28" s="64">
+        <f>I28/40000</f>
+        <v>8.9250700830668758E-2</v>
+      </c>
+      <c r="K28" s="64">
+        <v>880.75223842318258</v>
+      </c>
+      <c r="L28" s="64">
+        <f>K28/40000</f>
+        <v>2.2018805960579563E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B29" s="48">
+        <v>20170611</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E29" s="41">
+        <v>1.0087848532557784</v>
+      </c>
+      <c r="F29" s="64">
+        <f t="shared" ref="F29" si="62">E29*D29-H28</f>
+        <v>-74.988097197230672</v>
+      </c>
+      <c r="G29" s="64">
+        <f t="shared" ref="G29" si="63">D29</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H29" s="64">
+        <f t="shared" ref="H29" si="64">E29*D29</f>
+        <v>42614.28993602952</v>
+      </c>
+      <c r="I29" s="64">
+        <f>H29-40000+880.75</f>
+        <v>3495.0399360295196</v>
+      </c>
+      <c r="J29" s="64">
+        <f>I29/40000</f>
+        <v>8.7375998400737995E-2</v>
+      </c>
+      <c r="K29" s="64">
+        <v>880.75223842318258</v>
+      </c>
+      <c r="L29" s="64">
+        <f>K29/40000</f>
+        <v>2.2018805960579563E-2</v>
+      </c>
+    </row>
     <row r="30" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/加米基金.xlsx
+++ b/加米基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="219">
   <si>
     <t>黄金基金</t>
   </si>
@@ -2348,7 +2348,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2713,6 +2713,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2777,24 +2780,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2811,6 +2796,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3274,174 +3277,174 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="141" t="s">
+      <c r="B17" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="141">
+      <c r="D17" s="142">
         <v>7000</v>
       </c>
-      <c r="E17" s="142">
+      <c r="E17" s="143">
         <v>7013.3</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="140">
+      <c r="G17" s="141">
         <v>7058.1</v>
       </c>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="142"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="143"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
     </row>
     <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="141">
+      <c r="D19" s="142">
         <v>10000</v>
       </c>
-      <c r="E19" s="142">
+      <c r="E19" s="143">
         <v>10623.79</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="142"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="143"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
     </row>
     <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="141" t="s">
+      <c r="C21" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="141">
+      <c r="D21" s="142">
         <v>10000</v>
       </c>
-      <c r="E21" s="142">
+      <c r="E21" s="143">
         <v>10065.91</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="141"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="142"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="140"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="141">
+      <c r="D23" s="142">
         <v>10000</v>
       </c>
-      <c r="E23" s="142">
+      <c r="E23" s="143">
         <v>10809.31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="141"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="142"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="143"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="141" t="s">
+      <c r="B25" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="141" t="s">
+      <c r="C25" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="141">
+      <c r="D25" s="142">
         <v>1000</v>
       </c>
-      <c r="E25" s="142">
+      <c r="E25" s="143">
         <v>1053.7</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="142"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="143"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="141" t="s">
+      <c r="B27" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="141" t="s">
+      <c r="C27" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="141">
+      <c r="D27" s="142">
         <v>22000</v>
       </c>
-      <c r="E27" s="142">
+      <c r="E27" s="143">
         <v>21825.21</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="142"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="143"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E29" s="5"/>
@@ -3479,13 +3482,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -3500,27 +3517,13 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3588,27 +3591,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="156" t="s">
+      <c r="C1" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
     </row>
     <row r="5" spans="3:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
@@ -3641,12 +3644,12 @@
     </row>
     <row r="7" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="161"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47" t="s">
@@ -3681,12 +3684,12 @@
     </row>
     <row r="11" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
@@ -3721,12 +3724,12 @@
     </row>
     <row r="15" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="161"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="47" t="s">
@@ -3768,13 +3771,13 @@
     </row>
     <row r="19" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="153" t="s">
+      <c r="C20" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="156"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="47" t="s">
@@ -3857,20 +3860,20 @@
   <sheetData>
     <row r="3" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="147" t="s">
+      <c r="D4" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="147" t="s">
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="150"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
@@ -3917,7 +3920,7 @@
       <c r="D6" s="29">
         <v>7013.3</v>
       </c>
-      <c r="E6" s="166">
+      <c r="E6" s="169">
         <f>SUM(D6:D9)</f>
         <v>28756.7</v>
       </c>
@@ -3925,7 +3928,7 @@
         <f>D6-C6</f>
         <v>13.300000000000182</v>
       </c>
-      <c r="G6" s="164">
+      <c r="G6" s="173">
         <f>F6+F7+F8+F9</f>
         <v>756.70000000000095</v>
       </c>
@@ -3940,15 +3943,15 @@
         <f>H6-D6</f>
         <v>44.800000000000182</v>
       </c>
-      <c r="K6" s="166">
+      <c r="K6" s="169">
         <f>J6+J7+J8+J9</f>
         <v>-382.68999999999915</v>
       </c>
-      <c r="L6" s="166">
+      <c r="L6" s="169">
         <f>SUM(H6:H9)</f>
         <v>28374.010000000002</v>
       </c>
-      <c r="M6" s="162">
+      <c r="M6" s="171">
         <f>SUM(I6:I9)</f>
         <v>374.01000000000181</v>
       </c>
@@ -3963,12 +3966,12 @@
       <c r="D7" s="25">
         <v>1053.7</v>
       </c>
-      <c r="E7" s="166"/>
+      <c r="E7" s="169"/>
       <c r="F7" s="28">
         <f>D7-C7</f>
         <v>53.700000000000045</v>
       </c>
-      <c r="G7" s="164"/>
+      <c r="G7" s="173"/>
       <c r="H7" s="25">
         <v>1078.76</v>
       </c>
@@ -3980,9 +3983,9 @@
         <f>H7-D7</f>
         <v>25.059999999999945</v>
       </c>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="162"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="171"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -3994,12 +3997,12 @@
       <c r="D8" s="25">
         <v>10065.91</v>
       </c>
-      <c r="E8" s="166"/>
+      <c r="E8" s="169"/>
       <c r="F8" s="28">
         <f>D8-C8</f>
         <v>65.909999999999854</v>
       </c>
-      <c r="G8" s="164"/>
+      <c r="G8" s="173"/>
       <c r="H8" s="25">
         <v>9985.2000000000007</v>
       </c>
@@ -4011,9 +4014,9 @@
         <f>H8-D8</f>
         <v>-80.709999999999127</v>
       </c>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="162"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="171"/>
     </row>
     <row r="9" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -4025,12 +4028,12 @@
       <c r="D9" s="26">
         <v>10623.79</v>
       </c>
-      <c r="E9" s="167"/>
+      <c r="E9" s="170"/>
       <c r="F9" s="31">
         <f>D9-C9</f>
         <v>623.79000000000087</v>
       </c>
-      <c r="G9" s="165"/>
+      <c r="G9" s="174"/>
       <c r="H9" s="26">
         <v>10251.950000000001</v>
       </c>
@@ -4042,9 +4045,9 @@
         <f>H9-D9</f>
         <v>-371.84000000000015</v>
       </c>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="163"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="172"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
@@ -4054,14 +4057,14 @@
     </row>
     <row r="12" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="147" t="s">
+      <c r="D13" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="150"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="25" t="s">
@@ -4098,15 +4101,15 @@
         <f>D15-D6</f>
         <v>207.89999999999964</v>
       </c>
-      <c r="G15" s="168">
+      <c r="G15" s="163">
         <f>F15+F16+F17+F18</f>
         <v>-873.43000000000166</v>
       </c>
-      <c r="H15" s="168">
+      <c r="H15" s="163">
         <f>SUM(D15:D18)</f>
         <v>27883.269999999997</v>
       </c>
-      <c r="I15" s="171">
+      <c r="I15" s="166">
         <f>SUM(E15:E18)</f>
         <v>-116.7300000000007</v>
       </c>
@@ -4126,9 +4129,9 @@
         <f>D16-D7</f>
         <v>-869.27</v>
       </c>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="172"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="167"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
@@ -4145,9 +4148,9 @@
         <f>D17-D8</f>
         <v>230.60000000000036</v>
       </c>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="172"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="167"/>
     </row>
     <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
@@ -4164,23 +4167,23 @@
         <f>D18-D9</f>
         <v>-442.66000000000167</v>
       </c>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="173"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="L6:L9"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="E6:E9"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="L6:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4189,10 +4192,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K249"/>
+  <dimension ref="C3:K257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="H251" sqref="H251"/>
+    <sheetView topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="D257" sqref="D257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4212,10 +4215,10 @@
   <sheetData>
     <row r="3" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="174">
+      <c r="D4" s="175">
         <v>20160622</v>
       </c>
-      <c r="E4" s="175"/>
+      <c r="E4" s="176"/>
     </row>
     <row r="5" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="29" t="s">
@@ -4317,10 +4320,10 @@
     </row>
     <row r="14" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="174">
+      <c r="D15" s="175">
         <v>20160713</v>
       </c>
-      <c r="E15" s="175"/>
+      <c r="E15" s="176"/>
     </row>
     <row r="16" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="29" t="s">
@@ -4425,10 +4428,10 @@
     </row>
     <row r="24" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="174">
+      <c r="D25" s="175">
         <v>20160808</v>
       </c>
-      <c r="E25" s="175"/>
+      <c r="E25" s="176"/>
     </row>
     <row r="26" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="29" t="s">
@@ -4558,10 +4561,10 @@
     </row>
     <row r="34" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="174">
+      <c r="D35" s="175">
         <v>20160825</v>
       </c>
-      <c r="E35" s="175"/>
+      <c r="E35" s="176"/>
     </row>
     <row r="36" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="29" t="s">
@@ -4773,10 +4776,10 @@
     </row>
     <row r="44" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="174">
+      <c r="D45" s="175">
         <v>20160906</v>
       </c>
-      <c r="E45" s="175"/>
+      <c r="E45" s="176"/>
     </row>
     <row r="46" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="29" t="s">
@@ -4960,10 +4963,10 @@
     </row>
     <row r="55" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="174">
+      <c r="D56" s="175">
         <v>20160921</v>
       </c>
-      <c r="E56" s="175"/>
+      <c r="E56" s="176"/>
     </row>
     <row r="57" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D57" s="105" t="s">
@@ -5124,10 +5127,10 @@
     </row>
     <row r="65" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D66" s="174">
+      <c r="D66" s="175">
         <v>20161017</v>
       </c>
-      <c r="E66" s="175"/>
+      <c r="E66" s="176"/>
     </row>
     <row r="67" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="105" t="s">
@@ -5289,10 +5292,10 @@
     </row>
     <row r="74" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D75" s="174">
+      <c r="D75" s="175">
         <v>20161020</v>
       </c>
-      <c r="E75" s="175"/>
+      <c r="E75" s="176"/>
     </row>
     <row r="76" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D76" s="105" t="s">
@@ -5450,10 +5453,10 @@
     </row>
     <row r="83" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D84" s="174">
+      <c r="D84" s="175">
         <v>201610207</v>
       </c>
-      <c r="E84" s="175"/>
+      <c r="E84" s="176"/>
     </row>
     <row r="85" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D85" s="105" t="s">
@@ -5611,10 +5614,10 @@
     </row>
     <row r="92" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D93" s="174">
+      <c r="D93" s="175">
         <v>20161031</v>
       </c>
-      <c r="E93" s="175"/>
+      <c r="E93" s="176"/>
     </row>
     <row r="94" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D94" s="105" t="s">
@@ -5772,10 +5775,10 @@
     </row>
     <row r="101" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="102" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D102" s="174">
+      <c r="D102" s="175">
         <v>20161103</v>
       </c>
-      <c r="E102" s="175"/>
+      <c r="E102" s="176"/>
     </row>
     <row r="103" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D103" s="105" t="s">
@@ -5933,10 +5936,10 @@
     </row>
     <row r="110" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="111" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D111" s="174">
+      <c r="D111" s="175">
         <v>20161103</v>
       </c>
-      <c r="E111" s="175"/>
+      <c r="E111" s="176"/>
     </row>
     <row r="112" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D112" s="105" t="s">
@@ -6097,10 +6100,10 @@
     </row>
     <row r="119" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="120" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D120" s="174">
+      <c r="D120" s="175">
         <v>20161108</v>
       </c>
-      <c r="E120" s="175"/>
+      <c r="E120" s="176"/>
     </row>
     <row r="121" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D121" s="105" t="s">
@@ -6261,10 +6264,10 @@
     </row>
     <row r="128" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="129" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D129" s="174">
+      <c r="D129" s="175">
         <v>20161108</v>
       </c>
-      <c r="E129" s="175"/>
+      <c r="E129" s="176"/>
     </row>
     <row r="130" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D130" s="105" t="s">
@@ -6415,10 +6418,10 @@
     </row>
     <row r="137" spans="3:10" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D138" s="174">
+      <c r="D138" s="175">
         <v>20161122</v>
       </c>
-      <c r="E138" s="175"/>
+      <c r="E138" s="176"/>
       <c r="F138" s="11" t="s">
         <v>199</v>
       </c>
@@ -6567,10 +6570,10 @@
       </c>
     </row>
     <row r="146" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D146" s="174">
+      <c r="D146" s="175">
         <v>20161122</v>
       </c>
-      <c r="E146" s="175"/>
+      <c r="E146" s="176"/>
       <c r="F146" s="11" t="s">
         <v>200</v>
       </c>
@@ -6719,10 +6722,10 @@
       </c>
     </row>
     <row r="154" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D154" s="174">
+      <c r="D154" s="175">
         <v>20161209</v>
       </c>
-      <c r="E154" s="175"/>
+      <c r="E154" s="176"/>
       <c r="F154" s="11" t="s">
         <v>200</v>
       </c>
@@ -6851,10 +6854,10 @@
       </c>
     </row>
     <row r="161" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D161" s="174">
+      <c r="D161" s="175">
         <v>20161209</v>
       </c>
-      <c r="E161" s="175"/>
+      <c r="E161" s="176"/>
       <c r="F161" s="11" t="s">
         <v>203</v>
       </c>
@@ -6987,10 +6990,10 @@
       </c>
     </row>
     <row r="168" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D168" s="174">
+      <c r="D168" s="175">
         <v>20161210</v>
       </c>
-      <c r="E168" s="175"/>
+      <c r="E168" s="176"/>
       <c r="F168" s="11" t="s">
         <v>204</v>
       </c>
@@ -7121,10 +7124,10 @@
       </c>
     </row>
     <row r="175" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D175" s="174">
+      <c r="D175" s="175">
         <v>20161215</v>
       </c>
-      <c r="E175" s="175"/>
+      <c r="E175" s="176"/>
       <c r="F175" s="11" t="s">
         <v>204</v>
       </c>
@@ -7274,10 +7277,10 @@
       </c>
     </row>
     <row r="182" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D182" s="174">
+      <c r="D182" s="175">
         <v>20170117</v>
       </c>
-      <c r="E182" s="175"/>
+      <c r="E182" s="176"/>
       <c r="F182" s="11" t="s">
         <v>204</v>
       </c>
@@ -7421,10 +7424,10 @@
     </row>
     <row r="189" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="190" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D190" s="174">
+      <c r="D190" s="175">
         <v>20170122</v>
       </c>
-      <c r="E190" s="175"/>
+      <c r="E190" s="176"/>
     </row>
     <row r="191" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D191" s="105" t="s">
@@ -7552,10 +7555,10 @@
     </row>
     <row r="197" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="198" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D198" s="174">
+      <c r="D198" s="175">
         <v>20170123</v>
       </c>
-      <c r="E198" s="175"/>
+      <c r="E198" s="176"/>
     </row>
     <row r="199" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D199" s="105" t="s">
@@ -7679,10 +7682,10 @@
       </c>
     </row>
     <row r="205" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D205" s="174">
+      <c r="D205" s="175">
         <v>20170123</v>
       </c>
-      <c r="E205" s="175"/>
+      <c r="E205" s="176"/>
       <c r="F205" s="11" t="s">
         <v>216</v>
       </c>
@@ -7809,10 +7812,10 @@
       </c>
     </row>
     <row r="212" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D212" s="174">
+      <c r="D212" s="175">
         <v>20170308</v>
       </c>
-      <c r="E212" s="175"/>
+      <c r="E212" s="176"/>
       <c r="F212" s="11" t="s">
         <v>216</v>
       </c>
@@ -7939,10 +7942,10 @@
       </c>
     </row>
     <row r="219" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D219" s="174">
+      <c r="D219" s="175">
         <v>20170316</v>
       </c>
-      <c r="E219" s="175"/>
+      <c r="E219" s="176"/>
       <c r="F219" s="11" t="s">
         <v>216</v>
       </c>
@@ -8070,10 +8073,10 @@
     </row>
     <row r="226" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="227" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D227" s="174">
+      <c r="D227" s="175">
         <v>20170417</v>
       </c>
-      <c r="E227" s="175"/>
+      <c r="E227" s="176"/>
       <c r="F227" s="11" t="s">
         <v>216</v>
       </c>
@@ -8202,10 +8205,10 @@
     </row>
     <row r="234" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="235" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D235" s="174">
+      <c r="D235" s="175">
         <v>20170604</v>
       </c>
-      <c r="E235" s="175"/>
+      <c r="E235" s="176"/>
       <c r="F235" s="11" t="s">
         <v>216</v>
       </c>
@@ -8337,10 +8340,10 @@
     </row>
     <row r="242" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="243" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D243" s="174">
+      <c r="D243" s="175">
         <v>20170611</v>
       </c>
-      <c r="E243" s="175"/>
+      <c r="E243" s="176"/>
     </row>
     <row r="244" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D244" s="105" t="s">
@@ -8464,21 +8467,138 @@
         <v>1</v>
       </c>
     </row>
+    <row r="250" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="251" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D251" s="175">
+        <v>20170808</v>
+      </c>
+      <c r="E251" s="176"/>
+    </row>
+    <row r="252" spans="3:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D252" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E252" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="F252" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G252" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H252" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="253" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C253" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D253" s="106">
+        <f>F253*G253</f>
+        <v>3311.8758759999996</v>
+      </c>
+      <c r="E253" s="107">
+        <f>D253/D257</f>
+        <v>3.8780961197136102E-2</v>
+      </c>
+      <c r="F253" s="11">
+        <f>4017.64+8860-10000</f>
+        <v>2877.6399999999994</v>
+      </c>
+      <c r="G253" s="9">
+        <v>1.1509</v>
+      </c>
+      <c r="H253" s="11">
+        <f>F253*G253</f>
+        <v>3311.8758759999996</v>
+      </c>
+    </row>
+    <row r="254" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C254" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D254" s="78">
+        <f>H254</f>
+        <v>19979.428395384675</v>
+      </c>
+      <c r="E254" s="53">
+        <f>D254/D257</f>
+        <v>0.2339524385431323</v>
+      </c>
+      <c r="F254" s="96">
+        <f>9859.33+(10000*1.085-16)/1.0232</f>
+        <v>20447.680273651291</v>
+      </c>
+      <c r="G254" s="9">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="H254" s="11">
+        <f t="shared" ref="H254:H255" si="26">F254*G254</f>
+        <v>19979.428395384675</v>
+      </c>
+    </row>
+    <row r="255" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C255" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D255" s="56">
+        <f>H255</f>
+        <v>723.2</v>
+      </c>
+      <c r="E255" s="53">
+        <f>D255/D257</f>
+        <v>8.4684306380595886E-3</v>
+      </c>
+      <c r="F255" s="11">
+        <v>800</v>
+      </c>
+      <c r="G255" s="9">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="H255" s="11">
+        <f t="shared" si="26"/>
+        <v>723.2</v>
+      </c>
+    </row>
+    <row r="256" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C256" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D256" s="56">
+        <v>61385.026162238901</v>
+      </c>
+      <c r="E256" s="56">
+        <f>D256/D257</f>
+        <v>0.71879816962167209</v>
+      </c>
+      <c r="F256" s="56">
+        <v>61385.026162238901</v>
+      </c>
+      <c r="G256" s="56">
+        <v>1</v>
+      </c>
+      <c r="H256" s="56">
+        <v>61385.026162238901</v>
+      </c>
+    </row>
+    <row r="257" spans="3:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C257" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D257" s="57">
+        <f>SUM(D253:D256)</f>
+        <v>85399.530433623571</v>
+      </c>
+      <c r="E257" s="54">
+        <f>D257/D257</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D45:E45"/>
+  <mergeCells count="30">
+    <mergeCell ref="D251:E251"/>
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="D235:E235"/>
     <mergeCell ref="D146:E146"/>
@@ -8495,6 +8615,19 @@
     <mergeCell ref="D182:E182"/>
     <mergeCell ref="D175:E175"/>
     <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D205:E205"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8927,10 +9060,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K77"/>
+  <dimension ref="B2:K80"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -10311,7 +10444,7 @@
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B74" s="89">
-        <v>20170604</v>
+        <v>20170611</v>
       </c>
       <c r="C74" s="89" t="s">
         <v>38</v>
@@ -10338,9 +10471,48 @@
         <v>61180.537423471142</v>
       </c>
     </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B75" s="89">
+        <v>20170811</v>
+      </c>
+      <c r="C75" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" s="89">
+        <f>61180.5374234711*(1+(3.9999)/365/2/100*61)</f>
+        <v>61385.026162238886</v>
+      </c>
+      <c r="F75" s="89">
+        <v>1</v>
+      </c>
+      <c r="G75" s="93">
+        <v>0</v>
+      </c>
+      <c r="H75" s="89">
+        <f>E75</f>
+        <v>61385.026162238886</v>
+      </c>
+      <c r="I75" s="89">
+        <f>H75</f>
+        <v>61385.026162238886</v>
+      </c>
+    </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.15">
       <c r="E77">
         <v>61139.797380129203</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C79">
+        <v>61180.537423471098</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E80" s="89">
+        <v>61385.026162238901</v>
       </c>
     </row>
   </sheetData>
@@ -10493,18 +10665,18 @@
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="143">
+      <c r="F4" s="144">
         <v>20160708</v>
       </c>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143">
+      <c r="G4" s="144"/>
+      <c r="H4" s="144">
         <v>20160712</v>
       </c>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143">
+      <c r="I4" s="144"/>
+      <c r="J4" s="144">
         <v>20160808</v>
       </c>
-      <c r="K4" s="143"/>
+      <c r="K4" s="144"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E5" s="9" t="s">
@@ -10562,10 +10734,10 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="143">
+      <c r="E8" s="144">
         <v>20160810</v>
       </c>
-      <c r="F8" s="143"/>
+      <c r="F8" s="144"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
@@ -10639,11 +10811,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="143">
+      <c r="C4" s="144">
         <v>201605</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
       <c r="F4" s="10"/>
       <c r="K4" s="9"/>
     </row>
@@ -10715,19 +10887,19 @@
     <row r="10" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="147">
+      <c r="C11" s="148">
         <v>20160608</v>
       </c>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="150"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="35"/>
@@ -10911,20 +11083,20 @@
     </row>
     <row r="18" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72"/>
-      <c r="C18" s="144">
+      <c r="C18" s="145">
         <v>20160708</v>
       </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="147"/>
     </row>
     <row r="19" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
@@ -11143,20 +11315,20 @@
     <row r="26" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="72"/>
-      <c r="C27" s="144">
+      <c r="C27" s="145">
         <v>20160808</v>
       </c>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="147"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
@@ -11361,21 +11533,21 @@
     <row r="34" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="72"/>
-      <c r="C35" s="144">
+      <c r="C35" s="145">
         <v>20160825</v>
       </c>
-      <c r="D35" s="145"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="145"/>
-      <c r="N35" s="145"/>
-      <c r="O35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="146"/>
+      <c r="M35" s="146"/>
+      <c r="N35" s="146"/>
+      <c r="O35" s="147"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
@@ -11594,21 +11766,21 @@
     <row r="41" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="72"/>
-      <c r="C42" s="144">
+      <c r="C42" s="145">
         <v>20160906</v>
       </c>
-      <c r="D42" s="145"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="145"/>
-      <c r="K42" s="145"/>
-      <c r="L42" s="145"/>
-      <c r="M42" s="145"/>
-      <c r="N42" s="145"/>
-      <c r="O42" s="146"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
+      <c r="K42" s="146"/>
+      <c r="L42" s="146"/>
+      <c r="M42" s="146"/>
+      <c r="N42" s="146"/>
+      <c r="O42" s="147"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
@@ -11828,21 +12000,21 @@
     <row r="49" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="72"/>
-      <c r="C50" s="144">
+      <c r="C50" s="145">
         <v>20160921</v>
       </c>
-      <c r="D50" s="145"/>
-      <c r="E50" s="145"/>
-      <c r="F50" s="145"/>
-      <c r="G50" s="145"/>
-      <c r="H50" s="145"/>
-      <c r="I50" s="145"/>
-      <c r="J50" s="145"/>
-      <c r="K50" s="145"/>
-      <c r="L50" s="145"/>
-      <c r="M50" s="145"/>
-      <c r="N50" s="145"/>
-      <c r="O50" s="146"/>
+      <c r="D50" s="146"/>
+      <c r="E50" s="146"/>
+      <c r="F50" s="146"/>
+      <c r="G50" s="146"/>
+      <c r="H50" s="146"/>
+      <c r="I50" s="146"/>
+      <c r="J50" s="146"/>
+      <c r="K50" s="146"/>
+      <c r="L50" s="146"/>
+      <c r="M50" s="146"/>
+      <c r="N50" s="146"/>
+      <c r="O50" s="147"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
@@ -12859,7 +13031,7 @@
   <dimension ref="A2:Q32"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -13915,7 +14087,7 @@
         <v>84486.893689747798</v>
       </c>
       <c r="D26">
-        <f>C26-K25</f>
+        <f t="shared" ref="D26:D31" si="72">C26-K25</f>
         <v>2744.8034618053061</v>
       </c>
       <c r="E26">
@@ -13942,7 +14114,7 @@
         <v>84486.893689747798</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L26" si="72">(F26-F25)*E26</f>
+        <f t="shared" ref="L26" si="73">(F26-F25)*E26</f>
         <v>-470.81940507525269</v>
       </c>
       <c r="M26">
@@ -13957,14 +14129,14 @@
         <v>85074.277277515183</v>
       </c>
       <c r="D27">
-        <f>C27-K26</f>
+        <f t="shared" si="72"/>
         <v>587.3835877673846</v>
       </c>
       <c r="E27">
         <v>84486.893689747798</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27" si="73">C27/E27</f>
+        <f t="shared" ref="F27" si="74">C27/E27</f>
         <v>1.00695236340354</v>
       </c>
       <c r="G27">
@@ -13984,7 +14156,7 @@
         <v>85074.277277515183</v>
       </c>
       <c r="L27">
-        <f t="shared" ref="L27" si="74">(F27-F26)*E27</f>
+        <f t="shared" ref="L27" si="75">(F27-F26)*E27</f>
         <v>587.38358776737687</v>
       </c>
       <c r="M27">
@@ -13999,14 +14171,14 @@
         <v>85451.913051606825</v>
       </c>
       <c r="D28">
-        <f>C28-K27</f>
+        <f t="shared" si="72"/>
         <v>377.63577409164282</v>
       </c>
       <c r="E28">
         <v>84486.893689747798</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28" si="75">C28/E28</f>
+        <f t="shared" ref="F28" si="76">C28/E28</f>
         <v>1.0114221190969899</v>
       </c>
       <c r="G28">
@@ -14041,14 +14213,14 @@
         <v>85655.116927020252</v>
       </c>
       <c r="D29">
-        <f>C29-K28</f>
+        <f t="shared" si="72"/>
         <v>203.20387541342643</v>
       </c>
       <c r="E29">
         <v>84486.893689747798</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29" si="76">C29/E29</f>
+        <f t="shared" ref="F29" si="77">C29/E29</f>
         <v>1.0138272717371097</v>
       </c>
       <c r="G29">
@@ -14083,14 +14255,14 @@
         <v>85379.075760138541</v>
       </c>
       <c r="D30">
-        <f>C30-K29</f>
+        <f t="shared" si="72"/>
         <v>-276.04116688171052</v>
       </c>
       <c r="E30">
         <v>84486.893689747798</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30" si="77">C30/E30</f>
+        <f t="shared" ref="F30" si="78">C30/E30</f>
         <v>1.0105600055988211</v>
       </c>
       <c r="G30">
@@ -14125,14 +14297,14 @@
         <v>85229.098652848785</v>
       </c>
       <c r="D31">
-        <f>C31-K30</f>
+        <f t="shared" si="72"/>
         <v>-149.97710728975653</v>
       </c>
       <c r="E31">
         <v>84486.893689747798</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31" si="78">C31/E31</f>
+        <f t="shared" ref="F31" si="79">C31/E31</f>
         <v>1.0087848532557784</v>
       </c>
       <c r="G31">
@@ -14159,13 +14331,46 @@
         <v>1180.3117948627814</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="23" x14ac:dyDescent="0.3">
-      <c r="D32" s="64">
-        <v>42243.189713341802</v>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <v>20170808</v>
+      </c>
+      <c r="C32">
+        <v>85399.530433623571</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32" si="80">C32-K31</f>
+        <v>170.4317807747866</v>
       </c>
       <c r="E32">
-        <f>E28-D32</f>
-        <v>42243.703976405995</v>
+        <v>84486.893689747798</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32" si="81">C32/E32</f>
+        <v>1.0108021102921259</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32" si="82">F32-1</f>
+        <v>1.0802110292125855E-2</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>85229.098652848785</v>
+      </c>
+      <c r="L32">
+        <f>(F32-F31)*E32</f>
+        <v>170.43178077478484</v>
+      </c>
+      <c r="M32">
+        <v>1180.3117948627814</v>
       </c>
     </row>
   </sheetData>
@@ -14349,10 +14554,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="J3" s="152" t="s">
+      <c r="J3" s="153" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="152"/>
+      <c r="K3" s="153"/>
     </row>
     <row r="4" spans="2:11" s="111" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
@@ -14384,7 +14589,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B5" s="150">
+      <c r="B5" s="151">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -14413,7 +14618,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="B6" s="151"/>
+      <c r="B6" s="152"/>
       <c r="C6" s="64" t="s">
         <v>147</v>
       </c>
@@ -15023,10 +15228,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -15085,7 +15290,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="39" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="150">
+      <c r="B5" s="151">
         <v>20160921</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -15118,7 +15323,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="151"/>
+      <c r="B6" s="152"/>
       <c r="C6" s="16" t="s">
         <v>159</v>
       </c>
@@ -15859,7 +16064,7 @@
         <v>3123.9379829646896</v>
       </c>
       <c r="J24" s="64">
-        <f>I24/40000</f>
+        <f t="shared" ref="J24:J30" si="50">I24/40000</f>
         <v>7.809844957411724E-2</v>
       </c>
       <c r="K24" s="64">
@@ -15867,7 +16072,7 @@
         <v>880.75223842318258</v>
       </c>
       <c r="L24" s="64">
-        <f>K24/40000</f>
+        <f t="shared" ref="L24:L30" si="51">K24/40000</f>
         <v>2.2018805960579563E-2</v>
       </c>
     </row>
@@ -15885,15 +16090,15 @@
         <v>1.00695236340354</v>
       </c>
       <c r="F25" s="64">
-        <f t="shared" ref="F25" si="50">E25*D25-H24</f>
+        <f t="shared" ref="F25" si="52">E25*D25-H24</f>
         <v>293.69000621183659</v>
       </c>
       <c r="G25" s="64">
-        <f t="shared" ref="G25" si="51">D25</f>
+        <f t="shared" ref="G25" si="53">D25</f>
         <v>42243.189713341802</v>
       </c>
       <c r="H25" s="64">
-        <f t="shared" ref="H25" si="52">E25*D25</f>
+        <f t="shared" ref="H25" si="54">E25*D25</f>
         <v>42536.879719553639</v>
       </c>
       <c r="I25" s="64">
@@ -15901,14 +16106,14 @@
         <v>3417.629719553639</v>
       </c>
       <c r="J25" s="64">
-        <f>I25/40000</f>
+        <f t="shared" si="50"/>
         <v>8.5440742988840981E-2</v>
       </c>
       <c r="K25" s="64">
         <v>880.75223842318258</v>
       </c>
       <c r="L25" s="64">
-        <f>K25/40000</f>
+        <f t="shared" si="51"/>
         <v>2.2018805960579563E-2</v>
       </c>
     </row>
@@ -15926,15 +16131,15 @@
         <v>1.0114221190969899</v>
       </c>
       <c r="F26" s="64">
-        <f t="shared" ref="F26" si="53">E26*D26-H25</f>
+        <f t="shared" ref="F26" si="55">E26*D26-H25</f>
         <v>188.81673773068906</v>
       </c>
       <c r="G26" s="64">
-        <f t="shared" ref="G26" si="54">D26</f>
+        <f t="shared" ref="G26" si="56">D26</f>
         <v>42243.189713341802</v>
       </c>
       <c r="H26" s="64">
-        <f t="shared" ref="H26" si="55">E26*D26</f>
+        <f t="shared" ref="H26" si="57">E26*D26</f>
         <v>42725.696457284328</v>
       </c>
       <c r="I26" s="64">
@@ -15942,14 +16147,14 @@
         <v>3606.4464572843281</v>
       </c>
       <c r="J26" s="64">
-        <f>I26/40000</f>
+        <f t="shared" si="50"/>
         <v>9.01611614321082E-2</v>
       </c>
       <c r="K26" s="64">
         <v>880.75223842318258</v>
       </c>
       <c r="L26" s="64">
-        <f>K26/40000</f>
+        <f t="shared" si="51"/>
         <v>2.2018805960579563E-2</v>
       </c>
     </row>
@@ -15967,15 +16172,15 @@
         <v>1.0138272717371097</v>
       </c>
       <c r="F27" s="64">
-        <f t="shared" ref="F27" si="56">E27*D27-H26</f>
+        <f t="shared" ref="F27" si="58">E27*D27-H26</f>
         <v>101.60131926612667</v>
       </c>
       <c r="G27" s="64">
-        <f t="shared" ref="G27" si="57">D27</f>
+        <f t="shared" ref="G27" si="59">D27</f>
         <v>42243.189713341802</v>
       </c>
       <c r="H27" s="64">
-        <f t="shared" ref="H27" si="58">E27*D27</f>
+        <f t="shared" ref="H27" si="60">E27*D27</f>
         <v>42827.297776550455</v>
       </c>
       <c r="I27" s="64">
@@ -15983,14 +16188,14 @@
         <v>3708.0477765504547</v>
       </c>
       <c r="J27" s="64">
-        <f>I27/40000</f>
+        <f t="shared" si="50"/>
         <v>9.2701194413761373E-2</v>
       </c>
       <c r="K27" s="64">
         <v>880.75223842318258</v>
       </c>
       <c r="L27" s="64">
-        <f>K27/40000</f>
+        <f t="shared" si="51"/>
         <v>2.2018805960579563E-2</v>
       </c>
     </row>
@@ -16008,15 +16213,15 @@
         <v>1.0105600055988211</v>
       </c>
       <c r="F28" s="64">
-        <f t="shared" ref="F28" si="59">E28*D28-H27</f>
+        <f t="shared" ref="F28" si="61">E28*D28-H27</f>
         <v>-138.01974332370446</v>
       </c>
       <c r="G28" s="64">
-        <f t="shared" ref="G28" si="60">D28</f>
+        <f t="shared" ref="G28" si="62">D28</f>
         <v>42243.189713341802</v>
       </c>
       <c r="H28" s="64">
-        <f t="shared" ref="H28" si="61">E28*D28</f>
+        <f t="shared" ref="H28" si="63">E28*D28</f>
         <v>42689.27803322675</v>
       </c>
       <c r="I28" s="64">
@@ -16024,14 +16229,14 @@
         <v>3570.0280332267503</v>
       </c>
       <c r="J28" s="64">
-        <f>I28/40000</f>
+        <f t="shared" si="50"/>
         <v>8.9250700830668758E-2</v>
       </c>
       <c r="K28" s="64">
         <v>880.75223842318258</v>
       </c>
       <c r="L28" s="64">
-        <f>K28/40000</f>
+        <f t="shared" si="51"/>
         <v>2.2018805960579563E-2</v>
       </c>
     </row>
@@ -16049,15 +16254,15 @@
         <v>1.0087848532557784</v>
       </c>
       <c r="F29" s="64">
-        <f t="shared" ref="F29" si="62">E29*D29-H28</f>
+        <f t="shared" ref="F29" si="64">E29*D29-H28</f>
         <v>-74.988097197230672</v>
       </c>
       <c r="G29" s="64">
-        <f t="shared" ref="G29" si="63">D29</f>
+        <f t="shared" ref="G29" si="65">D29</f>
         <v>42243.189713341802</v>
       </c>
       <c r="H29" s="64">
-        <f t="shared" ref="H29" si="64">E29*D29</f>
+        <f t="shared" ref="H29" si="66">E29*D29</f>
         <v>42614.28993602952</v>
       </c>
       <c r="I29" s="64">
@@ -16065,18 +16270,58 @@
         <v>3495.0399360295196</v>
       </c>
       <c r="J29" s="64">
-        <f>I29/40000</f>
+        <f t="shared" si="50"/>
         <v>8.7375998400737995E-2</v>
       </c>
       <c r="K29" s="64">
         <v>880.75223842318258</v>
       </c>
       <c r="L29" s="64">
-        <f>K29/40000</f>
+        <f t="shared" si="51"/>
         <v>2.2018805960579563E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:12" s="110" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="B30" s="48">
+        <v>20170808</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="64">
+        <v>42243.189713341802</v>
+      </c>
+      <c r="E30" s="41">
+        <v>1.0108021102921259</v>
+      </c>
+      <c r="F30" s="64">
+        <f t="shared" ref="F30" si="67">E30*D30-H29</f>
+        <v>85.215371686994331</v>
+      </c>
+      <c r="G30" s="64">
+        <f t="shared" ref="G30" si="68">D30</f>
+        <v>42243.189713341802</v>
+      </c>
+      <c r="H30" s="64">
+        <f t="shared" ref="H30" si="69">E30*D30</f>
+        <v>42699.505307716514</v>
+      </c>
+      <c r="I30" s="64">
+        <f>H30-40000+880.75</f>
+        <v>3580.2553077165139</v>
+      </c>
+      <c r="J30" s="64">
+        <f t="shared" si="50"/>
+        <v>8.9506382692912848E-2</v>
+      </c>
+      <c r="K30" s="64">
+        <v>880.75223842318258</v>
+      </c>
+      <c r="L30" s="64">
+        <f t="shared" si="51"/>
+        <v>2.2018805960579563E-2</v>
+      </c>
+    </row>
     <row r="31" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" s="110" customFormat="1" x14ac:dyDescent="0.15"/>
